--- a/Meta_Data.xlsx
+++ b/Meta_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harishneelam/Desktop/Quantgen/MetaData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harishneelam/Desktop/Quantgen/GPDatasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A6074C-3DDA-304A-9217-DB0EDFAAC218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E8C694-2258-8F43-AF16-9AE3DA5E8CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="926">
   <si>
     <t>Folder</t>
   </si>
@@ -2876,18 +2876,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2910,17 +2902,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3217,8 +3206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="E105" workbookViewId="0">
+      <selection activeCell="O125" sqref="O125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5527,7 +5516,7 @@
       <c r="A47" t="s">
         <v>378</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
         <v>924</v>
       </c>
       <c r="C47" t="s">
@@ -5545,7 +5534,7 @@
       <c r="G47" t="s">
         <v>383</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" t="s">
         <v>925</v>
       </c>
       <c r="I47" t="b">
@@ -8966,6 +8955,9 @@
       <c r="N115">
         <v>14235</v>
       </c>
+      <c r="O115" t="s">
+        <v>64</v>
+      </c>
       <c r="P115" t="s">
         <v>854</v>
       </c>
@@ -9013,6 +9005,9 @@
       <c r="N116">
         <v>6707</v>
       </c>
+      <c r="O116" t="s">
+        <v>64</v>
+      </c>
       <c r="P116" t="s">
         <v>863</v>
       </c>
@@ -9060,6 +9055,9 @@
       <c r="N117">
         <v>12638</v>
       </c>
+      <c r="O117" t="s">
+        <v>64</v>
+      </c>
       <c r="P117" t="s">
         <v>872</v>
       </c>
@@ -9107,6 +9105,9 @@
       <c r="N118">
         <v>61967</v>
       </c>
+      <c r="O118" t="s">
+        <v>64</v>
+      </c>
       <c r="P118" t="s">
         <v>881</v>
       </c>
@@ -9154,6 +9155,9 @@
       <c r="N119">
         <v>5596351</v>
       </c>
+      <c r="O119" t="s">
+        <v>64</v>
+      </c>
       <c r="P119" t="s">
         <v>888</v>
       </c>
@@ -9201,6 +9205,9 @@
       <c r="N120">
         <v>2178204</v>
       </c>
+      <c r="O120" t="s">
+        <v>64</v>
+      </c>
       <c r="P120" t="s">
         <v>897</v>
       </c>
@@ -9248,6 +9255,9 @@
       <c r="N121">
         <v>1324</v>
       </c>
+      <c r="O121" t="s">
+        <v>64</v>
+      </c>
       <c r="P121" t="s">
         <v>906</v>
       </c>
@@ -9295,6 +9305,9 @@
       <c r="N122">
         <v>1935747</v>
       </c>
+      <c r="O122" t="s">
+        <v>64</v>
+      </c>
       <c r="P122" t="s">
         <v>915</v>
       </c>
@@ -9342,14 +9355,14 @@
       <c r="N123">
         <v>144299</v>
       </c>
+      <c r="O123" t="s">
+        <v>64</v>
+      </c>
       <c r="P123" t="s">
         <v>922</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" xr:uid="{31BE7DC8-E502-754E-81D1-97153C94EE09}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/Meta_Data.xlsx
+++ b/Meta_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harishneelam/Desktop/Quantgen/GPDatasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E8C694-2258-8F43-AF16-9AE3DA5E8CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8617EF-A5DC-8746-90D0-C9517F3D5C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="934">
   <si>
     <t>Folder</t>
   </si>
@@ -584,6 +584,9 @@
     <t>BGLR: Bayesian Generalized Linear Regression</t>
   </si>
   <si>
+    <t>The BGLR (Bayesian Generalized Linear Regression) function fits various types of parametric and semi-parametric Bayesian regressions to continuos (censored or not), binary and ordinal outcomes</t>
+  </si>
+  <si>
     <t>https://CRAN.R-project.org/package=BGLR</t>
   </si>
   <si>
@@ -808,6 +811,9 @@
     <t>00030_MultiGenerationGenomicPredictionMaize</t>
   </si>
   <si>
+    <t>https://doi.org/10.5061/dryad.qjq2bvqgz</t>
+  </si>
+  <si>
     <t>https://www.nature.com/articles/s41437-021-00474-1</t>
   </si>
   <si>
@@ -1180,6 +1186,9 @@
     <t>00046_GrowthAndWoodQualityInEucalyptus</t>
   </si>
   <si>
+    <t>https://doi.org/10.6084/m9.figshare.14806449</t>
+  </si>
+  <si>
     <t>https://link.springer.com/article/10.1007/s11295-021-01516-9</t>
   </si>
   <si>
@@ -1194,6 +1203,9 @@
   </si>
   <si>
     <t>Camden White Gum</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/Genomic_relationships-based_genetic_parameters_and_prospects_of_genomic_selection_for_growth_and_wood_quality_traits_in_Eucalyptus_benthamii_-_SNPdata/14806449</t>
   </si>
   <si>
     <t>Two data links, one for Genotyoe data and the other for Phenotype data.</t>
@@ -1297,7 +1309,7 @@
     <t>00051_PredictionOfQuantitativeTraitCotton</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fpls.2020.583277</t>
+    <t>https://doi.org/10.3389/fpls.2020.583277.s013</t>
   </si>
   <si>
     <t>https://www.frontiersin.org/journals/plant-science/articles/10.3389/fpls.2020.583277/full</t>
@@ -2218,12 +2230,6 @@
     <t>climate change; genomic variation; adaptive genetics; single-nucleotide polymorphisms (SNPs); environmental association analysis; tree adaptation; Corymbia calophylla; adaptive management practices</t>
   </si>
   <si>
-    <t>00090_InferencesSNPsPatternsMicrosatellites</t>
-  </si>
-  <si>
-    <t>population genetics; SNPs; microsatellites; gopher tortoise; genetic diversity; next-generation sequencing; FST; endangered species</t>
-  </si>
-  <si>
     <t>00091_PumpkinHybridPerformance</t>
   </si>
   <si>
@@ -2863,13 +2869,37 @@
     <t>sorghum-genetics; genomics-assisted-breeding; local-adaptation; food-security; genetic-diversity; single-nucleotide-polymorphisms; West-Africa; agroclimatic-zones</t>
   </si>
   <si>
-    <t>The BGLR (Bayesian Generalized Linear Regression) function fits various types of parametric and semi-parametric Bayesian regressions to continuos (censored or not), binary and ordinal outcomes</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.14806449</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/Genomic_relationships-based_genetic_parameters_and_prospects_of_genomic_selection_for_growth_and_wood_quality_traits_in_Eucalyptus_benthamii_-_SNPdata/14806449</t>
+    <t>https://doi.org/10.5061/dryad.8b0s04t</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1186/s12864-018-4615-z</t>
+  </si>
+  <si>
+    <t>New insights into the phylogenetics and population structure of the prairie falcon (Falco mexicanus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Management requires a robust understanding of between- and within-species genetic variability, however such data are still lacking in many species. For example, although multiple population genetics studies of the peregrine falcon (Falco peregrinus) have been conducted, no similar studies have been done of the closely-related prairie falcon (F. mexicanus) and it is unclear how much genetic variation and population structure exists across the species’ range. Furthermore, the phylogenetic relationship of F. mexicanus relative to other falcon species is contested. We utilized a genomics approach (i.e., genome sequencing and assembly followed by single nucleotide polymorphism genotyping) to rapidly address these gaps in knowledge.
+Results
+We sequenced the genome of a single female prairie falcon and generated a 1.17 Gb (gigabases) draft genome assembly. We generated maximum likelihood phylogenetic trees using complete mitochondrial genomes as well as nuclear protein-coding genes. This process provided evidence that F. mexicanus is an outgroup to the clade that includes the peregrine falcon and members of the subgenus Hierofalco. We annotated &gt; 16,000 genes and almost 600,000 high-quality single nucleotide polymorphisms (SNPs) in the nuclear genome, providing the raw material for a SNP assay design featuring &gt; 140 gene-associated markers and a molecular-sexing marker. We subsequently genotyped ~ 100 individuals from California (including the San Francisco East Bay Area, Pinnacles National Park and the Mojave Desert) and Idaho (Snake River Birds of Prey National Conservation Area). We tested for population structure and found evidence that individuals sampled in California and Idaho represent a single panmictic population.
+Conclusions
+Our study illustrates how genomic resources can rapidly shed light on genetic variability in understudied species and resolve phylogenetic relationships. Furthermore, we found evidence of a single, randomly mating population of prairie falcons across our sampling locations. Prairie falcons are highly mobile and relatively rare long-distance dispersal events may promote gene flow throughout the range. As such, California’s prairie falcons might be managed as a single population, indicating that management actions undertaken to benefit the species at the local level have the potential to influence the species as a whole.
+</t>
+  </si>
+  <si>
+    <t>Falco mexicanus</t>
+  </si>
+  <si>
+    <t>Prairie falcon</t>
+  </si>
+  <si>
+    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.8b0s04t</t>
+  </si>
+  <si>
+    <t>genomics; population genetics; prairie falcon; phylogenetic analysis; single nucleotide polymorphisms; conservation biology; gene flow; wildlife management</t>
+  </si>
+  <si>
+    <t>00090_PhylogeneticsPopulationStructurePrairiefalcon</t>
   </si>
 </sst>
 </file>
@@ -2905,9 +2935,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3206,8 +3235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E105" workbookViewId="0">
-      <selection activeCell="O125" sqref="O125"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:XFD91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4166,7 +4195,7 @@
       <c r="A20" t="s">
         <v>179</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>180</v>
       </c>
       <c r="C20" t="s">
@@ -4176,7 +4205,7 @@
         <v>182</v>
       </c>
       <c r="E20" t="s">
-        <v>923</v>
+        <v>183</v>
       </c>
       <c r="F20" t="s">
         <v>175</v>
@@ -4185,7 +4214,7 @@
         <v>176</v>
       </c>
       <c r="H20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -4209,33 +4238,33 @@
         <v>64</v>
       </c>
       <c r="P20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -4259,33 +4288,33 @@
         <v>64</v>
       </c>
       <c r="P21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -4306,36 +4335,36 @@
         <v>50896</v>
       </c>
       <c r="O22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -4356,36 +4385,36 @@
         <v>36901</v>
       </c>
       <c r="O23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -4406,36 +4435,36 @@
         <v>31260</v>
       </c>
       <c r="O24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -4459,33 +4488,33 @@
         <v>64</v>
       </c>
       <c r="P25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -4509,33 +4538,33 @@
         <v>64</v>
       </c>
       <c r="P26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G27" t="s">
         <v>176</v>
       </c>
       <c r="H27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -4556,36 +4585,36 @@
         <v>44536</v>
       </c>
       <c r="O27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E28" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G28" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H28" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -4609,33 +4638,33 @@
         <v>64</v>
       </c>
       <c r="P28" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D29" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E29" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F29" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H29" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -4659,33 +4688,33 @@
         <v>64</v>
       </c>
       <c r="P29" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D30" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E30" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F30" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H30" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -4709,33 +4738,33 @@
         <v>64</v>
       </c>
       <c r="P30" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="C31" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D31" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E31" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H31" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -4759,24 +4788,24 @@
         <v>64</v>
       </c>
       <c r="P31" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C32" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D32" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E32" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F32" t="s">
         <v>175</v>
@@ -4785,7 +4814,7 @@
         <v>176</v>
       </c>
       <c r="H32" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -4806,36 +4835,36 @@
         <v>11155</v>
       </c>
       <c r="O32" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P32" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C33" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D33" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E33" t="s">
+        <v>275</v>
+      </c>
+      <c r="F33" t="s">
+        <v>191</v>
+      </c>
+      <c r="G33" t="s">
+        <v>192</v>
+      </c>
+      <c r="H33" t="s">
         <v>273</v>
-      </c>
-      <c r="F33" t="s">
-        <v>190</v>
-      </c>
-      <c r="G33" t="s">
-        <v>191</v>
-      </c>
-      <c r="H33" t="s">
-        <v>271</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -4859,33 +4888,33 @@
         <v>64</v>
       </c>
       <c r="P33" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C34" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D34" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E34" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F34" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G34" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H34" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -4906,36 +4935,36 @@
         <v>3754</v>
       </c>
       <c r="O34" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P34" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B35" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C35" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D35" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E35" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F35" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G35" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H35" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -4956,36 +4985,36 @@
         <v>2957</v>
       </c>
       <c r="O35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P35" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C36" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D36" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E36" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F36" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G36" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H36" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -5006,27 +5035,27 @@
         <v>3823</v>
       </c>
       <c r="O36" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P36" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C37" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D37" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E37" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F37" t="s">
         <v>175</v>
@@ -5035,7 +5064,7 @@
         <v>176</v>
       </c>
       <c r="H37" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -5059,33 +5088,33 @@
         <v>64</v>
       </c>
       <c r="P37" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C38" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D38" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E38" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F38" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G38" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H38" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -5109,33 +5138,33 @@
         <v>64</v>
       </c>
       <c r="P38" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B39" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C39" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D39" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E39" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F39" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G39" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H39" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -5159,33 +5188,33 @@
         <v>64</v>
       </c>
       <c r="P39" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B40" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C40" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D40" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E40" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F40" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G40" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H40" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -5206,36 +5235,36 @@
         <v>5337</v>
       </c>
       <c r="O40" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P40" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C41" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D41" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E41" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F41" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G41" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H41" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -5259,33 +5288,33 @@
         <v>64</v>
       </c>
       <c r="P41" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B42" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C42" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D42" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E42" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F42" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G42" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H42" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
@@ -5309,33 +5338,33 @@
         <v>64</v>
       </c>
       <c r="P42" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B43" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C43" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D43" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E43" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F43" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G43" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H43" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -5359,33 +5388,33 @@
         <v>64</v>
       </c>
       <c r="P43" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B44" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C44" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D44" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E44" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F44" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G44" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H44" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -5409,33 +5438,33 @@
         <v>64</v>
       </c>
       <c r="P44" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B45" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C45" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D45" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E45" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F45" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G45" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H45" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
@@ -5459,33 +5488,33 @@
         <v>64</v>
       </c>
       <c r="P45" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B46" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C46" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D46" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E46" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F46" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G46" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H46" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
@@ -5509,33 +5538,33 @@
         <v>64</v>
       </c>
       <c r="P46" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B47" t="s">
-        <v>924</v>
+        <v>381</v>
       </c>
       <c r="C47" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D47" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E47" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F47" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G47" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H47" t="s">
-        <v>925</v>
+        <v>387</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -5556,36 +5585,36 @@
         <v>60728</v>
       </c>
       <c r="O47" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="P47" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B48" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C48" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D48" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E48" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F48" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G48" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H48" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
@@ -5609,33 +5638,33 @@
         <v>64</v>
       </c>
       <c r="P48" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B49" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C49" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D49" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="E49" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F49" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G49" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H49" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
@@ -5659,33 +5688,33 @@
         <v>64</v>
       </c>
       <c r="P49" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B50" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C50" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D50" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E50" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F50" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G50" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H50" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
@@ -5709,33 +5738,33 @@
         <v>64</v>
       </c>
       <c r="P50" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>415</v>
+      </c>
+      <c r="B51" t="s">
+        <v>409</v>
+      </c>
+      <c r="C51" t="s">
+        <v>410</v>
+      </c>
+      <c r="D51" t="s">
         <v>411</v>
       </c>
-      <c r="B51" t="s">
-        <v>405</v>
-      </c>
-      <c r="C51" t="s">
-        <v>406</v>
-      </c>
-      <c r="D51" t="s">
-        <v>407</v>
-      </c>
       <c r="E51" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F51" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="G51" t="s">
+        <v>417</v>
+      </c>
+      <c r="H51" t="s">
         <v>413</v>
-      </c>
-      <c r="H51" t="s">
-        <v>409</v>
       </c>
       <c r="I51" t="b">
         <v>0</v>
@@ -5759,33 +5788,33 @@
         <v>64</v>
       </c>
       <c r="P51" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B52" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C52" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D52" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E52" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F52" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="G52" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H52" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
@@ -5809,33 +5838,33 @@
         <v>64</v>
       </c>
       <c r="P52" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B53" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C53" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D53" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="E53" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F53" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G53" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H53" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="I53" t="b">
         <v>0</v>
@@ -5859,33 +5888,33 @@
         <v>64</v>
       </c>
       <c r="P53" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B54" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C54" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D54" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E54" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F54" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="G54" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H54" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
@@ -5909,33 +5938,33 @@
         <v>64</v>
       </c>
       <c r="P54" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B55" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C55" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D55" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="E55" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="F55" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="G55" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H55" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I55" t="b">
         <v>0</v>
@@ -5959,24 +5988,24 @@
         <v>64</v>
       </c>
       <c r="P55" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B56" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C56" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D56" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E56" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F56" t="s">
         <v>157</v>
@@ -5985,7 +6014,7 @@
         <v>158</v>
       </c>
       <c r="H56" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="I56" t="b">
         <v>0</v>
@@ -6006,36 +6035,36 @@
         <v>23388</v>
       </c>
       <c r="O56" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="P56" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B57" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C57" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D57" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E57" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F57" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="G57" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="H57" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
@@ -6059,33 +6088,33 @@
         <v>64</v>
       </c>
       <c r="P57" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B58" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C58" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D58" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E58" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="F58" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="G58" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="H58" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
@@ -6109,33 +6138,33 @@
         <v>64</v>
       </c>
       <c r="P58" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B59" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C59" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D59" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E59" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="F59" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G59" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="H59" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
@@ -6156,36 +6185,36 @@
         <v>55617</v>
       </c>
       <c r="O59" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="P59" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B60" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C60" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D60" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="E60" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="F60" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G60" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="H60" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="I60" t="b">
         <v>0</v>
@@ -6209,33 +6238,33 @@
         <v>64</v>
       </c>
       <c r="P60" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B61" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C61" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D61" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="E61" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="F61" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="G61" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="H61" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
@@ -6259,33 +6288,33 @@
         <v>64</v>
       </c>
       <c r="P61" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B62" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C62" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D62" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E62" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F62" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="G62" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H62" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
@@ -6309,33 +6338,33 @@
         <v>64</v>
       </c>
       <c r="P62" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>516</v>
+      </c>
+      <c r="B63" t="s">
+        <v>508</v>
+      </c>
+      <c r="C63" t="s">
+        <v>509</v>
+      </c>
+      <c r="D63" t="s">
+        <v>510</v>
+      </c>
+      <c r="E63" t="s">
+        <v>511</v>
+      </c>
+      <c r="F63" t="s">
         <v>512</v>
       </c>
-      <c r="B63" t="s">
-        <v>504</v>
-      </c>
-      <c r="C63" t="s">
-        <v>505</v>
-      </c>
-      <c r="D63" t="s">
-        <v>506</v>
-      </c>
-      <c r="E63" t="s">
-        <v>507</v>
-      </c>
-      <c r="F63" t="s">
-        <v>508</v>
-      </c>
       <c r="G63" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H63" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
@@ -6359,33 +6388,33 @@
         <v>64</v>
       </c>
       <c r="P63" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>518</v>
+      </c>
+      <c r="B64" t="s">
+        <v>508</v>
+      </c>
+      <c r="C64" t="s">
+        <v>509</v>
+      </c>
+      <c r="D64" t="s">
+        <v>510</v>
+      </c>
+      <c r="E64" t="s">
+        <v>511</v>
+      </c>
+      <c r="F64" t="s">
+        <v>512</v>
+      </c>
+      <c r="G64" t="s">
+        <v>513</v>
+      </c>
+      <c r="H64" t="s">
         <v>514</v>
-      </c>
-      <c r="B64" t="s">
-        <v>504</v>
-      </c>
-      <c r="C64" t="s">
-        <v>505</v>
-      </c>
-      <c r="D64" t="s">
-        <v>506</v>
-      </c>
-      <c r="E64" t="s">
-        <v>507</v>
-      </c>
-      <c r="F64" t="s">
-        <v>508</v>
-      </c>
-      <c r="G64" t="s">
-        <v>509</v>
-      </c>
-      <c r="H64" t="s">
-        <v>510</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
@@ -6409,33 +6438,33 @@
         <v>64</v>
       </c>
       <c r="P64" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B65" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C65" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D65" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="E65" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="F65" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="G65" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H65" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
@@ -6459,33 +6488,33 @@
         <v>64</v>
       </c>
       <c r="P65" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B66" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C66" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D66" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="E66" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="F66" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G66" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="H66" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="I66" t="b">
         <v>0</v>
@@ -6509,33 +6538,33 @@
         <v>64</v>
       </c>
       <c r="P66" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B67" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C67" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D67" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="E67" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="F67" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="G67" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="H67" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="I67" t="b">
         <v>0</v>
@@ -6559,33 +6588,33 @@
         <v>64</v>
       </c>
       <c r="P67" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B68" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C68" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D68" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="E68" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="F68" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="G68" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="H68" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="I68" t="b">
         <v>0</v>
@@ -6609,33 +6638,33 @@
         <v>64</v>
       </c>
       <c r="P68" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B69" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C69" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D69" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E69" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="F69" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G69" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="H69" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="I69" t="b">
         <v>0</v>
@@ -6656,36 +6685,36 @@
         <v>17663</v>
       </c>
       <c r="O69" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="P69" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B70" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C70" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D70" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="E70" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="F70" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="G70" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="H70" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I70" t="b">
         <v>0</v>
@@ -6709,33 +6738,33 @@
         <v>64</v>
       </c>
       <c r="P70" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>575</v>
+      </c>
+      <c r="B71" t="s">
+        <v>576</v>
+      </c>
+      <c r="C71" t="s">
+        <v>577</v>
+      </c>
+      <c r="D71" t="s">
+        <v>578</v>
+      </c>
+      <c r="E71" t="s">
+        <v>579</v>
+      </c>
+      <c r="F71" t="s">
         <v>571</v>
       </c>
-      <c r="B71" t="s">
-        <v>572</v>
-      </c>
-      <c r="C71" t="s">
-        <v>573</v>
-      </c>
-      <c r="D71" t="s">
-        <v>574</v>
-      </c>
-      <c r="E71" t="s">
-        <v>575</v>
-      </c>
-      <c r="F71" t="s">
-        <v>567</v>
-      </c>
       <c r="G71" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="H71" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="I71" t="b">
         <v>0</v>
@@ -6756,36 +6785,36 @@
         <v>52843</v>
       </c>
       <c r="O71" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="P71" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B72" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C72" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D72" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="E72" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="F72" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="G72" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="H72" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="I72" t="b">
         <v>0</v>
@@ -6806,36 +6835,36 @@
         <v>292270</v>
       </c>
       <c r="O72" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="P72" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B73" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C73" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="D73" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="E73" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F73" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="G73" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="H73" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="I73" t="b">
         <v>0</v>
@@ -6859,33 +6888,33 @@
         <v>64</v>
       </c>
       <c r="P73" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="B74" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C74" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="D74" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="E74" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="F74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G74" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H74" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="I74" t="b">
         <v>0</v>
@@ -6909,33 +6938,33 @@
         <v>64</v>
       </c>
       <c r="P74" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B75" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C75" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="D75" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E75" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="F75" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G75" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H75" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="I75" t="b">
         <v>0</v>
@@ -6956,36 +6985,36 @@
         <v>73802</v>
       </c>
       <c r="O75" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="P75" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>616</v>
+      </c>
+      <c r="B76" t="s">
+        <v>617</v>
+      </c>
+      <c r="C76" t="s">
+        <v>610</v>
+      </c>
+      <c r="D76" t="s">
+        <v>611</v>
+      </c>
+      <c r="E76" t="s">
         <v>612</v>
       </c>
-      <c r="B76" t="s">
-        <v>613</v>
-      </c>
-      <c r="C76" t="s">
-        <v>606</v>
-      </c>
-      <c r="D76" t="s">
-        <v>607</v>
-      </c>
-      <c r="E76" t="s">
-        <v>608</v>
-      </c>
       <c r="F76" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G76" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H76" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="I76" t="b">
         <v>0</v>
@@ -7006,36 +7035,36 @@
         <v>56110</v>
       </c>
       <c r="O76" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="P76" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="B77" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C77" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="D77" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="E77" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="F77" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G77" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H77" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="I77" t="b">
         <v>0</v>
@@ -7056,36 +7085,36 @@
         <v>4549828</v>
       </c>
       <c r="O77" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="P77" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="B78" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C78" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="D78" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E78" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="F78" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G78" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H78" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="I78" t="b">
         <v>0</v>
@@ -7109,33 +7138,33 @@
         <v>64</v>
       </c>
       <c r="P78" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>636</v>
+      </c>
+      <c r="B79" t="s">
+        <v>630</v>
+      </c>
+      <c r="C79" t="s">
+        <v>631</v>
+      </c>
+      <c r="D79" t="s">
         <v>632</v>
       </c>
-      <c r="B79" t="s">
-        <v>626</v>
-      </c>
-      <c r="C79" t="s">
-        <v>627</v>
-      </c>
-      <c r="D79" t="s">
-        <v>628</v>
-      </c>
       <c r="E79" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="F79" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G79" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H79" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="I79" t="b">
         <v>0</v>
@@ -7159,33 +7188,33 @@
         <v>64</v>
       </c>
       <c r="P79" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>638</v>
+      </c>
+      <c r="B80" t="s">
+        <v>630</v>
+      </c>
+      <c r="C80" t="s">
+        <v>631</v>
+      </c>
+      <c r="D80" t="s">
+        <v>632</v>
+      </c>
+      <c r="E80" t="s">
+        <v>633</v>
+      </c>
+      <c r="F80" t="s">
+        <v>191</v>
+      </c>
+      <c r="G80" t="s">
+        <v>192</v>
+      </c>
+      <c r="H80" t="s">
         <v>634</v>
-      </c>
-      <c r="B80" t="s">
-        <v>626</v>
-      </c>
-      <c r="C80" t="s">
-        <v>627</v>
-      </c>
-      <c r="D80" t="s">
-        <v>628</v>
-      </c>
-      <c r="E80" t="s">
-        <v>629</v>
-      </c>
-      <c r="F80" t="s">
-        <v>190</v>
-      </c>
-      <c r="G80" t="s">
-        <v>191</v>
-      </c>
-      <c r="H80" t="s">
-        <v>630</v>
       </c>
       <c r="I80" t="b">
         <v>0</v>
@@ -7209,33 +7238,33 @@
         <v>64</v>
       </c>
       <c r="P80" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B81" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C81" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="D81" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E81" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="F81" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G81" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H81" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="I81" t="b">
         <v>0</v>
@@ -7259,33 +7288,33 @@
         <v>64</v>
       </c>
       <c r="P81" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B82" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C82" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D82" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="E82" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="F82" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="G82" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="H82" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I82" t="b">
         <v>0</v>
@@ -7309,33 +7338,33 @@
         <v>64</v>
       </c>
       <c r="P82" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="B83" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="C83" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D83" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="E83" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="F83" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="G83" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="H83" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="I83" t="b">
         <v>0</v>
@@ -7359,33 +7388,33 @@
         <v>64</v>
       </c>
       <c r="P83" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B84" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C84" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="D84" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="E84" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="F84" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="G84" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="H84" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="I84" t="b">
         <v>0</v>
@@ -7409,33 +7438,33 @@
         <v>64</v>
       </c>
       <c r="P84" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B85" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C85" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="D85" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="E85" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="F85" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="G85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H85" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="I85" t="b">
         <v>0</v>
@@ -7456,36 +7485,36 @@
         <v>8336</v>
       </c>
       <c r="O85" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="P85" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>678</v>
+      </c>
+      <c r="B86" t="s">
+        <v>679</v>
+      </c>
+      <c r="C86" t="s">
+        <v>680</v>
+      </c>
+      <c r="D86" t="s">
+        <v>681</v>
+      </c>
+      <c r="E86" t="s">
+        <v>682</v>
+      </c>
+      <c r="F86" t="s">
         <v>674</v>
       </c>
-      <c r="B86" t="s">
-        <v>675</v>
-      </c>
-      <c r="C86" t="s">
-        <v>676</v>
-      </c>
-      <c r="D86" t="s">
-        <v>677</v>
-      </c>
-      <c r="E86" t="s">
-        <v>678</v>
-      </c>
-      <c r="F86" t="s">
-        <v>670</v>
-      </c>
       <c r="G86" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H86" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="I86" t="b">
         <v>0</v>
@@ -7509,33 +7538,33 @@
         <v>64</v>
       </c>
       <c r="P86" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B87" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C87" t="s">
         <v>64</v>
       </c>
       <c r="D87" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="E87" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="F87" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="G87" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="H87" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="I87" t="b">
         <v>0</v>
@@ -7556,36 +7585,36 @@
         <v>46177</v>
       </c>
       <c r="O87" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="P87" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B88" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C88" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="D88" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E88" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="F88" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G88" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="H88" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="I88" t="b">
         <v>0</v>
@@ -7609,33 +7638,33 @@
         <v>64</v>
       </c>
       <c r="P88" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="B89" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C89" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="D89" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="E89" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="F89" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="G89" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="H89" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="I89" t="b">
         <v>0</v>
@@ -7659,33 +7688,33 @@
         <v>64</v>
       </c>
       <c r="P89" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="B90" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="C90" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="D90" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="E90" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="F90" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="G90" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="H90" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="I90" t="b">
         <v>0</v>
@@ -7709,33 +7738,33 @@
         <v>64</v>
       </c>
       <c r="P90" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>716</v>
+        <v>933</v>
       </c>
       <c r="B91" t="s">
-        <v>396</v>
+        <v>925</v>
       </c>
       <c r="C91" t="s">
-        <v>397</v>
+        <v>926</v>
       </c>
       <c r="D91" t="s">
-        <v>398</v>
+        <v>927</v>
       </c>
       <c r="E91" t="s">
-        <v>399</v>
+        <v>928</v>
       </c>
       <c r="F91" t="s">
-        <v>400</v>
+        <v>929</v>
       </c>
       <c r="G91" t="s">
-        <v>401</v>
+        <v>930</v>
       </c>
       <c r="H91" t="s">
-        <v>402</v>
+        <v>931</v>
       </c>
       <c r="I91" t="b">
         <v>0</v>
@@ -7744,48 +7773,48 @@
         <v>0</v>
       </c>
       <c r="K91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91" t="b">
         <v>0</v>
       </c>
       <c r="M91">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="N91">
-        <v>17901</v>
+        <v>143</v>
       </c>
       <c r="O91" t="s">
         <v>64</v>
       </c>
       <c r="P91" t="s">
-        <v>717</v>
+        <v>932</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B92" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C92" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D92" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E92" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="F92" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="G92" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="H92" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="I92" t="b">
         <v>0</v>
@@ -7809,33 +7838,33 @@
         <v>64</v>
       </c>
       <c r="P92" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B93" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C93" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D93" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E93" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F93" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G93" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H93" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="I93" t="b">
         <v>0</v>
@@ -7859,33 +7888,33 @@
         <v>64</v>
       </c>
       <c r="P93" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>736</v>
+      </c>
+      <c r="B94" t="s">
+        <v>730</v>
+      </c>
+      <c r="C94" t="s">
+        <v>731</v>
+      </c>
+      <c r="D94" t="s">
+        <v>732</v>
+      </c>
+      <c r="E94" t="s">
+        <v>733</v>
+      </c>
+      <c r="F94" t="s">
+        <v>432</v>
+      </c>
+      <c r="G94" t="s">
+        <v>433</v>
+      </c>
+      <c r="H94" t="s">
         <v>734</v>
-      </c>
-      <c r="B94" t="s">
-        <v>728</v>
-      </c>
-      <c r="C94" t="s">
-        <v>729</v>
-      </c>
-      <c r="D94" t="s">
-        <v>730</v>
-      </c>
-      <c r="E94" t="s">
-        <v>731</v>
-      </c>
-      <c r="F94" t="s">
-        <v>428</v>
-      </c>
-      <c r="G94" t="s">
-        <v>429</v>
-      </c>
-      <c r="H94" t="s">
-        <v>732</v>
       </c>
       <c r="I94" t="b">
         <v>0</v>
@@ -7909,33 +7938,33 @@
         <v>64</v>
       </c>
       <c r="P94" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B95" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C95" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D95" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E95" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F95" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G95" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H95" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="I95" t="b">
         <v>0</v>
@@ -7959,33 +7988,33 @@
         <v>64</v>
       </c>
       <c r="P95" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B96" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C96" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D96" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E96" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F96" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G96" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H96" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="I96" t="b">
         <v>0</v>
@@ -8009,33 +8038,33 @@
         <v>64</v>
       </c>
       <c r="P96" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B97" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C97" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D97" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E97" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F97" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G97" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H97" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="I97" t="b">
         <v>0</v>
@@ -8059,33 +8088,33 @@
         <v>64</v>
       </c>
       <c r="P97" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B98" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C98" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D98" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E98" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F98" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G98" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H98" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="I98" t="b">
         <v>0</v>
@@ -8109,33 +8138,33 @@
         <v>64</v>
       </c>
       <c r="P98" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B99" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C99" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D99" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E99" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F99" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G99" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H99" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="I99" t="b">
         <v>0</v>
@@ -8159,33 +8188,33 @@
         <v>64</v>
       </c>
       <c r="P99" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B100" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C100" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D100" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E100" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F100" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G100" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H100" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="I100" t="b">
         <v>0</v>
@@ -8209,33 +8238,33 @@
         <v>64</v>
       </c>
       <c r="P100" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B101" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C101" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D101" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E101" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="F101" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="G101" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="H101" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="I101" t="b">
         <v>0</v>
@@ -8259,33 +8288,33 @@
         <v>64</v>
       </c>
       <c r="P101" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B102" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C102" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D102" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="E102" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="F102" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="G102" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="H102" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="I102" t="b">
         <v>0</v>
@@ -8309,33 +8338,33 @@
         <v>64</v>
       </c>
       <c r="P102" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B103" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C103" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="D103" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E103" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="F103" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="G103" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H103" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="I103" t="b">
         <v>0</v>
@@ -8356,36 +8385,36 @@
         <v>7869806</v>
       </c>
       <c r="O103" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="P103" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B104" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C104" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="D104" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="E104" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="F104" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="G104" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="H104" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="I104" t="b">
         <v>0</v>
@@ -8406,36 +8435,36 @@
         <v>19574878</v>
       </c>
       <c r="O104" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="P104" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B105" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C105" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="D105" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="E105" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="F105" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="G105" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="H105" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="I105" t="b">
         <v>0</v>
@@ -8456,36 +8485,36 @@
         <v>3941492</v>
       </c>
       <c r="O105" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="P105" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B106" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C106" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D106" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="E106" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="F106" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="G106" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="H106" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="I106" t="b">
         <v>0</v>
@@ -8506,36 +8535,36 @@
         <v>161562</v>
       </c>
       <c r="O106" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="P106" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B107" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C107" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D107" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="E107" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="F107" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G107" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H107" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="I107" t="b">
         <v>0</v>
@@ -8556,36 +8585,36 @@
         <v>61228639</v>
       </c>
       <c r="O107" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="P107" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B108" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C108" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D108" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="E108" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="F108" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G108" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H108" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="I108" t="b">
         <v>0</v>
@@ -8606,36 +8635,36 @@
         <v>83153144</v>
       </c>
       <c r="O108" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="P108" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B109" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C109" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D109" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="E109" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F109" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="G109" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H109" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="I109" t="b">
         <v>0</v>
@@ -8656,27 +8685,27 @@
         <v>1654030</v>
       </c>
       <c r="O109" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="P109" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B110" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C110" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D110" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="E110" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="F110" t="s">
         <v>175</v>
@@ -8685,7 +8714,7 @@
         <v>176</v>
       </c>
       <c r="H110" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="I110" t="b">
         <v>0</v>
@@ -8706,36 +8735,36 @@
         <v>17181</v>
       </c>
       <c r="O110" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="P110" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B111" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C111" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D111" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E111" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="F111" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="G111" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="H111" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="I111" t="b">
         <v>0</v>
@@ -8759,33 +8788,33 @@
         <v>64</v>
       </c>
       <c r="P111" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>836</v>
+      </c>
+      <c r="B112" t="s">
+        <v>830</v>
+      </c>
+      <c r="C112" t="s">
+        <v>831</v>
+      </c>
+      <c r="D112" t="s">
+        <v>832</v>
+      </c>
+      <c r="E112" t="s">
+        <v>833</v>
+      </c>
+      <c r="F112" t="s">
+        <v>656</v>
+      </c>
+      <c r="G112" t="s">
+        <v>657</v>
+      </c>
+      <c r="H112" t="s">
         <v>834</v>
-      </c>
-      <c r="B112" t="s">
-        <v>828</v>
-      </c>
-      <c r="C112" t="s">
-        <v>829</v>
-      </c>
-      <c r="D112" t="s">
-        <v>830</v>
-      </c>
-      <c r="E112" t="s">
-        <v>831</v>
-      </c>
-      <c r="F112" t="s">
-        <v>652</v>
-      </c>
-      <c r="G112" t="s">
-        <v>653</v>
-      </c>
-      <c r="H112" t="s">
-        <v>832</v>
       </c>
       <c r="I112" t="b">
         <v>0</v>
@@ -8809,33 +8838,33 @@
         <v>64</v>
       </c>
       <c r="P112" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B113" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C113" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D113" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E113" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="F113" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="G113" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="H113" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="I113" t="b">
         <v>0</v>
@@ -8859,33 +8888,33 @@
         <v>64</v>
       </c>
       <c r="P113" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B114" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C114" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D114" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="E114" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="F114" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="G114" t="s">
         <v>62</v>
       </c>
       <c r="H114" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="I114" t="b">
         <v>0</v>
@@ -8909,33 +8938,33 @@
         <v>64</v>
       </c>
       <c r="P114" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B115" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C115" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D115" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="E115" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="F115" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="G115" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="H115" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="I115" t="b">
         <v>0</v>
@@ -8959,33 +8988,33 @@
         <v>64</v>
       </c>
       <c r="P115" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B116" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C116" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="D116" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="E116" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="F116" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="G116" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="H116" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="I116" t="b">
         <v>0</v>
@@ -9009,33 +9038,33 @@
         <v>64</v>
       </c>
       <c r="P116" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B117" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C117" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="D117" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="E117" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="F117" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="G117" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="H117" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="I117" t="b">
         <v>0</v>
@@ -9059,33 +9088,33 @@
         <v>64</v>
       </c>
       <c r="P117" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B118" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C118" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D118" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="E118" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="F118" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="G118" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="H118" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="I118" t="b">
         <v>0</v>
@@ -9109,33 +9138,33 @@
         <v>64</v>
       </c>
       <c r="P118" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B119" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C119" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D119" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="E119" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="F119" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="G119" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="H119" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="I119" t="b">
         <v>0</v>
@@ -9159,33 +9188,33 @@
         <v>64</v>
       </c>
       <c r="P119" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B120" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C120" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D120" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="E120" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="F120" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="G120" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="H120" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="I120" t="b">
         <v>0</v>
@@ -9209,33 +9238,33 @@
         <v>64</v>
       </c>
       <c r="P120" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B121" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C121" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="D121" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="E121" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="F121" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="G121" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H121" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="I121" t="b">
         <v>0</v>
@@ -9259,33 +9288,33 @@
         <v>64</v>
       </c>
       <c r="P121" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B122" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C122" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="D122" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="E122" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="F122" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="G122" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="H122" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="I122" t="b">
         <v>0</v>
@@ -9309,33 +9338,33 @@
         <v>64</v>
       </c>
       <c r="P122" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B123" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C123" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D123" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E123" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="F123" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="G123" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="H123" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="I123" t="b">
         <v>0</v>
@@ -9359,7 +9388,7 @@
         <v>64</v>
       </c>
       <c r="P123" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
   </sheetData>

--- a/Meta_Data.xlsx
+++ b/Meta_Data.xlsx
@@ -1,358 +1,350 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harishneelam/Desktop/Quantgen/GPDatasets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8617EF-A5DC-8746-90D0-C9517F3D5C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="934">
-  <si>
-    <t>Folder</t>
-  </si>
-  <si>
-    <t>DOI</t>
-  </si>
-  <si>
-    <t>Publication_link</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>Scientific_Name</t>
-  </si>
-  <si>
-    <t>Common_Name</t>
-  </si>
-  <si>
-    <t>Sharing_Link</t>
-  </si>
-  <si>
-    <t>Requires_Authorization</t>
-  </si>
-  <si>
-    <t>Phenotype</t>
-  </si>
-  <si>
-    <t>Map</t>
-  </si>
-  <si>
-    <t>Pedigree</t>
-  </si>
-  <si>
-    <t>N_Geno</t>
-  </si>
-  <si>
-    <t>N_markers</t>
-  </si>
-  <si>
-    <t>Download_Instructions</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>00001_YellowFeverMosquito</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.5x69p8d5j</t>
-  </si>
-  <si>
-    <t>https://journals.plos.org/plosntds/article?id=10.1371/journal.pntd.0005718</t>
-  </si>
-  <si>
-    <t>Multiple introductions of the dengue vector, Aedes aegypti, into California</t>
-  </si>
-  <si>
-    <t>The yellow fever mosquito Aedes aegypti inhabits much of the tropical and subtropical world and is a primary vector of dengue, Zika, and chikungunya viruses. Breeding populations of A. aegypti were first reported in California (CA) in 2013. Initial genetic analyses using 12 microsatellites on collections from Northern CA in 2013 indicated the South Central US region as the likely source of the introduction. We expanded genetic analyses of CA A. aegypti by: (a) examining additional Northern CA samples and including samples from Southern CA, (b) including more southern US populations for comparison, and (c) genotyping a subset of samples at 15,698 SNPs. Major results are: (1) Northern and Southern CA populations are distinct. (2) Northern populations are more genetically diverse than Southern CA populations. (3) Northern and Southern CA groups were likely founded by two independent introductions which came from the South Central US and Southwest US/northern Mexico regions respectively. (4) Our genetic data suggest that the founding events giving rise to the Northern CA and Southern CA populations likely occurred before the populations were first recognized in 2013 and 2014, respectively. (5) A Northern CA population analyzed at multiple time-points (two years apart) is genetically stable, consistent with permanent in situ breeding. These results expand previous work on the origin of California A. aegypti with the novel finding that this species entered California on multiple occasions, likely some years before its initial detection. This work has implications for mosquito surveillance and vector control activities not only in California but also in other regions where the distribution of this invasive mosquito is expanding.</t>
-  </si>
-  <si>
-    <t>Aedes aegypti</t>
-  </si>
-  <si>
-    <t>Yellow Fever Mosquito</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.5x69p8d5j</t>
-  </si>
-  <si>
-    <t>Unzip file</t>
-  </si>
-  <si>
-    <t>Aedes aegypti; mosquito genetics; vector-borne diseases; population genetics; invasive species; mosquito surveillance; vector control; genetic diversity</t>
-  </si>
-  <si>
-    <t>00002_GreenAnole</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.qbzkh18ks</t>
-  </si>
-  <si>
-    <t>https://academic.oup.com/evolut/article/77/5/1175/7061906</t>
-  </si>
-  <si>
-    <t>Convergence or redundancy: alternative views about the evolutionary genomics of character displacement</t>
-  </si>
-  <si>
-    <t>An evolutionary debate contrasts the importance of genetic convergence versus genetic redundancy. In genetic convergence, the same adaptive trait evolves because of similar genetic changes. In genetic redundancy, the adaptive trait evolves using different genetic combinations, and populations might not share the same genetic changes. Here we address this debate by examining single nucleotide polymorphisms (SNPs) associated with the rapid evolution of character displacement in Anolis carolinensis populations inhabiting replicate islands with and without a competitor species (1Spp and 2Spp islands, respectively). We identify 215-outliers SNPs that have improbably large FST values, low nucleotide variation, greater linkage than expected and that are enriched for genes underlying animal movement. The pattern of SNP divergence between 1Spp and 2Spp populations supports both genetic convergence and genetic redundancy for character displacement. In support of genetic convergence: all 215-outliers SNPs are shared among at least three of the five 2Spp island populations, and 23% of outlier SNPS are shared among all five 2Spp island populations. In contrast, in support of genetic redundancy: many outlier SNPs only have meaningful allele frequency differences between 1Spp and 2Spp islands on a few 2Spp islands. That is, on at least one of the 2Spp islands, 77% of outlier SNPs have allele frequencies more similar to those on 1Spp islands than to those on 2Spp islands. Focusing on genetic convergence is scientifically rigorous because it relies on replication. Yet, this focus distracts from the possibility that there are multiple, redundant genetic solutions that enhance the rate and stability of adaptive change.</t>
-  </si>
-  <si>
-    <t>Anolis carolinensis</t>
-  </si>
-  <si>
-    <t>Green anole</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.qbzkh18ks</t>
-  </si>
-  <si>
-    <t>Read Supplemental_Sample_description.txt</t>
-  </si>
-  <si>
-    <t>genetic convergence; genetic redundancy; SNP analysis; adaptive evolution; Anolis carolinensis; character displacement; evolutionary genetics; island biogeography</t>
-  </si>
-  <si>
-    <t>00003_GrowthInArabidopsisThaliana</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3389/fgene.2020.609117</t>
-  </si>
-  <si>
-    <t>https://www.frontiersin.org/journals/genetics/articles/10.3389/fgene.2020.609117/full</t>
-  </si>
-  <si>
-    <t>Prior Biological Knowledge Improves Genomic Prediction of Growth-Related Traits in Arabidopsis thaliana</t>
-  </si>
-  <si>
-    <t>Prediction of growth-related complex traits is highly important for crop breeding. Photosynthesis efficiency and biomass are direct indicators of overall plant performance and therefore even minor improvements in these traits can result in significant breeding gains. Crop breeding for complex traits has been revolutionized by technological developments in genomics and phenomics. Capitalizing on the growing availability of genomics data, genome-wide marker-based prediction models allow for efficient selection of the best parents for the next generation without the need for phenotypic information. Until now such models mostly predict the phenotype directly from the genotype and fail to make use of relevant biological knowledge. It is an open question to what extent the use of such biological knowledge is beneficial for improving genomic prediction accuracy and reliability. In this study, we explored the use of publicly available biological information for genomic prediction of photosynthetic light use efficiency (Œ¶PSII) and projected leaf area (PLA) in Arabidopsis thaliana. To explore the use of various types of knowledge, we mapped genomic polymorphisms to Gene Ontology (GO) terms and transcriptomics-based gene clusters, and applied these in a Genomic Feature Best Linear Unbiased Predictor (GFBLUP) model, which is an extension to the traditional Genomic BLUP (GBLUP) benchmark. Our results suggest that incorporation of prior biological knowledge can improve genomic prediction accuracy for both Œ¶PSII and PLA. The improvement achieved depends on the trait, type of knowledge and trait heritability. Moreover, transcriptomics offers complementary evidence to the Gene Ontology for improvement when used to define functional groups of genes. In conclusion, prior knowledge about trait-specific groups of genes can be directly translated into improved genomic prediction.</t>
-  </si>
-  <si>
-    <t>Arabidopsis thaliana</t>
-  </si>
-  <si>
-    <t>Thale cress</t>
-  </si>
-  <si>
-    <t>https://git.wur.nl/faroo002/pub1</t>
-  </si>
-  <si>
-    <t>Go to folder "data/", download only needed files.</t>
-  </si>
-  <si>
-    <t>crop breeding; genomics; phenomics; genomic prediction; photosynthesis efficiency; Arabidopsis thaliana; Gene Ontology; transcriptomics</t>
-  </si>
-  <si>
-    <t>00004_AvenaSativaGenomicData</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3389/fgene.2021.643733</t>
-  </si>
-  <si>
-    <t>https://www.frontiersin.org/journals/genetics/articles/10.3389/fgene.2021.643733/full</t>
-  </si>
-  <si>
-    <t>Improving Genomic Prediction for Seed Quality Traits in Oat (Avena sativa L.) Using Trait-Specific Relationship Matrices</t>
-  </si>
-  <si>
-    <t>The observable phenotype is the manifestation of information that is passed along different organization levels (transcriptional, translational, and metabolic) of a biological system. The widespread use of various omic technologies (RNA-sequencing, metabolomics, etc.) has provided plant genetics and breeders with a wealth of information on pertinent intermediate molecular processes that may help explain variation in conventional traits such as yield, seed quality, and fitness, among others. A major challenge is effectively using these data to help predict the genetic merit of new, unobserved individuals for conventional agronomic traits. Trait-specific genomic relationship matrices (TGRMs) model the relationships between individuals using genome-wide markers (SNPs) and place greater emphasis on markers that most relevant to the trait compared to conventional genomic relationship matrices. Given that these approaches define relationships based on putative causal loci, it is expected that these approaches should improve predictions for related traits. In this study we evaluated the use of TGRMs to accommodate information on intermediate molecular phenotypes (referred to as endophenotypes) and to predict an agronomic trait, total lipid content, in oat seed. Nine fatty acids were quantified in a panel of 336 oat lines. Marker effects were estimated for each endophenotype, and were used to construct TGRMs. A multikernel TRGM model (MK-TRGM-BLUP) was used to predict total seed lipid content in an independent panel of 210 oat lines. The MK-TRGM-BLUP approach significantly improved predictions for total lipid content when compared to a conventional genomic BLUP (gBLUP) approach. Given that the MK-TGRM-BLUP approach leverages information on the nine fatty acids to predict genetic values for total lipid content in unobserved individuals, we compared the MK-TGRM-BLUP approach to a multi-trait gBLUP (MT-gBLUP) approach that jointly fits phenotypes for fatty acids and total lipid content. The MK-TGRM-BLUP approach significantly outperformed MT-gBLUP. Collectively, these results highlight the utility of using TGRM to accommodate information on endophenotypes and improve genomic prediction for a conventional agronomic trait.</t>
-  </si>
-  <si>
-    <t>Avena sativa</t>
-  </si>
-  <si>
-    <t>Oat</t>
-  </si>
-  <si>
-    <t>https://github.com/malachycampbell/TGRM_frontiers</t>
-  </si>
-  <si>
-    <t>Download DivPanel_markers.txt.zip and unzip</t>
-  </si>
-  <si>
-    <t>genomics; phenotypic prediction; plant breeding; omics technologies; genomic relationship matrices; molecular phenotypes; trait-specific prediction; agricultural genetics</t>
-  </si>
-  <si>
-    <t>00005_PopulationsOfCattle</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.1525t</t>
-  </si>
-  <si>
-    <t>https://academic.oup.com/genetics/article/202/2/799/5930244</t>
-  </si>
-  <si>
-    <t>An Equation to Predict the Accuracy of Genomic Values by Combining Data from Multiple Traits, Populations, or Environments</t>
-  </si>
-  <si>
-    <t>Predicting the accuracy of estimated genomic values using genome-wide marker information is an important step in designing training populations. Currently, different deterministic equations are available to predict accuracy within populations, but not for multipopulation scenarios where data from multiple breeds, lines or environments are combined. Therefore, our objective was to develop and validate a deterministic equation to predict the accuracy of genomic values when different populations are combined in one training population. The input parameters of the derived prediction equation are the number of individuals and the heritability from each of the populations in the training population; the genetic correlations between the populations, i.e., the correlation between allele substitution effects of quantitative trait loci; the effective number of chromosome segments across predicted and training populations; and the proportion of the genetic variance in the predicted population captured by the markers in each of the training populations. Validation was performed based on real genotype information of 1033 Holstein‚ÄìFriesian cows that were divided into three different populations by combining half-sib families in the same population. Phenotypes were simulated for multiple scenarios, differing in heritability within populations and in genetic correlations between the populations. Results showed that the derived equation can accurately predict the accuracy of estimating genomic values for different scenarios of multipopulation genomic prediction. Therefore, the derived equation can be used to investigate the potential accuracy of different multipopulation genomic prediction scenarios and to decide on the most optimal design of training populations.</t>
-  </si>
-  <si>
-    <t>Bos taurus</t>
-  </si>
-  <si>
-    <t>Cattle</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.1525t</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>genomic prediction; training populations; heritability; genetic correlations; quantitative trait loci; phenotype simulation; multipopulation analysis; deterministic equations</t>
-  </si>
-  <si>
-    <t>00006_AncestryOfDomesticatedCattle</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.th092</t>
-  </si>
-  <si>
-    <t>https://journals.plos.org/plosgenetics/article?id=10.1371/journal.pgen.1004254</t>
-  </si>
-  <si>
-    <t>Worldwide Patterns of Ancestry, Divergence, and Admixture in Domesticated Cattle</t>
-  </si>
-  <si>
-    <t>The domestication and development of cattle has considerably impacted human societies, but the histories of cattle breeds and populations have been poorly understood especially for African, Asian, and American breeds. Using genotypes from 43,043 autosomal single nucleotide polymorphism markers scored in 1,543 animals, we evaluate the population structure of 134 domesticated bovid breeds. Regardless of the analytical method or sample subset, the three major groups of Asian indicine, Eurasian taurine, and African taurine were consistently observed. Patterns of geographic dispersal resulting from co-migration with humans and exportation are recognizable in phylogenetic networks. All analytical methods reveal patterns of hybridization which occurred after divergence. Using 19 breeds, we map the cline of indicine introgression into Africa. We infer that African taurine possess a large portion of wild African auroch ancestry, causing their divergence from Eurasian taurine. We detect exportation patterns in Asia and identify a cline of Eurasian taurine/indicine hybridization in Asia. We also identify the influence of species other than Bos taurus taurus and B. t. indicus in the formation of Asian breeds. We detect the pronounced influence of Shorthorn cattle in the formation of European breeds. Iberian and Italian cattle possess introgression from African taurine. American Criollo cattle originate from Iberia, and not directly from Africa with African ancestry inherited via Iberian ancestors. Indicine introgression into American cattle occurred in the Americas, and not Europe. We argue that cattle migration, movement and trading followed by admixture have been important forces in shaping modern bovine genomic variation.</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.th092</t>
-  </si>
-  <si>
-    <t>cattle domestication; genetic diversity; livestock evolution; breed differentiation; population genetics; phylogenetic analysis; bovine ancestry; introgression patterns</t>
-  </si>
-  <si>
-    <t>00007_BlueCrab</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.c3318</t>
-  </si>
-  <si>
-    <t>https://bioone.org/journals/Journal-of-Shellfish-Research/volume-36/issue-1/035.036.0128/Population-Genomic-Analysis-of-the-Blue-Crab-iCallinectes-sapidus-i/10.2983/035.036.0128.short</t>
-  </si>
-  <si>
-    <t>Population Genomic Analysis of the Blue Crab Callinectes sapidus Using Genotyping-By-Sequencing</t>
-  </si>
-  <si>
-    <t>Previous genetic studies of the blue crab Callinectes sapidus along the U.S. Atlantic and Gulf coasts have reported weak or temporally variable spatial structure, suggesting high gene flow among distant populations possibly facilitated by long-distance larval dispersal or other features of blue crab life history. The use of relatively few genetic markers, however, may have limited power to detect subtle but significant structure that could inform fisheries management. In this study, the potential for genome-scale datasets to uncover subtle patterns of population structure in the blue crab was examined using a high-throughput genotyping approach (genotyping-by-sequencing) that generated data for more than 9,600 single nucleotide polymorphisms (SNPs) in crabs from three populations: Panama City Beach, FL, Agawam River, MA, and Porto Alegre, Brazil. Principle components analyses among the three populations revealed very distinct clustering of the Brazilian samples from U.S. populations, likely reflecting restricted gene flow across the equator. Detailed analysis of population structure between the two U.S. populations revealed low but significant genetic differentiation (FST = 0.0103), with FST values ranging from -0.05 to 0.48. Previous studies have failed to detect significant genetic structure on a similar geographic scale. FST outlier analysis identified 242 loci (2.45% of total) with statistically extreme values at the false discovery rate Œ± = 0.05 level, only 16 of which showed significant sequence homology to annotated proteins via BLASTx alignment. Top BLASTx hits were to crustacean or arthropod sequences and 8 of the 16 had high sequence similarity to transposable elements or related machinery. Finally, results of population assignment tests for the two U.S. populations showed that the full marker dataset provided good power to assign individuals back to their population of origin (‚àº83% and 92% success for Panama City Beach and Agawam River, respectively), which dropped significantly when using only 500 randomly selected SNPs (‚àº61% and 72% success). Overall, this study demonstrates the great utility of high-throughput sequencing technologies for characterizing fine-scale patterns of genetic structure in blue crabs, and this approach should substantially improve the delineation of stock structure and further advance our understanding of blue crab population connectivity and ecology.</t>
-  </si>
-  <si>
-    <t>Callinectes sapidus</t>
-  </si>
-  <si>
-    <t>Blue Crab</t>
-  </si>
-  <si>
-    <t>genetics; blue crab; population structure; genotyping-by-sequencing; SNP analysis; fisheries management; gene flow; high-throughput sequencing technologies</t>
-  </si>
-  <si>
-    <t>00008_DromedaryCamels</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.n2z34tmwf</t>
-  </si>
-  <si>
-    <t>https://www.nature.com/articles/s41598-021-87296-7</t>
-  </si>
-  <si>
-    <t>Genomic prediction for growth using a low-density SNP panel in dromedary camels</t>
-  </si>
-  <si>
-    <t>For thousands of years, camels have produced meat, milk, and fiber in harsh desert conditions. For a sustainable development to provide protein resources from desert areas, it is necessary to pay attention to genetic improvement in camel breeding. By using genotyping-by-sequencing (GBS) method we produced over 14,500 genome wide markers to conduct a genome- wide association study (GWAS) for investigating the birth weight, daily gain, and body weight of 96 dromedaries in the Iranian central desert. A total of 99 SNPs were associated with birth weight, daily gain, and body weight (p-value‚Äâ&lt;‚Äâ0.002). Genomic breeding values (GEBVs) were estimated with the BGLR package using (i) all 14,522 SNPs and (ii) the 99 SNPs by GWAS. Twenty-eight SNPs were associated with birth weight, daily gain, and body weight (p-value‚Äâ&lt;‚Äâ0.001). Annotation of the genomic region (s) within‚Äâ¬±‚Äâ100 kb of the associated SNPs facilitated prediction of 36 candidate genes. The accuracy of GEBVs was more than 0.65 based on all 14,522 SNPs, but the regression coefficients for birth weight, daily gain, and body weight were 0.39, 0.20, and 0.23, respectively. Because of low sample size, the GEBVs were predicted using the associated SNPs from GWAS. The accuracy of GEBVs based on the 99 associated SNPs was 0.62, 0.82, and 0.57 for birth weight, daily gain, and body weight. This report is the first GWAS using GBS on dromedary camels and identifies markers associated with growth traits that could help to plan breeding program to genetic improvement. Further researches using larger sample size and collaboration of the camel farmers and more profound understanding will permit verification of the associated SNPs identified in this project. The preliminary results of study show that genomic selection could be the appropriate way to genetic improvement of body weight in dromedary camels, which is challenging due to a long generation interval, seasonal reproduction, and lack of records and pedigrees.</t>
-  </si>
-  <si>
-    <t>Camelus dromedarius</t>
-  </si>
-  <si>
-    <t>Dromedary Camels</t>
-  </si>
-  <si>
-    <t>camels; genotyping-by-sequencing; genome-wide association study; genetic improvement; dromedary camels; genomic breeding values; growth traits; genomic selection</t>
-  </si>
-  <si>
-    <t>00009_ACLinLabradorRetrievers</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1534/g3.120.401244</t>
-  </si>
-  <si>
-    <t>https://academic.oup.com/g3journal/article/10/8/2619/6048677</t>
-  </si>
-  <si>
-    <t>Bayesian and Machine Learning Models for Genomic Prediction of Anterior Cruciate Ligament Rupture in the Canine Model</t>
-  </si>
-  <si>
-    <t>Anterior cruciate ligament (ACL) rupture is a common, debilitating condition that leads to early-onset osteoarthritis and reduced quality of human life. ACL rupture is a complex disease with both genetic and environmental risk factors. Characterizing the genetic basis of ACL rupture would provide the ability to identify individuals that have high genetic risk and allow the opportunity for preventative management. Spontaneous ACL rupture is also common in dogs and shows a similar clinical presentation and progression. Thus, the dog has emerged as an excellent genomic model for human ACL rupture. Genome-wide association studies (GWAS) in the dog have identified a number of candidate genetic variants, but research in genomic prediction has been limited. In this analysis, we explore several Bayesian and machine learning models for genomic prediction of ACL rupture in the Labrador Retriever dog. Our work demonstrates the feasibility of predicting ACL rupture from SNPs in the Labrador Retriever model with and without consideration of non-genetic risk factors. Genomic prediction including non-genetic risk factors approached clinical relevance using multiple linear Bayesian and non-linear models. This analysis represents the first steps toward development of a predictive algorithm for ACL rupture in the Labrador Retriever model. Future work may extend this algorithm to other high-risk breeds of dog. The ability to accurately predict individual dogs at high risk for ACL rupture would identify candidates for clinical trials that would benefit both veterinary and human medicine.</t>
-  </si>
-  <si>
-    <t>Canis lupus</t>
-  </si>
-  <si>
-    <t>Dogs</t>
-  </si>
-  <si>
-    <t>https://gsajournals.figshare.com/articles/dataset/Supplemental_Material_for_Baker_et_al_2020/12001344</t>
-  </si>
-  <si>
-    <t>ACL rupture; genomic prediction; machine learning; Bayesian models; genome-wide association studies; Labrador Retriever; osteoarthritis; genetic risk factors</t>
-  </si>
-  <si>
-    <t>00010_WolvesInMexico</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.g68k008</t>
-  </si>
-  <si>
-    <t>https://academic.oup.com/jhered/article/109/4/372/4948759?login=false</t>
-  </si>
-  <si>
-    <t>Genome-Wide Analysis of SNPs Is Consistent with No Domestic Dog Ancestry in the Endangered Mexican Wolf (Canis lupus baileyi)</t>
-  </si>
-  <si>
-    <t>The Mexican gray wolf (Canis lupus baileyi) was historically distributed throughout the southwestern United States and northern Mexico. Extensive predator removal campaigns during the early 20th century, however, resulted in its eventual extirpation by the mid 1980s. At this time, the Mexican wolf existed only in 3 separate captive lineages (McBride, Ghost Ranch, and Arag√≥n) descended from 3, 2, and 2 founders, respectively. These lineages were merged in 1995 to increase the available genetic variation, and Mexican wolves were reintroduced into Arizona and New Mexico in 1998. Despite the ongoing management of the Mexican wolf population, it has been suggested that a proportion of the Mexican wolf ancestry may be recently derived from hybridization with domestic dogs. In this study, we genotyped 87 Mexican wolves, including individuals from all 3 captive lineages and cross-lineage wolves, for more than 172000 single nucleotide polymorphisms. We identified levels of genetic variation consistent with the pedigree record and effects of genetic rescue. To identify the potential to detect hybridization with domestic dogs, we compared our Mexican wolf genotypes with those from studies of domestic dogs and other gray wolves. The proportion of Mexican wolf ancestry assigned to domestic dogs was only between 0.06% (SD 0.23%) and 7.8% (SD 1.0%) for global and local ancestry estimates, respectively; and was consistent with simulated levels of incomplete lineage sorting. Overall, our results suggested that Mexican wolves lack biologically significant ancestry with dogs and have useful implications for the conservation and management of this endangered wolf subspecies.</t>
-  </si>
-  <si>
-    <t>Wolves</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.g68k008</t>
-  </si>
-  <si>
-    <t>Mexican gray wolf; genetic diversity; wildlife conservation; hybridization; captive breeding; reintroduction programs; endangered species management; genetic markers</t>
-  </si>
-  <si>
-    <t>00011_GoatPopulations</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.v8g21pt</t>
-  </si>
-  <si>
-    <t>https://gsejournal.biomedcentral.com/articles/10.1186/s12711-018-0422-x</t>
-  </si>
-  <si>
-    <t>Genome-wide SNP profiling of worldwide goat populations reveals strong partitioning of diversity and highlights post-domestication migration routes</t>
-  </si>
-  <si>
-    <t>Background
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="943">
+  <si>
+    <t xml:space="preserve">Folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publication_link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scientific_Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common_Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharing_Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires_Authorization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedigree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_Geno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_markers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Download_Instructions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00001_YellowFeverMosquito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.5x69p8d5j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://journals.plos.org/plosntds/article?id=10.1371/journal.pntd.0005718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple introductions of the dengue vector, Aedes aegypti, into California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The yellow fever mosquito Aedes aegypti inhabits much of the tropical and subtropical world and is a primary vector of dengue, Zika, and chikungunya viruses. Breeding populations of A. aegypti were first reported in California (CA) in 2013. Initial genetic analyses using 12 microsatellites on collections from Northern CA in 2013 indicated the South Central US region as the likely source of the introduction. We expanded genetic analyses of CA A. aegypti by: (a) examining additional Northern CA samples and including samples from Southern CA, (b) including more southern US populations for comparison, and (c) genotyping a subset of samples at 15,698 SNPs. Major results are: (1) Northern and Southern CA populations are distinct. (2) Northern populations are more genetically diverse than Southern CA populations. (3) Northern and Southern CA groups were likely founded by two independent introductions which came from the South Central US and Southwest US/northern Mexico regions respectively. (4) Our genetic data suggest that the founding events giving rise to the Northern CA and Southern CA populations likely occurred before the populations were first recognized in 2013 and 2014, respectively. (5) A Northern CA population analyzed at multiple time-points (two years apart) is genetically stable, consistent with permanent in situ breeding. These results expand previous work on the origin of California A. aegypti with the novel finding that this species entered California on multiple occasions, likely some years before its initial detection. This work has implications for mosquito surveillance and vector control activities not only in California but also in other regions where the distribution of this invasive mosquito is expanding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aedes aegypti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow Fever Mosquito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.5x69p8d5j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unzip file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aedes aegypti; mosquito genetics; vector-borne diseases; population genetics; invasive species; mosquito surveillance; vector control; genetic diversity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00002_GreenAnole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.qbzkh18ks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://academic.oup.com/evolut/article/77/5/1175/7061906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convergence or redundancy: alternative views about the evolutionary genomics of character displacement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An evolutionary debate contrasts the importance of genetic convergence versus genetic redundancy. In genetic convergence, the same adaptive trait evolves because of similar genetic changes. In genetic redundancy, the adaptive trait evolves using different genetic combinations, and populations might not share the same genetic changes. Here we address this debate by examining single nucleotide polymorphisms (SNPs) associated with the rapid evolution of character displacement in Anolis carolinensis populations inhabiting replicate islands with and without a competitor species (1Spp and 2Spp islands, respectively). We identify 215-outliers SNPs that have improbably large FST values, low nucleotide variation, greater linkage than expected and that are enriched for genes underlying animal movement. The pattern of SNP divergence between 1Spp and 2Spp populations supports both genetic convergence and genetic redundancy for character displacement. In support of genetic convergence: all 215-outliers SNPs are shared among at least three of the five 2Spp island populations, and 23% of outlier SNPS are shared among all five 2Spp island populations. In contrast, in support of genetic redundancy: many outlier SNPs only have meaningful allele frequency differences between 1Spp and 2Spp islands on a few 2Spp islands. That is, on at least one of the 2Spp islands, 77% of outlier SNPs have allele frequencies more similar to those on 1Spp islands than to those on 2Spp islands. Focusing on genetic convergence is scientifically rigorous because it relies on replication. Yet, this focus distracts from the possibility that there are multiple, redundant genetic solutions that enhance the rate and stability of adaptive change.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anolis carolinensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green anole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.qbzkh18ks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read Supplemental_Sample_description.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genetic convergence; genetic redundancy; SNP analysis; adaptive evolution; Anolis carolinensis; character displacement; evolutionary genetics; island biogeography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00003_GrowthInArabidopsisThaliana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.3389/fgene.2020.609117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.frontiersin.org/journals/genetics/articles/10.3389/fgene.2020.609117/full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior Biological Knowledge Improves Genomic Prediction of Growth-Related Traits in Arabidopsis thaliana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prediction of growth-related complex traits is highly important for crop breeding. Photosynthesis efficiency and biomass are direct indicators of overall plant performance and therefore even minor improvements in these traits can result in significant breeding gains. Crop breeding for complex traits has been revolutionized by technological developments in genomics and phenomics. Capitalizing on the growing availability of genomics data, genome-wide marker-based prediction models allow for efficient selection of the best parents for the next generation without the need for phenotypic information. Until now such models mostly predict the phenotype directly from the genotype and fail to make use of relevant biological knowledge. It is an open question to what extent the use of such biological knowledge is beneficial for improving genomic prediction accuracy and reliability. In this study, we explored the use of publicly available biological information for genomic prediction of photosynthetic light use efficiency (Œ¶PSII) and projected leaf area (PLA) in Arabidopsis thaliana. To explore the use of various types of knowledge, we mapped genomic polymorphisms to Gene Ontology (GO) terms and transcriptomics-based gene clusters, and applied these in a Genomic Feature Best Linear Unbiased Predictor (GFBLUP) model, which is an extension to the traditional Genomic BLUP (GBLUP) benchmark. Our results suggest that incorporation of prior biological knowledge can improve genomic prediction accuracy for both Œ¶PSII and PLA. The improvement achieved depends on the trait, type of knowledge and trait heritability. Moreover, transcriptomics offers complementary evidence to the Gene Ontology for improvement when used to define functional groups of genes. In conclusion, prior knowledge about trait-specific groups of genes can be directly translated into improved genomic prediction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arabidopsis thaliana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thale cress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://git.wur.nl/faroo002/pub1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to folder "data/", download only needed files.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crop breeding; genomics; phenomics; genomic prediction; photosynthesis efficiency; Arabidopsis thaliana; Gene Ontology; transcriptomics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00004_AvenaSativaGenomicData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.3389/fgene.2021.643733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.frontiersin.org/journals/genetics/articles/10.3389/fgene.2021.643733/full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improving Genomic Prediction for Seed Quality Traits in Oat (Avena sativa L.) Using Trait-Specific Relationship Matrices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The observable phenotype is the manifestation of information that is passed along different organization levels (transcriptional, translational, and metabolic) of a biological system. The widespread use of various omic technologies (RNA-sequencing, metabolomics, etc.) has provided plant genetics and breeders with a wealth of information on pertinent intermediate molecular processes that may help explain variation in conventional traits such as yield, seed quality, and fitness, among others. A major challenge is effectively using these data to help predict the genetic merit of new, unobserved individuals for conventional agronomic traits. Trait-specific genomic relationship matrices (TGRMs) model the relationships between individuals using genome-wide markers (SNPs) and place greater emphasis on markers that most relevant to the trait compared to conventional genomic relationship matrices. Given that these approaches define relationships based on putative causal loci, it is expected that these approaches should improve predictions for related traits. In this study we evaluated the use of TGRMs to accommodate information on intermediate molecular phenotypes (referred to as endophenotypes) and to predict an agronomic trait, total lipid content, in oat seed. Nine fatty acids were quantified in a panel of 336 oat lines. Marker effects were estimated for each endophenotype, and were used to construct TGRMs. A multikernel TRGM model (MK-TRGM-BLUP) was used to predict total seed lipid content in an independent panel of 210 oat lines. The MK-TRGM-BLUP approach significantly improved predictions for total lipid content when compared to a conventional genomic BLUP (gBLUP) approach. Given that the MK-TGRM-BLUP approach leverages information on the nine fatty acids to predict genetic values for total lipid content in unobserved individuals, we compared the MK-TGRM-BLUP approach to a multi-trait gBLUP (MT-gBLUP) approach that jointly fits phenotypes for fatty acids and total lipid content. The MK-TGRM-BLUP approach significantly outperformed MT-gBLUP. Collectively, these results highlight the utility of using TGRM to accommodate information on endophenotypes and improve genomic prediction for a conventional agronomic trait.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avena sativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/malachycampbell/TGRM_frontiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Download DivPanel_markers.txt.zip and unzip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomics; phenotypic prediction; plant breeding; omics technologies; genomic relationship matrices; molecular phenotypes; trait-specific prediction; agricultural genetics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00005_PopulationsOfCattle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.1525t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://academic.oup.com/genetics/article/202/2/799/5930244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Equation to Predict the Accuracy of Genomic Values by Combining Data from Multiple Traits, Populations, or Environments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predicting the accuracy of estimated genomic values using genome-wide marker information is an important step in designing training populations. Currently, different deterministic equations are available to predict accuracy within populations, but not for multipopulation scenarios where data from multiple breeds, lines or environments are combined. Therefore, our objective was to develop and validate a deterministic equation to predict the accuracy of genomic values when different populations are combined in one training population. The input parameters of the derived prediction equation are the number of individuals and the heritability from each of the populations in the training population; the genetic correlations between the populations, i.e., the correlation between allele substitution effects of quantitative trait loci; the effective number of chromosome segments across predicted and training populations; and the proportion of the genetic variance in the predicted population captured by the markers in each of the training populations. Validation was performed based on real genotype information of 1033 Holstein‚ÄìFriesian cows that were divided into three different populations by combining half-sib families in the same population. Phenotypes were simulated for multiple scenarios, differing in heritability within populations and in genetic correlations between the populations. Results showed that the derived equation can accurately predict the accuracy of estimating genomic values for different scenarios of multipopulation genomic prediction. Therefore, the derived equation can be used to investigate the potential accuracy of different multipopulation genomic prediction scenarios and to decide on the most optimal design of training populations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bos taurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cattle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.1525t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic prediction; training populations; heritability; genetic correlations; quantitative trait loci; phenotype simulation; multipopulation analysis; deterministic equations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00006_AncestryOfDomesticatedCattle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.th092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://journals.plos.org/plosgenetics/article?id=10.1371/journal.pgen.1004254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worldwide Patterns of Ancestry, Divergence, and Admixture in Domesticated Cattle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The domestication and development of cattle has considerably impacted human societies, but the histories of cattle breeds and populations have been poorly understood especially for African, Asian, and American breeds. Using genotypes from 43,043 autosomal single nucleotide polymorphism markers scored in 1,543 animals, we evaluate the population structure of 134 domesticated bovid breeds. Regardless of the analytical method or sample subset, the three major groups of Asian indicine, Eurasian taurine, and African taurine were consistently observed. Patterns of geographic dispersal resulting from co-migration with humans and exportation are recognizable in phylogenetic networks. All analytical methods reveal patterns of hybridization which occurred after divergence. Using 19 breeds, we map the cline of indicine introgression into Africa. We infer that African taurine possess a large portion of wild African auroch ancestry, causing their divergence from Eurasian taurine. We detect exportation patterns in Asia and identify a cline of Eurasian taurine/indicine hybridization in Asia. We also identify the influence of species other than Bos taurus taurus and B. t. indicus in the formation of Asian breeds. We detect the pronounced influence of Shorthorn cattle in the formation of European breeds. Iberian and Italian cattle possess introgression from African taurine. American Criollo cattle originate from Iberia, and not directly from Africa with African ancestry inherited via Iberian ancestors. Indicine introgression into American cattle occurred in the Americas, and not Europe. We argue that cattle migration, movement and trading followed by admixture have been important forces in shaping modern bovine genomic variation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.th092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cattle domestication; genetic diversity; livestock evolution; breed differentiation; population genetics; phylogenetic analysis; bovine ancestry; introgression patterns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00007_BlueCrab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.c3318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bioone.org/journals/Journal-of-Shellfish-Research/volume-36/issue-1/035.036.0128/Population-Genomic-Analysis-of-the-Blue-Crab-iCallinectes-sapidus-i/10.2983/035.036.0128.short</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population Genomic Analysis of the Blue Crab Callinectes sapidus Using Genotyping-By-Sequencing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previous genetic studies of the blue crab Callinectes sapidus along the U.S. Atlantic and Gulf coasts have reported weak or temporally variable spatial structure, suggesting high gene flow among distant populations possibly facilitated by long-distance larval dispersal or other features of blue crab life history. The use of relatively few genetic markers, however, may have limited power to detect subtle but significant structure that could inform fisheries management. In this study, the potential for genome-scale datasets to uncover subtle patterns of population structure in the blue crab was examined using a high-throughput genotyping approach (genotyping-by-sequencing) that generated data for more than 9,600 single nucleotide polymorphisms (SNPs) in crabs from three populations: Panama City Beach, FL, Agawam River, MA, and Porto Alegre, Brazil. Principle components analyses among the three populations revealed very distinct clustering of the Brazilian samples from U.S. populations, likely reflecting restricted gene flow across the equator. Detailed analysis of population structure between the two U.S. populations revealed low but significant genetic differentiation (FST = 0.0103), with FST values ranging from -0.05 to 0.48. Previous studies have failed to detect significant genetic structure on a similar geographic scale. FST outlier analysis identified 242 loci (2.45% of total) with statistically extreme values at the false discovery rate Œ± = 0.05 level, only 16 of which showed significant sequence homology to annotated proteins via BLASTx alignment. Top BLASTx hits were to crustacean or arthropod sequences and 8 of the 16 had high sequence similarity to transposable elements or related machinery. Finally, results of population assignment tests for the two U.S. populations showed that the full marker dataset provided good power to assign individuals back to their population of origin (‚àº83% and 92% success for Panama City Beach and Agawam River, respectively), which dropped significantly when using only 500 randomly selected SNPs (‚àº61% and 72% success). Overall, this study demonstrates the great utility of high-throughput sequencing technologies for characterizing fine-scale patterns of genetic structure in blue crabs, and this approach should substantially improve the delineation of stock structure and further advance our understanding of blue crab population connectivity and ecology.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Callinectes sapidus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue Crab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genetics; blue crab; population structure; genotyping-by-sequencing; SNP analysis; fisheries management; gene flow; high-throughput sequencing technologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00008_DromedaryCamels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.n2z34tmwf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nature.com/articles/s41598-021-87296-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic prediction for growth using a low-density SNP panel in dromedary camels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For thousands of years, camels have produced meat, milk, and fiber in harsh desert conditions. For a sustainable development to provide protein resources from desert areas, it is necessary to pay attention to genetic improvement in camel breeding. By using genotyping-by-sequencing (GBS) method we produced over 14,500 genome wide markers to conduct a genome- wide association study (GWAS) for investigating the birth weight, daily gain, and body weight of 96 dromedaries in the Iranian central desert. A total of 99 SNPs were associated with birth weight, daily gain, and body weight (p-value‚Äâ&lt;‚Äâ0.002). Genomic breeding values (GEBVs) were estimated with the BGLR package using (i) all 14,522 SNPs and (ii) the 99 SNPs by GWAS. Twenty-eight SNPs were associated with birth weight, daily gain, and body weight (p-value‚Äâ&lt;‚Äâ0.001). Annotation of the genomic region (s) within‚Äâ¬±‚Äâ100 kb of the associated SNPs facilitated prediction of 36 candidate genes. The accuracy of GEBVs was more than 0.65 based on all 14,522 SNPs, but the regression coefficients for birth weight, daily gain, and body weight were 0.39, 0.20, and 0.23, respectively. Because of low sample size, the GEBVs were predicted using the associated SNPs from GWAS. The accuracy of GEBVs based on the 99 associated SNPs was 0.62, 0.82, and 0.57 for birth weight, daily gain, and body weight. This report is the first GWAS using GBS on dromedary camels and identifies markers associated with growth traits that could help to plan breeding program to genetic improvement. Further researches using larger sample size and collaboration of the camel farmers and more profound understanding will permit verification of the associated SNPs identified in this project. The preliminary results of study show that genomic selection could be the appropriate way to genetic improvement of body weight in dromedary camels, which is challenging due to a long generation interval, seasonal reproduction, and lack of records and pedigrees.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camelus dromedarius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dromedary Camels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">camels; genotyping-by-sequencing; genome-wide association study; genetic improvement; dromedary camels; genomic breeding values; growth traits; genomic selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00009_ACLinLabradorRetrievers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1534/g3.120.401244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://academic.oup.com/g3journal/article/10/8/2619/6048677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayesian and Machine Learning Models for Genomic Prediction of Anterior Cruciate Ligament Rupture in the Canine Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anterior cruciate ligament (ACL) rupture is a common, debilitating condition that leads to early-onset osteoarthritis and reduced quality of human life. ACL rupture is a complex disease with both genetic and environmental risk factors. Characterizing the genetic basis of ACL rupture would provide the ability to identify individuals that have high genetic risk and allow the opportunity for preventative management. Spontaneous ACL rupture is also common in dogs and shows a similar clinical presentation and progression. Thus, the dog has emerged as an excellent genomic model for human ACL rupture. Genome-wide association studies (GWAS) in the dog have identified a number of candidate genetic variants, but research in genomic prediction has been limited. In this analysis, we explore several Bayesian and machine learning models for genomic prediction of ACL rupture in the Labrador Retriever dog. Our work demonstrates the feasibility of predicting ACL rupture from SNPs in the Labrador Retriever model with and without consideration of non-genetic risk factors. Genomic prediction including non-genetic risk factors approached clinical relevance using multiple linear Bayesian and non-linear models. This analysis represents the first steps toward development of a predictive algorithm for ACL rupture in the Labrador Retriever model. Future work may extend this algorithm to other high-risk breeds of dog. The ability to accurately predict individual dogs at high risk for ACL rupture would identify candidates for clinical trials that would benefit both veterinary and human medicine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canis lupus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gsajournals.figshare.com/articles/dataset/Supplemental_Material_for_Baker_et_al_2020/12001344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACL rupture; genomic prediction; machine learning; Bayesian models; genome-wide association studies; Labrador Retriever; osteoarthritis; genetic risk factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00010_WolvesInMexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.g68k008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://academic.oup.com/jhered/article/109/4/372/4948759?login=false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genome-Wide Analysis of SNPs Is Consistent with No Domestic Dog Ancestry in the Endangered Mexican Wolf (Canis lupus baileyi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mexican gray wolf (Canis lupus baileyi) was historically distributed throughout the southwestern United States and northern Mexico. Extensive predator removal campaigns during the early 20th century, however, resulted in its eventual extirpation by the mid 1980s. At this time, the Mexican wolf existed only in 3 separate captive lineages (McBride, Ghost Ranch, and Arag√≥n) descended from 3, 2, and 2 founders, respectively. These lineages were merged in 1995 to increase the available genetic variation, and Mexican wolves were reintroduced into Arizona and New Mexico in 1998. Despite the ongoing management of the Mexican wolf population, it has been suggested that a proportion of the Mexican wolf ancestry may be recently derived from hybridization with domestic dogs. In this study, we genotyped 87 Mexican wolves, including individuals from all 3 captive lineages and cross-lineage wolves, for more than 172000 single nucleotide polymorphisms. We identified levels of genetic variation consistent with the pedigree record and effects of genetic rescue. To identify the potential to detect hybridization with domestic dogs, we compared our Mexican wolf genotypes with those from studies of domestic dogs and other gray wolves. The proportion of Mexican wolf ancestry assigned to domestic dogs was only between 0.06% (SD 0.23%) and 7.8% (SD 1.0%) for global and local ancestry estimates, respectively; and was consistent with simulated levels of incomplete lineage sorting. Overall, our results suggested that Mexican wolves lack biologically significant ancestry with dogs and have useful implications for the conservation and management of this endangered wolf subspecies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.g68k008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexican gray wolf; genetic diversity; wildlife conservation; hybridization; captive breeding; reintroduction programs; endangered species management; genetic markers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00011_GoatPopulations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.v8g21pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gsejournal.biomedcentral.com/articles/10.1186/s12711-018-0422-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genome-wide SNP profiling of worldwide goat populations reveals strong partitioning of diversity and highlights post-domestication migration routes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
 Goat populations that are characterized within the AdaptMap project cover a large part of the worldwide distribution of this species and provide the opportunity to assess their diversity at a global scale. We analysed genome-wide 50 K single nucleotide polymorphism (SNP) data from 144 populations to describe the global patterns of molecular variation, compare them to those observed in other livestock species, and identify the drivers that led to the current distribution of goats.
 Results
 A high degree of genetic variability exists among the goat populations studied. Our results highlight a strong partitioning of molecular diversity between and within continents. Three major gene pools correspond to goats from Europe, Africa and West Asia. Dissection of sub-structures disclosed regional gene pools, which reflect the main post-domestication migration routes. We also identified several exchanges, mainly in African populations, and which often involve admixed and cosmopolitan breeds. Extensive gene flow has taken place within specific areas (e.g., south Europe, Morocco and Mali-Burkina Faso-Nigeria), whereas elsewhere isolation due to geographical barriers (e.g., seas or mountains) or human management has decreased local gene flows.
@@ -360,115 +352,115 @@
 After domestication in the Fertile Crescent in the early Neolithic era (ca. 12,000 YBP), domestic goats that already carried differentiated gene pools spread to Europe, Africa and Asia. The spread of these populations determined the major genomic background of the continental populations, which currently have a more marked subdivision than that observed in other ruminant livestock species. Subsequently, further diversification occurred at the regional level due to geographical and reproductive isolation, which was accompanied by additional migrations and/or importations, the traces of which are still detectable today. The effects of breed formation were clearly detected, particularly in Central and North Europe. Overall, our results highlight a remarkable diversity that occurs at the global scale and is locally partitioned and often affected by introgression from cosmopolitan breeds. These findings support the importance of long-term preservation of goat diversity, and provide a useful framework for investigating adaptive introgression, directing genetic improvement and choosing breeding targets.</t>
   </si>
   <si>
-    <t>Capra hircus</t>
-  </si>
-  <si>
-    <t>Domestic goats</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.v8g21pt</t>
-  </si>
-  <si>
-    <t>genetic diversity; livestock genomics; SNP analysis; goat populations; molecular variation; gene flow; domestication; genetic conservation;</t>
-  </si>
-  <si>
-    <t>00012_AmericanChestnutAncestry</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.8w9ghx3gn</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/10.1111/eva.12886</t>
-  </si>
-  <si>
-    <t>Optimizing genomic selection for blight resistance in American chestnut backcross populations: A trade-off with American chestnut ancestry implies resistance is polygenic</t>
-  </si>
-  <si>
-    <t>American chestnut was once a foundation species of eastern North American forests, but was rendered functionally extinct in the early 20th century by an exotic fungal blight (Cryphonectria parasitica). Over the past 30 years, the American Chestnut Foundation (TACF) has pursued backcross breeding to generate hybrids that combine the timber-type form of American chestnut with the blight resistance of Chinese chestnut based on a hypothesis of major gene resistance. To accelerate selection within two backcross populations that descended from two Chinese chestnuts, we developed genomic prediction models for five presence/absence blight phenotypes of 1,230 BC3F2 selection candidates and average canker severity of their BC3F3 progeny. We also genotyped pure Chinese and American chestnut reference panels to estimate the proportion of BC3F2 genomes inherited from parent species. We found that genomic prediction from a method that assumes an infinitesimal model of inheritance (HBLUP) has similar accuracy to a method that tends to perform well for traits controlled by major genes (Bayes C). Furthermore, the proportion of BC3F2 trees' genomes inherited from American chestnut was negatively correlated with the blight resistance of these trees and their progeny. On average, selected BC3F2 trees inherited 83% of their genome from American chestnut and have blight resistance that is intermediate between F1 hybrids and American chestnut. Results suggest polygenic inheritance of blight resistance. The blight resistance of restoration populations will be enhanced through recurrent selection, by advancing additional sources of resistance through fewer backcross generations, and by potentially by breeding with transgenic blight-tolerant trees.</t>
-  </si>
-  <si>
-    <t>Castanea dentata</t>
-  </si>
-  <si>
-    <t>American Chestnut</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.8w9ghx3gn</t>
-  </si>
-  <si>
-    <t>Read ReadMe.txt file</t>
-  </si>
-  <si>
-    <t>American chestnut; Cryphonectria parasitica; blight resistance; genomic prediction; hybrid breeding; forest restoration; backcross breeding; polygenic inheritance</t>
-  </si>
-  <si>
-    <t>00013_DaintyDamselfly</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.n0hk7</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/10.1111/mec.13462</t>
-  </si>
-  <si>
-    <t>Neutral and adaptive genomic signatures of rapid poleward range expansion</t>
-  </si>
-  <si>
-    <t>Many species are expanding their range polewards, and this has been associated with rapid phenotypic change. Yet, it is unclear to what extent this reflects rapid genetic adaptation or neutral processes associated with range expansion, or selection linked to the new thermal conditions encountered. To disentangle these alternatives, we studied the genomic signature of range expansion in the damselfly Coenagrion scitulum using 4950 newly developed genomic SNPs and linked this to the rapidly evolved phenotypic differences between core and (newly established) edge populations. Most edge populations were genetically clearly differentiated from the core populations and all were differentiated from each other indicating independent range expansion events. In addition, evidence for genetic drift in the edge populations, and strong evidence for adaptive genetic variation in association with the range expansion was detected. We identified one SNP under consistent selection in four of the five edge populations and showed that the allele increasing in frequency is associated with increased flight performance. This indicates collateral, non-neutral evolutionary changes in independent edge populations driven by the range expansion process. We also detected a genomic signature of adaptation to the newly encountered thermal regimes, reflecting a pattern of countergradient variation. The latter signature was identified at a single SNP as well as in a set of covarying SNPs using a polygenic multilocus approach to detect selection. Overall, this study highlights how a strategic geographic sampling design and the integration of genomic, phenotypic and environmental data can identify and disentangle the neutral and adaptive processes that are simultaneously operating during range expansions.</t>
-  </si>
-  <si>
-    <t>Coenagrion scitulum</t>
-  </si>
-  <si>
-    <t>Dainty damselfly</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.n0hk7</t>
-  </si>
-  <si>
-    <t>range expansion; phenotypic change; genetic adaptation; genomic SNPs; evolutionary biology; thermal adaptation; Coenagrion scitulum; countergradient variation</t>
-  </si>
-  <si>
-    <t>00014_CoffeeInMultipleEnvironments</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.1139fm7</t>
-  </si>
-  <si>
-    <t>https://www.nature.com/articles/s41437-018-0105-y</t>
-  </si>
-  <si>
-    <t>Accurate genomic prediction of Coffea canephora in multiple environments using whole-genome statistical models</t>
-  </si>
-  <si>
-    <t>Genomic selection has been proposed as the standard method to predict breeding values in animal and plant breeding. Although some crops have benefited from this methodology, studies in Coffea are still emerging. To date, there have been no studies describing how well genomic prediction models work across populations and environments for different complex traits in coffee. Considering that predictive models are based on biological and statistical assumptions, it is expected that their performance vary depending on how well these assumptions align with the true genetic architecture of the phenotype. To investigate this, we used data from two recurrent selection populations of Coffea canephora, evaluated in two locations, and single nucleotide polymorphisms identified by Genotyping-by-Sequencing. In particular, we evaluated the performance of 13 statistical approaches to predict three important traits in the coffee‚Äîproduction of coffee beans, leaf rust incidence and yield of green beans. Analyses were performed for predictions within-environment, across locations and across populations to assess the reliability of genomic selection. Overall, differences in the prediction accuracy of the competing models were small, although the Bayesian methods showed a modest improvement over other methods, at the cost of more computation time. As expected, predictive accuracy for within-environment analysis, on average, were higher than predictions across locations and across populations. Our results support the potential of genomic selection to reshape traditional plant breeding schemes. In practice, we expect to increase the genetic gain per unit of time by reducing the length cycle of recurrent selection in coffee.</t>
-  </si>
-  <si>
-    <t>Coffea canephora</t>
-  </si>
-  <si>
-    <t>Robusta coffee</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.1139fm7</t>
-  </si>
-  <si>
-    <t>genomic selection; Coffea canephora; plant breeding; genetic architecture; prediction models; SNP genotyping; Bayesian methods; trait prediction</t>
-  </si>
-  <si>
-    <t>00015_HeightAndWoodDensityOfDouglas</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.vk048</t>
-  </si>
-  <si>
-    <t>https://bmcgenomics.biomedcentral.com/articles/10.1186/s12864-017-4258-5</t>
-  </si>
-  <si>
-    <t>Genomic prediction accuracies in space and time for height and wood density of Douglas-fir using exome capture as the genotyping platform</t>
-  </si>
-  <si>
-    <t>Background
+    <t xml:space="preserve">Capra hircus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic goats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.v8g21pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genetic diversity; livestock genomics; SNP analysis; goat populations; molecular variation; gene flow; domestication; genetic conservation;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00012_AmericanChestnutAncestry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.8w9ghx3gn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/10.1111/eva.12886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimizing genomic selection for blight resistance in American chestnut backcross populations: A trade-off with American chestnut ancestry implies resistance is polygenic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American chestnut was once a foundation species of eastern North American forests, but was rendered functionally extinct in the early 20th century by an exotic fungal blight (Cryphonectria parasitica). Over the past 30 years, the American Chestnut Foundation (TACF) has pursued backcross breeding to generate hybrids that combine the timber-type form of American chestnut with the blight resistance of Chinese chestnut based on a hypothesis of major gene resistance. To accelerate selection within two backcross populations that descended from two Chinese chestnuts, we developed genomic prediction models for five presence/absence blight phenotypes of 1,230 BC3F2 selection candidates and average canker severity of their BC3F3 progeny. We also genotyped pure Chinese and American chestnut reference panels to estimate the proportion of BC3F2 genomes inherited from parent species. We found that genomic prediction from a method that assumes an infinitesimal model of inheritance (HBLUP) has similar accuracy to a method that tends to perform well for traits controlled by major genes (Bayes C). Furthermore, the proportion of BC3F2 trees' genomes inherited from American chestnut was negatively correlated with the blight resistance of these trees and their progeny. On average, selected BC3F2 trees inherited 83% of their genome from American chestnut and have blight resistance that is intermediate between F1 hybrids and American chestnut. Results suggest polygenic inheritance of blight resistance. The blight resistance of restoration populations will be enhanced through recurrent selection, by advancing additional sources of resistance through fewer backcross generations, and by potentially by breeding with transgenic blight-tolerant trees.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castanea dentata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Chestnut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.8w9ghx3gn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read ReadMe.txt file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American chestnut; Cryphonectria parasitica; blight resistance; genomic prediction; hybrid breeding; forest restoration; backcross breeding; polygenic inheritance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00013_DaintyDamselfly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.n0hk7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/10.1111/mec.13462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutral and adaptive genomic signatures of rapid poleward range expansion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many species are expanding their range polewards, and this has been associated with rapid phenotypic change. Yet, it is unclear to what extent this reflects rapid genetic adaptation or neutral processes associated with range expansion, or selection linked to the new thermal conditions encountered. To disentangle these alternatives, we studied the genomic signature of range expansion in the damselfly Coenagrion scitulum using 4950 newly developed genomic SNPs and linked this to the rapidly evolved phenotypic differences between core and (newly established) edge populations. Most edge populations were genetically clearly differentiated from the core populations and all were differentiated from each other indicating independent range expansion events. In addition, evidence for genetic drift in the edge populations, and strong evidence for adaptive genetic variation in association with the range expansion was detected. We identified one SNP under consistent selection in four of the five edge populations and showed that the allele increasing in frequency is associated with increased flight performance. This indicates collateral, non-neutral evolutionary changes in independent edge populations driven by the range expansion process. We also detected a genomic signature of adaptation to the newly encountered thermal regimes, reflecting a pattern of countergradient variation. The latter signature was identified at a single SNP as well as in a set of covarying SNPs using a polygenic multilocus approach to detect selection. Overall, this study highlights how a strategic geographic sampling design and the integration of genomic, phenotypic and environmental data can identify and disentangle the neutral and adaptive processes that are simultaneously operating during range expansions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coenagrion scitulum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dainty damselfly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.n0hk7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">range expansion; phenotypic change; genetic adaptation; genomic SNPs; evolutionary biology; thermal adaptation; Coenagrion scitulum; countergradient variation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00014_CoffeeInMultipleEnvironments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.1139fm7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nature.com/articles/s41437-018-0105-y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accurate genomic prediction of Coffea canephora in multiple environments using whole-genome statistical models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic selection has been proposed as the standard method to predict breeding values in animal and plant breeding. Although some crops have benefited from this methodology, studies in Coffea are still emerging. To date, there have been no studies describing how well genomic prediction models work across populations and environments for different complex traits in coffee. Considering that predictive models are based on biological and statistical assumptions, it is expected that their performance vary depending on how well these assumptions align with the true genetic architecture of the phenotype. To investigate this, we used data from two recurrent selection populations of Coffea canephora, evaluated in two locations, and single nucleotide polymorphisms identified by Genotyping-by-Sequencing. In particular, we evaluated the performance of 13 statistical approaches to predict three important traits in the coffee‚Äîproduction of coffee beans, leaf rust incidence and yield of green beans. Analyses were performed for predictions within-environment, across locations and across populations to assess the reliability of genomic selection. Overall, differences in the prediction accuracy of the competing models were small, although the Bayesian methods showed a modest improvement over other methods, at the cost of more computation time. As expected, predictive accuracy for within-environment analysis, on average, were higher than predictions across locations and across populations. Our results support the potential of genomic selection to reshape traditional plant breeding schemes. In practice, we expect to increase the genetic gain per unit of time by reducing the length cycle of recurrent selection in coffee.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coffea canephora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robusta coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.1139fm7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic selection; Coffea canephora; plant breeding; genetic architecture; prediction models; SNP genotyping; Bayesian methods; trait prediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00015_HeightAndWoodDensityOfDouglas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.vk048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bmcgenomics.biomedcentral.com/articles/10.1186/s12864-017-4258-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic prediction accuracies in space and time for height and wood density of Douglas-fir using exome capture as the genotyping platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
 Genomic selection (GS) can offer unprecedented gains, in terms of cost efficiency and generation turnover, to forest tree selective breeding; especially for late expressing and low heritability traits. Here, we used: 1) exome capture as a genotyping platform for 1372 Douglas-fir trees representing 37 full-sib families growing on three sites in British Columbia, Canada and 2) height growth and wood density (EBVs), and deregressed estimated breeding values (DEBVs) as phenotypes. Representing models with (EBVs) and without (DEBVs) pedigree structure. Ridge regression best linear unbiased predictor (RR-BLUP) and generalized ridge regression (GRR) were used to assess their predictive accuracies over space (within site, cross-sites, multi-site, and multi-site to single site) and time (age-age/ trait-trait).
 Results
 The RR-BLUP and GRR models produced similar predictive accuracies across the studied traits. Within-site GS prediction accuracies with models trained on EBVs were high (RR-BLUP: 0.79‚Äì0.91 and GRR: 0.80‚Äì0.91), and were generally similar to the multi-site (RR-BLUP: 0.83‚Äì0.91, GRR: 0.83‚Äì0.91) and multi-site to single-site predictive accuracies (RR-BLUP: 0.79‚Äì0.92, GRR: 0.79‚Äì0.92). Cross-site predictions were surprisingly high, with predictive accuracies within a similar range (RR-BLUP: 0.79‚Äì0.92, GRR: 0.78‚Äì0.91). Height at 12 years was deemed the earliest acceptable age at which accurate predictions can be made concerning future height (age-age) and wood density (trait-trait). Using DEBVs reduced the accuracies of all cross-validation procedures dramatically, indicating that the models were tracking pedigree (family means), rather than marker-QTL LD.
@@ -476,55 +468,55 @@
 While GS models‚Äô prediction accuracies were high, the main driving force was the pedigree tracking rather than LD. It is likely that many more markers are needed to increase the chance of capturing the LD between causal genes and markers.</t>
   </si>
   <si>
-    <t>Pseudotsuga menziesii</t>
-  </si>
-  <si>
-    <t>Douglas fir</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.vk048</t>
-  </si>
-  <si>
-    <t>genomic selection; forest tree breeding; predictive accuracy; ridge regression; marker-QTL linkage disequilibrium; Douglas-fir; phenotype prediction; cross-site prediction</t>
-  </si>
-  <si>
-    <t>00016_PopulationStructureOfPacificOysters</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.6d778b6</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/10.1111/eva.12736</t>
-  </si>
-  <si>
-    <t>Detailed insights into pan-European population structure and inbreeding in wild and hatchery Pacific oysters (Crassostrea gigas) revealed by genome-wide SNP data</t>
-  </si>
-  <si>
-    <t>Cultivated bivalves are important not only because of their economic value, but also due to their impacts on natural ecosystems. The Pacific oyster (Crassostrea gigas) is the world's most heavily cultivated shellfish species and has been introduced to all continents except Antarctica for aquaculture. We therefore used a medium-density single nucleotide polymorphism (SNP) array to investigate the genetic structure of this species in Europe, where it was introduced during the 1960s and has since become a prolific invader of coastal ecosystems across the continent. We analyzed 21,499 polymorphic SNPs in 232 individuals from 23 localities spanning a latitudinal cline from Portugal to Norway and including the source populations of Japan and Canada. We confirmed the results of previous studies by finding clear support for a southern and a northern group, with the former being indistinguishable from the source populations indicating the absence of a pronounced founder effect. We furthermore conducted a large-scale comparison of oysters sampled from the wild and from hatcheries to reveal substantial genetic differences including significantly higher levels of inbreeding in some but not all of the sampled hatchery cohorts. These findings were confirmed by a smaller but representative SNP dataset generated using restriction site-associated DNA sequencing. We therefore conclude that genomic approaches can generate increasingly detailed insights into the genetics of wild and hatchery produced Pacific oysters.</t>
-  </si>
-  <si>
-    <t>Crassostrea gigas</t>
-  </si>
-  <si>
-    <t>Pacific oysters</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.6d778b6</t>
-  </si>
-  <si>
-    <t>aquaculture; genetic diversity; SNP array; invasive species; Pacific oyster; conservation genetics; population genetics; Crassostrea gigas</t>
-  </si>
-  <si>
-    <t>00017_IndividualsAndFamiliesOfEucalyptus</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.ms580</t>
-  </si>
-  <si>
-    <t>https://www.nature.com/articles/hdy201737</t>
-  </si>
-  <si>
-    <t>Assessing the expected response to genomic selection of individuals and families in Eucalyptus breeding with an additive-dominant model</t>
+    <t xml:space="preserve">Pseudotsuga menziesii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Douglas fir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.vk048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic selection; forest tree breeding; predictive accuracy; ridge regression; marker-QTL linkage disequilibrium; Douglas-fir; phenotype prediction; cross-site prediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00016_PopulationStructureOfPacificOysters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.6d778b6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/10.1111/eva.12736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detailed insights into pan-European population structure and inbreeding in wild and hatchery Pacific oysters (Crassostrea gigas) revealed by genome-wide SNP data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cultivated bivalves are important not only because of their economic value, but also due to their impacts on natural ecosystems. The Pacific oyster (Crassostrea gigas) is the world's most heavily cultivated shellfish species and has been introduced to all continents except Antarctica for aquaculture. We therefore used a medium-density single nucleotide polymorphism (SNP) array to investigate the genetic structure of this species in Europe, where it was introduced during the 1960s and has since become a prolific invader of coastal ecosystems across the continent. We analyzed 21,499 polymorphic SNPs in 232 individuals from 23 localities spanning a latitudinal cline from Portugal to Norway and including the source populations of Japan and Canada. We confirmed the results of previous studies by finding clear support for a southern and a northern group, with the former being indistinguishable from the source populations indicating the absence of a pronounced founder effect. We furthermore conducted a large-scale comparison of oysters sampled from the wild and from hatcheries to reveal substantial genetic differences including significantly higher levels of inbreeding in some but not all of the sampled hatchery cohorts. These findings were confirmed by a smaller but representative SNP dataset generated using restriction site-associated DNA sequencing. We therefore conclude that genomic approaches can generate increasingly detailed insights into the genetics of wild and hatchery produced Pacific oysters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crassostrea gigas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacific oysters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.6d778b6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aquaculture; genetic diversity; SNP array; invasive species; Pacific oyster; conservation genetics; population genetics; Crassostrea gigas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00017_IndividualsAndFamiliesOfEucalyptus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.ms580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nature.com/articles/hdy201737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessing the expected response to genomic selection of individuals and families in Eucalyptus breeding with an additive-dominant model</t>
   </si>
   <si>
     <t xml:space="preserve">We report a genomic selection (GS) study of growth and wood quality traits in an outbred F2 hybrid Eucalyptus population (n=768) using high-density single-nucleotide polymorphism (SNP) genotyping. Going beyond previous reports in forest trees, models were developed for different selection targets, namely, families, individuals within families and individuals across the entire population using a genomic model including dominance. To provide a more breeder-intelligible assessment of the performance of GS we calculated the expected response as the percentage gain over the population average expected genetic value (EGV) for different proportions of genomically selected individuals, using a rigorous cross-validation (CV) scheme that removed relatedness between training and validation sets. Predictive abilities (PAs) were 0.40‚Äì0.57 for individual selection and 0.56‚Äì0.75 for family selection. PAs under an additive+dominance model improved predictions by 5 to 14% for growth depending on the selection target, but no improvement was seen for wood traits. The good performance of GS with no relatedness in CV suggested that our average SNP density (~25‚Äâkb) captured some short-range linkage disequilibrium. Truncation GS successfully selected individuals with an average EGV significantly higher than the population average. Response to GS on a per year basis was ~100% more efficient than by phenotypic selection and more so with higher selection intensities. These results contribute further experimental data supporting the positive prospects of GS in forest trees. Because generation times are long, traits are complex and costs of DNA genotyping are plummeting, genomic prediction has good perspectives of adoption in tree breeding practice.
@@ -533,106 +525,106 @@
 </t>
   </si>
   <si>
-    <t>Eucalyptus</t>
-  </si>
-  <si>
-    <t>Gum Trees</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.ms580</t>
-  </si>
-  <si>
-    <t>genomic selection; SNP genotyping; Eucalyptus breeding; forest genetics; predictive ability; cross-validation; genetic improvement; tree breeding practices</t>
-  </si>
-  <si>
-    <t>00018_AssociationMappingGenomicPrediction</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.rbnzs7hbx</t>
-  </si>
-  <si>
-    <t>https://acsess.onlinelibrary.wiley.com/doi/full/10.1002/tpg2.20164</t>
-  </si>
-  <si>
-    <t>Accelerating wheat breeding for end-use quality through association mapping and multivariate genomic prediction</t>
-  </si>
-  <si>
-    <t>In hard-winter wheat (Triticum aestivum L.) breeding, the evaluation of end-use quality is expensive and time-consuming, being relegated to the final stages of the breeding program after selection for many traits including disease resistance, agronomic performance, and grain yield. In this study, our objectives were to identify genetic variants underlying baking quality traits through genome-wide association study (GWAS) and develop improved genomic selection (GS) models for the quality traits in hard-winter wheat. Advanced breeding lines (n = 462) from 2015‚Äì2017 were genotyped using genotyping-by-sequencing (GBS) and evaluated for baking quality. Significant associations were detected for mixograph mixing time and bake mixing time, most of which were within or in tight linkage to glutenin and gliadin loci and could be suitable for marker-assisted breeding. Candidate genes for newly associated loci are phosphate-dependent decarboxylase and lipid transfer protein genes, which are believed to affect nitrogen metabolism and dough development, respectively. The use of GS can both shorten the breeding cycle time and significantly increase the number of lines that could be selected for quality traits, thus we evaluated various GS models for end-use quality traits. As a baseline, univariate GS models had 0.25‚Äì0.55 prediction accuracy in cross-validation and from 0 to 0.41 in forward prediction. By including secondary traits as additional predictor variables (univariate GS with covariates) or correlated response variables (multivariate GS), the prediction accuracies were increased relative to the univariate model using only genomic information. The improved genomic prediction models have great potential to further accelerate wheat breeding for end-use quality.</t>
-  </si>
-  <si>
-    <t>Triticum aestivum</t>
-  </si>
-  <si>
-    <t>Wheat</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.rbnzs7hbx</t>
-  </si>
-  <si>
-    <t>genomics; plant breeding; wheat quality; genomic selection; GWAS; marker-assisted breeding; glutenin and gliadin; baking quality traits</t>
-  </si>
-  <si>
-    <t>00019_CRANWheatData</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.32614/CRAN.package.BGLR</t>
-  </si>
-  <si>
-    <t>https://cran.r-project.org/web/packages/BGLR/index.html</t>
-  </si>
-  <si>
-    <t>BGLR: Bayesian Generalized Linear Regression</t>
-  </si>
-  <si>
-    <t>The BGLR (Bayesian Generalized Linear Regression) function fits various types of parametric and semi-parametric Bayesian regressions to continuos (censored or not), binary and ordinal outcomes</t>
-  </si>
-  <si>
-    <t>https://CRAN.R-project.org/package=BGLR</t>
-  </si>
-  <si>
-    <t>Bayesian statistics; generalized linear regression; parametric regression; semi-parametric regression; continuous outcomes; binary outcomes; ordinal outcomes; BGLR function</t>
-  </si>
-  <si>
-    <t>00020_EnhancingGenomicPredictionMaize</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.cd3hv</t>
-  </si>
-  <si>
-    <t>https://www.nature.com/articles/hdy20174</t>
-  </si>
-  <si>
-    <t>Enhancing genomic prediction with genome-wide association studies in multiparental maize populations</t>
-  </si>
-  <si>
-    <t>Genome-wide association mapping using dense marker sets has identified some nucleotide variants affecting complex traits that have been validated with fine-mapping and functional analysis. However, many sequence variants associated with complex traits in maize have small effects and low repeatability. In contrast to genome-wide association study (GWAS), genomic prediction (GP) is typically based on models incorporating information from all available markers, rather than modeling effects of individual loci. We considered methods to integrate results of GWASs into GP models in the context of multiple interconnected families. We compared association tests based on a biallelic additive model constraining the effect of a single-nucleotide polymorphism (SNP) to be equal across all families in which it segregates to a model in which the effect of a SNP can vary across families. Association SNPs were then included as fixed effects into a GP model that also included the random effects of the whole genome background. Simulation studies revealed that the effectiveness of this joint approach depends on the extent of polygenicity of the traits. Congruent with this finding, cross-validation studies indicated that GP including the fixed effects of the most significantly associated SNPs along with the polygenic background was more accurate than the polygenic background model alone for moderately complex but not highly polygenic traits measured in the maize nested association mapping population. Individual SNPs with strong and robust association signals can effectively improve GP. Our approach provides a new integrative modeling approach for both reliable gene discovery and robust GP.</t>
-  </si>
-  <si>
-    <t>Zea mays</t>
-  </si>
-  <si>
-    <t>Maize</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.cd3hv</t>
-  </si>
-  <si>
-    <t>GWAS; genomic prediction; SNP effects; maize genetics; complex traits; simulation studies; polygenic traits; genetic markers</t>
-  </si>
-  <si>
-    <t>00021_GenomicPredictionModelTraitsMaize</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1186/s12870-022-03479-y</t>
-  </si>
-  <si>
-    <t>https://bmcplantbiol.biomedcentral.com/articles/10.1186/s12870-022-03479-y#Abs1</t>
-  </si>
-  <si>
-    <t>Genomic prediction models for traits differing in heritability for soybean, rice, and maize</t>
-  </si>
-  <si>
-    <t>Background
+    <t xml:space="preserve">Eucalyptus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gum Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.ms580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic selection; SNP genotyping; Eucalyptus breeding; forest genetics; predictive ability; cross-validation; genetic improvement; tree breeding practices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00018_AssociationMappingGenomicPrediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.rbnzs7hbx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://acsess.onlinelibrary.wiley.com/doi/full/10.1002/tpg2.20164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accelerating wheat breeding for end-use quality through association mapping and multivariate genomic prediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In hard-winter wheat (Triticum aestivum L.) breeding, the evaluation of end-use quality is expensive and time-consuming, being relegated to the final stages of the breeding program after selection for many traits including disease resistance, agronomic performance, and grain yield. In this study, our objectives were to identify genetic variants underlying baking quality traits through genome-wide association study (GWAS) and develop improved genomic selection (GS) models for the quality traits in hard-winter wheat. Advanced breeding lines (n = 462) from 2015‚Äì2017 were genotyped using genotyping-by-sequencing (GBS) and evaluated for baking quality. Significant associations were detected for mixograph mixing time and bake mixing time, most of which were within or in tight linkage to glutenin and gliadin loci and could be suitable for marker-assisted breeding. Candidate genes for newly associated loci are phosphate-dependent decarboxylase and lipid transfer protein genes, which are believed to affect nitrogen metabolism and dough development, respectively. The use of GS can both shorten the breeding cycle time and significantly increase the number of lines that could be selected for quality traits, thus we evaluated various GS models for end-use quality traits. As a baseline, univariate GS models had 0.25‚Äì0.55 prediction accuracy in cross-validation and from 0 to 0.41 in forward prediction. By including secondary traits as additional predictor variables (univariate GS with covariates) or correlated response variables (multivariate GS), the prediction accuracies were increased relative to the univariate model using only genomic information. The improved genomic prediction models have great potential to further accelerate wheat breeding for end-use quality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triticum aestivum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.rbnzs7hbx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomics; plant breeding; wheat quality; genomic selection; GWAS; marker-assisted breeding; glutenin and gliadin; baking quality traits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00019_CRANWheatData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.32614/CRAN.package.BGLR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cran.r-project.org/web/packages/BGLR/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGLR: Bayesian Generalized Linear Regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The BGLR (Bayesian Generalized Linear Regression) function fits various types of parametric and semi-parametric Bayesian regressions to continuos (censored or not), binary and ordinal outcomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://CRAN.R-project.org/package=BGLR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayesian statistics; generalized linear regression; parametric regression; semi-parametric regression; continuous outcomes; binary outcomes; ordinal outcomes; BGLR function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00020_EnhancingGenomicPredictionMaize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.cd3hv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nature.com/articles/hdy20174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhancing genomic prediction with genome-wide association studies in multiparental maize populations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genome-wide association mapping using dense marker sets has identified some nucleotide variants affecting complex traits that have been validated with fine-mapping and functional analysis. However, many sequence variants associated with complex traits in maize have small effects and low repeatability. In contrast to genome-wide association study (GWAS), genomic prediction (GP) is typically based on models incorporating information from all available markers, rather than modeling effects of individual loci. We considered methods to integrate results of GWASs into GP models in the context of multiple interconnected families. We compared association tests based on a biallelic additive model constraining the effect of a single-nucleotide polymorphism (SNP) to be equal across all families in which it segregates to a model in which the effect of a SNP can vary across families. Association SNPs were then included as fixed effects into a GP model that also included the random effects of the whole genome background. Simulation studies revealed that the effectiveness of this joint approach depends on the extent of polygenicity of the traits. Congruent with this finding, cross-validation studies indicated that GP including the fixed effects of the most significantly associated SNPs along with the polygenic background was more accurate than the polygenic background model alone for moderately complex but not highly polygenic traits measured in the maize nested association mapping population. Individual SNPs with strong and robust association signals can effectively improve GP. Our approach provides a new integrative modeling approach for both reliable gene discovery and robust GP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zea mays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.cd3hv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GWAS; genomic prediction; SNP effects; maize genetics; complex traits; simulation studies; polygenic traits; genetic markers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00021_GenomicPredictionModelTraitsMaize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1186/s12870-022-03479-y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bmcplantbiol.biomedcentral.com/articles/10.1186/s12870-022-03479-y#Abs1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic prediction models for traits differing in heritability for soybean, rice, and maize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
 Genomic selection is a powerful tool in plant breeding. By building a prediction model using a training set with markers and phenotypes, genomic estimated breeding values (GEBVs) can be used as predictions of breeding values in a target set with only genotype data. There is, however, limited information on how prediction accuracy of genomic prediction can be optimized. The objective of this study was to evaluate the performance of 11 genomic prediction models across species in terms of prediction accuracy for two traits with different heritabilities using several subsets of markers and training population proportions. Species studied were maize (Zea mays, L.), soybean (Glycine max, L.), and rice (Oryza sativa, L.), which vary in linkage disequilibrium (LD) decay rates and have contrasting genetic architectures.
 Results
 Correlations between observed and predicted GEBVs were determined via cross validation for three training-to-testing proportions (90:10, 70:30, and 50:50). Maize, which has the shortest extent of LD, showed the highest prediction accuracy. Amongst all the models tested, Bayes B performed better than or equal to all other models for each trait in all the three crops. Traits with higher broad-sense and narrow-sense heritabilities were associated with higher prediction accuracy. When subsets of markers were selected based on LD, the accuracy was similar to that observed from the complete set of markers. However, prediction accuracies were significantly improved when using a subset of total markers that were significant at P‚Äâ‚â§‚Äâ0.05 or P‚Äâ‚â§‚Äâ0.10. As expected, exclusion of QTL-associated markers in the model reduced prediction accuracy. Prediction accuracy varied among different training population proportions.
@@ -640,593 +632,593 @@
 We conclude that prediction accuracy for genomic selection can be improved by using the Bayes B model with a subset of significant markers and by selecting the training population based on narrow sense heritability.</t>
   </si>
   <si>
-    <t>https://bmcplantbiol.biomedcentral.com/articles/10.1186/s12870-022-03479-y#Sec18</t>
-  </si>
-  <si>
-    <t>Go to Supplementary Information of the article and Download Additional file 3</t>
-  </si>
-  <si>
-    <t>genomic selection; plant breeding; prediction models; breeding values; genetic architecture; linkage disequilibrium; marker subsets; training population proportions</t>
-  </si>
-  <si>
-    <t>00022_GenomicPredictionModelTraitsRice</t>
-  </si>
-  <si>
-    <t>Oriza sativa</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>genomic selection; plant breeding; prediction models; marker subsets; training population; heritability; Bayes B model; cross-validation</t>
-  </si>
-  <si>
-    <t>00023_GenomicPredictionModelTraitsSoybean</t>
-  </si>
-  <si>
-    <t>Glycine max</t>
-  </si>
-  <si>
-    <t>Soybean</t>
-  </si>
-  <si>
-    <t>genomic selection; plant breeding; prediction models; breeding values; marker subsets; training population; Bayes B model; heritability</t>
-  </si>
-  <si>
-    <t>00024_GenomicPredictionTropicalMaize</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.5525263.v2</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/10.1111/pbr.12827</t>
-  </si>
-  <si>
-    <t>Using public databases for genomic prediction of tropical maize lines</t>
-  </si>
-  <si>
-    <t>In this paper, the aims were (a) to test the usefulness of using genomic and phenotypic information from public databases (open access) to predict genetic values for tropical maize inbred lines regarding plant and ear height; (b) to identify how the population structure, the use of optimized training sets (OTSs) and the amount of information originating from public databases affect the predictive ability. Thus, 29 training sets (TSs) were defined considering three diversity panels: the University of S√£o Paulo (USP‚Äîvalidation set (VS)) and the ASSO and USDA North Central Regional Plant Introduction Station (NCRPIS) (external public panels‚Äîpredictors), which were divided into four scenarios with different TS configurations. We showed that it is possible to use public datasets as a primary TS and that population structure can modify the predictive abilities of GS. In the four scenarios proposed, very large or very small sets did not provide predictive abilities over 0.53 for GS. However, OTSs composed of 250 individuals were sufficient to achieve predictive abilities over this limit.</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/Predicting_tropical_maize_inbred_lines_with_external_panels_from_public_dataset/5525263/2</t>
-  </si>
-  <si>
-    <t>genomic prediction; tropical maize; phenotypic data; population structure; training sets; predictive ability; genetic values; public databases</t>
-  </si>
-  <si>
-    <t>00025_GenomicSelectionPopulationGeneticsRCedar</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5281/zenodo.6562381</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/full/10.1111/eva.13526</t>
-  </si>
-  <si>
-    <t>Genetic architecture of terpene chemistry and growth traits and the impact of inbreeding on these traits in western redcedar (Thuja plicata)</t>
-  </si>
-  <si>
-    <t>Western redcedar (WRC; Thuja plicata) is a conifer of the Pacific Northwest of North America prized for its durable and rot-resistant wood. WRC has naturally low outcrossing rates and readily self-fertilizes in nature. Challenges faced in WRC breeding and propagation involve selecting trees for accelerated growth while also ensuring enhanced heartwood rot resistance and resistance to ungulate browsing, as well as mitigating potential effects of inbreeding depression. Terpenes, a large and diverse class of specialized metabolites, confer both rot and browse resistance in the wood and foliage of WRC, respectively. Using a Bayesian modelling approach, we isolated single nucleotide polymorphism (SNP) markers estimated to be associated with three different foliar terpene traits and four different heartwood terpene traits, as well as two growth traits. We found that all traits were complex, being associated with between 1700 and 3600 SNPs linked with putatively causal loci, with significant polygenic components. Growth traits tended to have a larger polygenic component while terpene traits had larger major gene components; SNPs with small or polygenic effect were spread across the genome, while larger-effect SNPs tended to be localized to specific linkage groups. To determine whether there was inbreeding depression for terpene chemistry or growth traits, we used mixed linear models for a genomic selection training population to estimate the effect of the inbreeding coefficient F on foliar terpenes, heartwood terpenes and several growth and dendrochronological traits. We did not find significant inbreeding depression for any assessed trait. We further assessed inbreeding depression across four generations of complete selfing and found that not only was inbreeding depression not significant but that selection for height growth was the only significant predictor for growth during selfing, suggesting that inbreeding depression due to selfing during operational breeding can be mitigated by increased selection intensity.</t>
-  </si>
-  <si>
-    <t>Thuja plicata</t>
-  </si>
-  <si>
-    <t>Western Redcedar</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/records/6562381</t>
-  </si>
-  <si>
-    <t>Western redcedar breeding; terpene traits; SNP markers; genomic selection; inbreeding depression; forest genetics; conifer propagation; ungulate browsing resistance</t>
-  </si>
-  <si>
-    <t>00026_GlobalDurumWheatPanel</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1093/database/baac034</t>
-  </si>
-  <si>
-    <t>https://www.frontiersin.org/journals/plant-science/articles/10.3389/fpls.2020.569905/full</t>
-  </si>
-  <si>
-    <t>The Global Durum Wheat Panel (GDP): An International Platform to Identify and Exchange Beneficial Alleles</t>
-  </si>
-  <si>
-    <t>Representative, broad and diverse collections are a primary resource to dissect genetic diversity and meet pre-breeding and breeding goals through the identification of beneficial alleles for target traits. From 2,500 tetraploid wheat accessions obtained through an international collaborative effort, a Global Durum wheat Panel (GDP) of 1,011 genotypes was assembled that captured 94‚Äì97% of the original diversity. The GDP consists of a wide representation of Triticum turgidum ssp. durum modern germplasm and landraces, along with a selection of emmer and primitive tetraploid wheats to maximize diversity. GDP accessions were genotyped using the wheat iSelect 90K SNP array. Among modern durum accessions, breeding programs from Italy, France and Central Asia provided the highest level of genetic diversity, with only a moderate decrease in genetic diversity observed across nearly 50 years of breeding (1970‚Äì2018). Further, the breeding programs from Europe had the largest sets of unique alleles. LD was lower in the landraces (0.4 Mbp) than in modern germplasm (1.8 Mbp) at r2 = 0.5. ADMIXTURE analysis of modern germplasm defined a minimum of 13 distinct genetic clusters (k), which could be traced to the breeding program of origin. Chromosome regions putatively subjected to strong selection pressure were identified from fixation index (Fst) and diversity reduction index (DRI) metrics in pairwise comparisons among decades of release and breeding programs. Clusters of putative selection sweeps (PSW) were identified as co-localized with major loci controlling phenology (Ppd and Vrn), plant height (Rht) and quality (gliadins and glutenins), underlining the role of the corresponding genes as driving elements in modern breeding. Public seed availability and deep genetic characterization of the GDP make this collection a unique and ideal resource to identify and map useful genetic diversity at loci of interest to any breeding program.</t>
-  </si>
-  <si>
-    <t>Triticum turgidum</t>
-  </si>
-  <si>
-    <t>https://graingenes.org/GG3/global_durum_genomic_resources</t>
-  </si>
-  <si>
-    <t>Download GDP_Illumina_90K_SNP_1025Geno_44536SNP file - Genotypic data and GDP_list_passport_1028_accessions file - Phenotypic data</t>
-  </si>
-  <si>
-    <t>genetic diversity; plant breeding; durum wheat; SNP genotyping; allele identification; landraces and germplasm; genetic clusters; selection pressure</t>
-  </si>
-  <si>
-    <t>00027_ReEvaluatingCohosalmon</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.r4xgxd2gx</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/full/10.1111/eva.13489</t>
-  </si>
-  <si>
-    <t>Re-evaluating Coho salmon (Oncorhynchus kisutch) conservation units in Canada using genomic data</t>
-  </si>
-  <si>
-    <t>Conservation units (CUs) are important tools for supporting the implementation of standardized management practices for exploited species. Following the adoption of the Wild Salmon Policy in Canada, CUs were defined for Pacific salmon based on characteristics related to ecotype, life history and genetic variation using microsatellite markers as indirect measures of local adaptation. Genomic data sets have the potential to improve the definition of CUs by reducing variance around estimates of population genetic parameters, thereby increasing the power to detect more subtle patterns of population genetic structure and by providing an opportunity to incorporate adaptive information more directly with the identification of variants putatively under selection. We used one of the largest genomic data sets recently published for a nonmodel species, comprising 5662 individual Coho salmon (Oncorhynchus kisutch) from 149 sampling locations and a total of 24,542 high-quality SNPs obtained using genotyping-by-sequencing and mapped to the Coho salmon reference genome to (1) evaluate the current delineation of CUs for Coho in Canada and (2) compare patterns of population structure observed using neutral and outlier loci from genotype‚Äìenvironment association analyses to determine whether separate CUs that capture adaptive diversity are needed. Our results reflected CU boundaries on the whole, with the majority of sampling locations managed in the same CU clustering together within genetic groups. However, additional groups that are not currently represented by CUs were also uncovered. We observed considerable overlap in the genetic clusters identified using neutral or candidate loci, indicating a general congruence in patterns of genetic variation driven by local adaptation and gene flow in this species. Consequently, we suggest that the current CU boundaries for Coho salmon are largely well-suited for meeting the Canadian Wild Salmon Policy's objective of defining biologically distinct groups, but we highlight specific areas where CU boundaries may be refined.</t>
-  </si>
-  <si>
-    <t>Oncorhynchus kisutch</t>
-  </si>
-  <si>
-    <t>Coho Salmon</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.r4xgxd2gx</t>
-  </si>
-  <si>
-    <t>conservation units; Pacific salmon; genetic variation; genomic data sets; population structure; local adaptation; genotyping-by-sequencing; Canadian Wild Salmon Policy</t>
-  </si>
-  <si>
-    <t>00028_InsightsGeneticBasisBlueberryDiploid</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.kd4jq6h</t>
-  </si>
-  <si>
-    <t>https://www.frontiersin.org/articles/10.3389/fevo.2018.00107/full</t>
-  </si>
-  <si>
-    <t>Insights Into the Genetic Basis of Blueberry Fruit-Related Traits Using Diploid and Polyploid Models in a GWAS Context</t>
-  </si>
-  <si>
-    <t>Polyploidization is an ancient and recurrent process in plant evolution, impacting the diversification of natural populations and plant breeding strategies. Polyploidization occurs in many important crops; however, its effects on inheritance of many agronomic traits are still poorly understood compared with diploid species. Higher levels of allelic dosage or more complex interactions between alleles could affect the phenotype expression. Hence, the present study aimed to dissect the genetic basis of fruit-related traits in autotetraploid blueberries and identify candidate genes affecting phenotypic variation. We performed a genome-wide association study (GWAS) assuming diploid and tetraploid inheritance, encompassing distinct models of gene action (additive, general, different orders of allelic interaction, and the corresponding diploidized models). A total of 1,575 southern highbush blueberry individuals from a breeding population of 117 full-sib families were genotyped using sequence capture and next-generation sequencing, and evaluated for eight fruit-related traits. For the diploid allele calling, 77,496 SNPs were detected; while 80,591 SNPs were obtained in tetraploid, with a high degree of overlap (95%) between them. A linear mixed model that accounted for population and family structure was used for the GWAS analyses. By modeling tetraploid genotypes, we detected 15 SNPs significantly associated with five fruit-related traits. Alternatively, seven significant SNPs were detected for only two traits using diploid genotypes, with two SNPs overlapping with the tetraploid scenario. Our results showed that the importance of tetraploid models varied by trait and that the use of diploid models has hindered the detection of SNP-trait associations and, consequently, the genetic architecture of some commercially important traits in autotetraploid species. Furthermore, 14 SNPs co-localized with candidate genes, five of which lead to non-synonymous amino acid changes. The potential functional significance of these SNPs is discussed.</t>
-  </si>
-  <si>
-    <t>Vaccinium corybosum</t>
-  </si>
-  <si>
-    <t>Blueberry</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.kd4jq6h</t>
-  </si>
-  <si>
-    <t>polyploidization; plant genetics; GWAS; fruit traits; blueberry breeding; SNP analysis; tetraploid inheritance; genetic architecture</t>
-  </si>
-  <si>
-    <t>00029_InsightsGeneticBasisBlueberryTetraploid</t>
-  </si>
-  <si>
-    <t>polyploidization; genetic inheritance; GWAS; blueberries; SNP-trait association; plant breeding; genome-wide association study; allelic interaction</t>
-  </si>
-  <si>
-    <t>00030_MultiGenerationGenomicPredictionMaize</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.qjq2bvqgz</t>
-  </si>
-  <si>
-    <t>https://www.nature.com/articles/s41437-021-00474-1</t>
-  </si>
-  <si>
-    <t>Multi-generation genomic prediction of maize yield using parametric and non-parametric sparse selection indices</t>
-  </si>
-  <si>
-    <t>Genomic prediction models are often calibrated using multi-generation data. Over time, as data accumulates, training data sets become increasingly heterogeneous. Differences in allele frequency and linkage disequilibrium patterns between the training and prediction genotypes may limit prediction accuracy. This leads to the question of whether all available data or a subset of it should be used to calibrate genomic prediction models. Previous research on training set optimization has focused on identifying a subset of the available data that is optimal for a given prediction set. However, this approach does not contemplate the possibility that different training sets may be optimal for different prediction genotypes. To address this problem, we recently introduced a sparse selection index (SSI) that identifies an optimal training set for each individual in a prediction set. Using additive genomic relationships, the SSI can provide increased accuracy relative to genomic-BLUP (GBLUP). Non-parametric genomic models using Gaussian kernels (KBLUP) have, in some cases, yielded higher prediction accuracies than standard additive models. Therefore, here we studied whether combining SSIs and kernel methods could further improve prediction accuracy when training genomic models using multi-generation data. Using four years of doubled haploid maize data from the International Maize and Wheat Improvement Center (CIMMYT), we found that when predicting grain yield the KBLUP outperformed the GBLUP, and that using SSI with additive relationships (GSSI) lead to 5‚Äì17% increases in accuracy, relative to the GBLUP. However, differences in prediction accuracy between the KBLUP and the kernel-based SSI were smaller and not always significant.</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.qjq2bvqgz</t>
-  </si>
-  <si>
-    <t>genomic prediction models; training data optimization; allele frequency; linkage disequilibrium; sparse selection index; kernel methods; maize genetic research; genomic-BLUP (GBLUP)</t>
-  </si>
-  <si>
-    <t>00031_MultipleTraitsGenomicPredictionEIWheat</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0232665</t>
-  </si>
-  <si>
-    <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0232665</t>
-  </si>
-  <si>
-    <t>Use of multiple traits genomic prediction, genotype by environment interactions and spatial effect to improve prediction accuracy in yield data</t>
-  </si>
-  <si>
-    <t>Genomic selection has been extensively implemented in plant breeding schemes. Genomic selection incorporates dense genome-wide markers to predict the breeding values for important traits based on information from genotype and phenotype records on traits of interest in a reference population. To date, most relevant investigations have been performed using single trait genomic prediction models (STGP). However, records for several traits at once are usually documented for breeding lines in commercial breeding programs. By incorporating benefits from genetic characterizations of correlated phenotypes, multiple trait genomic prediction (MTGP) may be a useful tool for improving prediction accuracy in genetic evaluations. The objective of this study was to test whether the use of MTGP and including proper modeling of spatial effects can improve the prediction accuracy of breeding values in commercial barley and wheat breeding lines. We genotyped 1,317 spring barley and 1,325 winter wheat lines from a commercial breeding program with the Illumina 9K barley and 15K wheat SNP-chip (respectively) and phenotyped them across multiple years and locations. Results showed that the MTGP approach increased correlations between future performance and estimated breeding value of yields by 7% in barley and by 57% in wheat relative to using the STGP approach for each trait individually. Analyses combining genomic data, pedigree information, and proper modeling of spatial effects further increased the prediction accuracy by 4% in barley and 3% in wheat relative to the model using genomic relationships only. The prediction accuracy for yield in wheat and barley yield trait breeding, were improved by combining MTGP and spatial effects in the model.</t>
-  </si>
-  <si>
-    <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0232665#sec019</t>
-  </si>
-  <si>
-    <t>Go to Supplementary information and Download S3 Data and S4 Data</t>
-  </si>
-  <si>
-    <t>genomic selection; plant breeding; multiple trait genomic prediction; single trait genomic prediction; genetic evaluations; prediction accuracy; barley; wheat</t>
-  </si>
-  <si>
-    <t>00032_MultisiteExperimentNetworkMaize</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.15454/IASSTN</t>
-  </si>
-  <si>
-    <t>https://entrepot.recherche.data.gouv.fr/dataset.xhtml?persistentId=doi:10.15454/IASSTN</t>
-  </si>
-  <si>
-    <t>A multi-site experiment in a network of European fields for assessing the maize yield response to environmental scenarios</t>
-  </si>
-  <si>
-    <t>This dataset comes from the European Union project DROPS (DROught-tolerant yielding PlantS). A panel of 256 maize hybrids was grown with two water regimes (irrigated or rainfed), in seven fields in 2012 and 2013, respectively, spread along a climatic transect from western to eastern Europe, plus one site in Chile in 2013. This resulted in 29 experiments defined as the combination of one year, one site and one water regime, with two and three repetitions for rainfed and irrigated treatments, respectively. A detailed environmental characterisation was carried out, with hourly records of micrometeorological data and soil water status, and associated with precise measurement of phenology. Grain yield and its components were measured at the end of the experiment. The main purpose of this dataset consists in using the environmental characterisation to quantify the genetic variability of maize grain yield in response to the environmental drivers for genotype-by-environment interaction. For instance, allelic effects at QTLs identified over the field network are consistent within a scenario but largely differ between scenarios.</t>
-  </si>
-  <si>
-    <t>agricultural research; plant genetics; drought tolerance; maize hybrids; genotype-environment interaction; environmental characterization; European agriculture; crop yield optimization</t>
-  </si>
-  <si>
-    <t>00033_MultivariateGBLUPCranberryCNJ02</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3389/fpls.2018.01310</t>
-  </si>
-  <si>
-    <t>https://www.frontiersin.org/journals/plant-science/articles/10.3389/fpls.2018.01310/full</t>
-  </si>
-  <si>
-    <t>Multivariate GBLUP Improves Accuracy of Genomic Selection for Yield and Fruit Weight in Biparental Populations of Vaccinium macrocarpon Ait</t>
-  </si>
-  <si>
-    <t>The development of high-throughput genotyping has made genome-wide association (GWAS) and genomic selection (GS) applications possible for both model and non-model species. The exploitation of genome-assisted approaches could greatly benefit breeding efforts in American cranberry (Vaccinium macrocarpon) and other minor crops. Using biparental populations with different degrees of relatedness, we evaluated multiple GS methods for total yield (TY) and mean fruit weight (MFW). Specifically, we compared predictive ability (PA) differences between univariate and multivariate genomic best linear unbiased predictors (GBLUP and MGBLUP, respectively). We found that MGBLUP provided higher predictive ability (PA) than GBLUP, in scenarios with medium genetic correlation (8‚Äì17% increase with corg~0.6) and high genetic correlations (25‚Äì156% with corg~0.9), but found no increase when genetic correlation was low. In addition, we found that only a few hundred single nucleotide polymorphism (SNP) markers are needed to reach a plateau in PA for both traits in the biparental populations studied (in full linkage disequilibrium). We observed that higher resemblance among individuals in the training (TP) and validation (VP) populations provided greater PA. Although multivariate GS methods are available, genetic correlations and other factors need to be carefully considered when applying these methods for genetic improvement.</t>
-  </si>
-  <si>
-    <t>Vaccinium macrocarpon</t>
-  </si>
-  <si>
-    <t>American Cranberry</t>
-  </si>
-  <si>
-    <t>https://www.frontiersin.org/articles/10.3389/fpls.2018.01310/full#supplementary-material</t>
-  </si>
-  <si>
-    <t>Go to Supplementary Material of the article and Download SF1 file(Table 1)</t>
-  </si>
-  <si>
-    <t>genomic selection; GWAS; genetic correlations; plant breeding; predictive ability; SNP markers; multivariate analysis; Vaccinium macrocarpon</t>
-  </si>
-  <si>
-    <t>00034_MultivariateGBLUPCranberryCNJ04</t>
-  </si>
-  <si>
-    <t>genomics; genomic selection; GWAS; breeding; predictive ability; SNP markers; Vaccinium macrocarpon; genetic improvement</t>
-  </si>
-  <si>
-    <t>00035_MultivariateGBLUPCranberryGRYG</t>
-  </si>
-  <si>
-    <t>genomics; genomic selection; genome-wide association studies; predictive ability; genetic correlations; Vaccinium macrocarpon breeding; multivariate analysis; single nucleotide polymorphism</t>
-  </si>
-  <si>
-    <t>00036_PredictionAndSelectionAccuracyWheatBreeding</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.7f138</t>
-  </si>
-  <si>
-    <t>https://acsess.onlinelibrary.wiley.com/doi/full/10.3835/plantgenome2017.05.0043</t>
-  </si>
-  <si>
-    <t>Combining High-Throughput Phenotyping and Genomic Information to Increase Prediction and Selection Accuracy in Wheat Breeding</t>
-  </si>
-  <si>
-    <t>Genomics and phenomics have promised to revolutionize the field of plant breeding. The integration of these two fields has just begun and is being driven through big data by advances in next-generation sequencing and developments of field-based high-throughput phenotyping (HTP) platforms. Each year the International Maize and Wheat Improvement Center (CIMMYT) evaluates tens-of-thousands of advanced lines for grain yield across multiple environments. To evaluate how CIMMYT may utilize dynamic HTP data for genomic selection (GS), we evaluated 1170 of these advanced lines in two environments, drought (2014, 2015) and heat (2015). A portable phenotyping system called ‚ÄòPhenocart‚Äô was used to measure normalized difference vegetation index and canopy temperature simultaneously while tagging each data point with precise GPS coordinates. For genomic profiling, genotyping-by-sequencing (GBS) was used for marker discovery and genotyping. Several GS models were evaluated utilizing the 2254 GBS markers along with over 1.1 million phenotypic observations. The physiological measurements collected by HTP, whether used as a response in multivariate models or as a covariate in univariate models, resulted in a range of 33% below to 7% above the standard univariate model. Continued advances in yield prediction models as well as increasing data generating capabilities for both genomic and phenomic data will make these selection strategies tractable for plant breeders to implement increasing the rate of genetic gain.</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.7f138</t>
-  </si>
-  <si>
-    <t>genomics; phenomics; plant breeding; high-throughput phenotyping; genomic selection; genotyping-by-sequencing; yield prediction models; CIMMYT</t>
-  </si>
-  <si>
-    <t>00037_ReplicatedRadiationPlantCladeViburnum</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5281/zenodo.5504438</t>
-  </si>
-  <si>
-    <t>https://www.nature.com/articles/s41559-022-01823-x</t>
-  </si>
-  <si>
-    <t>Replicated radiation of a plant clade along a cloud forest archipelago</t>
-  </si>
-  <si>
-    <t>Replicated radiations, in which sets of similar forms evolve repeatedly within different regions, can provide powerful insights into parallel evolution and the assembly of functional diversity within communities. Several cases have been described in animals, but in plants we lack well-documented cases of replicated radiation that combine comprehensive phylogenetic and biogeographic analyses, the delimitation of geographic areas within which a set of ‚Äòecomorphs‚Äô evolved independently and the identification of potential underlying mechanisms. Here we document the repeated evolution of a set of leaf ecomorphs in a group of neotropical plants. The Oreinotinus lineage within the angiosperm clade Viburnum spread from Mexico to Argentina through disjunct cloud forest environments. In 9 of 11 areas of endemism, species with similar sets of leaf forms evolved in parallel. We reject gene-flow-mediated evolution of similar leaves and show, instead, that species with disparate leaf forms differ in their climatic niches, supporting ecological adaptation as the driver of parallelism. Our identification of a case of replicated radiation in plants sets the stage for comparative analyses of such phenomena across the tree of life.</t>
-  </si>
-  <si>
-    <t>Viburnum sp</t>
-  </si>
-  <si>
-    <t>Viburnum</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/records/5504439</t>
-  </si>
-  <si>
-    <t>parallel evolution; replicated radiation; ecological adaptation; phylogenetic analysis; biogeography; ecomorphs; neotropical plants; Viburnum</t>
-  </si>
-  <si>
-    <t>00038_SpringtailPhylogeographyBiosecurityRisks</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.26180/5d6e10736bed4</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/10.1111/eva.12913</t>
-  </si>
-  <si>
-    <t>Springtail phylogeography highlights biosecurity risks of repeated invasions and intraregional transfers among remote islands</t>
-  </si>
-  <si>
-    <t>Human-mediated transport of species outside their natural range is a rapidly growing threat to biodiversity, particularly for island ecosystems that have evolved in isolation. The genetic structure underpinning island populations will largely determine their response to increased transport and thus help to inform biosecurity management. However, this information is severely lacking for some groups, such as the soil fauna. We therefore analysed the phylogeographic structure of an indigenous and an invasive springtail species (Collembola: Poduromorpha), each distributed across multiple remote sub-Antarctic islands, where human activity is currently intensifying. For both species, we generated a genome-wide SNP data set and additionally analysed all available COI barcodes. Genetic differentiation in the indigenous springtail Tullbergia bisetosa is substantial among (and, to a lesser degree, within) islands, reflecting low dispersal and historic population fragmentation, while COI patterns reveal ancestral signatures of postglacial recolonization. This pronounced geographic structure demonstrates the key role of allopatric divergence in shaping the region's diversity and highlights the vulnerability of indigenous populations to genetic homogenization via human transport. For the invasive species Hypogastrura viatica, nuclear genetic structure is much less apparent, particularly for islands linked by regular shipping, while diverged COI haplotypes indicate multiple independent introductions to each island. Thus, human transport has likely facilitated this species‚Äô persistence since its initial colonization, through the ongoing introduction and inter-island spread of genetic variation. These findings highlight the different evolutionary consequences of human transport for indigenous and invasive soil species. Crucially, both outcomes demonstrate the need for improved intraregional biosecurity among remote island systems, where the policy focus to date has been on external introductions.</t>
-  </si>
-  <si>
-    <t>Tullbergia bisetosa</t>
-  </si>
-  <si>
-    <t>Springtail</t>
-  </si>
-  <si>
-    <t>https://bridges.monash.edu/articles/dataset/SNP_dataset_for_the_springtail_Tullbergia_bisetosa/9761429</t>
-  </si>
-  <si>
-    <t>island biodiversity; genetic structure; biosecurity management; invasive species; human-mediated transport; phylogeographic analysis; sub-Antarctic ecosystems; SNP data analysis</t>
-  </si>
-  <si>
-    <t>00039_SynthesisFloralAromaNacionalCocoa</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3389/fpls.2021.681979</t>
-  </si>
-  <si>
-    <t>https://www.frontiersin.org/journals/plant-science/articles/10.3389/fpls.2021.681979/full</t>
-  </si>
-  <si>
-    <t>Two Main Biosynthesis Pathways Involved in the Synthesis of the Floral Aroma of the Nacional Cocoa Variety</t>
-  </si>
-  <si>
-    <t>Theobroma cacao is the only source that allows the production of chocolate. It is of major economic importance for producing countries such as Ecuador, which is the third-largest cocoa producer in the world. Cocoa is classified into two groups: bulk cocoa and aromatic fine flavour cocoa. In contrast to bulk cocoa, fine flavour cocoa is characterised by fruity and floral notes. One of the characteristics of Nacional cocoa, the emblematic cocoa of Ecuador, is its aromatic ARRIBA flavour. This aroma is mainly composed of floral notes whose genetic and biochemical origin is not well-known. This research objective is to study the genetic and biochemical determinism of the floral aroma of modern Nacional cocoa variety from Ecuador. Genome-Wide Association Study (GWAS) was conducted on a population of 152 genotypes of cocoa trees belonging to the population variety of modern Nacional. Genome-Wide Association Study was conducted by combining SSR and SNP genotyping, assaying biochemical compounds (in roasted and unroasted beans), and sensory evaluations from various tastings. This analysis highlighted different areas of association for all types of traits. In a second step, a search for candidate genes in these association zones was undertaken, which made it possible to find genes potentially involved in the biosynthesis pathway of the biochemical compound identified in associations. Our results show that two biosynthesis pathways seem to be mainly related to the floral note of Nacional cocoa: the monoterpene biosynthesis pathway and the L-phenylalanine degradation pathway. As already suggested, the genetic background would therefore appear as largely explaining the floral note of cocoa.</t>
-  </si>
-  <si>
-    <t>Theobroma cacao</t>
-  </si>
-  <si>
-    <t>Cocoa tree</t>
-  </si>
-  <si>
-    <t>http://tropgenedb.cirad.fr/tropgene/JSP/interface.jsp?module=COCOA</t>
-  </si>
-  <si>
-    <t>Select "Cocoa Amazonia Ecuador aroma" in the study field and download the data by CIRAD - INIAP Institute</t>
-  </si>
-  <si>
-    <t>Theobroma cacao; chocolate production; fine flavour cocoa; genetic research; Genome-Wide Association Study; Ecuadorian cocoa; sensory evaluation; biochemical analysis</t>
-  </si>
-  <si>
-    <t>00040_AccuracyOfGenomicSelection</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.jb17n</t>
-  </si>
-  <si>
-    <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0156086</t>
-  </si>
-  <si>
-    <t>On the Accuracy of Genomic Selection</t>
-  </si>
-  <si>
-    <t>Genomic selection is focused on prediction of breeding values of selection candidates by means of high density of markers. It relies on the assumption that all quantitative trait loci (QTLs) tend to be in strong linkage disequilibrium (LD) with at least one marker. In this context, we present theoretical results regarding the accuracy of genomic selection, i.e., the correlation between predicted and true breeding values. Typically, for individuals (so-called test individuals), breeding values are predicted by means of markers, using marker effects estimated by fitting a ridge regression model to a set of training individuals. We present a theoretical expression for the accuracy; this expression is suitable for any configurations of LD between QTLs and markers. We also introduce a new accuracy proxy that is free of the QTL parameters and easily computable; it outperforms the proxies suggested in the literature, in particular, those based on an estimated effective number of independent loci (Me). The theoretical formula, the new proxy, and existing proxies were compared for simulated data, and the results point to the validity of our approach. The calculations were also illustrated on a new perennial ryegrass set (367 individuals) genotyped for 24,957 single nucleotide polymorphisms (SNPs). In this case, most of the proxies studied yielded similar results because of the lack of markers for coverage of the entire genome (2.7 Gb).</t>
-  </si>
-  <si>
-    <t>Lolium perenne</t>
-  </si>
-  <si>
-    <t>perennial ryegrass</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.jb17n</t>
-  </si>
-  <si>
-    <t>genomic selection; quantitative trait loci; linkage disequilibrium; ridge regression; breeding values; marker effects; single nucleotide polymorphisms; genetic markers</t>
-  </si>
-  <si>
-    <t>00041_AgronomicTraitsCommonBean</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.7910/DVN/XCD67U</t>
-  </si>
-  <si>
-    <t>https://www.frontiersin.org/journals/plant-science/articles/10.3389/fpls.2020.01001/full</t>
-  </si>
-  <si>
-    <t>Genomic Prediction of Agronomic Traits in Common Bean (Phaseolus vulgaris L.) Under Environmental Stress</t>
-  </si>
-  <si>
-    <t>In plant and animal breeding, genomic prediction models are established to select new lines based on genomic data, without the need for laborious phenotyping. Prediction models can be trained on recent or historic phenotypic data and increasingly available genotypic data. This enables the adoption of genomic selection also in under-used legume crops such as common bean. Beans are an important staple food in the tropics and mainly grown by smallholders under limiting environmental conditions such as drought or low soil fertility. Therefore, genotype-by-environment interactions (G √ó E) are an important consideration when developing new bean varieties. However, G √ó E are often not considered in genomic prediction models nor are these models implemented in current bean breeding programs. Here we show the prediction abilities of four agronomic traits in common bean under various environmental stresses based on twelve field trials. The dataset includes 481 elite breeding lines characterized by 5,820 SNP markers. Prediction abilities over all twelve trials ranged between 0.6 and 0.8 for yield and days to maturity, respectively, predicting new lines into new seasons. In all four evaluated traits, the prediction abilities reached about 50‚Äì80% of the maximum accuracies given by phenotypic correlations and heritability. Predictions under drought and low phosphorus stress were up to 10 and 20% improved when G √ó E were included in the model, respectively. Our results demonstrate the potential of genomic selection to increase the genetic gain in common bean breeding. Prediction abilities improved when more phenotypic data was available and G √ó E could be accounted for. Furthermore, the developed models allowed us to predict genotypic performance under different environmental stresses. This will be a key factor in the development of common bean varieties adapted to future challenging conditions.</t>
-  </si>
-  <si>
-    <t>Phaseolus vulgaris</t>
-  </si>
-  <si>
-    <t>Common bean</t>
-  </si>
-  <si>
-    <t>https://dataverse.harvard.edu/dataset.xhtml?persistentId=doi:10.7910/DVN/XCD67U</t>
-  </si>
-  <si>
-    <t>genomic prediction; plant breeding; genotype-by-environment interaction; common bean; SNP markers; genetic gain; environmental stress adaptation; agronomic traits</t>
-  </si>
-  <si>
-    <t>00042_CaseStudyOrangeRoughy</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.26188/5d9bc8afa5b54</t>
-  </si>
-  <si>
-    <t>https://besjournals.onlinelibrary.wiley.com/doi/full/10.1111/1365-2664.13534</t>
-  </si>
-  <si>
-    <t>Genomic data suggest environmental drivers of fish population structure in the deep sea: A case study for the orange roughy (Hoplostethus atlanticus)</t>
-  </si>
-  <si>
-    <t>The accurate identification of conservation units is central to effective management strategies. However, marine environment populations often have large census sizes and few obvious boundaries to gene flow. Poorly understood species in the deep sea are especially at risk of being erroneously managed as a single interbreeding stock (panmictic). However, mistaking cryptic structure for panmixia can have important consequences leading to ineffective management and population decline. Furthermore, characteristics of populations essential for their survival may reflect local adaptation, not evident from surveys using neutral genetic markers.
+    <t xml:space="preserve">https://bmcplantbiol.biomedcentral.com/articles/10.1186/s12870-022-03479-y#Sec18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to Supplementary Information of the article and Download Additional file 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic selection; plant breeding; prediction models; breeding values; genetic architecture; linkage disequilibrium; marker subsets; training population proportions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00022_GenomicPredictionModelTraitsRice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oriza sativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic selection; plant breeding; prediction models; marker subsets; training population; heritability; Bayes B model; cross-validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00023_GenomicPredictionModelTraitsSoybean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glycine max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soybean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic selection; plant breeding; prediction models; breeding values; marker subsets; training population; Bayes B model; heritability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00024_GenomicPredictionTropicalMaize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.5525263.v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/10.1111/pbr.12827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using public databases for genomic prediction of tropical maize lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this paper, the aims were (a) to test the usefulness of using genomic and phenotypic information from public databases (open access) to predict genetic values for tropical maize inbred lines regarding plant and ear height; (b) to identify how the population structure, the use of optimized training sets (OTSs) and the amount of information originating from public databases affect the predictive ability. Thus, 29 training sets (TSs) were defined considering three diversity panels: the University of S√£o Paulo (USP‚Äîvalidation set (VS)) and the ASSO and USDA North Central Regional Plant Introduction Station (NCRPIS) (external public panels‚Äîpredictors), which were divided into four scenarios with different TS configurations. We showed that it is possible to use public datasets as a primary TS and that population structure can modify the predictive abilities of GS. In the four scenarios proposed, very large or very small sets did not provide predictive abilities over 0.53 for GS. However, OTSs composed of 250 individuals were sufficient to achieve predictive abilities over this limit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Predicting_tropical_maize_inbred_lines_with_external_panels_from_public_dataset/5525263/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic prediction; tropical maize; phenotypic data; population structure; training sets; predictive ability; genetic values; public databases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00025_GenomicSelectionPopulationGeneticsRCedar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5281/zenodo.6562381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/full/10.1111/eva.13526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genetic architecture of terpene chemistry and growth traits and the impact of inbreeding on these traits in western redcedar (Thuja plicata)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western redcedar (WRC; Thuja plicata) is a conifer of the Pacific Northwest of North America prized for its durable and rot-resistant wood. WRC has naturally low outcrossing rates and readily self-fertilizes in nature. Challenges faced in WRC breeding and propagation involve selecting trees for accelerated growth while also ensuring enhanced heartwood rot resistance and resistance to ungulate browsing, as well as mitigating potential effects of inbreeding depression. Terpenes, a large and diverse class of specialized metabolites, confer both rot and browse resistance in the wood and foliage of WRC, respectively. Using a Bayesian modelling approach, we isolated single nucleotide polymorphism (SNP) markers estimated to be associated with three different foliar terpene traits and four different heartwood terpene traits, as well as two growth traits. We found that all traits were complex, being associated with between 1700 and 3600 SNPs linked with putatively causal loci, with significant polygenic components. Growth traits tended to have a larger polygenic component while terpene traits had larger major gene components; SNPs with small or polygenic effect were spread across the genome, while larger-effect SNPs tended to be localized to specific linkage groups. To determine whether there was inbreeding depression for terpene chemistry or growth traits, we used mixed linear models for a genomic selection training population to estimate the effect of the inbreeding coefficient F on foliar terpenes, heartwood terpenes and several growth and dendrochronological traits. We did not find significant inbreeding depression for any assessed trait. We further assessed inbreeding depression across four generations of complete selfing and found that not only was inbreeding depression not significant but that selection for height growth was the only significant predictor for growth during selfing, suggesting that inbreeding depression due to selfing during operational breeding can be mitigated by increased selection intensity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thuja plicata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Redcedar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zenodo.org/records/6562381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western redcedar breeding; terpene traits; SNP markers; genomic selection; inbreeding depression; forest genetics; conifer propagation; ungulate browsing resistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00026_GlobalDurumWheatPanel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1093/database/baac034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.frontiersin.org/journals/plant-science/articles/10.3389/fpls.2020.569905/full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Global Durum Wheat Panel (GDP): An International Platform to Identify and Exchange Beneficial Alleles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representative, broad and diverse collections are a primary resource to dissect genetic diversity and meet pre-breeding and breeding goals through the identification of beneficial alleles for target traits. From 2,500 tetraploid wheat accessions obtained through an international collaborative effort, a Global Durum wheat Panel (GDP) of 1,011 genotypes was assembled that captured 94‚Äì97% of the original diversity. The GDP consists of a wide representation of Triticum turgidum ssp. durum modern germplasm and landraces, along with a selection of emmer and primitive tetraploid wheats to maximize diversity. GDP accessions were genotyped using the wheat iSelect 90K SNP array. Among modern durum accessions, breeding programs from Italy, France and Central Asia provided the highest level of genetic diversity, with only a moderate decrease in genetic diversity observed across nearly 50 years of breeding (1970‚Äì2018). Further, the breeding programs from Europe had the largest sets of unique alleles. LD was lower in the landraces (0.4 Mbp) than in modern germplasm (1.8 Mbp) at r2 = 0.5. ADMIXTURE analysis of modern germplasm defined a minimum of 13 distinct genetic clusters (k), which could be traced to the breeding program of origin. Chromosome regions putatively subjected to strong selection pressure were identified from fixation index (Fst) and diversity reduction index (DRI) metrics in pairwise comparisons among decades of release and breeding programs. Clusters of putative selection sweeps (PSW) were identified as co-localized with major loci controlling phenology (Ppd and Vrn), plant height (Rht) and quality (gliadins and glutenins), underlining the role of the corresponding genes as driving elements in modern breeding. Public seed availability and deep genetic characterization of the GDP make this collection a unique and ideal resource to identify and map useful genetic diversity at loci of interest to any breeding program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triticum turgidum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://graingenes.org/GG3/global_durum_genomic_resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Download GDP_Illumina_90K_SNP_1025Geno_44536SNP file - Genotypic data and GDP_list_passport_1028_accessions file - Phenotypic data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genetic diversity; plant breeding; durum wheat; SNP genotyping; allele identification; landraces and germplasm; genetic clusters; selection pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00027_ReEvaluatingCohosalmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.r4xgxd2gx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/full/10.1111/eva.13489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-evaluating Coho salmon (Oncorhynchus kisutch) conservation units in Canada using genomic data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conservation units (CUs) are important tools for supporting the implementation of standardized management practices for exploited species. Following the adoption of the Wild Salmon Policy in Canada, CUs were defined for Pacific salmon based on characteristics related to ecotype, life history and genetic variation using microsatellite markers as indirect measures of local adaptation. Genomic data sets have the potential to improve the definition of CUs by reducing variance around estimates of population genetic parameters, thereby increasing the power to detect more subtle patterns of population genetic structure and by providing an opportunity to incorporate adaptive information more directly with the identification of variants putatively under selection. We used one of the largest genomic data sets recently published for a nonmodel species, comprising 5662 individual Coho salmon (Oncorhynchus kisutch) from 149 sampling locations and a total of 24,542 high-quality SNPs obtained using genotyping-by-sequencing and mapped to the Coho salmon reference genome to (1) evaluate the current delineation of CUs for Coho in Canada and (2) compare patterns of population structure observed using neutral and outlier loci from genotype‚Äìenvironment association analyses to determine whether separate CUs that capture adaptive diversity are needed. Our results reflected CU boundaries on the whole, with the majority of sampling locations managed in the same CU clustering together within genetic groups. However, additional groups that are not currently represented by CUs were also uncovered. We observed considerable overlap in the genetic clusters identified using neutral or candidate loci, indicating a general congruence in patterns of genetic variation driven by local adaptation and gene flow in this species. Consequently, we suggest that the current CU boundaries for Coho salmon are largely well-suited for meeting the Canadian Wild Salmon Policy's objective of defining biologically distinct groups, but we highlight specific areas where CU boundaries may be refined.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oncorhynchus kisutch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coho Salmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.r4xgxd2gx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conservation units; Pacific salmon; genetic variation; genomic data sets; population structure; local adaptation; genotyping-by-sequencing; Canadian Wild Salmon Policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00028_InsightsGeneticBasisBlueberryDiploid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.kd4jq6h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.frontiersin.org/articles/10.3389/fevo.2018.00107/full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insights Into the Genetic Basis of Blueberry Fruit-Related Traits Using Diploid and Polyploid Models in a GWAS Context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polyploidization is an ancient and recurrent process in plant evolution, impacting the diversification of natural populations and plant breeding strategies. Polyploidization occurs in many important crops; however, its effects on inheritance of many agronomic traits are still poorly understood compared with diploid species. Higher levels of allelic dosage or more complex interactions between alleles could affect the phenotype expression. Hence, the present study aimed to dissect the genetic basis of fruit-related traits in autotetraploid blueberries and identify candidate genes affecting phenotypic variation. We performed a genome-wide association study (GWAS) assuming diploid and tetraploid inheritance, encompassing distinct models of gene action (additive, general, different orders of allelic interaction, and the corresponding diploidized models). A total of 1,575 southern highbush blueberry individuals from a breeding population of 117 full-sib families were genotyped using sequence capture and next-generation sequencing, and evaluated for eight fruit-related traits. For the diploid allele calling, 77,496 SNPs were detected; while 80,591 SNPs were obtained in tetraploid, with a high degree of overlap (95%) between them. A linear mixed model that accounted for population and family structure was used for the GWAS analyses. By modeling tetraploid genotypes, we detected 15 SNPs significantly associated with five fruit-related traits. Alternatively, seven significant SNPs were detected for only two traits using diploid genotypes, with two SNPs overlapping with the tetraploid scenario. Our results showed that the importance of tetraploid models varied by trait and that the use of diploid models has hindered the detection of SNP-trait associations and, consequently, the genetic architecture of some commercially important traits in autotetraploid species. Furthermore, 14 SNPs co-localized with candidate genes, five of which lead to non-synonymous amino acid changes. The potential functional significance of these SNPs is discussed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaccinium corybosum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blueberry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.kd4jq6h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polyploidization; plant genetics; GWAS; fruit traits; blueberry breeding; SNP analysis; tetraploid inheritance; genetic architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00029_InsightsGeneticBasisBlueberryTetraploid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polyploidization; genetic inheritance; GWAS; blueberries; SNP-trait association; plant breeding; genome-wide association study; allelic interaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00030_MultiGenerationGenomicPredictionMaize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.qjq2bvqgz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nature.com/articles/s41437-021-00474-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-generation genomic prediction of maize yield using parametric and non-parametric sparse selection indices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic prediction models are often calibrated using multi-generation data. Over time, as data accumulates, training data sets become increasingly heterogeneous. Differences in allele frequency and linkage disequilibrium patterns between the training and prediction genotypes may limit prediction accuracy. This leads to the question of whether all available data or a subset of it should be used to calibrate genomic prediction models. Previous research on training set optimization has focused on identifying a subset of the available data that is optimal for a given prediction set. However, this approach does not contemplate the possibility that different training sets may be optimal for different prediction genotypes. To address this problem, we recently introduced a sparse selection index (SSI) that identifies an optimal training set for each individual in a prediction set. Using additive genomic relationships, the SSI can provide increased accuracy relative to genomic-BLUP (GBLUP). Non-parametric genomic models using Gaussian kernels (KBLUP) have, in some cases, yielded higher prediction accuracies than standard additive models. Therefore, here we studied whether combining SSIs and kernel methods could further improve prediction accuracy when training genomic models using multi-generation data. Using four years of doubled haploid maize data from the International Maize and Wheat Improvement Center (CIMMYT), we found that when predicting grain yield the KBLUP outperformed the GBLUP, and that using SSI with additive relationships (GSSI) lead to 5‚Äì17% increases in accuracy, relative to the GBLUP. However, differences in prediction accuracy between the KBLUP and the kernel-based SSI were smaller and not always significant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.qjq2bvqgz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic prediction models; training data optimization; allele frequency; linkage disequilibrium; sparse selection index; kernel methods; maize genetic research; genomic-BLUP (GBLUP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00031_MultipleTraitsGenomicPredictionEIWheat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0232665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0232665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use of multiple traits genomic prediction, genotype by environment interactions and spatial effect to improve prediction accuracy in yield data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic selection has been extensively implemented in plant breeding schemes. Genomic selection incorporates dense genome-wide markers to predict the breeding values for important traits based on information from genotype and phenotype records on traits of interest in a reference population. To date, most relevant investigations have been performed using single trait genomic prediction models (STGP). However, records for several traits at once are usually documented for breeding lines in commercial breeding programs. By incorporating benefits from genetic characterizations of correlated phenotypes, multiple trait genomic prediction (MTGP) may be a useful tool for improving prediction accuracy in genetic evaluations. The objective of this study was to test whether the use of MTGP and including proper modeling of spatial effects can improve the prediction accuracy of breeding values in commercial barley and wheat breeding lines. We genotyped 1,317 spring barley and 1,325 winter wheat lines from a commercial breeding program with the Illumina 9K barley and 15K wheat SNP-chip (respectively) and phenotyped them across multiple years and locations. Results showed that the MTGP approach increased correlations between future performance and estimated breeding value of yields by 7% in barley and by 57% in wheat relative to using the STGP approach for each trait individually. Analyses combining genomic data, pedigree information, and proper modeling of spatial effects further increased the prediction accuracy by 4% in barley and 3% in wheat relative to the model using genomic relationships only. The prediction accuracy for yield in wheat and barley yield trait breeding, were improved by combining MTGP and spatial effects in the model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0232665#sec019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to Supplementary information and Download S3 Data and S4 Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic selection; plant breeding; multiple trait genomic prediction; single trait genomic prediction; genetic evaluations; prediction accuracy; barley; wheat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00032_MultisiteExperimentNetworkMaize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.15454/IASSTN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://entrepot.recherche.data.gouv.fr/dataset.xhtml?persistentId=doi:10.15454/IASSTN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A multi-site experiment in a network of European fields for assessing the maize yield response to environmental scenarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This dataset comes from the European Union project DROPS (DROught-tolerant yielding PlantS). A panel of 256 maize hybrids was grown with two water regimes (irrigated or rainfed), in seven fields in 2012 and 2013, respectively, spread along a climatic transect from western to eastern Europe, plus one site in Chile in 2013. This resulted in 29 experiments defined as the combination of one year, one site and one water regime, with two and three repetitions for rainfed and irrigated treatments, respectively. A detailed environmental characterisation was carried out, with hourly records of micrometeorological data and soil water status, and associated with precise measurement of phenology. Grain yield and its components were measured at the end of the experiment. The main purpose of this dataset consists in using the environmental characterisation to quantify the genetic variability of maize grain yield in response to the environmental drivers for genotype-by-environment interaction. For instance, allelic effects at QTLs identified over the field network are consistent within a scenario but largely differ between scenarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agricultural research; plant genetics; drought tolerance; maize hybrids; genotype-environment interaction; environmental characterization; European agriculture; crop yield optimization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00033_MultivariateGBLUPCranberryCNJ02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.3389/fpls.2018.01310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.frontiersin.org/journals/plant-science/articles/10.3389/fpls.2018.01310/full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multivariate GBLUP Improves Accuracy of Genomic Selection for Yield and Fruit Weight in Biparental Populations of Vaccinium macrocarpon Ait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The development of high-throughput genotyping has made genome-wide association (GWAS) and genomic selection (GS) applications possible for both model and non-model species. The exploitation of genome-assisted approaches could greatly benefit breeding efforts in American cranberry (Vaccinium macrocarpon) and other minor crops. Using biparental populations with different degrees of relatedness, we evaluated multiple GS methods for total yield (TY) and mean fruit weight (MFW). Specifically, we compared predictive ability (PA) differences between univariate and multivariate genomic best linear unbiased predictors (GBLUP and MGBLUP, respectively). We found that MGBLUP provided higher predictive ability (PA) than GBLUP, in scenarios with medium genetic correlation (8‚Äì17% increase with corg~0.6) and high genetic correlations (25‚Äì156% with corg~0.9), but found no increase when genetic correlation was low. In addition, we found that only a few hundred single nucleotide polymorphism (SNP) markers are needed to reach a plateau in PA for both traits in the biparental populations studied (in full linkage disequilibrium). We observed that higher resemblance among individuals in the training (TP) and validation (VP) populations provided greater PA. Although multivariate GS methods are available, genetic correlations and other factors need to be carefully considered when applying these methods for genetic improvement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaccinium macrocarpon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Cranberry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.frontiersin.org/articles/10.3389/fpls.2018.01310/full#supplementary-material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to Supplementary Material of the article and Download SF1 file(Table 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic selection; GWAS; genetic correlations; plant breeding; predictive ability; SNP markers; multivariate analysis; Vaccinium macrocarpon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00034_MultivariateGBLUPCranberryCNJ04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomics; genomic selection; GWAS; breeding; predictive ability; SNP markers; Vaccinium macrocarpon; genetic improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00035_MultivariateGBLUPCranberryGRYG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomics; genomic selection; genome-wide association studies; predictive ability; genetic correlations; Vaccinium macrocarpon breeding; multivariate analysis; single nucleotide polymorphism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00036_PredictionAndSelectionAccuracyWheatBreeding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.7f138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://acsess.onlinelibrary.wiley.com/doi/full/10.3835/plantgenome2017.05.0043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combining High-Throughput Phenotyping and Genomic Information to Increase Prediction and Selection Accuracy in Wheat Breeding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomics and phenomics have promised to revolutionize the field of plant breeding. The integration of these two fields has just begun and is being driven through big data by advances in next-generation sequencing and developments of field-based high-throughput phenotyping (HTP) platforms. Each year the International Maize and Wheat Improvement Center (CIMMYT) evaluates tens-of-thousands of advanced lines for grain yield across multiple environments. To evaluate how CIMMYT may utilize dynamic HTP data for genomic selection (GS), we evaluated 1170 of these advanced lines in two environments, drought (2014, 2015) and heat (2015). A portable phenotyping system called ‚ÄòPhenocart‚Äô was used to measure normalized difference vegetation index and canopy temperature simultaneously while tagging each data point with precise GPS coordinates. For genomic profiling, genotyping-by-sequencing (GBS) was used for marker discovery and genotyping. Several GS models were evaluated utilizing the 2254 GBS markers along with over 1.1 million phenotypic observations. The physiological measurements collected by HTP, whether used as a response in multivariate models or as a covariate in univariate models, resulted in a range of 33% below to 7% above the standard univariate model. Continued advances in yield prediction models as well as increasing data generating capabilities for both genomic and phenomic data will make these selection strategies tractable for plant breeders to implement increasing the rate of genetic gain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.7f138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomics; phenomics; plant breeding; high-throughput phenotyping; genomic selection; genotyping-by-sequencing; yield prediction models; CIMMYT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00037_ReplicatedRadiationPlantCladeViburnum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5281/zenodo.5504438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nature.com/articles/s41559-022-01823-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replicated radiation of a plant clade along a cloud forest archipelago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replicated radiations, in which sets of similar forms evolve repeatedly within different regions, can provide powerful insights into parallel evolution and the assembly of functional diversity within communities. Several cases have been described in animals, but in plants we lack well-documented cases of replicated radiation that combine comprehensive phylogenetic and biogeographic analyses, the delimitation of geographic areas within which a set of ‚Äòecomorphs‚Äô evolved independently and the identification of potential underlying mechanisms. Here we document the repeated evolution of a set of leaf ecomorphs in a group of neotropical plants. The Oreinotinus lineage within the angiosperm clade Viburnum spread from Mexico to Argentina through disjunct cloud forest environments. In 9 of 11 areas of endemism, species with similar sets of leaf forms evolved in parallel. We reject gene-flow-mediated evolution of similar leaves and show, instead, that species with disparate leaf forms differ in their climatic niches, supporting ecological adaptation as the driver of parallelism. Our identification of a case of replicated radiation in plants sets the stage for comparative analyses of such phenomena across the tree of life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viburnum sp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viburnum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zenodo.org/records/5504439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parallel evolution; replicated radiation; ecological adaptation; phylogenetic analysis; biogeography; ecomorphs; neotropical plants; Viburnum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00038_SpringtailPhylogeographyBiosecurityRisks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.26180/5d6e10736bed4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/10.1111/eva.12913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Springtail phylogeography highlights biosecurity risks of repeated invasions and intraregional transfers among remote islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human-mediated transport of species outside their natural range is a rapidly growing threat to biodiversity, particularly for island ecosystems that have evolved in isolation. The genetic structure underpinning island populations will largely determine their response to increased transport and thus help to inform biosecurity management. However, this information is severely lacking for some groups, such as the soil fauna. We therefore analysed the phylogeographic structure of an indigenous and an invasive springtail species (Collembola: Poduromorpha), each distributed across multiple remote sub-Antarctic islands, where human activity is currently intensifying. For both species, we generated a genome-wide SNP data set and additionally analysed all available COI barcodes. Genetic differentiation in the indigenous springtail Tullbergia bisetosa is substantial among (and, to a lesser degree, within) islands, reflecting low dispersal and historic population fragmentation, while COI patterns reveal ancestral signatures of postglacial recolonization. This pronounced geographic structure demonstrates the key role of allopatric divergence in shaping the region's diversity and highlights the vulnerability of indigenous populations to genetic homogenization via human transport. For the invasive species Hypogastrura viatica, nuclear genetic structure is much less apparent, particularly for islands linked by regular shipping, while diverged COI haplotypes indicate multiple independent introductions to each island. Thus, human transport has likely facilitated this species‚Äô persistence since its initial colonization, through the ongoing introduction and inter-island spread of genetic variation. These findings highlight the different evolutionary consequences of human transport for indigenous and invasive soil species. Crucially, both outcomes demonstrate the need for improved intraregional biosecurity among remote island systems, where the policy focus to date has been on external introductions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tullbergia bisetosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Springtail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bridges.monash.edu/articles/dataset/SNP_dataset_for_the_springtail_Tullbergia_bisetosa/9761429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">island biodiversity; genetic structure; biosecurity management; invasive species; human-mediated transport; phylogeographic analysis; sub-Antarctic ecosystems; SNP data analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00039_SynthesisFloralAromaNacionalCocoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.3389/fpls.2021.681979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.frontiersin.org/journals/plant-science/articles/10.3389/fpls.2021.681979/full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Main Biosynthesis Pathways Involved in the Synthesis of the Floral Aroma of the Nacional Cocoa Variety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theobroma cacao is the only source that allows the production of chocolate. It is of major economic importance for producing countries such as Ecuador, which is the third-largest cocoa producer in the world. Cocoa is classified into two groups: bulk cocoa and aromatic fine flavour cocoa. In contrast to bulk cocoa, fine flavour cocoa is characterised by fruity and floral notes. One of the characteristics of Nacional cocoa, the emblematic cocoa of Ecuador, is its aromatic ARRIBA flavour. This aroma is mainly composed of floral notes whose genetic and biochemical origin is not well-known. This research objective is to study the genetic and biochemical determinism of the floral aroma of modern Nacional cocoa variety from Ecuador. Genome-Wide Association Study (GWAS) was conducted on a population of 152 genotypes of cocoa trees belonging to the population variety of modern Nacional. Genome-Wide Association Study was conducted by combining SSR and SNP genotyping, assaying biochemical compounds (in roasted and unroasted beans), and sensory evaluations from various tastings. This analysis highlighted different areas of association for all types of traits. In a second step, a search for candidate genes in these association zones was undertaken, which made it possible to find genes potentially involved in the biosynthesis pathway of the biochemical compound identified in associations. Our results show that two biosynthesis pathways seem to be mainly related to the floral note of Nacional cocoa: the monoterpene biosynthesis pathway and the L-phenylalanine degradation pathway. As already suggested, the genetic background would therefore appear as largely explaining the floral note of cocoa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theobroma cacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cocoa tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://tropgenedb.cirad.fr/tropgene/JSP/interface.jsp?module=COCOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select "Cocoa Amazonia Ecuador aroma" in the study field and download the data by CIRAD - INIAP Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theobroma cacao; chocolate production; fine flavour cocoa; genetic research; Genome-Wide Association Study; Ecuadorian cocoa; sensory evaluation; biochemical analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00040_AccuracyOfGenomicSelection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.jb17n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0156086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the Accuracy of Genomic Selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic selection is focused on prediction of breeding values of selection candidates by means of high density of markers. It relies on the assumption that all quantitative trait loci (QTLs) tend to be in strong linkage disequilibrium (LD) with at least one marker. In this context, we present theoretical results regarding the accuracy of genomic selection, i.e., the correlation between predicted and true breeding values. Typically, for individuals (so-called test individuals), breeding values are predicted by means of markers, using marker effects estimated by fitting a ridge regression model to a set of training individuals. We present a theoretical expression for the accuracy; this expression is suitable for any configurations of LD between QTLs and markers. We also introduce a new accuracy proxy that is free of the QTL parameters and easily computable; it outperforms the proxies suggested in the literature, in particular, those based on an estimated effective number of independent loci (Me). The theoretical formula, the new proxy, and existing proxies were compared for simulated data, and the results point to the validity of our approach. The calculations were also illustrated on a new perennial ryegrass set (367 individuals) genotyped for 24,957 single nucleotide polymorphisms (SNPs). In this case, most of the proxies studied yielded similar results because of the lack of markers for coverage of the entire genome (2.7 Gb).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lolium perenne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perennial ryegrass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.jb17n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic selection; quantitative trait loci; linkage disequilibrium; ridge regression; breeding values; marker effects; single nucleotide polymorphisms; genetic markers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00041_AgronomicTraitsCommonBean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.7910/DVN/XCD67U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.frontiersin.org/journals/plant-science/articles/10.3389/fpls.2020.01001/full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic Prediction of Agronomic Traits in Common Bean (Phaseolus vulgaris L.) Under Environmental Stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In plant and animal breeding, genomic prediction models are established to select new lines based on genomic data, without the need for laborious phenotyping. Prediction models can be trained on recent or historic phenotypic data and increasingly available genotypic data. This enables the adoption of genomic selection also in under-used legume crops such as common bean. Beans are an important staple food in the tropics and mainly grown by smallholders under limiting environmental conditions such as drought or low soil fertility. Therefore, genotype-by-environment interactions (G √ó E) are an important consideration when developing new bean varieties. However, G √ó E are often not considered in genomic prediction models nor are these models implemented in current bean breeding programs. Here we show the prediction abilities of four agronomic traits in common bean under various environmental stresses based on twelve field trials. The dataset includes 481 elite breeding lines characterized by 5,820 SNP markers. Prediction abilities over all twelve trials ranged between 0.6 and 0.8 for yield and days to maturity, respectively, predicting new lines into new seasons. In all four evaluated traits, the prediction abilities reached about 50‚Äì80% of the maximum accuracies given by phenotypic correlations and heritability. Predictions under drought and low phosphorus stress were up to 10 and 20% improved when G √ó E were included in the model, respectively. Our results demonstrate the potential of genomic selection to increase the genetic gain in common bean breeding. Prediction abilities improved when more phenotypic data was available and G √ó E could be accounted for. Furthermore, the developed models allowed us to predict genotypic performance under different environmental stresses. This will be a key factor in the development of common bean varieties adapted to future challenging conditions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phaseolus vulgaris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common bean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dataverse.harvard.edu/dataset.xhtml?persistentId=doi:10.7910/DVN/XCD67U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic prediction; plant breeding; genotype-by-environment interaction; common bean; SNP markers; genetic gain; environmental stress adaptation; agronomic traits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00042_CaseStudyOrangeRoughy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.26188/5d9bc8afa5b54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://besjournals.onlinelibrary.wiley.com/doi/full/10.1111/1365-2664.13534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic data suggest environmental drivers of fish population structure in the deep sea: A case study for the orange roughy (Hoplostethus atlanticus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The accurate identification of conservation units is central to effective management strategies. However, marine environment populations often have large census sizes and few obvious boundaries to gene flow. Poorly understood species in the deep sea are especially at risk of being erroneously managed as a single interbreeding stock (panmictic). However, mistaking cryptic structure for panmixia can have important consequences leading to ineffective management and population decline. Furthermore, characteristics of populations essential for their survival may reflect local adaptation, not evident from surveys using neutral genetic markers.
 We use genomic methodologies to test hypotheses about potential drivers of cryptic population structure among marine fish populations in the deep sea. In particular, we consider the possibility of isolation by distance along habitat corridors for a species dependent on a specific depth range and test for differentiation at functional loci across potential ecological habitat boundaries.
 For a species previously understood to be panmictic in the North Atlantic, we reveal neutral genetic differentiation among regional populations isolated by distance along deep-water channels. We also reveal a distinct pattern of cryptic genetic structure for putative functional loci, despite apparently high levels of gene flow.
 Synthesis and applications. This example reflects the life history and ecology of a broad range of deep-sea species currently exploited in intensive fisheries or as bycatch. In many cases where these populations are managed as a single stock, more effective management could be achieved using the methods we describe to identify relevant eco-evolutionary processes, facilitated by genomic methods, permitting the recognition of cryptic stock structure. This approach also allows managers to more directly promote the essential but elusive conservation of adaptive potential.</t>
   </si>
   <si>
-    <t>Hoplostethus atlanticus</t>
-  </si>
-  <si>
-    <t>Orange roughy</t>
-  </si>
-  <si>
-    <t>https://figshare.unimelb.edu.au/articles/dataset/Genomic_data_suggest_environmental_drivers_of_fish_population_structure_in_the_deep_sea_a_case_study_for_the_orange_roughy_Hoplostethus_atlanticus_/9946856</t>
-  </si>
-  <si>
-    <t>conservation management; marine biodiversity; genetic differentiation; deep-sea fisheries; genomic methodologies; population structure; eco-evolutionary processes; adaptive potential</t>
-  </si>
-  <si>
-    <t>00043_ConnectivityInLeiopotheraponUnicolor</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.h5r77</t>
-  </si>
-  <si>
-    <t>https://academic.oup.com/jhered/article/109/3/320/4617854?login=false</t>
-  </si>
-  <si>
-    <t>Genome-wide SNPs identify limits to connectivity in the extreme freshwater disperser, spangled perch Leiopotherapon unicolor (Terapontidae)</t>
-  </si>
-  <si>
-    <t>The utility of restriction-site associated DNA sequencing (RADseq) to resolve fine-scale population structure was tested on an abundant and vagile fish species in a tropical river. Australia‚Äôs most widespread freshwater fish, the ‚Äúextreme disperser‚Äù Leiopotherapon unicolor was sampled from 6 locations in an unregulated system, the Daly River in Australia‚Äôs Northern Territory. Despite an expectation of high connectivity based on life history knowledge of this species derived from arid zone habitats, L. unicolor was not a panmictic population in the tropical lower Daly. Using ~14000 polymorphic RADseq loci, we found a pattern of upstream versus downstream population subdivision and evidence for differentiation among tributary populations. The magnitude of population structure was low with narrow confidence intervals (global FST = 0.014; 95% CI = 0.012‚Äì0.016). Confidence intervals around pairwise FST estimates were all nonzero and consistent with the results of clustering analyses. This population structure was not explained by spatially heterogeneous selection acting on a subset of loci, or by sampling groups of closely related individuals (average within-site relatedness ‚âà 0). One implication of the low but significant structure observed in the tropics is the possibility that L. unicolor may exhibit contrasting patterns of migratory biology in tropical versus arid zone habitats. We conclude that the RADseq revolution holds promise for delineating subtle patterns of population subdivision in species characterized by high within-population variation and low among-population differentiation.</t>
-  </si>
-  <si>
-    <t>Leiopotherapon unicolor</t>
-  </si>
-  <si>
-    <t>spangled perch</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.h5r77</t>
-  </si>
-  <si>
-    <t>RADseq; population structure; freshwater fish; genetic differentiation; tropical river ecology; Leiopotherapon unicolor; spatial population dynamics; migratory biology patterns</t>
-  </si>
-  <si>
-    <t>00044_CottonFibreQualityBayesianRegression</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.25919/k18n-nk98</t>
-  </si>
-  <si>
-    <t>https://www.nature.com/articles/s41437-022-00537-x</t>
-  </si>
-  <si>
-    <t>Genomic prediction of cotton fibre quality and yield traits using Bayesian regression methods</t>
-  </si>
-  <si>
-    <t>Genomic selection or genomic prediction (GP) has increasingly become an important molecular breeding technology for crop improvement. GP aims to utilise genome-wide marker data to predict genomic breeding value for traits of economic importance. Though GP studies have been widely conducted in various crop species such as wheat and maize, its application in cotton, an essential renewable textile fibre crop, is still significantly underdeveloped. We aim to develop a new GP-based breeding system that can improve the efficiency of our cotton breeding program. This article presents a GP study on cotton fibre quality and yield traits using 1385 breeding lines from the Commonwealth Scientific and Industrial Research Organisation (CSIRO, Australia) cotton breeding program which were genotyped using a high-density SNP chip that generated 12,296 informative SNPs. The aim of this study was twofold: (1) to identify the models and data sources (i.e. genomic and pedigree) that produce the highest prediction accuracies; and (2) to assess the effectiveness of GP as a selection tool in the CSIRO cotton breeding program. The prediction analyses were conducted under various scenarios using different Bayesian predictive models. Results highlighted that the model combining genomic and pedigree information resulted in the best cross validated prediction accuracies: 0.76 for fibre length, 0.65 for fibre strength, and 0.64 for lint yield. Overall, this work represents the largest scale genomic selection studies based on cotton breeding trial data. Prediction accuracies reported in our study indicate the potential of GP as a breeding tool for cotton. The study highlighted the importance of incorporating pedigree and environmental factors in GP models to optimise the prediction performance.</t>
-  </si>
-  <si>
-    <t>Gossypium hirsutum</t>
-  </si>
-  <si>
-    <t>Cotton</t>
-  </si>
-  <si>
-    <t>https://data.csiro.au/collection/csiro%3A54562v2</t>
-  </si>
-  <si>
-    <t>genomic selection; cotton breeding; SNP genotyping; genomic prediction accuracies; Bayesian predictive models; crop improvement technologies; genetic markers; trait prediction</t>
-  </si>
-  <si>
-    <t>00045_EucalyptusSeeds</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.pf58510</t>
-  </si>
-  <si>
-    <t>https://www.nature.com/articles/s41437-018-0119-5</t>
-  </si>
-  <si>
-    <t>Efficiency of genomic prediction across two Eucalyptus nitens seed orchards with different selection histories</t>
-  </si>
-  <si>
-    <t>Genomic selection is expected to enhance the genetic improvement of forest tree species by providing more accurate estimates of breeding values through marker-based relationship matrices compared with pedigree-based methodologies. When adequately robust genomic prediction models are available, an additional increase in genetic gains can be made possible with the shortening of the breeding cycle through elimination of the progeny testing phase and early selection of parental candidates. The potential of genomic selection was investigated in an advanced Eucalyptus nitens breeding population focused on improvement for solid wood production. A high-density SNP chip (EUChip60K) was used to genotype 691 individuals in the breeding population, which represented two seed orchards with different selection histories. Phenotypic records for growth and form traits at age six, and for wood quality traits at age seven were available to build genomic prediction models using GBLUP, which were compared to the traditional pedigree-based alternative using BLUP. GBLUP demonstrated that breeding value accuracy would be improved and substantial increases in genetic gains towards solid wood production would be achieved. Cross-validation within and across two different seed orchards indicated that genomic predictions would likely benefit in terms of higher predictive accuracy from increasing the size of the training data sets through higher relatedness and better utilization of LD</t>
-  </si>
-  <si>
-    <t>Eucalyptus nitens</t>
-  </si>
-  <si>
-    <t>Shining gum</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.pf58510</t>
-  </si>
-  <si>
-    <t>genomic selection; forest tree breeding; Eucalyptus nitens; SNP chip; genomic prediction models; genetic gains; GBLUP; marker-based relationship matrices</t>
-  </si>
-  <si>
-    <t>00046_GrowthAndWoodQualityInEucalyptus</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.14806449</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/article/10.1007/s11295-021-01516-9</t>
-  </si>
-  <si>
-    <t>Genomic relationship - based genetic parameters and prospects of genomic selection for growth and wood quality traits in Eucalyptus benthamii</t>
+    <t xml:space="preserve">Hoplostethus atlanticus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange roughy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.unimelb.edu.au/articles/dataset/Genomic_data_suggest_environmental_drivers_of_fish_population_structure_in_the_deep_sea_a_case_study_for_the_orange_roughy_Hoplostethus_atlanticus_/9946856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conservation management; marine biodiversity; genetic differentiation; deep-sea fisheries; genomic methodologies; population structure; eco-evolutionary processes; adaptive potential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00043_ConnectivityInLeiopotheraponUnicolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.h5r77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://academic.oup.com/jhered/article/109/3/320/4617854?login=false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genome-wide SNPs identify limits to connectivity in the extreme freshwater disperser, spangled perch Leiopotherapon unicolor (Terapontidae)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The utility of restriction-site associated DNA sequencing (RADseq) to resolve fine-scale population structure was tested on an abundant and vagile fish species in a tropical river. Australia‚Äôs most widespread freshwater fish, the ‚Äúextreme disperser‚Äù Leiopotherapon unicolor was sampled from 6 locations in an unregulated system, the Daly River in Australia‚Äôs Northern Territory. Despite an expectation of high connectivity based on life history knowledge of this species derived from arid zone habitats, L. unicolor was not a panmictic population in the tropical lower Daly. Using ~14000 polymorphic RADseq loci, we found a pattern of upstream versus downstream population subdivision and evidence for differentiation among tributary populations. The magnitude of population structure was low with narrow confidence intervals (global FST = 0.014; 95% CI = 0.012‚Äì0.016). Confidence intervals around pairwise FST estimates were all nonzero and consistent with the results of clustering analyses. This population structure was not explained by spatially heterogeneous selection acting on a subset of loci, or by sampling groups of closely related individuals (average within-site relatedness ‚âà 0). One implication of the low but significant structure observed in the tropics is the possibility that L. unicolor may exhibit contrasting patterns of migratory biology in tropical versus arid zone habitats. We conclude that the RADseq revolution holds promise for delineating subtle patterns of population subdivision in species characterized by high within-population variation and low among-population differentiation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leiopotherapon unicolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spangled perch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.h5r77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RADseq; population structure; freshwater fish; genetic differentiation; tropical river ecology; Leiopotherapon unicolor; spatial population dynamics; migratory biology patterns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00044_CottonFibreQualityBayesianRegression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.25919/k18n-nk98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nature.com/articles/s41437-022-00537-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic prediction of cotton fibre quality and yield traits using Bayesian regression methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic selection or genomic prediction (GP) has increasingly become an important molecular breeding technology for crop improvement. GP aims to utilise genome-wide marker data to predict genomic breeding value for traits of economic importance. Though GP studies have been widely conducted in various crop species such as wheat and maize, its application in cotton, an essential renewable textile fibre crop, is still significantly underdeveloped. We aim to develop a new GP-based breeding system that can improve the efficiency of our cotton breeding program. This article presents a GP study on cotton fibre quality and yield traits using 1385 breeding lines from the Commonwealth Scientific and Industrial Research Organisation (CSIRO, Australia) cotton breeding program which were genotyped using a high-density SNP chip that generated 12,296 informative SNPs. The aim of this study was twofold: (1) to identify the models and data sources (i.e. genomic and pedigree) that produce the highest prediction accuracies; and (2) to assess the effectiveness of GP as a selection tool in the CSIRO cotton breeding program. The prediction analyses were conducted under various scenarios using different Bayesian predictive models. Results highlighted that the model combining genomic and pedigree information resulted in the best cross validated prediction accuracies: 0.76 for fibre length, 0.65 for fibre strength, and 0.64 for lint yield. Overall, this work represents the largest scale genomic selection studies based on cotton breeding trial data. Prediction accuracies reported in our study indicate the potential of GP as a breeding tool for cotton. The study highlighted the importance of incorporating pedigree and environmental factors in GP models to optimise the prediction performance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gossypium hirsutum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://data.csiro.au/collection/csiro%3A54562v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic selection; cotton breeding; SNP genotyping; genomic prediction accuracies; Bayesian predictive models; crop improvement technologies; genetic markers; trait prediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00045_EucalyptusSeeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.pf58510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nature.com/articles/s41437-018-0119-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficiency of genomic prediction across two Eucalyptus nitens seed orchards with different selection histories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic selection is expected to enhance the genetic improvement of forest tree species by providing more accurate estimates of breeding values through marker-based relationship matrices compared with pedigree-based methodologies. When adequately robust genomic prediction models are available, an additional increase in genetic gains can be made possible with the shortening of the breeding cycle through elimination of the progeny testing phase and early selection of parental candidates. The potential of genomic selection was investigated in an advanced Eucalyptus nitens breeding population focused on improvement for solid wood production. A high-density SNP chip (EUChip60K) was used to genotype 691 individuals in the breeding population, which represented two seed orchards with different selection histories. Phenotypic records for growth and form traits at age six, and for wood quality traits at age seven were available to build genomic prediction models using GBLUP, which were compared to the traditional pedigree-based alternative using BLUP. GBLUP demonstrated that breeding value accuracy would be improved and substantial increases in genetic gains towards solid wood production would be achieved. Cross-validation within and across two different seed orchards indicated that genomic predictions would likely benefit in terms of higher predictive accuracy from increasing the size of the training data sets through higher relatedness and better utilization of LD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eucalyptus nitens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shining gum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.pf58510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic selection; forest tree breeding; Eucalyptus nitens; SNP chip; genomic prediction models; genetic gains; GBLUP; marker-based relationship matrices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00046_GrowthAndWoodQualityInEucalyptus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.14806449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://link.springer.com/article/10.1007/s11295-021-01516-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic relationship - based genetic parameters and prospects of genomic selection for growth and wood quality traits in Eucalyptus benthamii</t>
   </si>
   <si>
     <t xml:space="preserve">The unique adaptation of Eucalyptus benthamii to low temperatures coupled to fast growth and versatile wood quality has made it a valued plantation species in frost-prone areas worldwide, but little is known on its quantitative genetic parameters for key industrial traits. We used GBLUP additive (GA), additive-dominant (GAD), single-step (HBLUP), and pedigree-based predictive models to estimate lignin, extractives, carbohydrates, and wood density at age 4 and tree volume at age 6. By capturing hidden relatedness and correcting pedigree errors, SNP data disentangled non-additive from additive variance providing more realistic estimates of narrow-sense heritability than pedigrees, and more accurate predictions of trait values. Predictive abilities (PAs) ranged from 0.12 for volume (pedigree-based model) to 0.44 for wood density (models H, GA, and GAD). Considerable dominance variance was seen for all traits, growth was the trait most influenced by it, resulting in PAs 48.9% higher when this effect is considered, a result with important consequences both for clonal propagation and overall selection efficiency (Seff). Using a HBLUP model, phenotypes of non-genotyped trees increased PAs by increasing sample size and provided realized relationships with reduced genotyping cost. In a recurrent selection program, the preclusion of progeny testing provides an increase in Seff between 232% and 299%. In a clonal selection program, the elimination of both progeny and initial clonal trial may increase Seff between 134% and 277%. Increasing selection intensity by genomic prediction resulted in an additional impact on Seff. This study provides groundwork to implement genomic selection in E. benthamii breeding.
 </t>
   </si>
   <si>
-    <t>Eucalyptus benthamii</t>
-  </si>
-  <si>
-    <t>Camden White Gum</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/Genomic_relationships-based_genetic_parameters_and_prospects_of_genomic_selection_for_growth_and_wood_quality_traits_in_Eucalyptus_benthamii_-_SNPdata/14806449</t>
-  </si>
-  <si>
-    <t>Two data links, one for Genotyoe data and the other for Phenotype data.</t>
-  </si>
-  <si>
-    <t>genomic selection; Eucalyptus benthamii; quantitative genetics; wood quality traits; predictive modeling; heritability; clonal propagation; selection efficiency</t>
-  </si>
-  <si>
-    <t>00047_GrowthWoodQualityNorwaySpruce</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.pk0p2nghn</t>
-  </si>
-  <si>
-    <t>https://bmcgenomics.biomedcentral.com/articles/10.1186/s12864-018-5256-y</t>
-  </si>
-  <si>
-    <t>Accuracy of genomic selection for growth and wood quality traits in two control-pollinated progeny trials using exome capture as the genotyping platform in Norway spruce</t>
-  </si>
-  <si>
-    <t>Background
+    <t xml:space="preserve">Eucalyptus benthamii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camden White Gum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Genomic_relationships-based_genetic_parameters_and_prospects_of_genomic_selection_for_growth_and_wood_quality_traits_in_Eucalyptus_benthamii_-_SNPdata/14806449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two data links, one for Genotyoe data and the other for Phenotype data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic selection; Eucalyptus benthamii; quantitative genetics; wood quality traits; predictive modeling; heritability; clonal propagation; selection efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00047_GrowthWoodQualityNorwaySpruce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.pk0p2nghn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bmcgenomics.biomedcentral.com/articles/10.1186/s12864-018-5256-y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accuracy of genomic selection for growth and wood quality traits in two control-pollinated progeny trials using exome capture as the genotyping platform in Norway spruce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
 Genomic selection (GS) can increase genetic gain by reducing the length of breeding cycle in forest trees. Here we genotyped 1370 control-pollinated progeny trees from 128 full-sib families in Norway spruce (Picea abies (L.) Karst.), using exome capture as genotyping platform. We used 116,765 high-quality SNPs to develop genomic prediction models for tree height and wood quality traits. We assessed the impact of different genomic prediction methods, genotype-by-environment interaction (G‚Äâ√ó‚ÄâE), genetic composition, size of the training and validation set, relatedness, and number of SNPs on accuracy and predictive ability (PA) of GS.
 Results
 Using G matrix slightly altered heritability estimates relative to pedigree-based method. GS accuracies were about 11‚Äì14% lower than those based on pedigree-based selection. The efficiency of GS per year varied from 1.71 to 1.78, compared to that of the pedigree-based model if breeding cycle length was halved using GS. Height GS accuracy decreased to more than 30% while using one site as training for GS prediction and using this model to predict the second site, indicating that G‚Äâ√ó‚ÄâE for tree height should be accommodated in model fitting. Using a half-sib family structure instead of full-sib structure led to a significant reduction in GS accuracy and PA. The full-sib family structure needed only 750 markers to reach similar accuracy and PA, as compared to 100,000 markers required for the half-sib family, indicating that maintaining the high relatedness in the model improves accuracy and PA. Using 4000‚Äì8000 markers in full-sib family structure was sufficient to obtain GS model accuracy and PA for tree height and wood quality traits, almost equivalent to that obtained with all markers.
@@ -1234,355 +1226,355 @@
 The study indicates that GS would be efficient in reducing generation time of breeding cycle in conifer tree breeding program that requires long-term progeny testing. The sufficient number of trees within-family (16 for growth and 12 for wood quality traits) and number of SNPs (8000) are required for GS with full-sib family relationship. GS methods had little impact on GS efficiency for growth and wood quality traits. GS model should incorporate G‚Äâ√ó‚ÄâE effect when a strong G‚Äâ√ó‚ÄâE is detected.</t>
   </si>
   <si>
-    <t>Picea abies</t>
-  </si>
-  <si>
-    <t>Norway spruce</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.pk0p2nghn</t>
-  </si>
-  <si>
-    <t>genomic selection; forest tree breeding; SNP genotyping; genotype-by-environment interaction; predictive ability; genetic gain; Norway spruce; wood quality traits</t>
-  </si>
-  <si>
-    <t>00048_InferencesSNPsPatternsMicrosatellites</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.40c7c</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/10.1111/1755-0998.12591</t>
-  </si>
-  <si>
-    <t>Population genetic inferences using immune gene SNPs mirror patterns inferred by microsatellites</t>
-  </si>
-  <si>
-    <t>Single nucleotide polymorphisms (SNPs) are replacing microsatellites for population genetic analyses, but it is not apparent how many SNPs are needed or how well SNPs correlate with microsatellites. We used data from the gopher tortoise, Gopherus polyphemus‚Äîa species with small populations, to compare SNPs and microsatellites to estimate population genetic parameters. Specifically, we compared one SNP data set (16 tortoises from four populations sequenced at 17 901 SNPs) to two microsatellite data sets, a full data set of 101 tortoises and a partial data set of 16 tortoises previously genotyped at 10 microsatellites. For the full microsatellite data set, observed heterozygosity, expected heterozygosity and FST were correlated between SNPs and microsatellites; however, allelic richness was not. The same was true for the partial microsatellite data set, except that allelic richness, but not observed heterozygosity, was correlated. The number of clusters estimated by structure differed for each data set (SNPs = 2; partial microsatellite = 3; full microsatellite = 4). Principle component analyses (PCA) showed four clusters for all data sets. More than 800 SNPs were needed to correlate with allelic richness, observed heterozygosity and expected heterozygosity, but only 100 were needed for FST. The number of SNPs typically obtained from next-generation sequencing (NGS) far exceeds the number needed to correlate with microsatellite parameter estimates. Our study illustrates that diversity, FST and PCA results from microsatellites can mirror those obtained with SNPs. These results may be generally applicable to small populations, a defining feature of endangered and threatened species, because theory predicts that genetic drift will tend to outweigh selection in small populations.</t>
-  </si>
-  <si>
-    <t>Gopherus polyphemus</t>
-  </si>
-  <si>
-    <t>Gopher tortoise</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.40c7c</t>
-  </si>
-  <si>
-    <t>population genetics; SNPs; microsatellites; genetic diversity; next-generation sequencing; endangered species; genetic drift; Gopherus polyphemus</t>
-  </si>
-  <si>
-    <t>00049_MultivariateGenomicPredictionEucalyptus</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/doi/10.5281/zenodo.4040041</t>
-  </si>
-  <si>
-    <t>https://www.frontiersin.org/journals/genetics/articles/10.3389/fgene.2020.499094/full</t>
-  </si>
-  <si>
-    <t>Marker Selection in Multivariate Genomic Prediction Improves Accuracy of Low Heritability Traits</t>
-  </si>
-  <si>
-    <t>Multivariate analysis using mixed models allows for the exploration of genetic correlations between traits. Additionally, the transition to a genomic based approach is simplified by substituting classic pedigrees with a marker-based relationship matrix. It also enables the investigation of correlated responses to selection, trait integration and modularity in different kinds of populations. This study investigated a strategy for the construction of a marker-based relationship matrix that prioritized markers using Partial Least Squares. The efficiency of this strategy was found to depend on the correlation structure between investigated traits. In terms of accuracy, we found no benefit of this strategy compared with the all-marker-based multivariate model for the primary trait of diameter at breast height (DBH) in a radiata pine (Pinus radiata) population, possibly due to the presence of strong and well-estimated correlation with other highly heritable traits. Conversely, we did see benefit in a shining gum (Eucalyptus nitens) population, where the primary trait had low or only moderate genetic correlation with other low/moderately heritable traits. Marker selection in multivariate analysis can therefore be an efficient strategy to improve prediction accuracy for low heritability traits due to improved precision in poorly estimated low/moderate genetic correlations. Additionally, our study identified the genetic diversity as a factor contributing to the efficiency of marker selection in multivariate approaches due to higher precision of genetic correlation estimates.</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/records/4040042</t>
-  </si>
-  <si>
-    <t>genetic correlations; genomic selection; marker-based relationship matrix; multivariate analysis; Partial Least Squares; trait integration; genetic diversity; prediction accuracy</t>
-  </si>
-  <si>
-    <t>00050_MultivariateGenomicPredictionPinus</t>
-  </si>
-  <si>
-    <t>Pinus</t>
-  </si>
-  <si>
-    <t>Pine</t>
-  </si>
-  <si>
-    <t>genetics; multivariate analysis; genomic selection; marker-based relationship matrix; Partial Least Squares; trait correlation; genetic diversity; radiata pine; Eucalyptus nitens</t>
-  </si>
-  <si>
-    <t>00051_PredictionOfQuantitativeTraitCotton</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3389/fpls.2020.583277.s013</t>
-  </si>
-  <si>
-    <t>https://www.frontiersin.org/journals/plant-science/articles/10.3389/fpls.2020.583277/full</t>
-  </si>
-  <si>
-    <t>Accurate Prediction of a Quantitative Trait Using the Genes Controlling the Trait for Gene-Based Breeding in Cotton</t>
-  </si>
-  <si>
-    <t>Accurate phenotype prediction of quantitative traits is paramount to enhanced plant research and breeding. Here, we report the accurate prediction of cotton fiber length, a typical quantitative trait, using 474 cotton (Gossypium ssp.) fiber length (GFL) genes and nine prediction models. When the SNPs/InDels contained in 226 of the GFL genes or the expressions of all 474 GFL genes was used for fiber length prediction, a prediction accuracy of r = 0.83 was obtained, approaching the maximally possible prediction accuracy of a quantitative trait. This has improved by 116%, the prediction accuracies of the fiber length thus far achieved for genomic selection using genome-wide random DNA markers. Moreover, analysis of the GFL genes identified 125 of the GFL genes that are key to accurate prediction of fiber length, with which a prediction accuracy similar to that of all 474 GFL genes was obtained. The fiber lengths of the plants predicted with expressions of the 125 key GFL genes were significantly correlated with those predicted with the SNPs/InDels of the above 226 SNP/InDel-containing GFL genes (r = 0.892, P = 0.000). The prediction accuracies of fiber length using both genic datasets were highly consistent across environments or generations. Finally, we found that a training population consisting of 100‚Äì120 plants was sufficient to train a model for accurate prediction of a quantitative trait using the genes controlling the trait. Therefore, the genes controlling a quantitative trait are capable of accurately predicting its phenotype, thereby dramatically improving the ability, accuracy, and efficiency of phenotype prediction and promoting gene-based breeding in cotton and other species.</t>
-  </si>
-  <si>
-    <t>Gossypium</t>
-  </si>
-  <si>
-    <t>https://frontiersin.figshare.com/articles/dataset/Table_8_Accurate_Prediction_of_a_Quantitative_Trait_Using_the_Genes_Controlling_the_Trait_for_Gene-Based_Breeding_in_Cotton_XLSX/13206440/1</t>
-  </si>
-  <si>
-    <t>plant-breeding; quantitative-traits; genomic-selection; phenotype-prediction; cotton-fiber-length; genetic-markers; Gossypium-genomics; model-training</t>
-  </si>
-  <si>
-    <t>00052_RecoveryOfOriginalGeneticBackground</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.mn0d5</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/10.1111/eva.12113</t>
-  </si>
-  <si>
-    <t>Genomic selection for recovery of original genetic background from hybrids of endangered and common breeds</t>
-  </si>
-  <si>
-    <t>Critically endangered breeds and populations are often crossed with more common breeds or subspecies. This results in genetic admixture that can be undesirable when it challenges the genetic integrity of wild and domestic populations, causing a loss in special characteristics or unique genetic material and ultimately extinction. Here, we present two genomic selection strategies, using genome-wide DNA markers, to recover the genomic content of the original endangered population from admixtures. Each strategy relies on the estimation of the proportion of nonintrogressed genome in individuals based on a different method: either genomic prediction or identification of breed-specific haplotypes. Then, breeding programs that remove introgressed genomic information can be designed. To test these strategies, we used empirical 50K SNP array data from two pure sheep breeds, Merino (used as target breed), Poll Dorset and an existing admixed population of both breeds. Sheep populations with varying degrees of introgression and admixture were simulated starting from these real genotypes. Both strategies were capable of identifying segment origin, and both removed up to the 100% of the Poll Dorset segments. While the selection process led to substantial inbreeding, we controlled it by imposing a minimum number of individuals contributing to the next generation.</t>
-  </si>
-  <si>
-    <t>Ovis aries</t>
-  </si>
-  <si>
-    <t>Sheep</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.mn0d5</t>
-  </si>
-  <si>
-    <t>genetic conservation; genomic selection; endangered species; DNA markers; breeding strategies; genetic integrity; SNP array; inbreeding control</t>
-  </si>
-  <si>
-    <t>00053_ResistanceToPhytophthoraInStrawberry</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.25338/B86D3M</t>
-  </si>
-  <si>
-    <t>https://acsess.onlinelibrary.wiley.com/doi/10.1002/tpg2.20275</t>
-  </si>
-  <si>
-    <t>Harnessing underutilized gene bank diversity and genomic prediction of cross usefulness to enhance resistance to Phytophthora cactorum in strawberry</t>
-  </si>
-  <si>
-    <t>The development of strawberry (Fragaria √ó ananassa Duchesne ex Rozier) cultivars resistant to Phytophthora crown rot (PhCR), a devastating disease caused by the soil-borne pathogen Phytophthora cactorum (Lebert &amp; Cohn) J. Schr√∂t., has been challenging partly because the resistance phenotypes are quantitative and only moderately heritable. To develop deeper insights into the genetics of resistance and build the foundation for applying genomic selection, a genetically diverse training population was screened for resistance to California isolates of the pathogen. Here we show that genetic gains in breeding for resistance to PhCR have been negligible (3% of the cultivars tested were highly resistant and none surpassed early 20th century cultivars). Narrow-sense genomic heritability for PhCR resistance ranged from 0.41 to 0.75 among training population individuals. Using multivariate genome-wide association studies (GWAS), we identified a large-effect locus (predicted to be RPc2) that explained 43.6‚Äì51.6% of the genetic variance, was necessary but not sufficient for resistance, and was associated with calcium channel and other candidate genes with known plant defense functions. The addition of underutilized gene bank resources to our training population doubled additive genetic variance, increased the accuracy of genomic selection, and enabled the discovery of individuals carrying favorable alleles that are either rare or not present in modern cultivars. The incorporation of an RPc2-associated single-nucleotide polymorphism (SNP) as a fixed effect increased genomic prediction accuracy from 0.40 to 0.55. Finally, we show that parent selection using genomic-estimated breeding values, genetic variances, and cross usefulness holds promise for enhancing resistance to PhCR in strawberry.</t>
-  </si>
-  <si>
-    <t>Fragaria ‚àö√≥ ananassa</t>
-  </si>
-  <si>
-    <t>Strawberry</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.25338/B86D3M</t>
-  </si>
-  <si>
-    <t>strawberry breeding; Phytophthora crown rot; genomic selection; genome-wide association studies; plant genetics; disease resistance; genetic variance; plant breeding</t>
-  </si>
-  <si>
-    <t>00054_ResistanceToVirusInCommonCarp</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1534/g3.118.200593</t>
-  </si>
-  <si>
-    <t>https://academic.oup.com/g3journal/article/8/11/3507/6026996</t>
-  </si>
-  <si>
-    <t>Mapping and Sequencing of a Significant Quantitative Trait Locus Affecting Resistance to Koi Herpesvirus in Common Carp</t>
-  </si>
-  <si>
-    <t>Cyprinids are the most highly produced group of fishes globally, with common carp being one of the most valuable species of the group. Koi herpesvirus (KHV) infections can result in high levels of mortality, causing major economic losses, and is listed as a notifiable disease by the World Organization for Animal Health. Selective breeding for host resistance has the potential to reduce morbidity and losses due to KHV. Therefore, improving knowledge about host resistance and methods of incorporating genomic data into breeding for resistance may contribute to a decrease in economic losses in carp farming. In the current study, a population of 1,425 carp juveniles, originating from a factorial cross between 40 sires and 20 dams was challenged with KHV. Mortalities and survivors were recorded and sampled for genotyping by sequencing using Restriction Site-Associated DNA sequencing (RADseq). Genome-wide association analyses were performed to investigate the genetic architecture of resistance to KHV. A genome-wide significant QTL affecting resistance to KHV was identified on linkage group 44, explaining approximately 7% of the additive genetic variance. Pooled whole genome resequencing of a subset of resistant (n = 60) and susceptible animals (n = 60) was performed to characterize QTL regions, including identification of putative candidate genes and functional annotation of associated polymorphisms. The TRIM25 gene was identified as a promising positional and functional candidate within the QTL region of LG 44, and a putative premature stop mutation in this gene was discovered.</t>
-  </si>
-  <si>
-    <t>Cyprinus carpio</t>
-  </si>
-  <si>
-    <t>Common Carp</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/Supplemental_Material_for_Palaiokostas_et_al_2018/6281561</t>
-  </si>
-  <si>
-    <t>aquaculture; fish genetics; genome-wide association study; Koi herpesvirus; selective breeding; economic impact; disease resistance; Cyprinids</t>
-  </si>
-  <si>
-    <t>00055_ResistanceToVirusInPacificOysters</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1534/g3.118.200113</t>
-  </si>
-  <si>
-    <t>https://academic.oup.com/g3journal/article/8/4/1273/5941681</t>
-  </si>
-  <si>
-    <t>A Genome-Wide Association Study for Host Resistance to Ostreid Herpesvirus in Pacific Oysters (Crassostrea gigas)</t>
-  </si>
-  <si>
-    <t>Ostreid herpesvirus (OsHV) can cause mass mortality events in Pacific oyster aquaculture. While various factors impact on the severity of outbreaks, it is clear that genetic resistance of the host is an important determinant of mortality levels. This raises the possibility of selective breeding strategies to improve the genetic resistance of farmed oyster stocks, thereby contributing to disease control. Traditional selective breeding can be augmented by use of genetic markers, either via marker-assisted or genomic selection. The aim of the current study was to investigate the genetic architecture of resistance to OsHV in Pacific oyster, to identify genomic regions containing putative resistance genes, and to inform the use of genomics to enhance efforts to breed for resistance. To achieve this, a population of ‚àº1,000 juvenile oysters were experimentally challenged with a virulent form of OsHV, with samples taken from mortalities and survivors for genotyping and qPCR measurement of viral load. The samples were genotyped using a recently-developed SNP array, and the genotype data were used to reconstruct the pedigree. Using these pedigree and genotype data, the first high density linkage map was constructed for Pacific oyster, containing 20,353 SNPs mapped to the ten pairs of chromosomes. Genetic parameters for resistance to OsHV were estimated, indicating a significant but low heritability for the binary trait of survival and also for viral load measures (h2 0.12 ‚Äì 0.25). A genome-wide association study highlighted a region of linkage group 6 containing a significant QTL affecting host resistance. These results are an important step toward identification of genes underlying resistance to OsHV in oyster, and a step toward applying genomic data to enhance selective breeding for disease resistance in oyster aquaculture.</t>
-  </si>
-  <si>
-    <t>Supplementary data section at the end of the article provides the data files while 'Data Availability' subsection under 'Methods' labels the data.</t>
-  </si>
-  <si>
-    <t>oyster aquaculture; Ostreid herpesvirus; genetic resistance; selective breeding; genomic selection; linkage map; genome-wide association study; genetic markers</t>
-  </si>
-  <si>
-    <t>00056_SeedQualityBarleyBreedingLines</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0164494</t>
-  </si>
-  <si>
-    <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0164494</t>
-  </si>
-  <si>
-    <t>Genomic Prediction of Seed Quality Traits Using Advanced Barley Breeding Lines</t>
-  </si>
-  <si>
-    <t>Genomic selection was recently introduced in plant breeding. The objective of this study was to develop genomic prediction for important seed quality parameters in spring barley. The aim was to predict breeding values without expensive phenotyping of large sets of lines. A total number of 309 advanced spring barley lines tested at two locations each with three replicates were phenotyped and each line was genotyped by Illumina iSelect 9Kbarley chip. The population originated from two different breeding sets, which were phenotyped in two different years. Phenotypic measurements considered were: seed size, protein content, protein yield, test weight and ergosterol content. A leave-one-out cross-validation strategy revealed high prediction accuracies ranging between 0.40 and 0.83. Prediction across breeding sets resulted in reduced accuracies compared to the leave-one-out strategy. Furthermore, predicting across full and half-sib-families resulted in reduced prediction accuracies. Additionally, predictions were performed using reduced marker sets and reduced training population sets. In conclusion, using less than 200 lines in the training set can result in low prediction accuracy, and the accuracy will then be highly dependent on the family structure of the selected training set. However, the results also indicate that relatively small training sets (200 lines) are sufficient for genomic prediction in commercial barley breeding. In addition, our results indicate a minimum marker set of 1,000 to decrease the risk of low prediction accuracy for some traits or some families</t>
-  </si>
-  <si>
-    <t>Hordeum vulgare</t>
-  </si>
-  <si>
-    <t>Barley</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/Genomic_Prediction_of_Seed_Quality_Traits_Using_Advanced_Barley_Breeding_Lines/4107978</t>
-  </si>
-  <si>
-    <t>genomic selection; plant breeding; barley; seed quality; phenotyping; genotyping; prediction accuracy; cross-validation</t>
-  </si>
-  <si>
-    <t>00057_SpatiotemporalPatternsStripedMarlin</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.3j9kd51cp</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/full/10.1111/eva.12892</t>
-  </si>
-  <si>
-    <t>Genome-wide SNPs resolve spatiotemporal patterns of connectivity within striped marlin (Kajikia audax), a broadly distributed and highly migratory pelagic species</t>
-  </si>
-  <si>
-    <t>Genomic methodologies offer unprecedented opportunities for statistically robust studies of species broadly distributed in environments conducive to high gene flow, providing valuable information for wildlife conservation and management. Here, we sequence restriction site-associated DNA to characterize genome-wide single nucleotide polymorphisms (SNPs) in a broadly distributed and highly migratory large pelagic fish, striped marlin (Kajikia audax). Assessment of over 4,000 SNPs resolved spatiotemporal patterns of genetic connectivity throughout the species range in the Pacific and, for the first time, Indian oceans. Individual-based cluster analyses identified six genetically distinct populations corresponding with the western Indian, eastern Indian, western South Pacific, and eastern central Pacific oceans, as well as two populations in the North Pacific Ocean (FST = 0.0137‚Äì0.0819). FST outlier analyses identified a subset of SNPs (n = 59) putatively under the influence of natural selection and capable of resolving populations separated by comparatively high degrees of genetic differentiation. Temporal collections available for some regions demonstrated the stability of allele frequencies over three to five generations of striped marlin. Relative migration rates reflected lower levels of genetic connectivity between Indian Ocean populations (mR ‚â§ 0.37) compared with most populations in the Pacific Ocean (mR ‚â• 0.57) and highlight the importance of the western South Pacific in facilitating gene flow between ocean basins. Collectively, our results provide novel insights into rangewide population structure for striped marlin and highlight substantial inconsistencies between genetically distinct populations and stocks currently recognized for fisheries management. More broadly, we demonstrate that species capable of long-distance dispersal in environments lacking obvious physical barriers to movement can display substantial population subdivision that persists over multiple generations and that may be facilitated by both neutral and adaptive processes. Importantly, surveys of genome-wide markers enable inference of population-level relationships using sample sizes practical for large pelagic fishes of conservation concern.</t>
-  </si>
-  <si>
-    <t>Kajikia audax</t>
-  </si>
-  <si>
-    <t>Striped marlin</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.3j9kd51cp</t>
-  </si>
-  <si>
-    <t>genomics; wildlife conservation; population genetics; marine biology; genetic connectivity; fisheries management; SNP analysis; evolutionary biology</t>
-  </si>
-  <si>
-    <t>00058_ComparisonGenomicModelsInteriorSpruce</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.m4vh4</t>
-  </si>
-  <si>
-    <t>https://www.nature.com/articles/hdy201557</t>
-  </si>
-  <si>
-    <t>A comparison of genomic selection models across time in interior spruce (Picea engelmannii ‚óä glauca) using unordered SNP imputation methods</t>
-  </si>
-  <si>
-    <t>Genomic selection (GS) potentially offers an unparalleled advantage over traditional pedigree-based selection (TS) methods by reducing the time commitment required to carry out a single cycle of tree improvement. This quality is particularly appealing to tree breeders, where lengthy improvement cycles are the norm. We explored the prospect of implementing GS for interior spruce (Picea engelmannii √ó glauca) utilizing a genotyped population of 769 trees belonging to 25 open-pollinated families. A series of repeated tree height measurements through ages 3‚Äì40 years permitted the testing of GS methods temporally. The genotyping-by-sequencing (GBS) platform was used for single nucleotide polymorphism (SNP) discovery in conjunction with three unordered imputation methods applied to a data set with 60% missing information. Further, three diverse GS models were evaluated based on predictive accuracy (PA), and their marker effects. Moderate levels of PA (0.31‚Äì0.55) were observed and were of sufficient capacity to deliver improved selection response over TS. Additionally, PA varied substantially through time accordingly with spatial competition among trees. As expected, temporal PA was well correlated with age-age genetic correlation (r=0.99), and decreased substantially with increasing difference in age between the training and validation populations (0.04‚Äì0.47). Moreover, our imputation comparisons indicate that k-nearest neighbor and singular value decomposition yielded a greater number of SNPs and gave higher predictive accuracies than imputing with the mean. Furthermore, the ridge regression (rrBLUP) and BayesCœÄ (BCœÄ) models both yielded equal, and better PA than the generalized ridge regression heteroscedastic effect model for the traits evaluated.</t>
-  </si>
-  <si>
-    <t>Picea engelmannii ‚óä glauca</t>
-  </si>
-  <si>
-    <t>Interior Spruce</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.m4vh4</t>
-  </si>
-  <si>
-    <t>According to the article; SVD Imputation gave best results followed by KNN, Hence use the SVD Imputed data</t>
-  </si>
-  <si>
-    <t>genomic selection; tree breeding; genotyping-by-sequencing; predictive accuracy; single nucleotide polymorphism; imputation methods; genetic correlation; ridge regression</t>
-  </si>
-  <si>
-    <t>00059_DesignCharacterizationArcticCharr</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0215008</t>
-  </si>
-  <si>
-    <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0215008</t>
-  </si>
-  <si>
-    <t>Design and characterization of an 87k SNP genotyping array for Arctic charr (Salvelinus alpinus)</t>
-  </si>
-  <si>
-    <t>We have generated a high-density, high-throughput genotyping array for characterizing genome-wide variation in Arctic charr (Salvelinus alpinus). Novel single nucleotide polymorphisms (SNPs) were identified in charr from the Fraser, Nauyuk and Tree River aquaculture strains, which originated from northern Canada and fish from Iceland using high coverage sequencing, reduced representation sequencing and RNA-seq datasets. The array was designed to capture genome-wide variation from a diverse suite of Arctic charr populations. Cross validation of SNPs from various sources and comparison with previously published Arctic charr SNP data provided a set of candidate SNPs that generalize across populations. Further candidate SNPs were identified based on minor allele frequency, association with RNA transcripts, even spacing across intergenic regions and association with the sex determining (sdY) gene. The performance of the 86,503 SNP array was assessed by genotyping Fraser, Nauyuk and Tree River strain individuals, as well as wild Icelandic Arctic charr. Overall, 63,060 of the SNPs were polymorphic within at least one group and 36.8% were unique to one of the four groups, suggesting that the array design allows for characterization of both within and across population genetic diversity. The concordance between sdY markers and known phenotypic sex indicated that the array can accurately determine the sex of individuals based on genotype alone. The Salp87k genotyping array provides researchers and breeders the opportunity to analyze genetic variation in Arctic charr at a more detailed level than previously possible</t>
-  </si>
-  <si>
-    <t>Salvelinus alpinus</t>
-  </si>
-  <si>
-    <t>Arctic char</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/Design_and_characterization_of_an_87k_SNP_genotyping_array_for_Arctic_charr_i_Salvelinus_alpinus_i_/7959782</t>
-  </si>
-  <si>
-    <t>genomics; SNP array; Arctic charr; genetic diversity; aquaculture; RNA-seq; population genetics; sex determination</t>
-  </si>
-  <si>
-    <t>00060_GeneticHomogeneityEasternRockLobster</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.d4q57s5</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/article/10.1007/s00227-018-3443-7</t>
-  </si>
-  <si>
-    <t>Outlier SNPs detect weak regional structure against a background of genetic homogeneity in the Eastern Rock Lobster, Sagmariasus verreauxi</t>
-  </si>
-  <si>
-    <t>Genetic differentiation is characteristically weak in marine species making assessments of population connectivity and structure difficult. However, the advent of genomic methods has increased genetic resolution, enabling studies to detect weak, but significant population differentiation within marine species. With an increasing number of studies employing high resolution genome-wide techniques, we are realising that the connectivity of marine populations is often complex and quantifying this complexity can provide an understanding of the processes shaping marine species genetic structure and to inform long-term, sustainable management strategies. This study aims to assess the genetic structure, connectivity, and local adaptation of the Eastern Rock Lobster (Sagmariasus verreauxi), which has a maximum pelagic larval duration of 12 months and inhabits both subtropical and temperate environments. We used 645 neutral and 15 outlier SNPs to genotype lobsters collected from the only two known breeding populations and a third episodic population‚Äîencompassing S. verreauxi‚Äôs known range. Through examination of the neutral SNP panel, we detected genetic homogeneity across the three regions, which extended across the Tasman Sea encompassing both Australian and New Zealand populations. We discuss differences in neutral genetic signature of S. verreauxi and a closely related, co-distributed rock lobster, Jasus edwardsii, determining a regional pattern of genetic disparity between the species, which have largely similar life histories. Examination of the outlier SNP panel detected weak genetic differentiation between the three regions. Outlier SNPs showed promise in assigning individuals to their sampling origin and may prove useful as a management tool for species exhibiting genetic homogeneity.</t>
-  </si>
-  <si>
-    <t>Sagmariasus verreauxi</t>
-  </si>
-  <si>
-    <t>Eastern Rock Lobster</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.d4q57s5</t>
-  </si>
-  <si>
-    <t>marine_genomics; population_genetics; genetic_differentiation; SNP_analysis; marine_species_management; genetic_structure; population_connectivity; local_adaptation</t>
-  </si>
-  <si>
-    <t>00061_GenomicEvaluationDothistromaKaingaroa</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.qfttdz0d7</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/article/10.1186/s12870-020-02403-6</t>
-  </si>
-  <si>
-    <t>Effect of trait√≠s expression level on single-step genomic evaluation of resistance to Dothistroma needle blight</t>
-  </si>
-  <si>
-    <t>Background
+    <t xml:space="preserve">Picea abies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway spruce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.pk0p2nghn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic selection; forest tree breeding; SNP genotyping; genotype-by-environment interaction; predictive ability; genetic gain; Norway spruce; wood quality traits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00048_InferencesSNPsPatternsMicrosatellites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.40c7c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/10.1111/1755-0998.12591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population genetic inferences using immune gene SNPs mirror patterns inferred by microsatellites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single nucleotide polymorphisms (SNPs) are replacing microsatellites for population genetic analyses, but it is not apparent how many SNPs are needed or how well SNPs correlate with microsatellites. We used data from the gopher tortoise, Gopherus polyphemus‚Äîa species with small populations, to compare SNPs and microsatellites to estimate population genetic parameters. Specifically, we compared one SNP data set (16 tortoises from four populations sequenced at 17 901 SNPs) to two microsatellite data sets, a full data set of 101 tortoises and a partial data set of 16 tortoises previously genotyped at 10 microsatellites. For the full microsatellite data set, observed heterozygosity, expected heterozygosity and FST were correlated between SNPs and microsatellites; however, allelic richness was not. The same was true for the partial microsatellite data set, except that allelic richness, but not observed heterozygosity, was correlated. The number of clusters estimated by structure differed for each data set (SNPs = 2; partial microsatellite = 3; full microsatellite = 4). Principle component analyses (PCA) showed four clusters for all data sets. More than 800 SNPs were needed to correlate with allelic richness, observed heterozygosity and expected heterozygosity, but only 100 were needed for FST. The number of SNPs typically obtained from next-generation sequencing (NGS) far exceeds the number needed to correlate with microsatellite parameter estimates. Our study illustrates that diversity, FST and PCA results from microsatellites can mirror those obtained with SNPs. These results may be generally applicable to small populations, a defining feature of endangered and threatened species, because theory predicts that genetic drift will tend to outweigh selection in small populations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gopherus polyphemus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gopher tortoise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.40c7c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population genetics; SNPs; microsatellites; genetic diversity; next-generation sequencing; endangered species; genetic drift; Gopherus polyphemus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00049_MultivariateGenomicPredictionEucalyptus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zenodo.org/doi/10.5281/zenodo.4040041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.frontiersin.org/journals/genetics/articles/10.3389/fgene.2020.499094/full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marker Selection in Multivariate Genomic Prediction Improves Accuracy of Low Heritability Traits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multivariate analysis using mixed models allows for the exploration of genetic correlations between traits. Additionally, the transition to a genomic based approach is simplified by substituting classic pedigrees with a marker-based relationship matrix. It also enables the investigation of correlated responses to selection, trait integration and modularity in different kinds of populations. This study investigated a strategy for the construction of a marker-based relationship matrix that prioritized markers using Partial Least Squares. The efficiency of this strategy was found to depend on the correlation structure between investigated traits. In terms of accuracy, we found no benefit of this strategy compared with the all-marker-based multivariate model for the primary trait of diameter at breast height (DBH) in a radiata pine (Pinus radiata) population, possibly due to the presence of strong and well-estimated correlation with other highly heritable traits. Conversely, we did see benefit in a shining gum (Eucalyptus nitens) population, where the primary trait had low or only moderate genetic correlation with other low/moderately heritable traits. Marker selection in multivariate analysis can therefore be an efficient strategy to improve prediction accuracy for low heritability traits due to improved precision in poorly estimated low/moderate genetic correlations. Additionally, our study identified the genetic diversity as a factor contributing to the efficiency of marker selection in multivariate approaches due to higher precision of genetic correlation estimates.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zenodo.org/records/4040042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genetic correlations; genomic selection; marker-based relationship matrix; multivariate analysis; Partial Least Squares; trait integration; genetic diversity; prediction accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00050_MultivariateGenomicPredictionPinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genetics; multivariate analysis; genomic selection; marker-based relationship matrix; Partial Least Squares; trait correlation; genetic diversity; radiata pine; Eucalyptus nitens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00051_PredictionOfQuantitativeTraitCotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.3389/fpls.2020.583277.s013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.frontiersin.org/journals/plant-science/articles/10.3389/fpls.2020.583277/full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accurate Prediction of a Quantitative Trait Using the Genes Controlling the Trait for Gene-Based Breeding in Cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accurate phenotype prediction of quantitative traits is paramount to enhanced plant research and breeding. Here, we report the accurate prediction of cotton fiber length, a typical quantitative trait, using 474 cotton (Gossypium ssp.) fiber length (GFL) genes and nine prediction models. When the SNPs/InDels contained in 226 of the GFL genes or the expressions of all 474 GFL genes was used for fiber length prediction, a prediction accuracy of r = 0.83 was obtained, approaching the maximally possible prediction accuracy of a quantitative trait. This has improved by 116%, the prediction accuracies of the fiber length thus far achieved for genomic selection using genome-wide random DNA markers. Moreover, analysis of the GFL genes identified 125 of the GFL genes that are key to accurate prediction of fiber length, with which a prediction accuracy similar to that of all 474 GFL genes was obtained. The fiber lengths of the plants predicted with expressions of the 125 key GFL genes were significantly correlated with those predicted with the SNPs/InDels of the above 226 SNP/InDel-containing GFL genes (r = 0.892, P = 0.000). The prediction accuracies of fiber length using both genic datasets were highly consistent across environments or generations. Finally, we found that a training population consisting of 100‚Äì120 plants was sufficient to train a model for accurate prediction of a quantitative trait using the genes controlling the trait. Therefore, the genes controlling a quantitative trait are capable of accurately predicting its phenotype, thereby dramatically improving the ability, accuracy, and efficiency of phenotype prediction and promoting gene-based breeding in cotton and other species.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gossypium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://frontiersin.figshare.com/articles/dataset/Table_8_Accurate_Prediction_of_a_Quantitative_Trait_Using_the_Genes_Controlling_the_Trait_for_Gene-Based_Breeding_in_Cotton_XLSX/13206440/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plant-breeding; quantitative-traits; genomic-selection; phenotype-prediction; cotton-fiber-length; genetic-markers; Gossypium-genomics; model-training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00052_RecoveryOfOriginalGeneticBackground</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.mn0d5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/10.1111/eva.12113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic selection for recovery of original genetic background from hybrids of endangered and common breeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critically endangered breeds and populations are often crossed with more common breeds or subspecies. This results in genetic admixture that can be undesirable when it challenges the genetic integrity of wild and domestic populations, causing a loss in special characteristics or unique genetic material and ultimately extinction. Here, we present two genomic selection strategies, using genome-wide DNA markers, to recover the genomic content of the original endangered population from admixtures. Each strategy relies on the estimation of the proportion of nonintrogressed genome in individuals based on a different method: either genomic prediction or identification of breed-specific haplotypes. Then, breeding programs that remove introgressed genomic information can be designed. To test these strategies, we used empirical 50K SNP array data from two pure sheep breeds, Merino (used as target breed), Poll Dorset and an existing admixed population of both breeds. Sheep populations with varying degrees of introgression and admixture were simulated starting from these real genotypes. Both strategies were capable of identifying segment origin, and both removed up to the 100% of the Poll Dorset segments. While the selection process led to substantial inbreeding, we controlled it by imposing a minimum number of individuals contributing to the next generation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ovis aries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.mn0d5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genetic conservation; genomic selection; endangered species; DNA markers; breeding strategies; genetic integrity; SNP array; inbreeding control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00053_ResistanceToPhytophthoraInStrawberry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.25338/B86D3M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://acsess.onlinelibrary.wiley.com/doi/10.1002/tpg2.20275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harnessing underutilized gene bank diversity and genomic prediction of cross usefulness to enhance resistance to Phytophthora cactorum in strawberry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The development of strawberry (Fragaria √ó ananassa Duchesne ex Rozier) cultivars resistant to Phytophthora crown rot (PhCR), a devastating disease caused by the soil-borne pathogen Phytophthora cactorum (Lebert &amp; Cohn) J. Schr√∂t., has been challenging partly because the resistance phenotypes are quantitative and only moderately heritable. To develop deeper insights into the genetics of resistance and build the foundation for applying genomic selection, a genetically diverse training population was screened for resistance to California isolates of the pathogen. Here we show that genetic gains in breeding for resistance to PhCR have been negligible (3% of the cultivars tested were highly resistant and none surpassed early 20th century cultivars). Narrow-sense genomic heritability for PhCR resistance ranged from 0.41 to 0.75 among training population individuals. Using multivariate genome-wide association studies (GWAS), we identified a large-effect locus (predicted to be RPc2) that explained 43.6‚Äì51.6% of the genetic variance, was necessary but not sufficient for resistance, and was associated with calcium channel and other candidate genes with known plant defense functions. The addition of underutilized gene bank resources to our training population doubled additive genetic variance, increased the accuracy of genomic selection, and enabled the discovery of individuals carrying favorable alleles that are either rare or not present in modern cultivars. The incorporation of an RPc2-associated single-nucleotide polymorphism (SNP) as a fixed effect increased genomic prediction accuracy from 0.40 to 0.55. Finally, we show that parent selection using genomic-estimated breeding values, genetic variances, and cross usefulness holds promise for enhancing resistance to PhCR in strawberry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fragaria ‚àö√≥ ananassa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strawberry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.25338/B86D3M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strawberry breeding; Phytophthora crown rot; genomic selection; genome-wide association studies; plant genetics; disease resistance; genetic variance; plant breeding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00054_ResistanceToVirusInCommonCarp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1534/g3.118.200593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://academic.oup.com/g3journal/article/8/11/3507/6026996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapping and Sequencing of a Significant Quantitative Trait Locus Affecting Resistance to Koi Herpesvirus in Common Carp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprinids are the most highly produced group of fishes globally, with common carp being one of the most valuable species of the group. Koi herpesvirus (KHV) infections can result in high levels of mortality, causing major economic losses, and is listed as a notifiable disease by the World Organization for Animal Health. Selective breeding for host resistance has the potential to reduce morbidity and losses due to KHV. Therefore, improving knowledge about host resistance and methods of incorporating genomic data into breeding for resistance may contribute to a decrease in economic losses in carp farming. In the current study, a population of 1,425 carp juveniles, originating from a factorial cross between 40 sires and 20 dams was challenged with KHV. Mortalities and survivors were recorded and sampled for genotyping by sequencing using Restriction Site-Associated DNA sequencing (RADseq). Genome-wide association analyses were performed to investigate the genetic architecture of resistance to KHV. A genome-wide significant QTL affecting resistance to KHV was identified on linkage group 44, explaining approximately 7% of the additive genetic variance. Pooled whole genome resequencing of a subset of resistant (n = 60) and susceptible animals (n = 60) was performed to characterize QTL regions, including identification of putative candidate genes and functional annotation of associated polymorphisms. The TRIM25 gene was identified as a promising positional and functional candidate within the QTL region of LG 44, and a putative premature stop mutation in this gene was discovered.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprinus carpio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Carp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Supplemental_Material_for_Palaiokostas_et_al_2018/6281561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aquaculture; fish genetics; genome-wide association study; Koi herpesvirus; selective breeding; economic impact; disease resistance; Cyprinids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00055_ResistanceToVirusInPacificOysters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1534/g3.118.200113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://academic.oup.com/g3journal/article/8/4/1273/5941681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Genome-Wide Association Study for Host Resistance to Ostreid Herpesvirus in Pacific Oysters (Crassostrea gigas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ostreid herpesvirus (OsHV) can cause mass mortality events in Pacific oyster aquaculture. While various factors impact on the severity of outbreaks, it is clear that genetic resistance of the host is an important determinant of mortality levels. This raises the possibility of selective breeding strategies to improve the genetic resistance of farmed oyster stocks, thereby contributing to disease control. Traditional selective breeding can be augmented by use of genetic markers, either via marker-assisted or genomic selection. The aim of the current study was to investigate the genetic architecture of resistance to OsHV in Pacific oyster, to identify genomic regions containing putative resistance genes, and to inform the use of genomics to enhance efforts to breed for resistance. To achieve this, a population of ‚àº1,000 juvenile oysters were experimentally challenged with a virulent form of OsHV, with samples taken from mortalities and survivors for genotyping and qPCR measurement of viral load. The samples were genotyped using a recently-developed SNP array, and the genotype data were used to reconstruct the pedigree. Using these pedigree and genotype data, the first high density linkage map was constructed for Pacific oyster, containing 20,353 SNPs mapped to the ten pairs of chromosomes. Genetic parameters for resistance to OsHV were estimated, indicating a significant but low heritability for the binary trait of survival and also for viral load measures (h2 0.12 ‚Äì 0.25). A genome-wide association study highlighted a region of linkage group 6 containing a significant QTL affecting host resistance. These results are an important step toward identification of genes underlying resistance to OsHV in oyster, and a step toward applying genomic data to enhance selective breeding for disease resistance in oyster aquaculture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplementary data section at the end of the article provides the data files while 'Data Availability' subsection under 'Methods' labels the data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oyster aquaculture; Ostreid herpesvirus; genetic resistance; selective breeding; genomic selection; linkage map; genome-wide association study; genetic markers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00056_SeedQualityBarleyBreedingLines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0164494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0164494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic Prediction of Seed Quality Traits Using Advanced Barley Breeding Lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic selection was recently introduced in plant breeding. The objective of this study was to develop genomic prediction for important seed quality parameters in spring barley. The aim was to predict breeding values without expensive phenotyping of large sets of lines. A total number of 309 advanced spring barley lines tested at two locations each with three replicates were phenotyped and each line was genotyped by Illumina iSelect 9Kbarley chip. The population originated from two different breeding sets, which were phenotyped in two different years. Phenotypic measurements considered were: seed size, protein content, protein yield, test weight and ergosterol content. A leave-one-out cross-validation strategy revealed high prediction accuracies ranging between 0.40 and 0.83. Prediction across breeding sets resulted in reduced accuracies compared to the leave-one-out strategy. Furthermore, predicting across full and half-sib-families resulted in reduced prediction accuracies. Additionally, predictions were performed using reduced marker sets and reduced training population sets. In conclusion, using less than 200 lines in the training set can result in low prediction accuracy, and the accuracy will then be highly dependent on the family structure of the selected training set. However, the results also indicate that relatively small training sets (200 lines) are sufficient for genomic prediction in commercial barley breeding. In addition, our results indicate a minimum marker set of 1,000 to decrease the risk of low prediction accuracy for some traits or some families</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hordeum vulgare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Genomic_Prediction_of_Seed_Quality_Traits_Using_Advanced_Barley_Breeding_Lines/4107978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic selection; plant breeding; barley; seed quality; phenotyping; genotyping; prediction accuracy; cross-validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00057_SpatiotemporalPatternsStripedMarlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.3j9kd51cp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/full/10.1111/eva.12892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genome-wide SNPs resolve spatiotemporal patterns of connectivity within striped marlin (Kajikia audax), a broadly distributed and highly migratory pelagic species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic methodologies offer unprecedented opportunities for statistically robust studies of species broadly distributed in environments conducive to high gene flow, providing valuable information for wildlife conservation and management. Here, we sequence restriction site-associated DNA to characterize genome-wide single nucleotide polymorphisms (SNPs) in a broadly distributed and highly migratory large pelagic fish, striped marlin (Kajikia audax). Assessment of over 4,000 SNPs resolved spatiotemporal patterns of genetic connectivity throughout the species range in the Pacific and, for the first time, Indian oceans. Individual-based cluster analyses identified six genetically distinct populations corresponding with the western Indian, eastern Indian, western South Pacific, and eastern central Pacific oceans, as well as two populations in the North Pacific Ocean (FST = 0.0137‚Äì0.0819). FST outlier analyses identified a subset of SNPs (n = 59) putatively under the influence of natural selection and capable of resolving populations separated by comparatively high degrees of genetic differentiation. Temporal collections available for some regions demonstrated the stability of allele frequencies over three to five generations of striped marlin. Relative migration rates reflected lower levels of genetic connectivity between Indian Ocean populations (mR ‚â§ 0.37) compared with most populations in the Pacific Ocean (mR ‚â• 0.57) and highlight the importance of the western South Pacific in facilitating gene flow between ocean basins. Collectively, our results provide novel insights into rangewide population structure for striped marlin and highlight substantial inconsistencies between genetically distinct populations and stocks currently recognized for fisheries management. More broadly, we demonstrate that species capable of long-distance dispersal in environments lacking obvious physical barriers to movement can display substantial population subdivision that persists over multiple generations and that may be facilitated by both neutral and adaptive processes. Importantly, surveys of genome-wide markers enable inference of population-level relationships using sample sizes practical for large pelagic fishes of conservation concern.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kajikia audax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Striped marlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.3j9kd51cp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomics; wildlife conservation; population genetics; marine biology; genetic connectivity; fisheries management; SNP analysis; evolutionary biology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00058_ComparisonGenomicModelsInteriorSpruce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.m4vh4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nature.com/articles/hdy201557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A comparison of genomic selection models across time in interior spruce (Picea engelmannii ‚óä glauca) using unordered SNP imputation methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic selection (GS) potentially offers an unparalleled advantage over traditional pedigree-based selection (TS) methods by reducing the time commitment required to carry out a single cycle of tree improvement. This quality is particularly appealing to tree breeders, where lengthy improvement cycles are the norm. We explored the prospect of implementing GS for interior spruce (Picea engelmannii √ó glauca) utilizing a genotyped population of 769 trees belonging to 25 open-pollinated families. A series of repeated tree height measurements through ages 3‚Äì40 years permitted the testing of GS methods temporally. The genotyping-by-sequencing (GBS) platform was used for single nucleotide polymorphism (SNP) discovery in conjunction with three unordered imputation methods applied to a data set with 60% missing information. Further, three diverse GS models were evaluated based on predictive accuracy (PA), and their marker effects. Moderate levels of PA (0.31‚Äì0.55) were observed and were of sufficient capacity to deliver improved selection response over TS. Additionally, PA varied substantially through time accordingly with spatial competition among trees. As expected, temporal PA was well correlated with age-age genetic correlation (r=0.99), and decreased substantially with increasing difference in age between the training and validation populations (0.04‚Äì0.47). Moreover, our imputation comparisons indicate that k-nearest neighbor and singular value decomposition yielded a greater number of SNPs and gave higher predictive accuracies than imputing with the mean. Furthermore, the ridge regression (rrBLUP) and BayesCœÄ (BCœÄ) models both yielded equal, and better PA than the generalized ridge regression heteroscedastic effect model for the traits evaluated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picea engelmannii ‚óä glauca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interior Spruce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.m4vh4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">According to the article; SVD Imputation gave best results followed by KNN, Hence use the SVD Imputed data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic selection; tree breeding; genotyping-by-sequencing; predictive accuracy; single nucleotide polymorphism; imputation methods; genetic correlation; ridge regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00059_DesignCharacterizationArcticCharr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0215008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0215008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design and characterization of an 87k SNP genotyping array for Arctic charr (Salvelinus alpinus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have generated a high-density, high-throughput genotyping array for characterizing genome-wide variation in Arctic charr (Salvelinus alpinus). Novel single nucleotide polymorphisms (SNPs) were identified in charr from the Fraser, Nauyuk and Tree River aquaculture strains, which originated from northern Canada and fish from Iceland using high coverage sequencing, reduced representation sequencing and RNA-seq datasets. The array was designed to capture genome-wide variation from a diverse suite of Arctic charr populations. Cross validation of SNPs from various sources and comparison with previously published Arctic charr SNP data provided a set of candidate SNPs that generalize across populations. Further candidate SNPs were identified based on minor allele frequency, association with RNA transcripts, even spacing across intergenic regions and association with the sex determining (sdY) gene. The performance of the 86,503 SNP array was assessed by genotyping Fraser, Nauyuk and Tree River strain individuals, as well as wild Icelandic Arctic charr. Overall, 63,060 of the SNPs were polymorphic within at least one group and 36.8% were unique to one of the four groups, suggesting that the array design allows for characterization of both within and across population genetic diversity. The concordance between sdY markers and known phenotypic sex indicated that the array can accurately determine the sex of individuals based on genotype alone. The Salp87k genotyping array provides researchers and breeders the opportunity to analyze genetic variation in Arctic charr at a more detailed level than previously possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvelinus alpinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arctic char</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Design_and_characterization_of_an_87k_SNP_genotyping_array_for_Arctic_charr_i_Salvelinus_alpinus_i_/7959782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomics; SNP array; Arctic charr; genetic diversity; aquaculture; RNA-seq; population genetics; sex determination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00060_GeneticHomogeneityEasternRockLobster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.d4q57s5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://link.springer.com/article/10.1007/s00227-018-3443-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outlier SNPs detect weak regional structure against a background of genetic homogeneity in the Eastern Rock Lobster, Sagmariasus verreauxi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genetic differentiation is characteristically weak in marine species making assessments of population connectivity and structure difficult. However, the advent of genomic methods has increased genetic resolution, enabling studies to detect weak, but significant population differentiation within marine species. With an increasing number of studies employing high resolution genome-wide techniques, we are realising that the connectivity of marine populations is often complex and quantifying this complexity can provide an understanding of the processes shaping marine species genetic structure and to inform long-term, sustainable management strategies. This study aims to assess the genetic structure, connectivity, and local adaptation of the Eastern Rock Lobster (Sagmariasus verreauxi), which has a maximum pelagic larval duration of 12 months and inhabits both subtropical and temperate environments. We used 645 neutral and 15 outlier SNPs to genotype lobsters collected from the only two known breeding populations and a third episodic population‚Äîencompassing S. verreauxi‚Äôs known range. Through examination of the neutral SNP panel, we detected genetic homogeneity across the three regions, which extended across the Tasman Sea encompassing both Australian and New Zealand populations. We discuss differences in neutral genetic signature of S. verreauxi and a closely related, co-distributed rock lobster, Jasus edwardsii, determining a regional pattern of genetic disparity between the species, which have largely similar life histories. Examination of the outlier SNP panel detected weak genetic differentiation between the three regions. Outlier SNPs showed promise in assigning individuals to their sampling origin and may prove useful as a management tool for species exhibiting genetic homogeneity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sagmariasus verreauxi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern Rock Lobster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.d4q57s5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marine_genomics; population_genetics; genetic_differentiation; SNP_analysis; marine_species_management; genetic_structure; population_connectivity; local_adaptation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00061_GenomicEvaluationDothistromaKaingaroa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.qfttdz0d7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://link.springer.com/article/10.1186/s12870-020-02403-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effect of trait√≠s expression level on single-step genomic evaluation of resistance to Dothistroma needle blight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
 Many conifer breeding programs are paying increasing attention to breeding for resistance to needle disease due to the increasing importance of climate change. Phenotyping of traits related to resistance has many biological and temporal constraints that can often confound the ability to achieve reliable phenotypes and consequently, reliable genetic progress. The development of next generation sequencing platforms has also enabled implementation of genomic approaches in species lacking robust reference genomes. Genomic selection is, therefore, a promising strategy to overcome the constraints of needle disease phenotyping.
 Results
 We found high accuracy in the prediction of genomic breeding values in the disease-related traits that were well characterized, reaching 0.975 for genotyped individuals and 0.587 for non-genotyped individuals. This compared well with pedigree-based accuracies of up to 0.746. Surprisingly, poorly phenotyped disease traits also showed very high accuracy in terms of correlation of predicted genomic breeding values with pedigree-based counterparts. However, this was likely caused by the fact that both were clustered around the population mean, while deviations from the population mean caused by genetic effects did not appear to be well described. Caution should therefore be taken with the interpretation of results in poorly phenotyped traits.
@@ -1590,259 +1582,259 @@
 Implementation of genomic selection in this test population of Pinus radiata resulted in a relatively high prediction accuracy of needle loss due to Dothistroma septosporum compared with a pedigree-based approach. Using genomics to avoid biological/temporal constraints where phenotyping is reliable appears promising. Unsurprisingly, reliable phenotyping, resulting in good heritability estimates, is a fundamental requirement for the development of a reliable prediction model. Furthermore, our results are also specific to the single pathogen mating-type that is present in New Zealand, and may change with future incursion of other pathogen varieties. There is no doubt, however, that once a robust genomic prediction model is built, it will be invaluable to not only select for host tolerance, but for other economically important traits simultaneously. This tool will thus future-proof our forests by mitigating the risk of disease outbreaks induced by future changes in climate.</t>
   </si>
   <si>
-    <t>Pinus radiata</t>
-  </si>
-  <si>
-    <t>Monterey pine</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.qfttdz0d7</t>
-  </si>
-  <si>
-    <t>genomic selection; conifer breeding; needle disease resistance; Dothistroma septosporum; next generation sequencing; prediction accuracy; phenotyping constraints; climate change impacts</t>
-  </si>
-  <si>
-    <t>00062_GenomicEvaluationDothistromaKinleith1</t>
-  </si>
-  <si>
-    <t>genomic selection; conifer breeding; needle disease resistance; next generation sequencing; phenotyping constraints; genomic breeding values; Dothistroma septosporum; climate change adaptation</t>
-  </si>
-  <si>
-    <t>00063_GenomicEvaluationDothistromaKinleith2</t>
-  </si>
-  <si>
-    <t>genomic selection; conifer breeding; needle disease resistance; next generation sequencing; phenotyping constraints; prediction accuracy; genetic progress; climate change adaptation</t>
-  </si>
-  <si>
-    <t>00064_GrowthGainsSelectiveBreeding</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5683/SP2/9AEFKD</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/full/10.1111/eva.12525</t>
-  </si>
-  <si>
-    <t>Growth gains from selective breeding in a spruce hybrid zone do not compromise local adaptation to climate</t>
-  </si>
-  <si>
-    <t>Hybrid zones contain extensive standing genetic variation that facilitates rapid responses to selection. The Picea glauca √ó Picea engelmannii hybrid zone in western Canada is the focus of tree breeding programs that annually produce ~90 million reforestation seedlings. Understanding the direct and indirect effects of selective breeding on adaptive variation is necessary to implement assisted gene flow (AGF) polices in Alberta and British Columbia that match these seedlings with future climates. We decomposed relationships among hybrid ancestry, adaptive traits, and climate to understand the implications of selective breeding for climate adaptations and AGF strategies. The effects of selection on associations among hybrid index estimated from ~6,500 SNPs, adaptive traits, and provenance climates were assessed for ~2,400 common garden seedlings. Hybrid index differences between natural and selected seedlings within breeding zones were small in Alberta (average +2%), but larger and more variable in BC (average ‚àí7%, range ‚àí24% to +1%), slightly favoring P. glauca ancestry. The average height growth gain of selected seedlings over natural seedlings within breeding zones was 36% (range 12%‚Äì86%). Clines in growth with temperature-related variables were strong, but differed little between selected and natural populations. Seedling hybrid index and growth trait associations with evapotranspiration-related climate variables were stronger in selected than in natural seedlings, indicating possible preadaptation to drier future climates. Associations among cold hardiness, hybrid ancestry, and cold-related climate variables dominated signals of local adaptation and were preserved in breeding populations. Strong hybrid ancestry‚Äìphenotype‚Äìclimate associations suggest that AGF will be necessary to match interior spruce breeding populations with shifting future climates. The absence of antagonistic selection responses among traits and maintenance of cold adaptation in selected seedlings suggests breeding populations can be safely redeployed using AGF prescriptions similar to those of natural populations.</t>
-  </si>
-  <si>
-    <t>Picea glauca</t>
-  </si>
-  <si>
-    <t>White spruce</t>
-  </si>
-  <si>
-    <t>https://borealisdata.ca/dataset.xhtml?persistentId=doi:10.5683/SP2/9AEFKD</t>
-  </si>
-  <si>
-    <t>genetics; selective breeding; assisted gene flow; climate adaptation; hybrid zones; tree breeding; Picea glauca; Picea engelmannii</t>
-  </si>
-  <si>
-    <t>00065_OceanographicStructureSeaScallop</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.c15v5</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/full/10.1002/ece3.3846</t>
-  </si>
-  <si>
-    <t>Oceanographic variation influences spatial genomic structure in the sea scallop, Placopecten magellanicus</t>
-  </si>
-  <si>
-    <t>Environmental factors can influence diversity and population structure in marine species and accurate understanding of this influence can both improve fisheries management and help predict responses to environmental change. We used 7163 SNPs derived from restriction site-associated DNA sequencing genotyped in 245 individuals of the economically important sea scallop, Placopecten magellanicus, to evaluate the correlations between oceanographic variation and a previously identified latitudinal genomic cline. Sea scallops span a broad latitudinal area (&gt;10 degrees), and we hypothesized that climatic variation significantly drives clinal trends in allele frequency. Using a large environmental dataset, including temperature, salinity, chlorophyll a, and nutrient concentrations, we identified a suite of SNPs (285‚Äì621, depending on analysis and environmental dataset) potentially under selection through correlations with environmental variation. Principal components analysis of different outlier SNPs and environmental datasets revealed similar northern and southern clusters, with significant associations between the first axes of each (R2adj = .66‚Äì.79). Multivariate redundancy analysis of outlier SNPs and the environmental principal components indicated that environmental factors explained more than 32% of the variance. Similarly, multiple linear regressions and random-forest analysis identified winter average and minimum ocean temperatures as significant parameters in the link between genetic and environmental variation. This work indicates that oceanographic variation is associated with the observed genomic cline in this species and that seasonal periods of extreme cold may restrict gene flow along a latitudinal gradient in this marine benthic bivalve. Incorporating this finding into management may improve accuracy of management strategies and future predictions.</t>
-  </si>
-  <si>
-    <t>Placopecten magellanicus</t>
-  </si>
-  <si>
-    <t>Atlantic sea scallop</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.c15v5</t>
-  </si>
-  <si>
-    <t>marine biodiversity; population genetics; environmental impact; fisheries management; genomic analysis; oceanographic variation; climate change effects; molecular ecology</t>
-  </si>
-  <si>
-    <t>00066_PopulationAgroclimaticTraitsSorghum</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.20052149.v1</t>
-  </si>
-  <si>
-    <t>https://www.pnas.org/doi/10.1073/pnas.1215985110#supplementary-materials</t>
-  </si>
-  <si>
-    <t>Population genomic and genome-wide association studies of agroclimatic traits in sorghum</t>
-  </si>
-  <si>
-    <t>Accelerating crop improvement in sorghum, a staple food for people in semiarid regions across the developing world, is key to ensuring global food security in the context of climate change. To facilitate gene discovery and molecular breeding in sorghum, we have characterized ‚àº265,000 single nucleotide polymorphisms (SNPs) in 971 worldwide accessions that have adapted to diverse agroclimatic conditions. Using this genome-wide SNP map, we have characterized population structure with respect to geographic origin and morphological type and identified patterns of ancient crop diffusion to diverse agroclimatic regions across Africa and Asia. To better understand the genomic patterns of diversification in sorghum, we quantified variation in nucleotide diversity, linkage disequilibrium, and recombination rates across the genome. Analyzing nucleotide diversity in landraces, we find evidence of selective sweeps around starch metabolism genes, whereas in landrace-derived introgression lines, we find introgressions around known height and maturity loci. To identify additional loci underlying variation in major agroclimatic traits, we performed genome-wide association studies (GWAS) on plant height components and inflorescence architecture. GWAS maps several classical loci for plant height, candidate genes for inflorescence architecture. Finally, we trace the independent spread of multiple haplotypes carrying alleles for short stature or long inflorescence branches. This genome-wide map of SNP variation in sorghum provides a basis for crop improvement through marker-assisted breeding and genomic selection.</t>
-  </si>
-  <si>
-    <t>Sorghum bicolor</t>
-  </si>
-  <si>
-    <t>Sorghum</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/Lozano_et_al_2022/20052149/1</t>
-  </si>
-  <si>
-    <t>crop improvement; sorghum; single nucleotide polymorphisms (SNPs); genome-wide association studies (GWAS); food security; climate change; molecular breeding; genetic diversity</t>
-  </si>
-  <si>
-    <t>00067_RheophyticGoldenrodSolidagoYokusaiana</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.612jm642n</t>
-  </si>
-  <si>
-    <t>https://www.nature.com/articles/s41437-021-00408-x</t>
-  </si>
-  <si>
-    <t>Phylogeographic and demographic modeling analyses of the multiple origins of the rheophytic goldenrod Solidago yokusaiana Makino</t>
-  </si>
-  <si>
-    <t>Understanding adaptation mechanisms is important in evolutionary biology. Parallel adaptation provides good opportunities to investigate adaptive evolution. To confirm parallel adaptation, it is effective to examine whether the phenotypic similarity has one or multiple origins and to use demographic modeling to consider the gene flow between ecotypes. Solidago yokusaiana is a rheophyte endemic to the Japanese Archipelago that diverged from Solidago virgaurea. This study examined the parallel origins of S. yokusaiana by distinguishing between multiple and single origins and subsequent gene flow. The haplotypes of noncoding chloroplast DNA and genotypes at 14 nuclear simple sequence repeat (nSSR) loci and single-nucleotide polymorphisms (SNPs) revealed by double-digest restriction-associated DNA sequencing (ddRADseq) were used for phylogeographic analysis; the SNPs were also used to model population demographics. Some chloroplast haplotypes were common to S. yokusaiana and its ancestor S. virgaurea. Also, the population genetic structures revealed by nSSR and SNPs did not correspond to the taxonomic species. The demographic modeling supported the multiple origins of S. yokusaiana in at least four districts and rejected a single origin with ongoing gene flow between the two species, implying that S. yokusaiana independently and repeatedly adapted to frequently flooding riversides.</t>
-  </si>
-  <si>
-    <t>Solidago yokusaiana</t>
-  </si>
-  <si>
-    <t>Goldenrod</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.612jm642n</t>
-  </si>
-  <si>
-    <t>evolutionary biology; parallel adaptation; demographic modeling; phylogeography; Solidago yokusaiana; gene flow; population genetics; adaptation mechanisms</t>
-  </si>
-  <si>
-    <t>00068_RapidSelectionIntermediateWheatgrass</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.zw3r2285n</t>
-  </si>
-  <si>
-    <t>https://acsess.onlinelibrary.wiley.com/doi/10.1002/tpg2.20080</t>
-  </si>
-  <si>
-    <t>Genomic prediction enables rapid selection of high-performing genets in an intermediate wheatgrass breeding program</t>
-  </si>
-  <si>
-    <t>In an era of constrained and depleted natural resources, perennial grains could provide sustainable food production along with beneficial ecosystem services like reduced erosion and increased atmospheric carbon capture. Intermediate wheatgrass (IWG) [Thinopyrum intermedium (Host) Barkworth &amp; D. R. Dewey subsp. intermedium] has been undergoing continuous breeding for domestication to develop a perennial grain crop since the 1980s. As a perennial, IWG has required 2‚Äì5 yr per selection generation, but starting in 2017, genomic selection (GS) was initiated in the breeding program at The Land Institute, Salina, KS (TLI), enabling one complete cycle per year. For each cycle, ‚àº4,000 seedlings were profiled using genotyping-by-sequencing (GBS) and genomic estimated breeding values (GEBVs) were calculated. Selection based on GEBVs identified ‚àº100 individuals to advance as parents each generation, while validation populations of 1,000‚Äì1,200 genets for GS model training were also selected using the genomic relationship matrix to represent genetic diversity in each cycle. The selected parents were randomly intermated in a greenhouse crossing block to form the subsequent cycle, while the validation populations were transplanted to irrigated and nonirrigated field sites for phenotypic evaluations in the following years. For priority breeding traits of seed mass, free threshing, and nonshattering, correlations between predicted values and observed data were &gt;.5. The realized selection differential ranged from 11‚Äì23% for selected traits, and the expected genetic gains for these traits, including spike yield, ranged from 6 to 14% per year. Genomic selection is a powerful tool to speed the domestication and development of IWG and other perennial crops with extended breeding timelines.</t>
-  </si>
-  <si>
-    <t>Thinopyrum intermedium</t>
-  </si>
-  <si>
-    <t>Intermediate Wheatgrass</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.zw3r2285n</t>
-  </si>
-  <si>
-    <t>After Downloading, In the folder "data", Go to "Intermediate_file" and Download data from "For_GS" folder.</t>
-  </si>
-  <si>
-    <t>perennial grains; genomic selection; sustainable agriculture; ecosystem services; breeding program; Intermediate wheatgrass; genotyping-by-sequencing; genetic diversity</t>
-  </si>
-  <si>
-    <t>00069_GenomeAssociationsTuberculosisWildBoar</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.39c3k</t>
-  </si>
-  <si>
-    <t>https://www.nature.com/articles/s41598-018-20158-x</t>
-  </si>
-  <si>
-    <t>Genome-wide associations identify novel candidate loci associated with genetic susceptibility to tuberculosis in wild boar</t>
-  </si>
-  <si>
-    <t>Tuberculosis (TB) affects a wide range of host species worldwide. Understanding host-pathogen co-evolution remains a global challenge owing to complex interactions among host genetic factors, pathogen traits and environmental conditions. We used an endemic wild boar population that had undergone a huge increase in Mycobacterium bovis infection prevalence, from 45% in 2002/06 to 83% in 2009/12, to understand the effects of host genetics on host TB outcomes and disease dynamics. Host genomic variation was characterized using a high-density single nucleotide polymorphism (SNP) array, while host TB phenotype was assessed using both gross pathology and mycobacterial culture. Two complementary genome-wide association (GWAS) analyses were conducted: (i) infected-uninfected; and (ii) 2002/06‚Äì2009/12. The SNPs with the highest allelic frequency differences between time-periods and TB outcomes were identified and validated in a large dataset. In addition, we quantified the expression levels of some of their closest genes. These analyses highlighted various SNPs (i.e. rs81465339, rs81394585, rs81423166) and some of the closest genes (i.e. LOC102164072, BDNF/NT-3, NTRK2, CDH8, IGSF21) as candidates for host genetic susceptibility. In addition to TB-driven selection, our findings outline the putative role of demographic events in shaping genomic variation in natural populations and how population crashes and drift may impact host genetic susceptibility to TB over time.</t>
-  </si>
-  <si>
-    <t>Sus scrofa</t>
-  </si>
-  <si>
-    <t>Wild Boar</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.39c3k</t>
-  </si>
-  <si>
-    <t>tuberculosis; host-pathogen co-evolution; wildlife disease; genome-wide association study; genetic susceptibility; Mycobacterium bovis; single nucleotide polymorphism; wild boar</t>
-  </si>
-  <si>
-    <t>00070_GenomicAnalysisLivestockPopulations</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1534/g3.111.001453</t>
-  </si>
-  <si>
-    <t>https://academic.oup.com/g3journal/article/2/4/429/6026060</t>
-  </si>
-  <si>
-    <t>A Common Dataset for Genomic Analysis of Livestock Populations</t>
-  </si>
-  <si>
-    <t>Although common datasets are an important resource for the scientific community and can be used to address important questions, genomic datasets of a meaningful size have not generally been available in livestock species. We describe a pig dataset that PIC (a Genus company) has made available for comparing genomic prediction methods. We also describe genomic evaluation of the data using methods that PIC considers best practice for predicting and validating genomic breeding values, and we discuss the impact of data structure on accuracy. The dataset contains 3534 individuals with high-density genotypes, phenotypes, and estimated breeding values for five traits. Genomic breeding values were calculated using BayesB, with phenotypes and de-regressed breeding values, and using a single-step genomic BLUP approach that combines information from genotyped and un-genotyped animals. The genomic breeding value accuracy increased with increased trait heritability and with increased relationship between training and validation. In nearly all cases, BayesB using de-regressed breeding values outperformed the other approaches, but the single-step evaluation performed only slightly worse. This dataset was useful for comparing methods for genomic prediction using real data. Our results indicate that validation approaches accounting for relatedness between populations can correct for potential overestimation of genomic breeding value accuracies, with implications for genotyping strategies to carry out genomic selection programs.</t>
-  </si>
-  <si>
-    <t>Pigs</t>
-  </si>
-  <si>
-    <t>https://academic.oup.com/g3journal/article/2/4/429/6026060?login=false#supplementary-data</t>
-  </si>
-  <si>
-    <t>Go to Supplementary data and download the zip file</t>
-  </si>
-  <si>
-    <t>genomic datasets; livestock genomics; genomic prediction methods; breeding values; BayesB; genomic BLUP; trait heritability; genomic selection strategies</t>
-  </si>
-  <si>
-    <t>00071_DevelopmentalTraitsBiomassSorghum</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1534/g3.119.400759</t>
-  </si>
-  <si>
-    <t>https://academic.oup.com/g3journal/article/10/2/769/6026292</t>
-  </si>
-  <si>
-    <t>Novel Bayesian Networks for Genomic Prediction of Developmental Traits in Biomass Sorghum</t>
-  </si>
-  <si>
-    <t>The ability to connect genetic information between traits over time allow Bayesian networks to offer a powerful probabilistic framework to construct genomic prediction models. In this study, we phenotyped a diversity panel of 869 biomass sorghum (Sorghum bicolor (L.) Moench) lines, which had been genotyped with 100,435 SNP markers, for plant height (PH) with biweekly measurements from 30 to 120 days after planting (DAP) and for end-of-season dry biomass yield (DBY) in four environments. We evaluated five genomic prediction models: Bayesian network (BN), Pleiotropic Bayesian network (PBN), Dynamic Bayesian network (DBN), multi-trait GBLUP (MTr-GBLUP), and multi-time GBLUP (MTi-GBLUP) models. In fivefold cross-validation, prediction accuracies ranged from 0.46 (PBN) to 0.49 (MTr-GBLUP) for DBY and from 0.47 (DBN, DAP120) to 0.75 (MTi-GBLUP, DAP60) for PH. Forward-chaining cross-validation further improved prediction accuracies of the DBN, MTi-GBLUP and MTr-GBLUP models for PH (training slice: 30-45 DAP) by 36.4‚Äì52.4% relative to the BN and PBN models. Coincidence indices (target: biomass, secondary: PH) and a coincidence index based on lines (PH time series) showed that the ranking of lines by PH changed minimally after 45 DAP. These results suggest a two-level indirect selection method for PH at harvest (first-level target trait) and DBY (second-level target trait) could be conducted earlier in the season based on ranking of lines by PH at 45 DAP (secondary trait). With the advance of high-throughput phenotyping technologies, our proposed two-level indirect selection framework could be valuable for enhancing genetic gain per unit of time when selecting on developmental traits.</t>
-  </si>
-  <si>
-    <t>https://datacommons.cyverse.org/browse/iplant/home/shared/GoreLab/dataFromPubs/dosSantos_BayesianNetworks_2019</t>
-  </si>
-  <si>
-    <t>Click on raw data and download the required genotype and phenotype data files.</t>
-  </si>
-  <si>
-    <t>genomic prediction models; Bayesian networks; sorghum genotyping; plant height measurement; biomass yield; genetic selection; high-throughput phenotyping; genetic traits prediction</t>
-  </si>
-  <si>
-    <t>00072_ComparingMethodsSNPCallingGBS</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.6fv8fb4</t>
-  </si>
-  <si>
-    <t>https://www.researchsquare.com/article/rs-32336/v1</t>
-  </si>
-  <si>
-    <t>Testing pipelines for genome-wide SNP calling from Genotyping-By-Sequencing (GBS) data for Pinus ponderosa</t>
-  </si>
-  <si>
-    <t>Background
+    <t xml:space="preserve">Pinus radiata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterey pine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.qfttdz0d7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic selection; conifer breeding; needle disease resistance; Dothistroma septosporum; next generation sequencing; prediction accuracy; phenotyping constraints; climate change impacts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00062_GenomicEvaluationDothistromaKinleith1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic selection; conifer breeding; needle disease resistance; next generation sequencing; phenotyping constraints; genomic breeding values; Dothistroma septosporum; climate change adaptation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00063_GenomicEvaluationDothistromaKinleith2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic selection; conifer breeding; needle disease resistance; next generation sequencing; phenotyping constraints; prediction accuracy; genetic progress; climate change adaptation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00064_GrowthGainsSelectiveBreeding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5683/SP2/9AEFKD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/full/10.1111/eva.12525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Growth gains from selective breeding in a spruce hybrid zone do not compromise local adaptation to climate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hybrid zones contain extensive standing genetic variation that facilitates rapid responses to selection. The Picea glauca √ó Picea engelmannii hybrid zone in western Canada is the focus of tree breeding programs that annually produce ~90 million reforestation seedlings. Understanding the direct and indirect effects of selective breeding on adaptive variation is necessary to implement assisted gene flow (AGF) polices in Alberta and British Columbia that match these seedlings with future climates. We decomposed relationships among hybrid ancestry, adaptive traits, and climate to understand the implications of selective breeding for climate adaptations and AGF strategies. The effects of selection on associations among hybrid index estimated from ~6,500 SNPs, adaptive traits, and provenance climates were assessed for ~2,400 common garden seedlings. Hybrid index differences between natural and selected seedlings within breeding zones were small in Alberta (average +2%), but larger and more variable in BC (average ‚àí7%, range ‚àí24% to +1%), slightly favoring P. glauca ancestry. The average height growth gain of selected seedlings over natural seedlings within breeding zones was 36% (range 12%‚Äì86%). Clines in growth with temperature-related variables were strong, but differed little between selected and natural populations. Seedling hybrid index and growth trait associations with evapotranspiration-related climate variables were stronger in selected than in natural seedlings, indicating possible preadaptation to drier future climates. Associations among cold hardiness, hybrid ancestry, and cold-related climate variables dominated signals of local adaptation and were preserved in breeding populations. Strong hybrid ancestry‚Äìphenotype‚Äìclimate associations suggest that AGF will be necessary to match interior spruce breeding populations with shifting future climates. The absence of antagonistic selection responses among traits and maintenance of cold adaptation in selected seedlings suggests breeding populations can be safely redeployed using AGF prescriptions similar to those of natural populations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picea glauca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White spruce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://borealisdata.ca/dataset.xhtml?persistentId=doi:10.5683/SP2/9AEFKD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genetics; selective breeding; assisted gene flow; climate adaptation; hybrid zones; tree breeding; Picea glauca; Picea engelmannii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00065_OceanographicStructureSeaScallop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.c15v5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/full/10.1002/ece3.3846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oceanographic variation influences spatial genomic structure in the sea scallop, Placopecten magellanicus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental factors can influence diversity and population structure in marine species and accurate understanding of this influence can both improve fisheries management and help predict responses to environmental change. We used 7163 SNPs derived from restriction site-associated DNA sequencing genotyped in 245 individuals of the economically important sea scallop, Placopecten magellanicus, to evaluate the correlations between oceanographic variation and a previously identified latitudinal genomic cline. Sea scallops span a broad latitudinal area (&gt;10 degrees), and we hypothesized that climatic variation significantly drives clinal trends in allele frequency. Using a large environmental dataset, including temperature, salinity, chlorophyll a, and nutrient concentrations, we identified a suite of SNPs (285‚Äì621, depending on analysis and environmental dataset) potentially under selection through correlations with environmental variation. Principal components analysis of different outlier SNPs and environmental datasets revealed similar northern and southern clusters, with significant associations between the first axes of each (R2adj = .66‚Äì.79). Multivariate redundancy analysis of outlier SNPs and the environmental principal components indicated that environmental factors explained more than 32% of the variance. Similarly, multiple linear regressions and random-forest analysis identified winter average and minimum ocean temperatures as significant parameters in the link between genetic and environmental variation. This work indicates that oceanographic variation is associated with the observed genomic cline in this species and that seasonal periods of extreme cold may restrict gene flow along a latitudinal gradient in this marine benthic bivalve. Incorporating this finding into management may improve accuracy of management strategies and future predictions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placopecten magellanicus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantic sea scallop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.c15v5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marine biodiversity; population genetics; environmental impact; fisheries management; genomic analysis; oceanographic variation; climate change effects; molecular ecology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00066_PopulationAgroclimaticTraitsSorghum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.20052149.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.pnas.org/doi/10.1073/pnas.1215985110#supplementary-materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population genomic and genome-wide association studies of agroclimatic traits in sorghum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accelerating crop improvement in sorghum, a staple food for people in semiarid regions across the developing world, is key to ensuring global food security in the context of climate change. To facilitate gene discovery and molecular breeding in sorghum, we have characterized ‚àº265,000 single nucleotide polymorphisms (SNPs) in 971 worldwide accessions that have adapted to diverse agroclimatic conditions. Using this genome-wide SNP map, we have characterized population structure with respect to geographic origin and morphological type and identified patterns of ancient crop diffusion to diverse agroclimatic regions across Africa and Asia. To better understand the genomic patterns of diversification in sorghum, we quantified variation in nucleotide diversity, linkage disequilibrium, and recombination rates across the genome. Analyzing nucleotide diversity in landraces, we find evidence of selective sweeps around starch metabolism genes, whereas in landrace-derived introgression lines, we find introgressions around known height and maturity loci. To identify additional loci underlying variation in major agroclimatic traits, we performed genome-wide association studies (GWAS) on plant height components and inflorescence architecture. GWAS maps several classical loci for plant height, candidate genes for inflorescence architecture. Finally, we trace the independent spread of multiple haplotypes carrying alleles for short stature or long inflorescence branches. This genome-wide map of SNP variation in sorghum provides a basis for crop improvement through marker-assisted breeding and genomic selection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorghum bicolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorghum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Lozano_et_al_2022/20052149/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crop improvement; sorghum; single nucleotide polymorphisms (SNPs); genome-wide association studies (GWAS); food security; climate change; molecular breeding; genetic diversity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00067_RheophyticGoldenrodSolidagoYokusaiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.612jm642n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nature.com/articles/s41437-021-00408-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phylogeographic and demographic modeling analyses of the multiple origins of the rheophytic goldenrod Solidago yokusaiana Makino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding adaptation mechanisms is important in evolutionary biology. Parallel adaptation provides good opportunities to investigate adaptive evolution. To confirm parallel adaptation, it is effective to examine whether the phenotypic similarity has one or multiple origins and to use demographic modeling to consider the gene flow between ecotypes. Solidago yokusaiana is a rheophyte endemic to the Japanese Archipelago that diverged from Solidago virgaurea. This study examined the parallel origins of S. yokusaiana by distinguishing between multiple and single origins and subsequent gene flow. The haplotypes of noncoding chloroplast DNA and genotypes at 14 nuclear simple sequence repeat (nSSR) loci and single-nucleotide polymorphisms (SNPs) revealed by double-digest restriction-associated DNA sequencing (ddRADseq) were used for phylogeographic analysis; the SNPs were also used to model population demographics. Some chloroplast haplotypes were common to S. yokusaiana and its ancestor S. virgaurea. Also, the population genetic structures revealed by nSSR and SNPs did not correspond to the taxonomic species. The demographic modeling supported the multiple origins of S. yokusaiana in at least four districts and rejected a single origin with ongoing gene flow between the two species, implying that S. yokusaiana independently and repeatedly adapted to frequently flooding riversides.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solidago yokusaiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goldenrod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.612jm642n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evolutionary biology; parallel adaptation; demographic modeling; phylogeography; Solidago yokusaiana; gene flow; population genetics; adaptation mechanisms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00068_RapidSelectionIntermediateWheatgrass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.zw3r2285n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://acsess.onlinelibrary.wiley.com/doi/10.1002/tpg2.20080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic prediction enables rapid selection of high-performing genets in an intermediate wheatgrass breeding program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In an era of constrained and depleted natural resources, perennial grains could provide sustainable food production along with beneficial ecosystem services like reduced erosion and increased atmospheric carbon capture. Intermediate wheatgrass (IWG) [Thinopyrum intermedium (Host) Barkworth &amp; D. R. Dewey subsp. intermedium] has been undergoing continuous breeding for domestication to develop a perennial grain crop since the 1980s. As a perennial, IWG has required 2‚Äì5 yr per selection generation, but starting in 2017, genomic selection (GS) was initiated in the breeding program at The Land Institute, Salina, KS (TLI), enabling one complete cycle per year. For each cycle, ‚àº4,000 seedlings were profiled using genotyping-by-sequencing (GBS) and genomic estimated breeding values (GEBVs) were calculated. Selection based on GEBVs identified ‚àº100 individuals to advance as parents each generation, while validation populations of 1,000‚Äì1,200 genets for GS model training were also selected using the genomic relationship matrix to represent genetic diversity in each cycle. The selected parents were randomly intermated in a greenhouse crossing block to form the subsequent cycle, while the validation populations were transplanted to irrigated and nonirrigated field sites for phenotypic evaluations in the following years. For priority breeding traits of seed mass, free threshing, and nonshattering, correlations between predicted values and observed data were &gt;.5. The realized selection differential ranged from 11‚Äì23% for selected traits, and the expected genetic gains for these traits, including spike yield, ranged from 6 to 14% per year. Genomic selection is a powerful tool to speed the domestication and development of IWG and other perennial crops with extended breeding timelines.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thinopyrum intermedium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intermediate Wheatgrass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.zw3r2285n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After Downloading, In the folder "data", Go to "Intermediate_file" and Download data from "For_GS" folder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perennial grains; genomic selection; sustainable agriculture; ecosystem services; breeding program; Intermediate wheatgrass; genotyping-by-sequencing; genetic diversity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00069_GenomeAssociationsTuberculosisWildBoar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.39c3k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nature.com/articles/s41598-018-20158-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genome-wide associations identify novel candidate loci associated with genetic susceptibility to tuberculosis in wild boar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuberculosis (TB) affects a wide range of host species worldwide. Understanding host-pathogen co-evolution remains a global challenge owing to complex interactions among host genetic factors, pathogen traits and environmental conditions. We used an endemic wild boar population that had undergone a huge increase in Mycobacterium bovis infection prevalence, from 45% in 2002/06 to 83% in 2009/12, to understand the effects of host genetics on host TB outcomes and disease dynamics. Host genomic variation was characterized using a high-density single nucleotide polymorphism (SNP) array, while host TB phenotype was assessed using both gross pathology and mycobacterial culture. Two complementary genome-wide association (GWAS) analyses were conducted: (i) infected-uninfected; and (ii) 2002/06‚Äì2009/12. The SNPs with the highest allelic frequency differences between time-periods and TB outcomes were identified and validated in a large dataset. In addition, we quantified the expression levels of some of their closest genes. These analyses highlighted various SNPs (i.e. rs81465339, rs81394585, rs81423166) and some of the closest genes (i.e. LOC102164072, BDNF/NT-3, NTRK2, CDH8, IGSF21) as candidates for host genetic susceptibility. In addition to TB-driven selection, our findings outline the putative role of demographic events in shaping genomic variation in natural populations and how population crashes and drift may impact host genetic susceptibility to TB over time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sus scrofa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild Boar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.39c3k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tuberculosis; host-pathogen co-evolution; wildlife disease; genome-wide association study; genetic susceptibility; Mycobacterium bovis; single nucleotide polymorphism; wild boar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00070_GenomicAnalysisLivestockPopulations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1534/g3.111.001453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://academic.oup.com/g3journal/article/2/4/429/6026060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Common Dataset for Genomic Analysis of Livestock Populations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although common datasets are an important resource for the scientific community and can be used to address important questions, genomic datasets of a meaningful size have not generally been available in livestock species. We describe a pig dataset that PIC (a Genus company) has made available for comparing genomic prediction methods. We also describe genomic evaluation of the data using methods that PIC considers best practice for predicting and validating genomic breeding values, and we discuss the impact of data structure on accuracy. The dataset contains 3534 individuals with high-density genotypes, phenotypes, and estimated breeding values for five traits. Genomic breeding values were calculated using BayesB, with phenotypes and de-regressed breeding values, and using a single-step genomic BLUP approach that combines information from genotyped and un-genotyped animals. The genomic breeding value accuracy increased with increased trait heritability and with increased relationship between training and validation. In nearly all cases, BayesB using de-regressed breeding values outperformed the other approaches, but the single-step evaluation performed only slightly worse. This dataset was useful for comparing methods for genomic prediction using real data. Our results indicate that validation approaches accounting for relatedness between populations can correct for potential overestimation of genomic breeding value accuracies, with implications for genotyping strategies to carry out genomic selection programs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pigs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://academic.oup.com/g3journal/article/2/4/429/6026060?login=false#supplementary-data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to Supplementary data and download the zip file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic datasets; livestock genomics; genomic prediction methods; breeding values; BayesB; genomic BLUP; trait heritability; genomic selection strategies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00071_DevelopmentalTraitsBiomassSorghum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1534/g3.119.400759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://academic.oup.com/g3journal/article/10/2/769/6026292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novel Bayesian Networks for Genomic Prediction of Developmental Traits in Biomass Sorghum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ability to connect genetic information between traits over time allow Bayesian networks to offer a powerful probabilistic framework to construct genomic prediction models. In this study, we phenotyped a diversity panel of 869 biomass sorghum (Sorghum bicolor (L.) Moench) lines, which had been genotyped with 100,435 SNP markers, for plant height (PH) with biweekly measurements from 30 to 120 days after planting (DAP) and for end-of-season dry biomass yield (DBY) in four environments. We evaluated five genomic prediction models: Bayesian network (BN), Pleiotropic Bayesian network (PBN), Dynamic Bayesian network (DBN), multi-trait GBLUP (MTr-GBLUP), and multi-time GBLUP (MTi-GBLUP) models. In fivefold cross-validation, prediction accuracies ranged from 0.46 (PBN) to 0.49 (MTr-GBLUP) for DBY and from 0.47 (DBN, DAP120) to 0.75 (MTi-GBLUP, DAP60) for PH. Forward-chaining cross-validation further improved prediction accuracies of the DBN, MTi-GBLUP and MTr-GBLUP models for PH (training slice: 30-45 DAP) by 36.4‚Äì52.4% relative to the BN and PBN models. Coincidence indices (target: biomass, secondary: PH) and a coincidence index based on lines (PH time series) showed that the ranking of lines by PH changed minimally after 45 DAP. These results suggest a two-level indirect selection method for PH at harvest (first-level target trait) and DBY (second-level target trait) could be conducted earlier in the season based on ranking of lines by PH at 45 DAP (secondary trait). With the advance of high-throughput phenotyping technologies, our proposed two-level indirect selection framework could be valuable for enhancing genetic gain per unit of time when selecting on developmental traits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datacommons.cyverse.org/browse/iplant/home/shared/GoreLab/dataFromPubs/dosSantos_BayesianNetworks_2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on raw data and download the required genotype and phenotype data files.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic prediction models; Bayesian networks; sorghum genotyping; plant height measurement; biomass yield; genetic selection; high-throughput phenotyping; genetic traits prediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00072_ComparingMethodsSNPCallingGBS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.6fv8fb4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.researchsquare.com/article/rs-32336/v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing pipelines for genome-wide SNP calling from Genotyping-By-Sequencing (GBS) data for Pinus ponderosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
 Single Nucleotide Polymorphism (SNP) markers have rapidly gained popularity due to their abundance in most genomes and their amenability to high-throughput genotyping techniques. Reduced-representation restriction-enzyme-based sequencing methods (GBS or RADseq) have been demonstrated to be robust and cost-effective genotyping methods. While previous studies have shown that alignment of the short-read fragments to a genome sequence results in better SNP calling than de novo approaches, only a few tree species - and few conifers in particular - have an annotated sequence. While these could be used to align sequence fragments from related species, sequence divergence might result in SNPs being missed if they are in fragments that don't align properly. Producing a new annotated genome sequence for every conifer species before SNP analyses are conducted is still prohibitive, as many conifer genomes are huge (&gt;‚Äâ19 GB) and include a large proportion of repeat sequences, making assembly difficult. Here we compare four bioinformatics pipelines, two of which require a reference genome (TASSEL-GBS V2 and Stacks), two of which are de novo pipelines (UNEAK and Stacks). We used Illumina sequence data from 94 ponderosa pines, with loblolly pine as the reference genome.
 Results
 The number of SNPs called was much lower without a reference genome (62‚Äì196 thousand vs. 2.1‚Äì2.7 million SNPs). UNEAK was the fastest overall and identified more SNPs than Stacks de novo. Stacks with a reference genome produced the highest number of SNPs with lowest proportion of paralogs, while SNPs identified by TASSEL-GBS V2 exhibited the highest heterozygosity, minor allele frequency, and proportion of paralogs. More SNPs were uniquely identified by Stacks than TASSEL, though there was high overlap between methods.
@@ -1850,93 +1842,93 @@
 The present case study provides a comprehensive comparison between four commonly-used SNP calling pipelines, and identifies the Stacks reference-based approach as the best overall for conifers (or other species with large repetitive genomes) that do not have a published reference genome for the same species. However, all four pipelines had distinct benefits and limitations, with Stacks for instance being less user-friendly than some of the other pipelines. In addition, researchers studying other conifer species using similar approaches should be prepared to analyze very large numbers of SNPs.</t>
   </si>
   <si>
-    <t>Pinus ponderosa</t>
-  </si>
-  <si>
-    <t>Ponderosa pine</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.6fv8fb4</t>
-  </si>
-  <si>
-    <t>SNP genotyping; bioinformatics; conifer genomes; reference genome; de novo analysis; next-generation sequencing; genotyping pipelines; genetic diversity</t>
-  </si>
-  <si>
-    <t>00073_CRANSoyNAMData</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.32614/CRAN.package.SoyNAM</t>
-  </si>
-  <si>
-    <t>https://cran.r-project.org/web/packages/SoyNAM/index.html</t>
-  </si>
-  <si>
-    <t>SoyNAM: Soybean Nested Association Mapping Dataset</t>
-  </si>
-  <si>
-    <t>Genomic and multi-environmental soybean data. Soybean Nested
+    <t xml:space="preserve">Pinus ponderosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponderosa pine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.6fv8fb4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNP genotyping; bioinformatics; conifer genomes; reference genome; de novo analysis; next-generation sequencing; genotyping pipelines; genetic diversity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00073_CRANSoyNAMData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.32614/CRAN.package.SoyNAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cran.r-project.org/web/packages/SoyNAM/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SoyNAM: Soybean Nested Association Mapping Dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic and multi-environmental soybean data. Soybean Nested
 Association Mapping (SoyNAM) project dataset funded by the United Soybean Board
 (USB). BLUP function formats data for genome-wide prediction and association analysis.</t>
   </si>
   <si>
-    <t>https://CRAN.R-project.org/package=SoyNAM</t>
-  </si>
-  <si>
-    <t>soybean genomics; multi-environmental data; SoyNAM; United Soybean Board; BLUP; genome-wide prediction; association analysis</t>
-  </si>
-  <si>
-    <t>00074_GeneticHeterogeneityWholeGenomeRice</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/ncomms1467</t>
-  </si>
-  <si>
-    <t>https://academic.oup.com/genetics/article/201/1/323/5930096</t>
-  </si>
-  <si>
-    <t>Assessment of Genetic Heterogeneity in Structured Plant Populations Using Multivariate Whole-Genome Regression Models</t>
-  </si>
-  <si>
-    <t>Plant breeding populations exhibit varying levels of structure and admixture; these features are likely to induce heterogeneity of marker effects across subpopulations. Traditionally, structure has been dealt with as a potential confounder, and various methods exist to ‚Äúcorrect‚Äù for population stratification. However, these methods induce a mean correction that does not account for heterogeneity of marker effects. The animal breeding literature offers a few recent studies that consider modeling genetic heterogeneity in multibreed data, using multivariate models. However, these methods have received little attention in plant breeding where population structure can have different forms. In this article we address the problem of analyzing data from heterogeneous plant breeding populations, using three approaches: (a) a model that ignores population structure [A-genome-based best linear unbiased prediction (A-GBLUP)], (b) a stratified (i.e., within-group) analysis (W-GBLUP), and (c) a multivariate approach that uses multigroup data and accounts for heterogeneity (MG-GBLUP). The performance of the three models was assessed on three different data sets: a diversity panel of rice (Oryza sativa), a maize (Zea mays L.) half-sib panel, and a wheat (Triticum aestivum L.) data set that originated from plant breeding programs. The estimated genomic correlations between subpopulations varied from null to moderate, depending on the genetic distance between subpopulations and traits. Our assessment of prediction accuracy features cases where ignoring population structure leads to a parsimonious more powerful model as well as others where the multivariate and stratified approaches have higher predictive power. In general, the multivariate approach appeared slightly more robust than either the A- or the W-GBLUP.</t>
-  </si>
-  <si>
-    <t>http://www.ricediversity.org/data/</t>
-  </si>
-  <si>
-    <t>Download the data under 44K SNP set</t>
-  </si>
-  <si>
-    <t>plant breeding; population structure; genetic heterogeneity; genomic prediction; multivariate models; marker effects; predictive power; admixture</t>
-  </si>
-  <si>
-    <t>00075_GeneticHeterogeneityWholeGenomeMaize</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1186/gb-2013-14-9-r103</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE50558</t>
-  </si>
-  <si>
-    <t>To download the data used in the article - Scroll down and Find CFD matrix file(Dent Populations)</t>
-  </si>
-  <si>
-    <t>plant breeding; population structure; genetic heterogeneity; genomic prediction; multivariate models; marker effects; predictive modeling; admixture</t>
-  </si>
-  <si>
-    <t>00076_GeneticMechanismHeterosisMaize</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1186/s13059-021-02370-7</t>
-  </si>
-  <si>
-    <t>https://genomebiology.biomedcentral.com/articles/10.1186/s13059-021-02370-7</t>
-  </si>
-  <si>
-    <t>The genetic mechanism of heterosis utilization in maize improvement</t>
-  </si>
-  <si>
-    <t>Background
+    <t xml:space="preserve">https://CRAN.R-project.org/package=SoyNAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soybean genomics; multi-environmental data; SoyNAM; United Soybean Board; BLUP; genome-wide prediction; association analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00074_GeneticHeterogeneityWholeGenomeRice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1038/ncomms1467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://academic.oup.com/genetics/article/201/1/323/5930096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessment of Genetic Heterogeneity in Structured Plant Populations Using Multivariate Whole-Genome Regression Models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant breeding populations exhibit varying levels of structure and admixture; these features are likely to induce heterogeneity of marker effects across subpopulations. Traditionally, structure has been dealt with as a potential confounder, and various methods exist to ‚Äúcorrect‚Äù for population stratification. However, these methods induce a mean correction that does not account for heterogeneity of marker effects. The animal breeding literature offers a few recent studies that consider modeling genetic heterogeneity in multibreed data, using multivariate models. However, these methods have received little attention in plant breeding where population structure can have different forms. In this article we address the problem of analyzing data from heterogeneous plant breeding populations, using three approaches: (a) a model that ignores population structure [A-genome-based best linear unbiased prediction (A-GBLUP)], (b) a stratified (i.e., within-group) analysis (W-GBLUP), and (c) a multivariate approach that uses multigroup data and accounts for heterogeneity (MG-GBLUP). The performance of the three models was assessed on three different data sets: a diversity panel of rice (Oryza sativa), a maize (Zea mays L.) half-sib panel, and a wheat (Triticum aestivum L.) data set that originated from plant breeding programs. The estimated genomic correlations between subpopulations varied from null to moderate, depending on the genetic distance between subpopulations and traits. Our assessment of prediction accuracy features cases where ignoring population structure leads to a parsimonious more powerful model as well as others where the multivariate and stratified approaches have higher predictive power. In general, the multivariate approach appeared slightly more robust than either the A- or the W-GBLUP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ricediversity.org/data/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Download the data under 44K SNP set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plant breeding; population structure; genetic heterogeneity; genomic prediction; multivariate models; marker effects; predictive power; admixture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00075_GeneticHeterogeneityWholeGenomeMaize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1186/gb-2013-14-9-r103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE50558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To download the data used in the article - Scroll down and Find CFD matrix file(Dent Populations)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plant breeding; population structure; genetic heterogeneity; genomic prediction; multivariate models; marker effects; predictive modeling; admixture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00076_GeneticMechanismHeterosisMaize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1186/s13059-021-02370-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://genomebiology.biomedcentral.com/articles/10.1186/s13059-021-02370-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The genetic mechanism of heterosis utilization in maize improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
 In maize hybrid breeding, complementary pools of parental lines with reshuffled genetic variants are established for superior hybrid performance. To comprehensively decipher the genetics of heterosis, we present a new design of multiple linked F1 populations with 42,840 F1 maize hybrids, generated by crossing a synthetic population of 1428 maternal lines with 30 elite testers from diverse genetic backgrounds and phenotyped for agronomic traits.
 Results
 We show that, although yield heterosis is correlated with the widespread, minor-effect epistatic QTLs, it may be resulted from a few major-effect additive and dominant QTLs in early developmental stages. Floral transition is probably one critical stage for heterosis formation, in which epistatic QTLs are activated by paternal contributions of alleles that counteract the recessive, deleterious maternal alleles. These deleterious alleles, while rare, epistatically repress other favorable QTLs. We demonstrate this with one example, showing that Brachytic2 represses the Ubiquitin3 locus in the maternal lines; in hybrids, the paternal allele alleviates this repression, which in turn recovers the height of the plant and enhances the weight of the ear. Finally, we propose a molecular design breeding by manipulating key genes underlying the transition from vegetative-to-reproductive growth.
@@ -1944,118 +1936,118 @@
 The new population design is used to dissect the genetic basis of heterosis which accelerates maize molecular design breeding by diminishing deleterious epistatic interactions.</t>
   </si>
   <si>
-    <t>https://ftp.cngb.org/pub/CNSA/data3/CNP0001565/zeamap/99_MaizegoResources/01_CUBIC_related/</t>
-  </si>
-  <si>
-    <t>Genotype data - Dowload the data of 10 chromosomes in the hybrid42k folder; Phenotype data - Download *_hybrids.txt files for the years 2014 and 2015, and parent files if necessary.</t>
-  </si>
-  <si>
-    <t>maize hybrid breeding; genetic basis of heterosis; epistatic QTLs; additive and dominant QTLs; molecular design breeding; agronomic traits; floral transition; vegetative-to-reproductive growth</t>
-  </si>
-  <si>
-    <t>00077_TargetOrientedPrioritizationMaizeNCII</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.6084/m9.figshare.19312205.v1</t>
-  </si>
-  <si>
-    <t>https://genomebiology.biomedcentral.com/articles/10.1186/s13059-022-02650-w</t>
-  </si>
-  <si>
-    <t>Target-oriented prioritization: targeted selection strategy by integrating organismal and molecular traits through predictive analytics in breeding</t>
-  </si>
-  <si>
-    <t>Genomic prediction in crop breeding is hindered by modeling on limited phenotypic traits. We propose an integrative multi-trait breeding strategy via machine learning algorithm, target-oriented prioritization (TOP). Using a large hybrid maize population, we demonstrate that the accuracy for identifying a candidate that is phenotypically closest to an ideotype, or target variety, achieves up to 91%. The strength of TOP is enhanced when omics level traits are included. We show that TOP enables selection of inbreds or hybrids that outperform existing commercial varieties. It improves multiple traits and accurately identifies improved candidates for new varieties, which will greatly influence breeding.</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/Support_Data_for_Target-Oriented_Prioritization_targeted_selection_strategy_by_integrating_organismal_and_molecular_traits_through_predictive_analytics_in_breeding_/19312205/1</t>
-  </si>
-  <si>
-    <t>genomic prediction; crop breeding; machine learning; phenotypic traits; maize breeding; omics; hybrid selection; trait improvement</t>
-  </si>
-  <si>
-    <t>00078_TargetOrientedPrioritizationMaize282</t>
-  </si>
-  <si>
-    <t>genomic prediction; crop breeding; machine learning; multi-trait breeding; hybrid maize; omics traits; phenotypic traits; breeding strategy</t>
-  </si>
-  <si>
-    <t>00079_TargetOrientedPrioritizationMaize368</t>
-  </si>
-  <si>
-    <t>genomic prediction; crop breeding; machine learning; multi-trait breeding; hybrid maize; phenotypic traits; omics; target-oriented prioritization</t>
-  </si>
-  <si>
-    <t>00080_TargetOrientedPrioritizationRice210</t>
-  </si>
-  <si>
-    <t>genomic prediction; crop breeding; machine learning; multi-trait breeding; hybrid maize; omics traits; phenotype accuracy; commercial varieties</t>
-  </si>
-  <si>
-    <t>00081_PopulationGenomicGreenPeafowl</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.ffbg79ctc</t>
-  </si>
-  <si>
-    <t>https://royalsocietypublishing.org/doi/10.1098/rspb.2021.0073</t>
-  </si>
-  <si>
-    <t>Population genomic, climatic and anthropogenic evidence suggest the role of human forces in endangerment of green peafowl (Pavo muticus)</t>
-  </si>
-  <si>
-    <t>Both anthropogenic impacts and historical climate change could contribute to population decline and species extinction, but their relative importance is still unclear. Emerging approaches based on genomic, climatic and anthropogenic data provide a promising analytical framework to address this question. This study applied such an integrative approach to examine potential drivers for the endangerment of the green peafowl (Pavo muticus). Several demographic reconstructions based on population genomes congruently retrieved a drastic population declination since the mid-Holocene. Furthermore, a comparison between historical and modern genomes suggested genetic diversity decrease during the last 50 years. However, climate-based ecological niche models predicted stationary general range during these periods and imply the little impact of climate change. Further analyses suggested that human disturbance intensities were negatively correlated with the green peafowl's effective population sizes and significantly associated with its survival status (extirpation or persistence). Archaeological and historical records corroborate the critical role of humans, leaving the footprint of low genomic diversity and high inbreeding in the survival populations. This study sheds light on the potential deep-time effects of human disturbance on species endangerment and offers a multi-evidential approach in examining underlying forces for population declines.</t>
-  </si>
-  <si>
-    <t>Pavo muticus</t>
-  </si>
-  <si>
-    <t>Green Peafowl</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.ffbg79ctc</t>
-  </si>
-  <si>
-    <t>genomics; species extinction; climate change; anthropogenic impacts; ecological niche modeling; conservation biology; population genetics; biodiversity loss</t>
-  </si>
-  <si>
-    <t>00082_SwitchgrassMeasurementsGenomicPrediction</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.2jm63xss7</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/10.1111/gcbb.12983</t>
-  </si>
-  <si>
-    <t>Biomass yield improvement in switchgrass through genomic prediction of flowering time</t>
-  </si>
-  <si>
-    <t>The seasonal timing of the transition from vegetative to reproductive growth has a major impact on biomass accumulation in switchgrass. Late-flowering switchgrass cultivars produce greater biomass, a critical trait for sustainable bioenergy production. Genomic prediction (GP) may allow rapid selection of late-flowering individuals with reduced time and expense for field evaluations. To evaluate GP, two flowering time traits (heading date and anthesis date) were collected on 1532 genotypes from four breeding populations: Midwest, Gulf, Atlantic, and Hybrid. These were sequenced using genotype-by-sequencing (530,792 single-nucleotide polymorphisms). Predictive ability of single-trait and multi-trait models were evaluated by cross-validation, by prediction of a progeny trial (n = 122), and through prediction of yield performance in a parallel experiment (n = 52). Predictive ability was not improved by sharing information among breeding groups. Overall, multi-trait models provided an advantage during cross-validation, but a smaller advantage during progeny prediction. Within populations, GP resulted in lower per-cycle progress than previously reported field evaluations (3.1 vs. 5.0 day‚àí1 cycle‚àí1). However, GP cycles are potentially much faster than field evaluations. When directly predicting biomass yield, the Hybrid training population had a predictive ability of 0.54‚Äì0.63. This reinforces the strong linkage between biomass yields in swards and flowering time. These results highlight the value of GP for rapid yield improvement in switchgrass, particularly in a breeding program designed to share information between biomass yield trials and low-cost flowering time evaluations.</t>
-  </si>
-  <si>
-    <t>Panicum virgatum</t>
-  </si>
-  <si>
-    <t>Switchgrass</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.2jm63xss7</t>
-  </si>
-  <si>
-    <t>switchgrass; bioenergy; genomic prediction; biomass yield; flowering time; breeding populations; genotype-by-sequencing; predictive models</t>
-  </si>
-  <si>
-    <t>00083_GenomicAnalysisBighornSheep</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.c0p090f</t>
-  </si>
-  <si>
-    <t>https://peerj.com/articles/4364/</t>
-  </si>
-  <si>
-    <t>Genomic analysis of morphometric traits in bighorn sheep using the Ovine Infinium√Ü HD SNP BeadChip</t>
+    <t xml:space="preserve">https://ftp.cngb.org/pub/CNSA/data3/CNP0001565/zeamap/99_MaizegoResources/01_CUBIC_related/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genotype data - Dowload the data of 10 chromosomes in the hybrid42k folder; Phenotype data - Download *_hybrids.txt files for the years 2014 and 2015, and parent files if necessary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maize hybrid breeding; genetic basis of heterosis; epistatic QTLs; additive and dominant QTLs; molecular design breeding; agronomic traits; floral transition; vegetative-to-reproductive growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00077_TargetOrientedPrioritizationMaizeNCII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.19312205.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://genomebiology.biomedcentral.com/articles/10.1186/s13059-022-02650-w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target-oriented prioritization: targeted selection strategy by integrating organismal and molecular traits through predictive analytics in breeding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic prediction in crop breeding is hindered by modeling on limited phenotypic traits. We propose an integrative multi-trait breeding strategy via machine learning algorithm, target-oriented prioritization (TOP). Using a large hybrid maize population, we demonstrate that the accuracy for identifying a candidate that is phenotypically closest to an ideotype, or target variety, achieves up to 91%. The strength of TOP is enhanced when omics level traits are included. We show that TOP enables selection of inbreds or hybrids that outperform existing commercial varieties. It improves multiple traits and accurately identifies improved candidates for new varieties, which will greatly influence breeding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Support_Data_for_Target-Oriented_Prioritization_targeted_selection_strategy_by_integrating_organismal_and_molecular_traits_through_predictive_analytics_in_breeding_/19312205/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic prediction; crop breeding; machine learning; phenotypic traits; maize breeding; omics; hybrid selection; trait improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00078_TargetOrientedPrioritizationMaize282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic prediction; crop breeding; machine learning; multi-trait breeding; hybrid maize; omics traits; phenotypic traits; breeding strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00079_TargetOrientedPrioritizationMaize368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic prediction; crop breeding; machine learning; multi-trait breeding; hybrid maize; phenotypic traits; omics; target-oriented prioritization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00080_TargetOrientedPrioritizationRice210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic prediction; crop breeding; machine learning; multi-trait breeding; hybrid maize; omics traits; phenotype accuracy; commercial varieties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00081_PopulationGenomicGreenPeafowl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.ffbg79ctc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://royalsocietypublishing.org/doi/10.1098/rspb.2021.0073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population genomic, climatic and anthropogenic evidence suggest the role of human forces in endangerment of green peafowl (Pavo muticus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both anthropogenic impacts and historical climate change could contribute to population decline and species extinction, but their relative importance is still unclear. Emerging approaches based on genomic, climatic and anthropogenic data provide a promising analytical framework to address this question. This study applied such an integrative approach to examine potential drivers for the endangerment of the green peafowl (Pavo muticus). Several demographic reconstructions based on population genomes congruently retrieved a drastic population declination since the mid-Holocene. Furthermore, a comparison between historical and modern genomes suggested genetic diversity decrease during the last 50 years. However, climate-based ecological niche models predicted stationary general range during these periods and imply the little impact of climate change. Further analyses suggested that human disturbance intensities were negatively correlated with the green peafowl's effective population sizes and significantly associated with its survival status (extirpation or persistence). Archaeological and historical records corroborate the critical role of humans, leaving the footprint of low genomic diversity and high inbreeding in the survival populations. This study sheds light on the potential deep-time effects of human disturbance on species endangerment and offers a multi-evidential approach in examining underlying forces for population declines.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pavo muticus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green Peafowl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.ffbg79ctc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomics; species extinction; climate change; anthropogenic impacts; ecological niche modeling; conservation biology; population genetics; biodiversity loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00082_SwitchgrassMeasurementsGenomicPrediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.2jm63xss7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/10.1111/gcbb.12983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass yield improvement in switchgrass through genomic prediction of flowering time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The seasonal timing of the transition from vegetative to reproductive growth has a major impact on biomass accumulation in switchgrass. Late-flowering switchgrass cultivars produce greater biomass, a critical trait for sustainable bioenergy production. Genomic prediction (GP) may allow rapid selection of late-flowering individuals with reduced time and expense for field evaluations. To evaluate GP, two flowering time traits (heading date and anthesis date) were collected on 1532 genotypes from four breeding populations: Midwest, Gulf, Atlantic, and Hybrid. These were sequenced using genotype-by-sequencing (530,792 single-nucleotide polymorphisms). Predictive ability of single-trait and multi-trait models were evaluated by cross-validation, by prediction of a progeny trial (n = 122), and through prediction of yield performance in a parallel experiment (n = 52). Predictive ability was not improved by sharing information among breeding groups. Overall, multi-trait models provided an advantage during cross-validation, but a smaller advantage during progeny prediction. Within populations, GP resulted in lower per-cycle progress than previously reported field evaluations (3.1 vs. 5.0 day‚àí1 cycle‚àí1). However, GP cycles are potentially much faster than field evaluations. When directly predicting biomass yield, the Hybrid training population had a predictive ability of 0.54‚Äì0.63. This reinforces the strong linkage between biomass yields in swards and flowering time. These results highlight the value of GP for rapid yield improvement in switchgrass, particularly in a breeding program designed to share information between biomass yield trials and low-cost flowering time evaluations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panicum virgatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switchgrass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.2jm63xss7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">switchgrass; bioenergy; genomic prediction; biomass yield; flowering time; breeding populations; genotype-by-sequencing; predictive models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00083_GenomicAnalysisBighornSheep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.c0p090f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://peerj.com/articles/4364/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic analysis of morphometric traits in bighorn sheep using the Ovine Infinium√Ü HD SNP BeadChip</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2065,817 +2057,181 @@
 Elucidating the genetic basis of fitness-related traits is a major goal of molecular ecology. Traits subject to sexual selection are particularly interesting, as non-random mate choice should deplete genetic variation and thereby their evolutionary benefits. We examined the genetic basis of three sexually selected morphometric traits in bighorn sheep (Ovis canadensis): horn length, horn base circumference, and body mass. These traits are of specific concern in bighorn sheep as artificial selection through trophy hunting opposes sexual selection. Specifically, horn size determines trophy status and, in most North American jurisdictions, if an individual can be legally harvested. Using between 7,994‚Äì9,552 phenotypic measures from the long-term individual-based study at Ram Mountain (Alberta, Canada), we first showed that all three traits are heritable (h2 = 0.15‚Äì0.23). We then conducted a genome-wide association study (GWAS) utilizing a set of 3,777 SNPs typed in 76 individuals using the Ovine Infinium¬Æ HD SNP BeadChip. We found suggestive association for body mass at a single locus (OAR9_91647990). The absence of strong associations with SNPs suggests that the traits are likely polygenic. These results represent a step forward for characterizing the genetic architecture of fitness related traits in sexually dimorphic ungulates.</t>
   </si>
   <si>
-    <t>Ovis canadensis</t>
-  </si>
-  <si>
-    <t>Bighorn Sheep</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.c0p090f</t>
-  </si>
-  <si>
-    <t>molecular ecology; sexual selection; GWAS; genetic variation; bighorn sheep; polygenic traits; heritability; trophy hunting</t>
-  </si>
-  <si>
-    <t>00084_GenomicSelectionRiceSyntheticPopulation</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0136594</t>
-  </si>
-  <si>
-    <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0136594</t>
-  </si>
-  <si>
-    <t>Accuracy of Genomic Selection in a Rice Synthetic Population Developed for Recurrent Selection Breeding</t>
-  </si>
-  <si>
-    <t>Genomic selection (GS) is a promising strategy for enhancing genetic gain. We investigated the accuracy of genomic estimated breeding values (GEBV) in four inter-related synthetic populations that underwent several cycles of recurrent selection in an upland rice-breeding program. A total of 343 S2:4 lines extracted from those populations were phenotyped for flowering time, plant height, grain yield and panicle weight, and genotyped with an average density of one marker per 44.8 kb. The relative effect of the linkage disequilibrium (LD) and minor allele frequency (MAF) thresholds for selecting markers, the relative size of the training population (TP) and of the validation population (VP), the selected trait and the genomic prediction models (frequentist and Bayesian) on the accuracy of GEBVs was investigated in 540 cross validation experiments with 100 replicates. The effect of kinship between the training and validation populations was tested in an additional set of 840 cross validation experiments with a single genomic prediction model. LD was high (average r2 = 0.59 at 25 kb) and decreased slowly, distribution of allele frequencies at individual loci was markedly skewed toward unbalanced frequencies (MAF average value 15.2% and median 9.6%), and differentiation between the four synthetic populations was low (FST ‚â§0.06). The accuracy of GEBV across all cross validation experiments ranged from 0.12 to 0.54 with an average of 0.30. Significant differences in accuracy were observed among the different levels of each factor investigated. Phenotypic traits had the biggest effect, and the size of the incidence matrix had the smallest. Significant first degree interaction was observed for GEBV accuracy between traits and all the other factors studied, and between prediction models and LD, MAF and composition of the TP. The potential of GS to accelerate genetic gain and breeding options to increase the accuracy of predictions are discussed.</t>
-  </si>
-  <si>
-    <t>Oryza sativa</t>
-  </si>
-  <si>
-    <t>http://tropgenedb.cirad.fr/tropgene/JSP/interface.jsp?module=RICE</t>
-  </si>
-  <si>
-    <t>Find SEPANG_SNP and SEPANG_Pheno in the Study field. Dowload zip files, extract and find the respective xlsx files.</t>
-  </si>
-  <si>
-    <t>genomic selection; breeding values; rice genetics; genomic prediction models; linkage disequilibrium; minor allele frequency; cross validation experiments; genetic gain</t>
-  </si>
-  <si>
-    <t>00085_GenomicAssociationMappingRice</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.7369p</t>
-  </si>
-  <si>
-    <t>https://journals.plos.org/plosgenetics/article?id=10.1371/journal.pgen.1004982</t>
-  </si>
-  <si>
-    <t>Genomic Selection and Association Mapping in Rice (Oryza sativa): Effect of Trait Genetic Architecture, Training Population Composition, Marker Number and Statistical Model on Accuracy of Rice Genomic Selection in Elite, Tropical Rice Breeding Lines</t>
-  </si>
-  <si>
-    <t>Genomic Selection (GS) is a new breeding method in which genome-wide markers are used to predict the breeding value of individuals in a breeding population. GS has been shown to improve breeding efficiency in dairy cattle and several crop plant species, and here we evaluate for the first time its efficacy for breeding inbred lines of rice. We performed a genome-wide association study (GWAS) in conjunction with five-fold GS cross-validation on a population of 363 elite breeding lines from the International Rice Research Institute's (IRRI) irrigated rice breeding program and herein report the GS results. The population was genotyped with 73,147 markers using genotyping-by-sequencing. The training population, statistical method used to build the GS model, number of markers, and trait were varied to determine their effect on prediction accuracy. For all three traits, genomic prediction models outperformed prediction based on pedigree records alone. Prediction accuracies ranged from 0.31 and 0.34 for grain yield and plant height to 0.63 for flowering time. Analyses using subsets of the full marker set suggest that using one marker every 0.2 cM is sufficient for genomic selection in this collection of rice breeding materials. RR-BLUP was the best performing statistical method for grain yield where no large effect QTL were detected by GWAS, while for flowering time, where a single very large effect QTL was detected, the non-GS multiple linear regression method outperformed GS models. For plant height, in which four mid-sized QTL were identified by GWAS, random forest produced the most consistently accurate GS models. Our results suggest that GS, informed by GWAS interpretations of genetic architecture and population structure, could become an effective tool for increasing the efficiency of rice breeding as the costs of genotyping continue to decline.</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.7369p</t>
-  </si>
-  <si>
-    <t>genomic selection; rice breeding; GWAS; prediction accuracy; marker-assisted selection; genetic architecture; breeding efficiency; genotyping-by-sequencing</t>
-  </si>
-  <si>
-    <t>00086_MiscanthusSinensisMultiLocationTrial</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.13012/B2IDB-0790815_V3</t>
-  </si>
-  <si>
-    <t>Miscanthus sinensis multi-location trial: phenotypic analysis, genome-wide association, and genomic prediction</t>
-  </si>
-  <si>
-    <t>This dataset contains genotypic and phenotypic data, R scripts, and the results of analysis pertaining to a multi-location field trial of Miscanthus sinensis. Genome-wide association and genomic prediction were performed for biomass yield and 14 yield-component traits across six field trial locations in Asia and North America, using 46,177 single-nucleotide polymorphism (SNP) markers mined from restriction site-associated DNA sequencing (RAD-seq) and 568 M. sinensis accessions. Genomic regions and candidate genes were identified that can be used for breeding improved varieties of M. sinensis, which in turn will be used to generate new M. xgiganteus clones for biomass.</t>
-  </si>
-  <si>
-    <t>Miscanthus sinensis</t>
-  </si>
-  <si>
-    <t>Chinese silver grass</t>
-  </si>
-  <si>
-    <t>https://databank.illinois.edu/datasets/IDB-1182845</t>
-  </si>
-  <si>
-    <t>Read README file and download required files.</t>
-  </si>
-  <si>
-    <t>genomics; phenotypics; genome-wide association study; genomic prediction; Miscanthus sinensis; single-nucleotide polymorphism; biomass yield; breeding improvement</t>
-  </si>
-  <si>
-    <t>00087_MultiTraitPredictionPerennialRyegrass</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.25387/g3.10074323.v1</t>
-  </si>
-  <si>
-    <t>https://www.frontiersin.org/journals/plant-science/articles/10.3389/fpls.2020.01197/full</t>
-  </si>
-  <si>
-    <t>Multi-Trait Genomic Prediction Improves Predictive Ability for Dry Matter Yield and Water-Soluble Carbohydrates in Perennial Ryegrass</t>
-  </si>
-  <si>
-    <t>In perennial ryegrass (Lolium perenne L), annual and seasonal dry matter yield (DMY) and nutritive quality of herbage are high-priority traits targeted for improvement through selective breeding. Genomic prediction (GP) has proven to be a valuable tool for improving complex traits and may be further enhanced through the use of multi-trait (MT) prediction models. In this study, we evaluated the relative performance of MT prediction models to improve predictive ability for DMY and key nutritive quality traits, using two different training populations (TP1, n = 463 and TP2, n = 517) phenotyped at multiple locations. MT models outperformed single-trait (ST) models by 24% to 59% for DMY and 67% to 105% for nutritive quality traits, such as low, high, and total WSC, when a correlated secondary trait was included in both the training and test set (MT-CV2) or in the test set alone (MT-CV3) (trait-assisted genomic selection). However, when a secondary trait was included in training set and not the test set (MT-CV1), the predictive ability was not statistically significant (p &gt; 0.05) compared to the ST model. We evaluated the impact of training set size when using a MT-CV2 model. Using a highly correlated trait (rg = 0.88) as the secondary trait in the MT-CV2 model, there was no loss in predictive ability for DMY even when the training set was reduced to 50% of its original size. In contrast, using a weakly correlated secondary trait (rg = 0.56) in the MT-CV2 model, predictive ability began to decline when the training set size was reduced by only 11% from its original size. Using a ST model, genomic predictive ability in a population unrelated to the training set was poor (rp = ‚àí0.06). However, when using an MT-CV2 model, the predictive ability was positive and high (rp = 0.76) for the same population. Our results demonstrate the first assessment of MT models in forage species and illustrate the prospects of using MT genomic selection in forages, and other outcrossing plant species, to accelerate genetic gains for complex agronomical traits, such as DMY and nutritive quality characteristics.</t>
-  </si>
-  <si>
-    <t>Perennial ryegrass</t>
-  </si>
-  <si>
-    <t>https://gsajournals.figshare.com/articles/dataset/Supplemental_Material_for_Arojju_et_al_2020/10074323</t>
-  </si>
-  <si>
-    <t>genomic prediction; selective breeding; multi-trait models; dry matter yield; nutritive quality; perennial ryegrass; genomic selection; agronomical traits</t>
-  </si>
-  <si>
-    <t>00088_GenomicAdaptiveDivergenceManakins</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.85078</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/10.1111/mec.12201</t>
-  </si>
-  <si>
-    <t>The genomic consequences of adaptive divergence and reproductive isolation between species of manakins</t>
-  </si>
-  <si>
-    <t>The processes of adaptation and speciation are expected to shape genomic variation within and between diverging species. Here we analyze genomic heterogeneity of genetic differentiation and introgression in a hybrid zone between two bird species (Manacus candei and M. vitellinus) using 59 100 SNPs, a whole genome assembly, and Bayesian models. Measures of genetic differentiation (urn:x-wiley:09621083:media:mec12201:mec12201-math-0001) and introgression (genomic cline center [Œ±] and rate [Œ≤]) were highly heterogeneous among loci. We identified thousands of loci with elevated parameter estimates, some of which are likely to be associated with variation in fitness in Manacus populations. To analyze the genomic organization of differentiation and introgression, we mapped SNPs onto a draft assembly of the M. vitellinus genome. Estimates of urn:x-wiley:09621083:media:mec12201:mec12201-math-0002, Œ±, and Œ≤ were autocorrelated at very short physical distances (&lt; 100 bp), but much less so beyond this. In addition, average statistical associations (linkage disequilibrium) between SNPs were generally low and were not higher in admixed populations than in populations of the parental species. Although they did not occur with a constant probability across the genome, loci with elevated urn:x-wiley:09621083:media:mec12201:mec12201-math-0003, Œ±, and Œ≤ were not strongly co-localized in the genome. Contrary to verbal models that predict clustering of loci involved in adaptation and isolation in discrete genomic regions, these results are consistent with the hypothesis that genetic regions involved in adaptive divergence and reproductive isolation are scattered throughout the genome. We also found that many loci were characterized by both exceptional genetic differentiation and introgression, consistent with the hypothesis that loci involved in isolation are also often characterized by a history of divergent selection. However, the concordance between isolation and differentiation was only partial, indicating a complex architecture and history of loci involved in isolation.</t>
-  </si>
-  <si>
-    <t>Manacus candei</t>
-  </si>
-  <si>
-    <t>White-collared manakin</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.85078</t>
-  </si>
-  <si>
-    <t>genomics; speciation; introgression; genetic differentiation; hybrid zone; Bayesian models; adaptation; evolutionary biology</t>
-  </si>
-  <si>
-    <t>00089_AdaptiveCapacityToClimateInAustralia</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.03g3s3q</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/10.1111/mec.15092</t>
-  </si>
-  <si>
-    <t>Standing genomic variation within coding and regulatory regions contributes to the adaptive capacity to climate in a foundation tree species</t>
-  </si>
-  <si>
-    <t>Global climate is rapidly changing, and the ability for tree species to adapt is dependent on standing genomic variation; however, the distribution and abundance of functional and adaptive variants are poorly understood in natural systems. We test key hypotheses regarding the genetics of adaptive variation in a foundation tree: genomic variation is associated with climate, and genomic variation is more likely to be associated with temperature than precipitation or aridity. To test these hypotheses, we used 9,593 independent, genomic single-nucleotide polymorphisms (SNPs) from 270 individuals sampled from Corymbia calophylla's entire distribution in south-western Western Australia, spanning orthogonal temperature and precipitation gradients. Environmental association analyses returned 537 unique SNPs putatively adaptive to climate. We identified SNPs associated with climatic variation (i.e., temperature [458], precipitation [75] and aridity [78]) across the landscape. Of these, 78 SNPs were nonsynonymous (NS), while 26 SNPs were found within gene regulatory regions. The NS and regulatory candidate SNPs associated with temperature explained more deviance (27.35%) than precipitation (5.93%) and aridity (4.77%), suggesting that temperature provides stronger adaptive signals than precipitation. Genes associated with adaptive variants include functions important in stress responses to temperature and precipitation. Patterns of allelic turnover of NS and regulatory SNPs show small patterns of change through climate space with the exception of an aldehyde dehydrogenase gene variant with 80% allelic turnover with temperature. Together, these findings provide evidence for the presence of adaptive variation to climate in a foundation species and provide critical information to guide adaptive management practices.</t>
-  </si>
-  <si>
-    <t>Corymbia calophylla</t>
-  </si>
-  <si>
-    <t>Marri</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.03g3s3q</t>
-  </si>
-  <si>
-    <t>climate change; genomic variation; adaptive genetics; single-nucleotide polymorphisms (SNPs); environmental association analysis; tree adaptation; Corymbia calophylla; adaptive management practices</t>
-  </si>
-  <si>
-    <t>00091_PumpkinHybridPerformance</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.ts718t2</t>
-  </si>
-  <si>
-    <t>https://acsess.onlinelibrary.wiley.com/doi/10.3835/plantgenome2018.10.0082</t>
-  </si>
-  <si>
-    <t>Genomic prediction of pumpkin hybrid performance</t>
-  </si>
-  <si>
-    <t>Genomic prediction has become an increasingly popular tool for hybrid performance evaluation in plant breeding mainly because that it can reduce cost and accelerate a breeding program. In this study, we propose a systematic procedure to predict hybrid performance using a genomic selection (GS) model that takes both additive and dominance marker effects into account. We first demonstrate the advantage of the additive‚Äìdominance effects model over the only additive effects model through a simulation study. Based on the additive‚Äìdominance model, we predict genomic estimated breeding values (GEBVs) for individual hybrid combinations and their parental lines. The GEBV-based specific combining ability (SCA) for each hybrid and general combining ability (GCA) for its parental lines are then derived to quantify the degree of midparent heterosis (MPH) or better-parent heterosis (BPH) of the hybrid. Finally, we estimate the variance components resulting from additive and dominance gene action effects and heritability using a genomic best linear unbiased predictor (g-BLUP) model. These estimates are used to justify the results of the genomic prediction study. A pumpkin (Cucurbita spp.) data set is given to illustrate the provided procedure. The data set consists of 320 parental lines with 61,179 collected single nucleotide polymorphism (SNP) markers; 119, 120, and 120 phenotypic values of hybrids on three quantitative traits within C.maxima Duchesne; and 89, 111, and 90 phenotypic values of hybrids on the same three quantitative traits within C. moshata Dechesne.</t>
-  </si>
-  <si>
-    <t>Cucurbita moschata</t>
-  </si>
-  <si>
-    <t>Crookneck pumpkin</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.ts718t2</t>
-  </si>
-  <si>
-    <t>genomic prediction; hybrid performance; plant breeding; genomic selection model; marker effects; heritability; heterosis; single nucleotide polymorphism (SNP)</t>
-  </si>
-  <si>
-    <t>00092_GenomicPredictionSoaySheepCoatcolour</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.h44j0zpkq</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/10.1111/mec.16262</t>
-  </si>
-  <si>
-    <t>Genomic prediction in the wild: A case study in Soay sheep</t>
-  </si>
-  <si>
-    <t>Genomic prediction, the technique whereby an individual's genetic component of their phenotype is estimated from its genome, has revolutionised animal and plant breeding and medical genetics. However, despite being first introduced nearly two decades ago, it has hardly been adopted by the evolutionary genetics community studying wild organisms. Here, genomic prediction is performed on eight traits in a wild population of Soay sheep. The population has been the focus of a &gt;30 year evolutionary ecology study and there is already considerable understanding of the genetic architecture of the focal Mendelian and quantitative traits. We show that the accuracy of genomic prediction is high for all traits, but especially those with loci of large effect segregating. Five different methods are compared, and the two methods that can accommodate zero-effect and large-effect loci in the same model tend to perform best. If the accuracy of genomic prediction is similar in other wild populations, then there is a real opportunity for pedigree-free molecular quantitative genetics research to be enabled in many more wild populations; currently the literature is dominated by studies that have required decades of field data collection to generate sufficiently deep pedigrees. Finally, some of the potential applications of genomic prediction in wild populations are discussed.</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.h44j0zpkq</t>
-  </si>
-  <si>
-    <t>genomic prediction; evolutionary genetics; animal breeding; plant breeding; medical genetics; Soay sheep; quantitative traits; molecular genetics</t>
-  </si>
-  <si>
-    <t>00093_GenomicPredictionSoaySheepCoatpattern</t>
-  </si>
-  <si>
-    <t>genomic prediction; animal breeding; plant breeding; medical genetics; evolutionary genetics; quantitative traits; genetic architecture; wild populations</t>
-  </si>
-  <si>
-    <t>00094_GenomicPredictionSoaySheepHornlength</t>
-  </si>
-  <si>
-    <t>genomic prediction; evolutionary genetics; animal breeding; quantitative traits; genetic architecture; Mendelian traits; wild populations; molecular quantitative genetics</t>
-  </si>
-  <si>
-    <t>00095_GenomicPredictionSoaySheepJaw</t>
-  </si>
-  <si>
-    <t>genomic prediction; animal breeding; plant breeding; medical genetics; evolutionary genetics; wild populations; quantitative genetics; Soay sheep</t>
-  </si>
-  <si>
-    <t>00096_GenomicPredictionSoaySheepMetacarpal</t>
-  </si>
-  <si>
-    <t>genomic prediction; evolutionary genetics; animal breeding; plant breeding; medical genetics; quantitative traits; Soay sheep; wild populations</t>
-  </si>
-  <si>
-    <t>00097_GenomicPredictionSoaySheepForeleg</t>
-  </si>
-  <si>
-    <t>genomic prediction; evolutionary genetics; Soay sheep; genetic architecture; quantitative traits; Mendelian traits; wild populations; molecular quantitative genetics</t>
-  </si>
-  <si>
-    <t>00098_GenomicPredictionSoaySheepHindleg</t>
-  </si>
-  <si>
-    <t>genomic prediction; evolutionary genetics; Soay sheep; genetic architecture; quantitative traits; Mendelian traits; molecular quantitative genetics; wild populations</t>
-  </si>
-  <si>
-    <t>00099_GenomicPredictionSoaySheepWeight</t>
-  </si>
-  <si>
-    <t>genomic prediction; evolutionary genetics; Soay sheep; genetic architecture; quantitative traits; Mendelian traits; molecular quantitative genetics; wildlife conservation</t>
-  </si>
-  <si>
-    <t>00100_PopulationGeneticInferenceSeaBass</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0157809</t>
-  </si>
-  <si>
-    <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0157809</t>
-  </si>
-  <si>
-    <t>Genome-Wide SNP Discovery, Genotyping and Their Preliminary Applications for Population Genetic Inference in Spotted Sea Bass (Lateolabrax maculatus)</t>
-  </si>
-  <si>
-    <t>Next-generation sequencing and the collection of genome-wide single-nucleotide polymorphisms (SNPs) allow identifying fine-scale population genetic structure and genomic regions under selection. The spotted sea bass (Lateolabrax maculatus) is a non-model species of ecological and commercial importance and widely distributed in northwestern Pacific. A total of 22 648 SNPs was discovered across the genome of L. maculatus by paired-end sequencing of restriction-site associated DNA (RAD-PE) for 30 individuals from two populations. The nucleotide diversity (œÄ) for each population was 0.0028¬±0.0001 in Dandong and 0.0018¬±0.0001 in Beihai, respectively. Shallow but significant genetic differentiation was detected between the two populations analyzed by using both the whole data set (FST = 0.0550, P &lt; 0.001) and the putatively neutral SNPs (FST = 0.0347, P &lt; 0.001). However, the two populations were highly differentiated based on the putatively adaptive SNPs (FST = 0.6929, P &lt; 0.001). Moreover, a total of 356 SNPs representing 298 unique loci were detected as outliers putatively under divergent selection by FST-based outlier tests as implemented in BAYESCAN and LOSITAN. Functional annotation of the contigs containing putatively adaptive SNPs yielded hits for 22 of 55 (40%) significant BLASTX matches. Candidate genes for local selection constituted a wide array of functions, including binding, catalytic and metabolic activities, etc. The analyses with the SNPs developed in the present study highlighted the importance of genome-wide genetic variation for inference of population structure and local adaptation in L. maculatus.</t>
-  </si>
-  <si>
-    <t>Lateolabrax maculatus</t>
-  </si>
-  <si>
-    <t>Spotted sea bass</t>
-  </si>
-  <si>
-    <t>https://figshare.com/articles/dataset/Genome-Wide_SNP_Discovery_Genotyping_and_Their_Preliminary_Applications_for_Population_Genetic_Inference_in_Spotted_Sea_Bass_i_Lateolabrax_maculatus_i_/3460751?file=5441483</t>
-  </si>
-  <si>
-    <t>next-generation sequencing; single-nucleotide polymorphisms; population genetic structure; genomic selection; spotted sea bass; RAD-PE sequencing; genetic differentiation; local adaptation</t>
-  </si>
-  <si>
-    <t>00101_CopyNumberVariantsMarineSpecies</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.vt4b8gtnv</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/10.1111/mec.15565</t>
-  </si>
-  <si>
-    <t>Copy number variants outperform SNPs to reveal genotype√±temperature association in a marine species</t>
-  </si>
-  <si>
-    <t>Copy number variants (CNVs) are a major component of genotypic and phenotypic variation in genomes. To date, our knowledge of genotypic variation and evolution has largely been acquired by means of single nucleotide polymorphism (SNPs) analyses. Until recently, the adaptive role of structural variants (SVs) and particularly that of CNVs has been overlooked in wild populations, partly due to their challenging identification. Here, we document the usefulness of Rapture, a derived reduced-representation shotgun sequencing approach, to detect and investigate copy number variants (CNVs) alongside SNPs in American lobster (Homarus americanus) populations. We conducted a comparative study to examine the potential role of SNPs and CNVs in local adaptation by sequencing 1,141 lobsters from 21 sampling sites within the southern Gulf of St. Lawrence, which experiences the highest yearly thermal variance of the Canadian marine coastal waters. Our results demonstrated that CNVs account for higher genetic differentiation than SNP markers. Contrary to SNPs, for which no significant genetic‚Äìenvironment association was found, 48 CNV candidates were significantly associated with the annual variance of sea surface temperature, leading to the genetic clustering of sampling locations despite their geographic separation. Altogether, we provide a strong empirical case that CNVs putatively contribute to local adaptation in marine species and unveil stronger spatial signal of population structure than SNPs. Our study provides the means to study CNVs in nonmodel species and highlights the importance of considering structural variants alongside SNPs to enhance our understanding of ecological and evolutionary processes shaping adaptive population structure.</t>
-  </si>
-  <si>
-    <t>Homarus americanus</t>
-  </si>
-  <si>
-    <t>American lobster</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.vt4b8gtnv</t>
-  </si>
-  <si>
-    <t>genomics; copy number variants; single nucleotide polymorphisms; local adaptation; marine biology; population genetics; ecological genetics; structural variants</t>
-  </si>
-  <si>
-    <t>00102_GeneticVariationDiverseSoybean</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.15482/USDA.ADC/1518301</t>
-  </si>
-  <si>
-    <t>https://www.nature.com/articles/s41597-021-00834-w</t>
-  </si>
-  <si>
-    <t>Genetic variation among 481 diverse soybean accessions, inferred from genomic re-sequencing</t>
-  </si>
-  <si>
-    <t>We report characteristics of soybean genetic diversity and structure from the resequencing of 481 diverse soybean accessions, comprising 52 wild (Glycine soja) selections and 429 cultivated (Glycine max) varieties (landraces and elites). This data was used to identify 7.8 million SNPs, to predict SNP effects relative to genic regions, and to identify the genetic structure, relationships, and linkage disequilibrium. We found evidence of distinct, mostly independent selection of lineages by particular geographic location. Among cultivated varieties, we identified numerous highly conserved regions, suggesting selection during domestication. Comparisons of these accessions against the whole U.S. germplasm genotyped with the SoySNP50K iSelect BeadChip revealed that over 95% of the re-sequenced accessions have a high similarity to their SoySNP50K counterparts. Probable errors in seed source or genotype tracking were also identified in approximately 5% of the accessions.</t>
-  </si>
-  <si>
-    <t>Glycine sp</t>
-  </si>
-  <si>
-    <t>https://agdatacommons.nal.usda.gov/articles/dataset/Data_from_Genetic_variation_among_481_diverse_soybean_accessions/25212539</t>
-  </si>
-  <si>
-    <t>Download glyma.Wm82.gnm2_.div_.Valliyodan_Brown_2021.USB481.vcf.gz file</t>
-  </si>
-  <si>
-    <t>soybean genetics; SNP analysis; genetic diversity; domestication; linkage disequilibrium; Glycine max; Glycine soja; genotyping technology</t>
-  </si>
-  <si>
-    <t>00103_ChickpeaGeneticVariationMapWild</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41586-021-04066-1</t>
-  </si>
-  <si>
-    <t>https://www.nature.com/articles/s41586-021-04066-1</t>
-  </si>
-  <si>
-    <t>A chickpea genetic variation map based on the sequencing of 3,366 genomes</t>
-  </si>
-  <si>
-    <t>Zero hunger and good health could be realized by 2030 through effective conservation, characterization and utilization of germplasm resources1. So far, few chickpea (Cicer arietinum) germplasm accessions have been characterized at the genome sequence level2. Here we present a detailed map of variation in 3,171 cultivated and 195 wild accessions to provide publicly available resources for chickpea genomics research and breeding. We constructed a chickpea pan-genome to describe genomic diversity across cultivated chickpea and its wild progenitor accessions. A divergence tree using genes present in around 80% of individuals in one species allowed us to estimate the divergence of Cicer over the last 21‚Äâmillion years. Our analysis found chromosomal segments and genes that show signatures of selection during domestication, migration and improvement. The chromosomal locations of deleterious mutations responsible for limited genetic diversity and decreased fitness were identified in elite germplasm. We identified superior haplotypes for improvement-related traits in landraces that can be introgressed into elite breeding lines through haplotype-based breeding, and found targets for purging deleterious alleles through genomics-assisted breeding and/or gene editing. Finally, we propose three crop breeding strategies based on genomic prediction to enhance crop productivity for 16 traits while avoiding the erosion of genetic diversity through optimal contribution selection (OCS)-based pre-breeding. The predicted performance for 100-seed weight, an important yield-related trait, increased by up to 23% and 12% with OCS- and haplotype-based genomic approaches, respectively.</t>
-  </si>
-  <si>
-    <t>Cicer reticulatum</t>
-  </si>
-  <si>
-    <t>Wild chickpea</t>
-  </si>
-  <si>
-    <t>https://cegresources.icrisat.org/cicerseq/?page_id=3444</t>
-  </si>
-  <si>
-    <t>Download data under Wild cicer species SNPs. For phenotypic data; download Phenotypic data file and read sheet 1 to explore the phenotypic data.</t>
-  </si>
-  <si>
-    <t>chickpea genomics; crop breeding strategies; germplasm conservation; genomic diversity; gene editing; genomic prediction; genetic selection; agricultural biotechnology</t>
-  </si>
-  <si>
-    <t>00104_ChickpeaGeneticVariationMapCultivated</t>
-  </si>
-  <si>
-    <t>Cicer arietinum</t>
-  </si>
-  <si>
-    <t>Chickpea</t>
-  </si>
-  <si>
-    <t>Download data under Cultivated cicer species SNPs. For phenotypic data; download Phenotypic data file and read sheet 1 to explore the phenotypic data.</t>
-  </si>
-  <si>
-    <t>chickpea genomics; germplasm conservation; genomic diversity; plant breeding strategies; crop productivity enhancement; gene editing in agriculture; genetic diversity preservation; genomic prediction methods</t>
-  </si>
-  <si>
-    <t>00105_GenotypeMicrobialFoxtailMillet</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5281/zenodo.7018178</t>
-  </si>
-  <si>
-    <t>https://www.nature.com/articles/s41467-022-33238-4</t>
-  </si>
-  <si>
-    <t>GWAS, MWAS and mGWAS provide insights into precision agriculture based on genotype-dependent microbial effects in foxtail millet</t>
-  </si>
-  <si>
-    <t>Genetic and environmental factors collectively determine plant growth and yield. In the past 20 years, genome-wide association studies (GWAS) have been conducted on crops to decipher genetic loci that contribute to growth and yield, however, plant genotype appears to be insufficient to explain the trait variations. Here, we unravel the associations between genotypic, phenotypic, and rhizoplane microbiota variables of 827 foxtail millet cultivars by an integrated GWAS, microbiome-wide association studies (MWAS) and microbiome genome-wide association studies (mGWAS) method. We identify 257 rhizoplane microbial biomarkers associated with six key agronomic traits and validated the microbial-mediated growth effects on foxtail millet using marker strains isolated from the field. The rhizoplane microbiota composition is mainly driven by variations in plant genes related to immunity, metabolites, hormone signaling and nutrient uptake. Among these, the host immune gene FLS2 and transcription factor bHLH35 are widely associated with the microbial taxa of the rhizoplane. We further uncover a plant genotype-microbiota interaction network that contributes to phenotype plasticity. The microbial-mediated growth effects on foxtail millet are dependent on the host genotype, suggesting that precision microbiome management could be used to engineer high-yielding cultivars in agriculture systems.</t>
-  </si>
-  <si>
-    <t>Setaria italica</t>
-  </si>
-  <si>
-    <t>Foxtail millet</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/records/7018179</t>
-  </si>
-  <si>
-    <t>Download the data and unzip it. For more Information on Phenotypic data, read the markdown file under Figure2 Folder.</t>
-  </si>
-  <si>
-    <t>plant-genetics; microbiome; GWAS; agriculture; crop-yield; microbial-biomarkers; genotype-phenotype-interactions; plant-microbiota-network</t>
-  </si>
-  <si>
-    <t>00106_ConstructionZeamaysHaplotypeMap916</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.7946/P28H0C</t>
-  </si>
-  <si>
-    <t>https://academic.oup.com/gigascience/article/7/4/gix134/4782225</t>
-  </si>
-  <si>
-    <t>Construction of the third-generation Zea mays haplotype map</t>
-  </si>
-  <si>
-    <t>Background
-Characterization of genetic variations in maize has been challenging, mainly due to deterioration of collinearity between individual genomes in the species. An international consortium of maize research groups combined resources to develop the maize haplotype version 3 (HapMap 3), built from whole-genome sequencing data from 1218 maize lines, covering predomestication and domesticated Zea mays varieties across the world.
-Results
-A new computational pipeline was set up to process more than 12 trillion bp of sequencing data, and a set of population genetics filters was applied to identify more than 83 million variant sites.
-Conclusions
-We identified polymorphisms in regions where collinearity is largely preserved in the maize species. However, the fact that the B73 genome used as the reference only represents a fraction of all haplotypes is still an important limiting factor.</t>
-  </si>
-  <si>
-    <t>https://datacommons.cyverse.org/browse/iplant/home/shared/commons_repo/curated/Qi_Sun_Zea_mays_haplotype_map_2018</t>
-  </si>
-  <si>
-    <t>Read README file and download files from "/hmp311_q30", Might need a CyVerse account to download the data. For further infromation on data, read Avalaibility of Data contents in the article.</t>
-  </si>
-  <si>
-    <t>maize genetics; whole-genome sequencing; haplotype mapping; genetic variation; population genetics; Zea mays; computational biology; bioinformatics</t>
-  </si>
-  <si>
-    <t>00107_ConstructionZeamaysHaplotypeMap1210</t>
-  </si>
-  <si>
-    <t>Read README file and download files from "/hmp321_unimputed", Might need a CyVerse account to download the data. For further infromation on data, read Avalaibility of Data contents in the article.</t>
-  </si>
-  <si>
-    <t>maize genetics; HapMap 3; whole-genome sequencing; genetic variation; Zea mays; computational biology; population genetics; polymorphisms</t>
-  </si>
-  <si>
-    <t>00108_HybridRiceVarietiesHeterosis</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/ncomms7258</t>
-  </si>
-  <si>
-    <t>https://www.nature.com/articles/ncomms7258</t>
-  </si>
-  <si>
-    <t>Genomic analysis of hybrid rice varieties reveals numerous superior alleles that contribute to heterosis</t>
-  </si>
-  <si>
-    <t>Exploitation of heterosis is one of the most important applications of genetics in agriculture. However, the genetic mechanisms of heterosis are only partly understood, and a global view of heterosis from a representative number of hybrid combinations is lacking. Here we develop an integrated genomic approach to construct a genome map for 1,495 elite hybrid rice varieties and their inbred parental lines. We investigate 38 agronomic traits and identify 130 associated loci. In-depth analyses of the effects of heterozygous genotypes reveal that there are only a few loci with strong overdominance effects in hybrids, but a strong correlation is observed between the yield and the number of superior alleles. While most parental inbred lines have only a small number of superior alleles, high-yielding hybrid varieties have several. We conclude that the accumulation of numerous rare superior alleles with positive dominance is an important contributor to the heterotic phenomena.</t>
-  </si>
-  <si>
-    <t>http://db.ncgr.ac.cn/RiceHap4/</t>
-  </si>
-  <si>
-    <t>Download all the indica and japonica files</t>
-  </si>
-  <si>
-    <t>heterosis; genetics in agriculture; hybrid rice varieties; genomic approach; agronomic traits; overdominance effects; superior alleles; genetic mechanisms</t>
-  </si>
-  <si>
-    <t>00109_OptimisingGenomicSelectionWheat</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1534/g3.118.200311</t>
-  </si>
-  <si>
-    <t>https://academic.oup.com/g3journal/article/8/9/2889/6027035</t>
-  </si>
-  <si>
-    <t>Optimising Genomic Selection in Wheat: Effect of Marker Density, Population Size and Population Structure on Prediction Accuracy</t>
-  </si>
-  <si>
-    <t>Genomic selection applied to plant breeding enables earlier estimates of a line‚Äôs performance and significant reductions in generation interval. Several factors affecting prediction accuracy should be well understood if breeders are to harness genomic selection to its full potential. We used a panel of 10,375 bread wheat (Triticum aestivum) lines genotyped with 18,101 SNP markers to investigate the effect and interaction of training set size, population structure and marker density on genomic prediction accuracy. Through assessing the effect of training set size we showed the rate at which prediction accuracy increases is slower beyond approximately 2,000 lines. The structure of the panel was assessed via principal component analysis and K-means clustering, and its effect on prediction accuracy was examined through a novel cross-validation analysis according to the K-means clusters and breeding cohorts. Here we showed that accuracy can be improved by increasing the diversity within the training set, particularly when relatedness between training and validation sets is low. The breeding cohort analysis revealed that traits with higher selection pressure (lower allelic diversity) can be more accurately predicted by including several previous cohorts in the training set. The effect of marker density and its interaction with population structure was assessed for marker subsets containing between 100 and 17,181 markers. This analysis showed that response to increased marker density is largest when using a diverse training set to predict between poorly related material. These findings represent a significant resource for plant breeders and contribute to the collective knowledge on the optimal structure of calibration panels for genomic prediction.</t>
-  </si>
-  <si>
-    <t>https://figshare.com/s/287c2c7f1623008487a5?file=12124799</t>
-  </si>
-  <si>
-    <t>Download File S4 and File S5</t>
-  </si>
-  <si>
-    <t>genomic selection; plant breeding; SNP markers; prediction accuracy; population structure; marker density; training set size; wheat genomics</t>
-  </si>
-  <si>
-    <t>00110_DevelopingAssociationBiofuelGrassesDiverse</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.2172/1033499</t>
-  </si>
-  <si>
-    <t>https://www.osti.gov/biblio/1033499/</t>
-  </si>
-  <si>
-    <t>Developing Association Mapping in Polyploid Perennial Biofuel Grasses: Final Technical Report</t>
-  </si>
-  <si>
-    <t>This project had six objectives, four of which have been completed: 1) Association panels of diverse populations and linkage populations for switchgrass and reed canarygrass (~1,000 clones each) were assembled and planted in two sites (Ithaca, NY and Arlington, WI); 2) Key biofeedstock characteristics were evaluated in these panels for three field seasons; 3) High density SNP markers were developed in switchgrass; and 4) Switchgrass association panels and linkage populations were genotyped. The remaining two original objectives will be met in the next year, as the analyses are completed and papers published: 5) Switchgrass population structure and germplasm diversity will be evaluated; and 6) Association mapping will be established and marker based breeding values estimated in switchgrass. We also completed a study of the chromosome-number variation found in switchgrass.</t>
-  </si>
-  <si>
-    <t>https://datacommons.cyverse.org/browse/iplant/home/shared/panzea/genotypes/GBS/switchgrass/Lu_PLoSGenet_2013_switchgrassGenos20150612.zip</t>
-  </si>
-  <si>
-    <t>biofeedstock research; switchgrass genetics; SNP markers; association mapping; plant genotyping; crop diversity; genetic breeding; chromosome variation</t>
-  </si>
-  <si>
-    <t>00111_DevelopingAssociationBiofuelGrassesHalfSib</t>
-  </si>
-  <si>
-    <t>switchgrass research; genetic mapping; biofeedstock characteristics; SNP markers; plant genetics; agricultural genomics; crop diversity; association mapping</t>
-  </si>
-  <si>
-    <t>00112_DevelopingAssociationBiofuelGrassesFullSib</t>
-  </si>
-  <si>
-    <t>switchgrass research; reed canarygrass; biofeedstock characteristics; SNP markers; genotyping; population structure; association mapping; marker-based breeding</t>
-  </si>
-  <si>
-    <t>00113_GeneticAdaptationHighAltitudeCattle</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.15dv41nvs</t>
-  </si>
-  <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S0888754321001154</t>
-  </si>
-  <si>
-    <t>Introgression, admixture, and selection facilitate genetic adaptation to high-altitude environments in cattle</t>
-  </si>
-  <si>
-    <t>Domestication and subsequent selection of cattle to form breeds and biological types that can adapt to different environments partitioned ancestral genetic diversity into distinct modern lineages. Genome-wide selection particularly for adaptation to extreme environments left detectable signatures genome-wide. We used high-density genotype data for 42 cattle breeds and identified the influence of Bos grunniens and Bos javanicus on the formation of Chinese indicine breeds that led to their divergence from India-origin zebu. We also found evidence for introgression, admixture, and migration in most of the Chinese breeds. Selection signature analyses between high-altitude (≥1800 m) and low-altitude adapted breeds (&lt;1500 m) revealed candidate genes (ACSS2, ALDOC, EPAS1, EGLN1, NUCB2) and pathways that are putatively involved in hypoxia adaptation. Immunohistochemical, real-time PCR and CRISPR/cas9 ACSS2-knockout analyses suggest that the up-regulation of ACSS2 expression in the liver promotes the metabolic adaptation of cells to hypoxia via the hypoxia-inducible factor pathway. High altitude adaptation involved the introgression of alleles from high-altitude adapted yaks into Chinese Bos taurus taurus prior to their formation into recognized breeds and followed by selection. In addition to selection, adaptation to high altitude environments has been facilitated by admixture and introgression with locally adapted cattle populations.</t>
-  </si>
-  <si>
-    <t>Bos sp</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.15dv41nvs</t>
-  </si>
-  <si>
-    <t>genetics; cattle domestication; genome-wide selection; high-altitude adaptation; genetic diversity; breed formation; hypoxia adaptation; introgression and admixture</t>
-  </si>
-  <si>
-    <t>00114_InvasionGenomicInsightsBrownmarmoratedstinkbug</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.w9ghx3fsk</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/full/10.1111/mec.16740</t>
-  </si>
-  <si>
-    <t>Population genomic insights into invasion success in a polyphagous agricultural pest, Halyomorpha halys</t>
-  </si>
-  <si>
-    <t>Invasive species are increasingly threatening ecosystems and agriculture by rapidly expanding their range and adapting to environmental and human-imposed selective pressures. The genomic mechanisms that underlie such rapid changes remain unclear, especially for agriculturally important pests. Here, we used genome-wide polymorphisms derived from native, invasive, and intercepted samples and populations of the brown marmorated stink bug (BMSB), Halyomorpha halys, to gain insights into population genomics processes that have promoted the successful global invasion of this polyphagous pest. Our analysis demonstrated that BMSB exhibits spatial structure but admixture rates are high among introduced populations, resulting in similar levels of genomic diversity across native and introduced populations. These spatial genomic patterns suggest a complex invasion scenario, potentially with multiple bridgehead events, posing a challenge for accurately assigning BMSB incursions to their source using reduced-representation genomic data. By associating allele frequencies with the invasion status of BMSB populations, we found significantly differentiated single nucleotide polymorphisms (SNPs) located in close proximity to genes for insecticide resistance and olfaction. Comparing variations in allele frequencies among populations for outlier SNPs suggests that BMSB invasion success has probably evolved from standing genetic variation. In addition to being a major nuisance of households, BMSB has caused significant economic losses to agriculture in recent years and continues to expand its range. Despite no record of BMSB insecticide resistance to date, our results show high capacity for potential evolution of such traits, highlighting the need for future sustainable and targeted management strategies.</t>
-  </si>
-  <si>
-    <t>Halyomorpha halys</t>
-  </si>
-  <si>
-    <t>Brown marmorated stink bug</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.w9ghx3fsk</t>
-  </si>
-  <si>
-    <t>invasive species; genomic diversity; agricultural pests; population genetics; insecticide resistance; Halyomorpha halys; ecological invasion; allele frequency</t>
-  </si>
-  <si>
-    <t>00115_LocalAdaptationSignalsQueenslandfruitfly</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.kkwh70s9q</t>
-  </si>
-  <si>
-    <t>https://www.nature.com/articles/s41437-023-00657-y</t>
-  </si>
-  <si>
-    <t>Genomic signals of local adaptation across climatically heterogenous habitats in an invasive tropical fruit fly (Bactrocera tryoni)</t>
-  </si>
-  <si>
-    <t>Local adaptation plays a key role in the successful establishment of pest populations in new environments by enabling them to tolerate novel biotic and abiotic conditions experienced outside their native range. However, the genomic underpinnings of such adaptive responses remain unclear, especially for agriculturally important pests. We investigated population genomic signatures in the tropical/subtropical Queensland fruit fly, Bactrocera tryoni, which has an expanded range encompassing temperate and arid zones in Australia, and tropical zones in the Pacific Islands. Using reduced representation sequencing data from 28 populations, we detected allele frequency shifts associated with the native/invasive status of populations and identified environmental factors that have likely driven population differentiation. We also determined that precipitation, temperature, and geographic variables explain allelic shifts across the distribution range of B. tryoni. We found spatial heterogeneity in signatures of local adaptation across various climatic conditions in invaded areas. Specifically, disjunct invasive populations in the tropical Pacific Islands and arid zones of Australia were characterised by multiple significantly differentiated single nucleotide polymorphisms (SNPs), some of which were associated with genes with well-understood function in environmental stress (e.g., heat and desiccation) response. However, invasive populations in southeast Australian temperate zones showed higher gene flow with the native range and lacked a strong local adaptive signal. These results suggest that population connectivity with the native range has differentially affected local adaptive patterns in different invasive populations. Overall, our findings provide insights into the evolutionary underpinnings of invasion success of an important horticultural pest in climatically distinct environments.</t>
-  </si>
-  <si>
-    <t>Bactrocera tryoni</t>
-  </si>
-  <si>
-    <t>Queensland fruit fly</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.kkwh70s9q</t>
-  </si>
-  <si>
-    <t>population genomics; local adaptation; invasive species; Queensland fruit fly; environmental stress response; allele frequency shifts; genomic signatures; agricultural pests</t>
-  </si>
-  <si>
-    <t>00116_GeneticStructureTestWhitefingeredmudcrab</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.qnk98sfd1</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/10.1111/jbi.13919</t>
-  </si>
-  <si>
-    <t>Strong genetic structure in a widespread estuarine crab: A test of potential versus realized dispersal</t>
-  </si>
-  <si>
-    <t>Aim: Genetic structure has proven difficult to predict for marine and estuarine species with multi-day pelagic larval durations, since many disperse far less than expected based on passive transport models. In such cases, the gap between potential and realized dispersal may result from larval behaviors that evolved to facilitate retention and settlement in favorable environments. Behavior is predicted to play a particularly key role in structuring truly estuarine species, which often moderate their behavior to remain within their natal estuaries. In such systems, this restricted dispersal may lead to high divergence, local adaptation, and eventual speciation across their range. Here, we test whether a geographically widespread estuarine crab, known to have behavior promoting larval retention, exhibits high population structure despite a 2-4 week larval duration.
-Location: Atlantic and Gulf Coasts of North America Taxon: White-fingered mud crab, Rhithropanopeus harrisii
-Methods: Population genomic analyses across nine estuaries from New Hampshire to Louisiana using 12,638 transcriptome-derived SNPs.
-Results: We found highly differentiated genetic signatures among all nine estuaries, separated by 200-5,000 km of coastline. Estimates of gene flow suggest that migration is low and largely symmetrical between sites. We also observed deep phylogenetic divides corresponding to major biogeographic breaks.
-Main conclusions: These results indicate substantial and longstanding constraints to dispersal in the species’ native range, likely arising from the emergence of geological and oceanographic barriers and sustained by behavior that promotes estuarine retention during larval development. This work supports the idea that larval behavior promoting estuarine retention can be reflected in substantial genetic structure even in species with multi-week pelagic larval durations. Such behavior-restricted dispersal has implications for predicting adaptation and spread in estuarine species, many of which have been introduced outside their native ranges.</t>
-  </si>
-  <si>
-    <t>Rhithropanopeus harrisii</t>
-  </si>
-  <si>
-    <t>White-fingered mud crab</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.qnk98sfd1</t>
-  </si>
-  <si>
-    <t>marine biology; estuarine ecology; population genetics; larval behavior; genetic structure; local adaptation; species dispersal; phylogenetic analysis</t>
-  </si>
-  <si>
-    <t>00117_GeneticDiversityAssessmentCat</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.pvmcvdnhd</t>
-  </si>
-  <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S0888754320320164?via%3Dihub</t>
-  </si>
-  <si>
-    <t>Genetic relationships and inbreeding levels among geographically distant populations of Felis catus from Japan and the United States</t>
-  </si>
-  <si>
-    <t>Pedigreed cats have traditionally been mated with close relatives, which increases the risks for inbreeding depression and genetic disorders. We evaluated the genome-wide population structure and the degree of inbreeding of 1022 cats, including 13 pedigreed and two random bred populations from Japan and the USA, using single nucleotide polymorphism array-based data. Ancestry structure analysis revealed Japan's American Curl, Norwegian Forest, and Siamese cat populations were genetically distinct from their American counterparts. Furthermore, we found an ancestral genetic component shared between five pedigreed and random bred Japanese cats, suggesting the breeds were admixed with Japanese cats or cats of east Asian origin. Between-country differences in inbreeding estimates based on runs of homozygosity were found for Maine Coon, Siamese, and random bred cats. To reduce the risks of inbreeding depression and genetic disorders, particularly for highly inbred breeds, such as Abyssinian cats, as well as Russian Blue and Siamese cats in the USA, appropriate breeding practices must be observed, including mating practices that increase the genetic diversity.</t>
-  </si>
-  <si>
-    <t>Felis catus</t>
-  </si>
-  <si>
-    <t>Cat</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.pvmcvdnhd</t>
-  </si>
-  <si>
-    <t>genetics; animal breeding; inbreeding depression; genetic diversity; pedigreed cats; population genetics; SNP array; genetic disorders</t>
-  </si>
-  <si>
-    <t>00118_WinterSurvivorshipGeneticsSwitchgrass</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.9cnp5hqhv</t>
-  </si>
-  <si>
-    <t>https://acsess.onlinelibrary.wiley.com/doi/full/10.1002/tpg2.20159</t>
-  </si>
-  <si>
-    <t>Genetic loci associated with winter survivorship in diverse lowland switchgrass populations</t>
-  </si>
-  <si>
-    <t>High winter mortality limits biomass yield of lowland switchgrass (Panicum virgatum L.) planted in the northern latitudes of North America. Breeding of cold tolerant switchgrass cultivars requires many years due to its perennial growth habit and the unpredictable winter selection pressure that is required to identify winter-hardy individuals. Identification of causal genetic variants for winter survivorship would accelerate the improvement of switchgrass biomass production. The objective of this study was to identify allelic variation associated with winter survivorship in lowland switchgrass populations using bulk segregant analysis (BSA). Twenty-nine lowland switchgrass populations were evaluated for winter survival at two locations in southern Wisconsin and 21 populations with differential winter survivorship were used for BSA. A maximum of 10% of the individuals (8–20) were bulked to create survivor and nonsurvivor DNA pools from each population and location. The DNA pools were evaluated using exome capture sequencing, and allele frequencies were used to conduct statistical tests. The BSA tests revealed nine quatitative trait loci (QTL) from tetraploid populations and seven QTL from octoploid populations. Many QTL were population-specific, but some were identified in multiple populations that originated across a broad geographic landscape. Four QTL (at positions 88 Mb on chromosome 2N, 115 Mb on chromosome 5K, and 1 and 100 Mb on chromosome 9N) were potentially the most useful QTL. Markers associated with winter survivorship in this study can be used to accelerate breeding cycles of lowland switchgrass populations and should lead to improvements in adaptation within USDA hardiness zones 4 and 5.</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.9cnp5hqhv</t>
-  </si>
-  <si>
-    <t>switchgrass biomass production; winter survival; genetic variants; bulk segregant analysis; quantitative trait loci; exome capture sequencing; plant breeding; cold tolerance</t>
-  </si>
-  <si>
-    <t>00119_GenomicDiversityComparisonHallersAlyssum</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.11jp5</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/article/10.1186/s12864-016-3459-7</t>
-  </si>
-  <si>
-    <t>Estimating genomic diversity and population differentiation – an empirical comparison of microsatellite and SNP variation in Arabidopsis halleri</t>
-  </si>
-  <si>
-    <t>Background
-Microsatellite markers are widely used for estimating genetic diversity within and differentiation among populations. However, it has rarely been tested whether such estimates are useful proxies for genome-wide patterns of variation and differentiation. Here, we compared microsatellite variation with genome-wide single nucleotide polymorphisms (SNPs) to assess and quantify potential marker-specific biases and derive recommendations for future studies. Overall, we genotyped 180 Arabidopsis halleri individuals from nine populations using 20 microsatellite markers. Twelve of these markers were originally developed for Arabidopsis thaliana (cross-species markers) and eight for A. halleri (species-specific markers). We further characterized 2 million SNPs across the genome with a pooled whole-genome re-sequencing approach (Pool-Seq).
-Results
-Our analyses revealed that estimates of genetic diversity and differentiation derived from cross-species and species-specific microsatellites differed substantially and that expected microsatellite heterozygosity (SSR-H e) was not significantly correlated with genome-wide SNP diversity estimates (SNP-H e and θ Watterson) in A. halleri. Instead, microsatellite allelic richness (A r) was a better proxy for genome-wide SNP diversity. Estimates of genetic differentiation among populations (F ST) based on both marker types were correlated, but microsatellite-based estimates were significantly larger than those from SNPs. Possible causes include the limited number of microsatellite markers used, marker ascertainment bias, as well as the high variance in microsatellite-derived estimates. In contrast, genome-wide SNP data provided unbiased estimates of genetic diversity independent of whether genome- or only exome-wide SNPs were used. Further, we inferred that a few thousand random SNPs are sufficient to reliably estimate genome-wide diversity and to distinguish among populations differing in genetic variation.
-Conclusions
-We recommend that future analyses of genetic diversity within and differentiation among populations use randomly selected high-throughput sequencing-based SNP data to draw conclusions on genome-wide diversity patterns. In species comparable to A. halleri, a few thousand SNPs are sufficient to achieve this goal.</t>
-  </si>
-  <si>
-    <t>Arabidopsis halleri</t>
-  </si>
-  <si>
-    <t>Haller's Alyssum</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.11jp5</t>
-  </si>
-  <si>
-    <t>genetic diversity; microsatellites; SNPs; genome-wide analysis; Arabidopsis halleri; population differentiation; genetic markers; high-throughput sequencing</t>
-  </si>
-  <si>
-    <t>00120_GeneticMapApplicationWaterflea</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.qk8fj</t>
-  </si>
-  <si>
-    <t>https://bmcgenomics.biomedcentral.com/articles/10.1186/1471-2164-15-1033</t>
-  </si>
-  <si>
-    <t>An SNP-based second-generation genetic map of Daphnia magna and its application to QTL analysis of phenotypic traits</t>
-  </si>
-  <si>
-    <t>Background
-Although Daphnia is increasingly recognized as a model for ecological genomics and biomedical research, there is, as of yet, no high-resolution genetic map for the genus. Such a map would provide an important tool for mapping phenotypes and assembling the genome. Here we estimate the genome size of Daphnia magna and describe the construction of an SNP array based linkage map. We then test the suitability of the map for life history and behavioural trait mapping. The two parent genotypes used to produce the map derived from D. magna populations with and without fish predation, respectively and are therefore expected to show divergent behaviour and life-histories.
-Results
-Using flow cytometry we estimated the genome size of D. magna to be about 238 mb. We developed an SNP array tailored to type SNPs in a D. magna F2 panel and used it to construct a D. magna linkage map, which included 1,324 informative markers. The map produced ten linkage groups ranging from 108.9 to 203.6 cM, with an average distance between markers of 1.13 cM and a total map length of 1,483.6 cM (Kosambi corrected). The physical length per cM is estimated to be 160 kb. Mapping infertility genes, life history traits and behavioural traits on this map revealed several significant QTL peaks and showed a complex pattern of underlying genetics, with different traits showing strongly different genetic architectures.
-Conclusions
-The new linkage map of D. magna constructed here allowed us to characterize genetic differences among parent genotypes from populations with ecological differences. The QTL effect plots are partially consistent with our expectation of local adaptation under contrasting predation regimes. Furthermore, the new genetic map will be an important tool for the Daphnia research community and will contribute to the physical map of the D. magna genome project and the further mapping of phenotypic traits. The clones used to produce the linkage map are maintained in a stock collection and can be used for mapping QTLs of traits that show variance among the F2 clones.</t>
-  </si>
-  <si>
-    <t>Daphnia magna</t>
-  </si>
-  <si>
-    <t>Water flea</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.qk8fj</t>
-  </si>
-  <si>
-    <t>genetic mapping; Daphnia magna; SNP array; linkage groups; QTL analysis; ecological genomics; behavioral traits; life history traits</t>
-  </si>
-  <si>
-    <t>00121_GlobalDiseaseVectorHousefly</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.0gb5mkkxf</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/article/10.1186/s12864-020-6445-z</t>
-  </si>
-  <si>
-    <t>Integrated genome-wide investigations of the housefly, a global vector of diseases reveal unique dispersal patterns and bacterial communities across farms</t>
-  </si>
-  <si>
-    <t>Background
-Houseflies (Musca domestica L.) live in intimate association with numerous microorganisms and is a vector of human pathogens. In temperate areas, houseflies will overwinter in environments constructed by humans and recolonize surrounding areas in early summer. However, the dispersal patterns and associated bacteria across season and location are unclear. We used genotyping-by-sequencing (GBS) for the simultaneous identification and genotyping of thousands of Single Nucleotide Polymorphisms (SNPs) to establish dispersal patterns of houseflies across farms. Secondly, we used 16S rRNA gene amplicon sequencing to establish the variation and association between bacterial communities and the housefly across farms.
-Results
-Using GBS we identified 18,000 SNPs across 400 individuals sampled within and between 11 dairy farms in Denmark. There was evidence for sub-structuring of Danish housefly populations and with genetic structure that differed across season and sex. Further, there was a strong isolation by distance (IBD) effect, but with large variation suggesting that other hidden geographic barriers are important. Large individual variations were observed in the community structure of the microbiome and it was found to be dependent on location, sex, and collection time. Furthermore, the relative prevalence of putative pathogens was highly dependent on location and collection time.
-Conclusion
-We were able to identify SNPs for the determination of the spatiotemporal housefly genetic structure, and to establish the variation and association between bacterial communities and the housefly across farms using novel next-generation sequencing (NGS) techniques. These results are important for disease prevention given the fine-scale population structure and IBD for the housefly, and that individual houseflies carry location specific bacteria including putative pathogens.</t>
-  </si>
-  <si>
-    <t>Musca domestica</t>
-  </si>
-  <si>
-    <t>Housefly</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.0gb5mkkxf</t>
-  </si>
-  <si>
-    <t>Musca domestica; genotyping-by-sequencing (GBS); 16S rRNA gene sequencing; population genetics; microbial communities; pathogen transmission; next-generation sequencing (NGS); spatial analysis</t>
-  </si>
-  <si>
-    <t>00122_GenomicDiversityAnalysisSorghum</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.5n2bs6r</t>
-  </si>
-  <si>
-    <t>https://cdnsciencepub.com/doi/10.1139/gen-2017-0131</t>
-  </si>
-  <si>
-    <t>Population genomics of sorghum (Sorghum bicolor) across diverse agroclimatic zones of Niger</t>
-  </si>
-  <si>
-    <t>Improving adaptation of staple crops in developing countries is important to ensure food security. In the West African country of Niger, the staple crop sorghum (Sorghum bicolor) is cultivated across diverse agroclimatic zones, but the genetic basis of local adaptation has not been described. The objectives of this study were to characterize the genomic diversity of sorghum from Niger and to identify genomic regions conferring local adaptation to agroclimatic zones and farmer preferences. We analyzed 516 Nigerien accessions for which local variety name, botanical race, and geographic origin were known. We discovered 144 299 single nucleotide polymorphisms (SNPs) using genotyping-by-sequencing (GBS). We performed discriminant analysis of principal components (DAPC), which identified six genetic groups, and performed a genome scan for loci with high discriminant loadings. The highest discriminant coefficients were on chromosome 9, near the putative ortholog of maize flowering time adaptation gene Vgt1. Next, we characterized differentiation among local varieties and used a genome scan of pairwise FST values to identify SNPs associated with specific local varieties. Comparison of varieties named for light- versus dark-grain identified differentiation near Tannin1, the major gene responsible for grain tannins. These findings could facilitate genomics-assisted breeding of locally adapted and farmer-preferred sorghum varieties for Niger.</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.5n2bs6r</t>
-  </si>
-  <si>
-    <t>sorghum-genetics; genomics-assisted-breeding; local-adaptation; food-security; genetic-diversity; single-nucleotide-polymorphisms; West-Africa; agroclimatic-zones</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5061/dryad.8b0s04t</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/article/10.1186/s12864-018-4615-z</t>
-  </si>
-  <si>
-    <t>New insights into the phylogenetics and population structure of the prairie falcon (Falco mexicanus)</t>
+    <t xml:space="preserve">Ovis canadensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bighorn Sheep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.c0p090f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">molecular ecology; sexual selection; GWAS; genetic variation; bighorn sheep; polygenic traits; heritability; trophy hunting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00084_GenomicSelectionRiceSyntheticPopulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0136594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0136594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accuracy of Genomic Selection in a Rice Synthetic Population Developed for Recurrent Selection Breeding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic selection (GS) is a promising strategy for enhancing genetic gain. We investigated the accuracy of genomic estimated breeding values (GEBV) in four inter-related synthetic populations that underwent several cycles of recurrent selection in an upland rice-breeding program. A total of 343 S2:4 lines extracted from those populations were phenotyped for flowering time, plant height, grain yield and panicle weight, and genotyped with an average density of one marker per 44.8 kb. The relative effect of the linkage disequilibrium (LD) and minor allele frequency (MAF) thresholds for selecting markers, the relative size of the training population (TP) and of the validation population (VP), the selected trait and the genomic prediction models (frequentist and Bayesian) on the accuracy of GEBVs was investigated in 540 cross validation experiments with 100 replicates. The effect of kinship between the training and validation populations was tested in an additional set of 840 cross validation experiments with a single genomic prediction model. LD was high (average r2 = 0.59 at 25 kb) and decreased slowly, distribution of allele frequencies at individual loci was markedly skewed toward unbalanced frequencies (MAF average value 15.2% and median 9.6%), and differentiation between the four synthetic populations was low (FST ‚â§0.06). The accuracy of GEBV across all cross validation experiments ranged from 0.12 to 0.54 with an average of 0.30. Significant differences in accuracy were observed among the different levels of each factor investigated. Phenotypic traits had the biggest effect, and the size of the incidence matrix had the smallest. Significant first degree interaction was observed for GEBV accuracy between traits and all the other factors studied, and between prediction models and LD, MAF and composition of the TP. The potential of GS to accelerate genetic gain and breeding options to increase the accuracy of predictions are discussed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oryza sativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://tropgenedb.cirad.fr/tropgene/JSP/interface.jsp?module=RICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find SEPANG_SNP and SEPANG_Pheno in the Study field. Dowload zip files, extract and find the respective xlsx files.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic selection; breeding values; rice genetics; genomic prediction models; linkage disequilibrium; minor allele frequency; cross validation experiments; genetic gain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00085_GenomicAssociationMappingRice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.7369p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://journals.plos.org/plosgenetics/article?id=10.1371/journal.pgen.1004982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic Selection and Association Mapping in Rice (Oryza sativa): Effect of Trait Genetic Architecture, Training Population Composition, Marker Number and Statistical Model on Accuracy of Rice Genomic Selection in Elite, Tropical Rice Breeding Lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic Selection (GS) is a new breeding method in which genome-wide markers are used to predict the breeding value of individuals in a breeding population. GS has been shown to improve breeding efficiency in dairy cattle and several crop plant species, and here we evaluate for the first time its efficacy for breeding inbred lines of rice. We performed a genome-wide association study (GWAS) in conjunction with five-fold GS cross-validation on a population of 363 elite breeding lines from the International Rice Research Institute's (IRRI) irrigated rice breeding program and herein report the GS results. The population was genotyped with 73,147 markers using genotyping-by-sequencing. The training population, statistical method used to build the GS model, number of markers, and trait were varied to determine their effect on prediction accuracy. For all three traits, genomic prediction models outperformed prediction based on pedigree records alone. Prediction accuracies ranged from 0.31 and 0.34 for grain yield and plant height to 0.63 for flowering time. Analyses using subsets of the full marker set suggest that using one marker every 0.2 cM is sufficient for genomic selection in this collection of rice breeding materials. RR-BLUP was the best performing statistical method for grain yield where no large effect QTL were detected by GWAS, while for flowering time, where a single very large effect QTL was detected, the non-GS multiple linear regression method outperformed GS models. For plant height, in which four mid-sized QTL were identified by GWAS, random forest produced the most consistently accurate GS models. Our results suggest that GS, informed by GWAS interpretations of genetic architecture and population structure, could become an effective tool for increasing the efficiency of rice breeding as the costs of genotyping continue to decline.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.7369p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic selection; rice breeding; GWAS; prediction accuracy; marker-assisted selection; genetic architecture; breeding efficiency; genotyping-by-sequencing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00086_MiscanthusSinensisMultiLocationTrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.13012/B2IDB-0790815_V3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miscanthus sinensis multi-location trial: phenotypic analysis, genome-wide association, and genomic prediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This dataset contains genotypic and phenotypic data, R scripts, and the results of analysis pertaining to a multi-location field trial of Miscanthus sinensis. Genome-wide association and genomic prediction were performed for biomass yield and 14 yield-component traits across six field trial locations in Asia and North America, using 46,177 single-nucleotide polymorphism (SNP) markers mined from restriction site-associated DNA sequencing (RAD-seq) and 568 M. sinensis accessions. Genomic regions and candidate genes were identified that can be used for breeding improved varieties of M. sinensis, which in turn will be used to generate new M. xgiganteus clones for biomass.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miscanthus sinensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese silver grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://databank.illinois.edu/datasets/IDB-1182845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read README file and download required files.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomics; phenotypics; genome-wide association study; genomic prediction; Miscanthus sinensis; single-nucleotide polymorphism; biomass yield; breeding improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00087_MultiTraitPredictionPerennialRyegrass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.25387/g3.10074323.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.frontiersin.org/journals/plant-science/articles/10.3389/fpls.2020.01197/full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Trait Genomic Prediction Improves Predictive Ability for Dry Matter Yield and Water-Soluble Carbohydrates in Perennial Ryegrass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In perennial ryegrass (Lolium perenne L), annual and seasonal dry matter yield (DMY) and nutritive quality of herbage are high-priority traits targeted for improvement through selective breeding. Genomic prediction (GP) has proven to be a valuable tool for improving complex traits and may be further enhanced through the use of multi-trait (MT) prediction models. In this study, we evaluated the relative performance of MT prediction models to improve predictive ability for DMY and key nutritive quality traits, using two different training populations (TP1, n = 463 and TP2, n = 517) phenotyped at multiple locations. MT models outperformed single-trait (ST) models by 24% to 59% for DMY and 67% to 105% for nutritive quality traits, such as low, high, and total WSC, when a correlated secondary trait was included in both the training and test set (MT-CV2) or in the test set alone (MT-CV3) (trait-assisted genomic selection). However, when a secondary trait was included in training set and not the test set (MT-CV1), the predictive ability was not statistically significant (p &gt; 0.05) compared to the ST model. We evaluated the impact of training set size when using a MT-CV2 model. Using a highly correlated trait (rg = 0.88) as the secondary trait in the MT-CV2 model, there was no loss in predictive ability for DMY even when the training set was reduced to 50% of its original size. In contrast, using a weakly correlated secondary trait (rg = 0.56) in the MT-CV2 model, predictive ability began to decline when the training set size was reduced by only 11% from its original size. Using a ST model, genomic predictive ability in a population unrelated to the training set was poor (rp = ‚àí0.06). However, when using an MT-CV2 model, the predictive ability was positive and high (rp = 0.76) for the same population. Our results demonstrate the first assessment of MT models in forage species and illustrate the prospects of using MT genomic selection in forages, and other outcrossing plant species, to accelerate genetic gains for complex agronomical traits, such as DMY and nutritive quality characteristics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perennial ryegrass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gsajournals.figshare.com/articles/dataset/Supplemental_Material_for_Arojju_et_al_2020/10074323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic prediction; selective breeding; multi-trait models; dry matter yield; nutritive quality; perennial ryegrass; genomic selection; agronomical traits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00088_GenomicAdaptiveDivergenceManakins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.85078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/10.1111/mec.12201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The genomic consequences of adaptive divergence and reproductive isolation between species of manakins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The processes of adaptation and speciation are expected to shape genomic variation within and between diverging species. Here we analyze genomic heterogeneity of genetic differentiation and introgression in a hybrid zone between two bird species (Manacus candei and M. vitellinus) using 59 100 SNPs, a whole genome assembly, and Bayesian models. Measures of genetic differentiation (urn:x-wiley:09621083:media:mec12201:mec12201-math-0001) and introgression (genomic cline center [Œ±] and rate [Œ≤]) were highly heterogeneous among loci. We identified thousands of loci with elevated parameter estimates, some of which are likely to be associated with variation in fitness in Manacus populations. To analyze the genomic organization of differentiation and introgression, we mapped SNPs onto a draft assembly of the M. vitellinus genome. Estimates of urn:x-wiley:09621083:media:mec12201:mec12201-math-0002, Œ±, and Œ≤ were autocorrelated at very short physical distances (&lt; 100 bp), but much less so beyond this. In addition, average statistical associations (linkage disequilibrium) between SNPs were generally low and were not higher in admixed populations than in populations of the parental species. Although they did not occur with a constant probability across the genome, loci with elevated urn:x-wiley:09621083:media:mec12201:mec12201-math-0003, Œ±, and Œ≤ were not strongly co-localized in the genome. Contrary to verbal models that predict clustering of loci involved in adaptation and isolation in discrete genomic regions, these results are consistent with the hypothesis that genetic regions involved in adaptive divergence and reproductive isolation are scattered throughout the genome. We also found that many loci were characterized by both exceptional genetic differentiation and introgression, consistent with the hypothesis that loci involved in isolation are also often characterized by a history of divergent selection. However, the concordance between isolation and differentiation was only partial, indicating a complex architecture and history of loci involved in isolation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manacus candei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White-collared manakin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.85078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomics; speciation; introgression; genetic differentiation; hybrid zone; Bayesian models; adaptation; evolutionary biology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00089_AdaptiveCapacityToClimateInAustralia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.03g3s3q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/10.1111/mec.15092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standing genomic variation within coding and regulatory regions contributes to the adaptive capacity to climate in a foundation tree species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global climate is rapidly changing, and the ability for tree species to adapt is dependent on standing genomic variation; however, the distribution and abundance of functional and adaptive variants are poorly understood in natural systems. We test key hypotheses regarding the genetics of adaptive variation in a foundation tree: genomic variation is associated with climate, and genomic variation is more likely to be associated with temperature than precipitation or aridity. To test these hypotheses, we used 9,593 independent, genomic single-nucleotide polymorphisms (SNPs) from 270 individuals sampled from Corymbia calophylla's entire distribution in south-western Western Australia, spanning orthogonal temperature and precipitation gradients. Environmental association analyses returned 537 unique SNPs putatively adaptive to climate. We identified SNPs associated with climatic variation (i.e., temperature [458], precipitation [75] and aridity [78]) across the landscape. Of these, 78 SNPs were nonsynonymous (NS), while 26 SNPs were found within gene regulatory regions. The NS and regulatory candidate SNPs associated with temperature explained more deviance (27.35%) than precipitation (5.93%) and aridity (4.77%), suggesting that temperature provides stronger adaptive signals than precipitation. Genes associated with adaptive variants include functions important in stress responses to temperature and precipitation. Patterns of allelic turnover of NS and regulatory SNPs show small patterns of change through climate space with the exception of an aldehyde dehydrogenase gene variant with 80% allelic turnover with temperature. Together, these findings provide evidence for the presence of adaptive variation to climate in a foundation species and provide critical information to guide adaptive management practices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia calophylla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.03g3s3q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climate change; genomic variation; adaptive genetics; single-nucleotide polymorphisms (SNPs); environmental association analysis; tree adaptation; Corymbia calophylla; adaptive management practices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00090_PhylogeneticsPopulationStructurePrairiefalcon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.8b0s04t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://link.springer.com/article/10.1186/s12864-018-4615-z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New insights into the phylogenetics and population structure of the prairie falcon (Falco mexicanus)</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -2887,26 +2243,690 @@
 </t>
   </si>
   <si>
-    <t>Falco mexicanus</t>
-  </si>
-  <si>
-    <t>Prairie falcon</t>
-  </si>
-  <si>
-    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.8b0s04t</t>
-  </si>
-  <si>
-    <t>genomics; population genetics; prairie falcon; phylogenetic analysis; single nucleotide polymorphisms; conservation biology; gene flow; wildlife management</t>
-  </si>
-  <si>
-    <t>00090_PhylogeneticsPopulationStructurePrairiefalcon</t>
+    <t xml:space="preserve">Falco mexicanus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prairie falcon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.8b0s04t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomics; population genetics; prairie falcon; phylogenetic analysis; single nucleotide polymorphisms; conservation biology; gene flow; wildlife management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00091_PumpkinHybridPerformance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.ts718t2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://acsess.onlinelibrary.wiley.com/doi/10.3835/plantgenome2018.10.0082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic prediction of pumpkin hybrid performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic prediction has become an increasingly popular tool for hybrid performance evaluation in plant breeding mainly because that it can reduce cost and accelerate a breeding program. In this study, we propose a systematic procedure to predict hybrid performance using a genomic selection (GS) model that takes both additive and dominance marker effects into account. We first demonstrate the advantage of the additive‚Äìdominance effects model over the only additive effects model through a simulation study. Based on the additive‚Äìdominance model, we predict genomic estimated breeding values (GEBVs) for individual hybrid combinations and their parental lines. The GEBV-based specific combining ability (SCA) for each hybrid and general combining ability (GCA) for its parental lines are then derived to quantify the degree of midparent heterosis (MPH) or better-parent heterosis (BPH) of the hybrid. Finally, we estimate the variance components resulting from additive and dominance gene action effects and heritability using a genomic best linear unbiased predictor (g-BLUP) model. These estimates are used to justify the results of the genomic prediction study. A pumpkin (Cucurbita spp.) data set is given to illustrate the provided procedure. The data set consists of 320 parental lines with 61,179 collected single nucleotide polymorphism (SNP) markers; 119, 120, and 120 phenotypic values of hybrids on three quantitative traits within C.maxima Duchesne; and 89, 111, and 90 phenotypic values of hybrids on the same three quantitative traits within C. moshata Dechesne.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cucurbita moschata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crookneck pumpkin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.ts718t2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic prediction; hybrid performance; plant breeding; genomic selection model; marker effects; heritability; heterosis; single nucleotide polymorphism (SNP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00092_GenomicPredictionSoaySheepCoatcolour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.h44j0zpkq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/10.1111/mec.16262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic prediction in the wild: A case study in Soay sheep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic prediction, the technique whereby an individual's genetic component of their phenotype is estimated from its genome, has revolutionised animal and plant breeding and medical genetics. However, despite being first introduced nearly two decades ago, it has hardly been adopted by the evolutionary genetics community studying wild organisms. Here, genomic prediction is performed on eight traits in a wild population of Soay sheep. The population has been the focus of a &gt;30 year evolutionary ecology study and there is already considerable understanding of the genetic architecture of the focal Mendelian and quantitative traits. We show that the accuracy of genomic prediction is high for all traits, but especially those with loci of large effect segregating. Five different methods are compared, and the two methods that can accommodate zero-effect and large-effect loci in the same model tend to perform best. If the accuracy of genomic prediction is similar in other wild populations, then there is a real opportunity for pedigree-free molecular quantitative genetics research to be enabled in many more wild populations; currently the literature is dominated by studies that have required decades of field data collection to generate sufficiently deep pedigrees. Finally, some of the potential applications of genomic prediction in wild populations are discussed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.h44j0zpkq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic prediction; evolutionary genetics; animal breeding; plant breeding; medical genetics; Soay sheep; quantitative traits; molecular genetics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00093_GenomicPredictionSoaySheepCoatpattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic prediction; animal breeding; plant breeding; medical genetics; evolutionary genetics; quantitative traits; genetic architecture; wild populations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00094_GenomicPredictionSoaySheepHornlength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic prediction; evolutionary genetics; animal breeding; quantitative traits; genetic architecture; Mendelian traits; wild populations; molecular quantitative genetics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00095_GenomicPredictionSoaySheepJaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic prediction; animal breeding; plant breeding; medical genetics; evolutionary genetics; wild populations; quantitative genetics; Soay sheep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00096_GenomicPredictionSoaySheepMetacarpal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic prediction; evolutionary genetics; animal breeding; plant breeding; medical genetics; quantitative traits; Soay sheep; wild populations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00097_GenomicPredictionSoaySheepForeleg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic prediction; evolutionary genetics; Soay sheep; genetic architecture; quantitative traits; Mendelian traits; wild populations; molecular quantitative genetics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00098_GenomicPredictionSoaySheepHindleg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic prediction; evolutionary genetics; Soay sheep; genetic architecture; quantitative traits; Mendelian traits; molecular quantitative genetics; wild populations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00099_GenomicPredictionSoaySheepWeight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic prediction; evolutionary genetics; Soay sheep; genetic architecture; quantitative traits; Mendelian traits; molecular quantitative genetics; wildlife conservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00100_PopulationGeneticInferenceSeaBass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1371/journal.pone.0157809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0157809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genome-Wide SNP Discovery, Genotyping and Their Preliminary Applications for Population Genetic Inference in Spotted Sea Bass (Lateolabrax maculatus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next-generation sequencing and the collection of genome-wide single-nucleotide polymorphisms (SNPs) allow identifying fine-scale population genetic structure and genomic regions under selection. The spotted sea bass (Lateolabrax maculatus) is a non-model species of ecological and commercial importance and widely distributed in northwestern Pacific. A total of 22 648 SNPs was discovered across the genome of L. maculatus by paired-end sequencing of restriction-site associated DNA (RAD-PE) for 30 individuals from two populations. The nucleotide diversity (œÄ) for each population was 0.0028¬±0.0001 in Dandong and 0.0018¬±0.0001 in Beihai, respectively. Shallow but significant genetic differentiation was detected between the two populations analyzed by using both the whole data set (FST = 0.0550, P &lt; 0.001) and the putatively neutral SNPs (FST = 0.0347, P &lt; 0.001). However, the two populations were highly differentiated based on the putatively adaptive SNPs (FST = 0.6929, P &lt; 0.001). Moreover, a total of 356 SNPs representing 298 unique loci were detected as outliers putatively under divergent selection by FST-based outlier tests as implemented in BAYESCAN and LOSITAN. Functional annotation of the contigs containing putatively adaptive SNPs yielded hits for 22 of 55 (40%) significant BLASTX matches. Candidate genes for local selection constituted a wide array of functions, including binding, catalytic and metabolic activities, etc. The analyses with the SNPs developed in the present study highlighted the importance of genome-wide genetic variation for inference of population structure and local adaptation in L. maculatus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lateolabrax maculatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spotted sea bass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/Genome-Wide_SNP_Discovery_Genotyping_and_Their_Preliminary_Applications_for_Population_Genetic_Inference_in_Spotted_Sea_Bass_i_Lateolabrax_maculatus_i_/3460751?file=5441483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">next-generation sequencing; single-nucleotide polymorphisms; population genetic structure; genomic selection; spotted sea bass; RAD-PE sequencing; genetic differentiation; local adaptation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00101_CopyNumberVariantsMarineSpecies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.vt4b8gtnv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/10.1111/mec.15565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy number variants outperform SNPs to reveal genotype√±temperature association in a marine species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy number variants (CNVs) are a major component of genotypic and phenotypic variation in genomes. To date, our knowledge of genotypic variation and evolution has largely been acquired by means of single nucleotide polymorphism (SNPs) analyses. Until recently, the adaptive role of structural variants (SVs) and particularly that of CNVs has been overlooked in wild populations, partly due to their challenging identification. Here, we document the usefulness of Rapture, a derived reduced-representation shotgun sequencing approach, to detect and investigate copy number variants (CNVs) alongside SNPs in American lobster (Homarus americanus) populations. We conducted a comparative study to examine the potential role of SNPs and CNVs in local adaptation by sequencing 1,141 lobsters from 21 sampling sites within the southern Gulf of St. Lawrence, which experiences the highest yearly thermal variance of the Canadian marine coastal waters. Our results demonstrated that CNVs account for higher genetic differentiation than SNP markers. Contrary to SNPs, for which no significant genetic‚Äìenvironment association was found, 48 CNV candidates were significantly associated with the annual variance of sea surface temperature, leading to the genetic clustering of sampling locations despite their geographic separation. Altogether, we provide a strong empirical case that CNVs putatively contribute to local adaptation in marine species and unveil stronger spatial signal of population structure than SNPs. Our study provides the means to study CNVs in nonmodel species and highlights the importance of considering structural variants alongside SNPs to enhance our understanding of ecological and evolutionary processes shaping adaptive population structure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homarus americanus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American lobster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.vt4b8gtnv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomics; copy number variants; single nucleotide polymorphisms; local adaptation; marine biology; population genetics; ecological genetics; structural variants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00102_GeneticVariationDiverseSoybean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.15482/USDA.ADC/1518301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nature.com/articles/s41597-021-00834-w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genetic variation among 481 diverse soybean accessions, inferred from genomic re-sequencing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We report characteristics of soybean genetic diversity and structure from the resequencing of 481 diverse soybean accessions, comprising 52 wild (Glycine soja) selections and 429 cultivated (Glycine max) varieties (landraces and elites). This data was used to identify 7.8 million SNPs, to predict SNP effects relative to genic regions, and to identify the genetic structure, relationships, and linkage disequilibrium. We found evidence of distinct, mostly independent selection of lineages by particular geographic location. Among cultivated varieties, we identified numerous highly conserved regions, suggesting selection during domestication. Comparisons of these accessions against the whole U.S. germplasm genotyped with the SoySNP50K iSelect BeadChip revealed that over 95% of the re-sequenced accessions have a high similarity to their SoySNP50K counterparts. Probable errors in seed source or genotype tracking were also identified in approximately 5% of the accessions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glycine sp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://agdatacommons.nal.usda.gov/articles/dataset/Data_from_Genetic_variation_among_481_diverse_soybean_accessions/25212539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Download glyma.Wm82.gnm2_.div_.Valliyodan_Brown_2021.USB481.vcf.gz file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soybean genetics; SNP analysis; genetic diversity; domestication; linkage disequilibrium; Glycine max; Glycine soja; genotyping technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00103_ChickpeaGeneticVariationMapWild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1038/s41586-021-04066-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nature.com/articles/s41586-021-04066-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A chickpea genetic variation map based on the sequencing of 3,366 genomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zero hunger and good health could be realized by 2030 through effective conservation, characterization and utilization of germplasm resources1. So far, few chickpea (Cicer arietinum) germplasm accessions have been characterized at the genome sequence level2. Here we present a detailed map of variation in 3,171 cultivated and 195 wild accessions to provide publicly available resources for chickpea genomics research and breeding. We constructed a chickpea pan-genome to describe genomic diversity across cultivated chickpea and its wild progenitor accessions. A divergence tree using genes present in around 80% of individuals in one species allowed us to estimate the divergence of Cicer over the last 21‚Äâmillion years. Our analysis found chromosomal segments and genes that show signatures of selection during domestication, migration and improvement. The chromosomal locations of deleterious mutations responsible for limited genetic diversity and decreased fitness were identified in elite germplasm. We identified superior haplotypes for improvement-related traits in landraces that can be introgressed into elite breeding lines through haplotype-based breeding, and found targets for purging deleterious alleles through genomics-assisted breeding and/or gene editing. Finally, we propose three crop breeding strategies based on genomic prediction to enhance crop productivity for 16 traits while avoiding the erosion of genetic diversity through optimal contribution selection (OCS)-based pre-breeding. The predicted performance for 100-seed weight, an important yield-related trait, increased by up to 23% and 12% with OCS- and haplotype-based genomic approaches, respectively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cicer reticulatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild chickpea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cegresources.icrisat.org/cicerseq/?page_id=3444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Download data under Wild cicer species SNPs. For phenotypic data; download Phenotypic data file and read sheet 1 to explore the phenotypic data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chickpea genomics; crop breeding strategies; germplasm conservation; genomic diversity; gene editing; genomic prediction; genetic selection; agricultural biotechnology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00104_ChickpeaGeneticVariationMapCultivated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cicer arietinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chickpea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Download data under Cultivated cicer species SNPs. For phenotypic data; download Phenotypic data file and read sheet 1 to explore the phenotypic data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chickpea genomics; germplasm conservation; genomic diversity; plant breeding strategies; crop productivity enhancement; gene editing in agriculture; genetic diversity preservation; genomic prediction methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00105_GenotypeMicrobialFoxtailMillet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5281/zenodo.7018178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nature.com/articles/s41467-022-33238-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GWAS, MWAS and mGWAS provide insights into precision agriculture based on genotype-dependent microbial effects in foxtail millet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genetic and environmental factors collectively determine plant growth and yield. In the past 20 years, genome-wide association studies (GWAS) have been conducted on crops to decipher genetic loci that contribute to growth and yield, however, plant genotype appears to be insufficient to explain the trait variations. Here, we unravel the associations between genotypic, phenotypic, and rhizoplane microbiota variables of 827 foxtail millet cultivars by an integrated GWAS, microbiome-wide association studies (MWAS) and microbiome genome-wide association studies (mGWAS) method. We identify 257 rhizoplane microbial biomarkers associated with six key agronomic traits and validated the microbial-mediated growth effects on foxtail millet using marker strains isolated from the field. The rhizoplane microbiota composition is mainly driven by variations in plant genes related to immunity, metabolites, hormone signaling and nutrient uptake. Among these, the host immune gene FLS2 and transcription factor bHLH35 are widely associated with the microbial taxa of the rhizoplane. We further uncover a plant genotype-microbiota interaction network that contributes to phenotype plasticity. The microbial-mediated growth effects on foxtail millet are dependent on the host genotype, suggesting that precision microbiome management could be used to engineer high-yielding cultivars in agriculture systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setaria italica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foxtail millet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zenodo.org/records/7018179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Download the data and unzip it. For more Information on Phenotypic data, read the markdown file under Figure2 Folder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plant-genetics; microbiome; GWAS; agriculture; crop-yield; microbial-biomarkers; genotype-phenotype-interactions; plant-microbiota-network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00106_ConstructionZeamaysHaplotypeMap916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.7946/P28H0C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://academic.oup.com/gigascience/article/7/4/gix134/4782225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction of the third-generation Zea mays haplotype map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Characterization of genetic variations in maize has been challenging, mainly due to deterioration of collinearity between individual genomes in the species. An international consortium of maize research groups combined resources to develop the maize haplotype version 3 (HapMap 3), built from whole-genome sequencing data from 1218 maize lines, covering predomestication and domesticated Zea mays varieties across the world.
+Results
+A new computational pipeline was set up to process more than 12 trillion bp of sequencing data, and a set of population genetics filters was applied to identify more than 83 million variant sites.
+Conclusions
+We identified polymorphisms in regions where collinearity is largely preserved in the maize species. However, the fact that the B73 genome used as the reference only represents a fraction of all haplotypes is still an important limiting factor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datacommons.cyverse.org/browse/iplant/home/shared/commons_repo/curated/Qi_Sun_Zea_mays_haplotype_map_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read README file and download files from "/hmp311_q30", Might need a CyVerse account to download the data. For further infromation on data, read Avalaibility of Data contents in the article.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maize genetics; whole-genome sequencing; haplotype mapping; genetic variation; population genetics; Zea mays; computational biology; bioinformatics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00107_ConstructionZeamaysHaplotypeMap1210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read README file and download files from "/hmp321_unimputed", Might need a CyVerse account to download the data. For further infromation on data, read Avalaibility of Data contents in the article.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maize genetics; HapMap 3; whole-genome sequencing; genetic variation; Zea mays; computational biology; population genetics; polymorphisms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00108_HybridRiceVarietiesHeterosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1038/ncomms7258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nature.com/articles/ncomms7258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic analysis of hybrid rice varieties reveals numerous superior alleles that contribute to heterosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploitation of heterosis is one of the most important applications of genetics in agriculture. However, the genetic mechanisms of heterosis are only partly understood, and a global view of heterosis from a representative number of hybrid combinations is lacking. Here we develop an integrated genomic approach to construct a genome map for 1,495 elite hybrid rice varieties and their inbred parental lines. We investigate 38 agronomic traits and identify 130 associated loci. In-depth analyses of the effects of heterozygous genotypes reveal that there are only a few loci with strong overdominance effects in hybrids, but a strong correlation is observed between the yield and the number of superior alleles. While most parental inbred lines have only a small number of superior alleles, high-yielding hybrid varieties have several. We conclude that the accumulation of numerous rare superior alleles with positive dominance is an important contributor to the heterotic phenomena.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://db.ncgr.ac.cn/RiceHap4/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Download all the indica and japonica files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heterosis; genetics in agriculture; hybrid rice varieties; genomic approach; agronomic traits; overdominance effects; superior alleles; genetic mechanisms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00109_OptimisingGenomicSelectionWheat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1534/g3.118.200311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://academic.oup.com/g3journal/article/8/9/2889/6027035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimising Genomic Selection in Wheat: Effect of Marker Density, Population Size and Population Structure on Prediction Accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic selection applied to plant breeding enables earlier estimates of a line‚Äôs performance and significant reductions in generation interval. Several factors affecting prediction accuracy should be well understood if breeders are to harness genomic selection to its full potential. We used a panel of 10,375 bread wheat (Triticum aestivum) lines genotyped with 18,101 SNP markers to investigate the effect and interaction of training set size, population structure and marker density on genomic prediction accuracy. Through assessing the effect of training set size we showed the rate at which prediction accuracy increases is slower beyond approximately 2,000 lines. The structure of the panel was assessed via principal component analysis and K-means clustering, and its effect on prediction accuracy was examined through a novel cross-validation analysis according to the K-means clusters and breeding cohorts. Here we showed that accuracy can be improved by increasing the diversity within the training set, particularly when relatedness between training and validation sets is low. The breeding cohort analysis revealed that traits with higher selection pressure (lower allelic diversity) can be more accurately predicted by including several previous cohorts in the training set. The effect of marker density and its interaction with population structure was assessed for marker subsets containing between 100 and 17,181 markers. This analysis showed that response to increased marker density is largest when using a diverse training set to predict between poorly related material. These findings represent a significant resource for plant breeders and contribute to the collective knowledge on the optimal structure of calibration panels for genomic prediction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/s/287c2c7f1623008487a5?file=12124799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Download File S4 and File S5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genomic selection; plant breeding; SNP markers; prediction accuracy; population structure; marker density; training set size; wheat genomics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00110_DevelopingAssociationBiofuelGrassesDiverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.2172/1033499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.osti.gov/biblio/1033499/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developing Association Mapping in Polyploid Perennial Biofuel Grasses: Final Technical Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This project had six objectives, four of which have been completed: 1) Association panels of diverse populations and linkage populations for switchgrass and reed canarygrass (~1,000 clones each) were assembled and planted in two sites (Ithaca, NY and Arlington, WI); 2) Key biofeedstock characteristics were evaluated in these panels for three field seasons; 3) High density SNP markers were developed in switchgrass; and 4) Switchgrass association panels and linkage populations were genotyped. The remaining two original objectives will be met in the next year, as the analyses are completed and papers published: 5) Switchgrass population structure and germplasm diversity will be evaluated; and 6) Association mapping will be established and marker based breeding values estimated in switchgrass. We also completed a study of the chromosome-number variation found in switchgrass.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datacommons.cyverse.org/browse/iplant/home/shared/panzea/genotypes/GBS/switchgrass/Lu_PLoSGenet_2013_switchgrassGenos20150612.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biofeedstock research; switchgrass genetics; SNP markers; association mapping; plant genotyping; crop diversity; genetic breeding; chromosome variation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00111_DevelopingAssociationBiofuelGrassesHalfSib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">switchgrass research; genetic mapping; biofeedstock characteristics; SNP markers; plant genetics; agricultural genomics; crop diversity; association mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00112_DevelopingAssociationBiofuelGrassesFullSib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">switchgrass research; reed canarygrass; biofeedstock characteristics; SNP markers; genotyping; population structure; association mapping; marker-based breeding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00113_GeneticAdaptationHighAltitudeCattle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.15dv41nvs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sciencedirect.com/science/article/pii/S0888754321001154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introgression, admixture, and selection facilitate genetic adaptation to high-altitude environments in cattle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestication and subsequent selection of cattle to form breeds and biological types that can adapt to different environments partitioned ancestral genetic diversity into distinct modern lineages. Genome-wide selection particularly for adaptation to extreme environments left detectable signatures genome-wide. We used high-density genotype data for 42 cattle breeds and identified the influence of Bos grunniens and Bos javanicus on the formation of Chinese indicine breeds that led to their divergence from India-origin zebu. We also found evidence for introgression, admixture, and migration in most of the Chinese breeds. Selection signature analyses between high-altitude (≥1800 m) and low-altitude adapted breeds (&lt;1500 m) revealed candidate genes (ACSS2, ALDOC, EPAS1, EGLN1, NUCB2) and pathways that are putatively involved in hypoxia adaptation. Immunohistochemical, real-time PCR and CRISPR/cas9 ACSS2-knockout analyses suggest that the up-regulation of ACSS2 expression in the liver promotes the metabolic adaptation of cells to hypoxia via the hypoxia-inducible factor pathway. High altitude adaptation involved the introgression of alleles from high-altitude adapted yaks into Chinese Bos taurus taurus prior to their formation into recognized breeds and followed by selection. In addition to selection, adaptation to high altitude environments has been facilitated by admixture and introgression with locally adapted cattle populations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bos sp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.15dv41nvs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genetics; cattle domestication; genome-wide selection; high-altitude adaptation; genetic diversity; breed formation; hypoxia adaptation; introgression and admixture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00114_InvasionGenomicInsightsBrownmarmoratedstinkbug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.w9ghx3fsk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/full/10.1111/mec.16740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population genomic insights into invasion success in a polyphagous agricultural pest, Halyomorpha halys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invasive species are increasingly threatening ecosystems and agriculture by rapidly expanding their range and adapting to environmental and human-imposed selective pressures. The genomic mechanisms that underlie such rapid changes remain unclear, especially for agriculturally important pests. Here, we used genome-wide polymorphisms derived from native, invasive, and intercepted samples and populations of the brown marmorated stink bug (BMSB), Halyomorpha halys, to gain insights into population genomics processes that have promoted the successful global invasion of this polyphagous pest. Our analysis demonstrated that BMSB exhibits spatial structure but admixture rates are high among introduced populations, resulting in similar levels of genomic diversity across native and introduced populations. These spatial genomic patterns suggest a complex invasion scenario, potentially with multiple bridgehead events, posing a challenge for accurately assigning BMSB incursions to their source using reduced-representation genomic data. By associating allele frequencies with the invasion status of BMSB populations, we found significantly differentiated single nucleotide polymorphisms (SNPs) located in close proximity to genes for insecticide resistance and olfaction. Comparing variations in allele frequencies among populations for outlier SNPs suggests that BMSB invasion success has probably evolved from standing genetic variation. In addition to being a major nuisance of households, BMSB has caused significant economic losses to agriculture in recent years and continues to expand its range. Despite no record of BMSB insecticide resistance to date, our results show high capacity for potential evolution of such traits, highlighting the need for future sustainable and targeted management strategies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halyomorpha halys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown marmorated stink bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.w9ghx3fsk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invasive species; genomic diversity; agricultural pests; population genetics; insecticide resistance; Halyomorpha halys; ecological invasion; allele frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00115_LocalAdaptationSignalsQueenslandfruitfly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.kkwh70s9q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nature.com/articles/s41437-023-00657-y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic signals of local adaptation across climatically heterogenous habitats in an invasive tropical fruit fly (Bactrocera tryoni)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local adaptation plays a key role in the successful establishment of pest populations in new environments by enabling them to tolerate novel biotic and abiotic conditions experienced outside their native range. However, the genomic underpinnings of such adaptive responses remain unclear, especially for agriculturally important pests. We investigated population genomic signatures in the tropical/subtropical Queensland fruit fly, Bactrocera tryoni, which has an expanded range encompassing temperate and arid zones in Australia, and tropical zones in the Pacific Islands. Using reduced representation sequencing data from 28 populations, we detected allele frequency shifts associated with the native/invasive status of populations and identified environmental factors that have likely driven population differentiation. We also determined that precipitation, temperature, and geographic variables explain allelic shifts across the distribution range of B. tryoni. We found spatial heterogeneity in signatures of local adaptation across various climatic conditions in invaded areas. Specifically, disjunct invasive populations in the tropical Pacific Islands and arid zones of Australia were characterised by multiple significantly differentiated single nucleotide polymorphisms (SNPs), some of which were associated with genes with well-understood function in environmental stress (e.g., heat and desiccation) response. However, invasive populations in southeast Australian temperate zones showed higher gene flow with the native range and lacked a strong local adaptive signal. These results suggest that population connectivity with the native range has differentially affected local adaptive patterns in different invasive populations. Overall, our findings provide insights into the evolutionary underpinnings of invasion success of an important horticultural pest in climatically distinct environments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bactrocera tryoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queensland fruit fly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.kkwh70s9q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population genomics; local adaptation; invasive species; Queensland fruit fly; environmental stress response; allele frequency shifts; genomic signatures; agricultural pests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00116_GeneticStructureTestWhitefingeredmudcrab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.qnk98sfd1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/10.1111/jbi.13919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strong genetic structure in a widespread estuarine crab: A test of potential versus realized dispersal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aim: Genetic structure has proven difficult to predict for marine and estuarine species with multi-day pelagic larval durations, since many disperse far less than expected based on passive transport models. In such cases, the gap between potential and realized dispersal may result from larval behaviors that evolved to facilitate retention and settlement in favorable environments. Behavior is predicted to play a particularly key role in structuring truly estuarine species, which often moderate their behavior to remain within their natal estuaries. In such systems, this restricted dispersal may lead to high divergence, local adaptation, and eventual speciation across their range. Here, we test whether a geographically widespread estuarine crab, known to have behavior promoting larval retention, exhibits high population structure despite a 2-4 week larval duration.
+Location: Atlantic and Gulf Coasts of North America Taxon: White-fingered mud crab, Rhithropanopeus harrisii
+Methods: Population genomic analyses across nine estuaries from New Hampshire to Louisiana using 12,638 transcriptome-derived SNPs.
+Results: We found highly differentiated genetic signatures among all nine estuaries, separated by 200-5,000 km of coastline. Estimates of gene flow suggest that migration is low and largely symmetrical between sites. We also observed deep phylogenetic divides corresponding to major biogeographic breaks.
+Main conclusions: These results indicate substantial and longstanding constraints to dispersal in the species’ native range, likely arising from the emergence of geological and oceanographic barriers and sustained by behavior that promotes estuarine retention during larval development. This work supports the idea that larval behavior promoting estuarine retention can be reflected in substantial genetic structure even in species with multi-week pelagic larval durations. Such behavior-restricted dispersal has implications for predicting adaptation and spread in estuarine species, many of which have been introduced outside their native ranges.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhithropanopeus harrisii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White-fingered mud crab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.qnk98sfd1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marine biology; estuarine ecology; population genetics; larval behavior; genetic structure; local adaptation; species dispersal; phylogenetic analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00117_GeneticDiversityAssessmentCat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.pvmcvdnhd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sciencedirect.com/science/article/pii/S0888754320320164?via%3Dihub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genetic relationships and inbreeding levels among geographically distant populations of Felis catus from Japan and the United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedigreed cats have traditionally been mated with close relatives, which increases the risks for inbreeding depression and genetic disorders. We evaluated the genome-wide population structure and the degree of inbreeding of 1022 cats, including 13 pedigreed and two random bred populations from Japan and the USA, using single nucleotide polymorphism array-based data. Ancestry structure analysis revealed Japan's American Curl, Norwegian Forest, and Siamese cat populations were genetically distinct from their American counterparts. Furthermore, we found an ancestral genetic component shared between five pedigreed and random bred Japanese cats, suggesting the breeds were admixed with Japanese cats or cats of east Asian origin. Between-country differences in inbreeding estimates based on runs of homozygosity were found for Maine Coon, Siamese, and random bred cats. To reduce the risks of inbreeding depression and genetic disorders, particularly for highly inbred breeds, such as Abyssinian cats, as well as Russian Blue and Siamese cats in the USA, appropriate breeding practices must be observed, including mating practices that increase the genetic diversity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felis catus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.pvmcvdnhd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genetics; animal breeding; inbreeding depression; genetic diversity; pedigreed cats; population genetics; SNP array; genetic disorders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00118_WinterSurvivorshipGeneticsSwitchgrass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.9cnp5hqhv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://acsess.onlinelibrary.wiley.com/doi/full/10.1002/tpg2.20159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genetic loci associated with winter survivorship in diverse lowland switchgrass populations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High winter mortality limits biomass yield of lowland switchgrass (Panicum virgatum L.) planted in the northern latitudes of North America. Breeding of cold tolerant switchgrass cultivars requires many years due to its perennial growth habit and the unpredictable winter selection pressure that is required to identify winter-hardy individuals. Identification of causal genetic variants for winter survivorship would accelerate the improvement of switchgrass biomass production. The objective of this study was to identify allelic variation associated with winter survivorship in lowland switchgrass populations using bulk segregant analysis (BSA). Twenty-nine lowland switchgrass populations were evaluated for winter survival at two locations in southern Wisconsin and 21 populations with differential winter survivorship were used for BSA. A maximum of 10% of the individuals (8–20) were bulked to create survivor and nonsurvivor DNA pools from each population and location. The DNA pools were evaluated using exome capture sequencing, and allele frequencies were used to conduct statistical tests. The BSA tests revealed nine quatitative trait loci (QTL) from tetraploid populations and seven QTL from octoploid populations. Many QTL were population-specific, but some were identified in multiple populations that originated across a broad geographic landscape. Four QTL (at positions 88 Mb on chromosome 2N, 115 Mb on chromosome 5K, and 1 and 100 Mb on chromosome 9N) were potentially the most useful QTL. Markers associated with winter survivorship in this study can be used to accelerate breeding cycles of lowland switchgrass populations and should lead to improvements in adaptation within USDA hardiness zones 4 and 5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.9cnp5hqhv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">switchgrass biomass production; winter survival; genetic variants; bulk segregant analysis; quantitative trait loci; exome capture sequencing; plant breeding; cold tolerance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00119_GenomicDiversityComparisonHallersAlyssum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.11jp5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://link.springer.com/article/10.1186/s12864-016-3459-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimating genomic diversity and population differentiation – an empirical comparison of microsatellite and SNP variation in Arabidopsis halleri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Microsatellite markers are widely used for estimating genetic diversity within and differentiation among populations. However, it has rarely been tested whether such estimates are useful proxies for genome-wide patterns of variation and differentiation. Here, we compared microsatellite variation with genome-wide single nucleotide polymorphisms (SNPs) to assess and quantify potential marker-specific biases and derive recommendations for future studies. Overall, we genotyped 180 Arabidopsis halleri individuals from nine populations using 20 microsatellite markers. Twelve of these markers were originally developed for Arabidopsis thaliana (cross-species markers) and eight for A. halleri (species-specific markers). We further characterized 2 million SNPs across the genome with a pooled whole-genome re-sequencing approach (Pool-Seq).
+Results
+Our analyses revealed that estimates of genetic diversity and differentiation derived from cross-species and species-specific microsatellites differed substantially and that expected microsatellite heterozygosity (SSR-H e) was not significantly correlated with genome-wide SNP diversity estimates (SNP-H e and θ Watterson) in A. halleri. Instead, microsatellite allelic richness (A r) was a better proxy for genome-wide SNP diversity. Estimates of genetic differentiation among populations (F ST) based on both marker types were correlated, but microsatellite-based estimates were significantly larger than those from SNPs. Possible causes include the limited number of microsatellite markers used, marker ascertainment bias, as well as the high variance in microsatellite-derived estimates. In contrast, genome-wide SNP data provided unbiased estimates of genetic diversity independent of whether genome- or only exome-wide SNPs were used. Further, we inferred that a few thousand random SNPs are sufficient to reliably estimate genome-wide diversity and to distinguish among populations differing in genetic variation.
+Conclusions
+We recommend that future analyses of genetic diversity within and differentiation among populations use randomly selected high-throughput sequencing-based SNP data to draw conclusions on genome-wide diversity patterns. In species comparable to A. halleri, a few thousand SNPs are sufficient to achieve this goal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arabidopsis halleri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haller's Alyssum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.11jp5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genetic diversity; microsatellites; SNPs; genome-wide analysis; Arabidopsis halleri; population differentiation; genetic markers; high-throughput sequencing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00120_GeneticMapApplicationWaterflea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.qk8fj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bmcgenomics.biomedcentral.com/articles/10.1186/1471-2164-15-1033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An SNP-based second-generation genetic map of Daphnia magna and its application to QTL analysis of phenotypic traits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Although Daphnia is increasingly recognized as a model for ecological genomics and biomedical research, there is, as of yet, no high-resolution genetic map for the genus. Such a map would provide an important tool for mapping phenotypes and assembling the genome. Here we estimate the genome size of Daphnia magna and describe the construction of an SNP array based linkage map. We then test the suitability of the map for life history and behavioural trait mapping. The two parent genotypes used to produce the map derived from D. magna populations with and without fish predation, respectively and are therefore expected to show divergent behaviour and life-histories.
+Results
+Using flow cytometry we estimated the genome size of D. magna to be about 238 mb. We developed an SNP array tailored to type SNPs in a D. magna F2 panel and used it to construct a D. magna linkage map, which included 1,324 informative markers. The map produced ten linkage groups ranging from 108.9 to 203.6 cM, with an average distance between markers of 1.13 cM and a total map length of 1,483.6 cM (Kosambi corrected). The physical length per cM is estimated to be 160 kb. Mapping infertility genes, life history traits and behavioural traits on this map revealed several significant QTL peaks and showed a complex pattern of underlying genetics, with different traits showing strongly different genetic architectures.
+Conclusions
+The new linkage map of D. magna constructed here allowed us to characterize genetic differences among parent genotypes from populations with ecological differences. The QTL effect plots are partially consistent with our expectation of local adaptation under contrasting predation regimes. Furthermore, the new genetic map will be an important tool for the Daphnia research community and will contribute to the physical map of the D. magna genome project and the further mapping of phenotypic traits. The clones used to produce the linkage map are maintained in a stock collection and can be used for mapping QTLs of traits that show variance among the F2 clones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daphnia magna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water flea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.qk8fj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genetic mapping; Daphnia magna; SNP array; linkage groups; QTL analysis; ecological genomics; behavioral traits; life history traits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00121_GlobalDiseaseVectorHousefly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.0gb5mkkxf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://link.springer.com/article/10.1186/s12864-020-6445-z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrated genome-wide investigations of the housefly, a global vector of diseases reveal unique dispersal patterns and bacterial communities across farms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Houseflies (Musca domestica L.) live in intimate association with numerous microorganisms and is a vector of human pathogens. In temperate areas, houseflies will overwinter in environments constructed by humans and recolonize surrounding areas in early summer. However, the dispersal patterns and associated bacteria across season and location are unclear. We used genotyping-by-sequencing (GBS) for the simultaneous identification and genotyping of thousands of Single Nucleotide Polymorphisms (SNPs) to establish dispersal patterns of houseflies across farms. Secondly, we used 16S rRNA gene amplicon sequencing to establish the variation and association between bacterial communities and the housefly across farms.
+Results
+Using GBS we identified 18,000 SNPs across 400 individuals sampled within and between 11 dairy farms in Denmark. There was evidence for sub-structuring of Danish housefly populations and with genetic structure that differed across season and sex. Further, there was a strong isolation by distance (IBD) effect, but with large variation suggesting that other hidden geographic barriers are important. Large individual variations were observed in the community structure of the microbiome and it was found to be dependent on location, sex, and collection time. Furthermore, the relative prevalence of putative pathogens was highly dependent on location and collection time.
+Conclusion
+We were able to identify SNPs for the determination of the spatiotemporal housefly genetic structure, and to establish the variation and association between bacterial communities and the housefly across farms using novel next-generation sequencing (NGS) techniques. These results are important for disease prevention given the fine-scale population structure and IBD for the housefly, and that individual houseflies carry location specific bacteria including putative pathogens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musca domestica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Housefly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.0gb5mkkxf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musca domestica; genotyping-by-sequencing (GBS); 16S rRNA gene sequencing; population genetics; microbial communities; pathogen transmission; next-generation sequencing (NGS); spatial analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00122_GenomicDiversityAnalysisSorghum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.5n2bs6r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdnsciencepub.com/doi/10.1139/gen-2017-0131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population genomics of sorghum (Sorghum bicolor) across diverse agroclimatic zones of Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improving adaptation of staple crops in developing countries is important to ensure food security. In the West African country of Niger, the staple crop sorghum (Sorghum bicolor) is cultivated across diverse agroclimatic zones, but the genetic basis of local adaptation has not been described. The objectives of this study were to characterize the genomic diversity of sorghum from Niger and to identify genomic regions conferring local adaptation to agroclimatic zones and farmer preferences. We analyzed 516 Nigerien accessions for which local variety name, botanical race, and geographic origin were known. We discovered 144 299 single nucleotide polymorphisms (SNPs) using genotyping-by-sequencing (GBS). We performed discriminant analysis of principal components (DAPC), which identified six genetic groups, and performed a genome scan for loci with high discriminant loadings. The highest discriminant coefficients were on chromosome 9, near the putative ortholog of maize flowering time adaptation gene Vgt1. Next, we characterized differentiation among local varieties and used a genome scan of pairwise FST values to identify SNPs associated with specific local varieties. Comparison of varieties named for light- versus dark-grain identified differentiation near Tannin1, the major gene responsible for grain tannins. These findings could facilitate genomics-assisted breeding of locally adapted and farmer-preferred sorghum varieties for Niger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.5n2bs6r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sorghum-genetics; genomics-assisted-breeding; local-adaptation; food-security; genetic-diversity; single-nucleotide-polymorphisms; West-Africa; agroclimatic-zones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00123_PopulationGenomicsImplicationsSpongyMoth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.wwpzgmsp5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/10.1111/eva.13522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range-wide population genomics of the spongy moth, Lymantria dispar (Erebidae): Implications for biosurveillance, subspecies classification and phylogeography of a destructive moth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The spongy moth, Lymantria dispar, is an irruptive forest pest native to Eurasia where its range extends from coast to coast and overspills into northern Africa. Accidentally introduced from Europe in Massachusetts in 1868–1869, it is now established in North America where it is considered a highly destructive invasive pest. A fine‐scale characterization of its population genetic structure would facilitate identification of source populations for specimens intercepted during ship inspections in North America and would enable mapping of introduction pathways to help prevent future incursions into novel environments. In addition, detailed knowledge of L. dispar's global population structure would provide new insight into the adequacy of its current subspecies classification system and its phylogeographic history. To address these issues, we generated &gt;2000 genotyping‐by‐sequencing‐derived SNPs from 1445 contemporary specimens sampled at 65 locations in 25 countries/3 continents. Using multiple analytical approaches, we identified eight subpopulations that could be further partitioned into 28 groups, achieving unprecedented resolution for this species' population structure. Although reconciliation between these groupings and the three currently recognized subspecies proved to be challenging, our genetic data confirmed circumscription of the japonica subspecies to Japan. However, the genetic cline observed across continental Eurasia, from L. dispar asiatica in East Asia to L. d. dispar in Western Europe, points to the absence of a sharp geographical boundary (e.g., the Ural Mountains) between these two subspecies, as suggested earlier. Importantly, moths from North America and the Caucasus/Middle East displayed high enough genetic distances from other populations to warrant their consideration as separate subspecies of L. dispar. Finally, in contrast with earlier mtDNA‐based investigations that identified the Caucasus as L. dispar's place of origin, our analyses suggest continental East Asia as its evolutionary cradle, from where it spread to Central Asia and Europe, and to Japan through Korea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymantria dispar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spongy Moth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datadryad.org/stash/dataset/doi:10.5061/dryad.wwpzgmsp5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invasive species; forest pest management; genetic diversity; population genetics; phylogeography; genotyping-by-sequencing; subspecies classification; biogeography</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2942,15 +2962,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -3232,16 +3243,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:XFD91"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3291,7 +3300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3328,10 +3337,10 @@
       <c r="L2" t="b">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>381</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>20003</v>
       </c>
       <c r="O2" t="s">
@@ -3341,7 +3350,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -3378,10 +3387,10 @@
       <c r="L3" t="b">
         <v>0</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>94</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>44120</v>
       </c>
       <c r="O3" t="s">
@@ -3391,7 +3400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -3428,10 +3437,10 @@
       <c r="L4" t="b">
         <v>0</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>344</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>207982</v>
       </c>
       <c r="O4" t="s">
@@ -3441,7 +3450,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -3478,10 +3487,10 @@
       <c r="L5" t="b">
         <v>0</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>336</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>62003</v>
       </c>
       <c r="O5" t="s">
@@ -3491,7 +3500,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -3528,10 +3537,10 @@
       <c r="L6" t="b">
         <v>1</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>1033</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>422405</v>
       </c>
       <c r="O6" t="s">
@@ -3541,7 +3550,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -3578,10 +3587,10 @@
       <c r="L7" t="b">
         <v>1</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>1543</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>86086</v>
       </c>
       <c r="O7" t="s">
@@ -3591,7 +3600,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -3628,10 +3637,10 @@
       <c r="L8" t="b">
         <v>0</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>26</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>5566</v>
       </c>
       <c r="O8" t="s">
@@ -3641,7 +3650,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -3678,10 +3687,10 @@
       <c r="L9" t="b">
         <v>0</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>96</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>86285</v>
       </c>
       <c r="O9" t="s">
@@ -3691,7 +3700,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -3728,10 +3737,10 @@
       <c r="L10" t="b">
         <v>0</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>622</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>126678</v>
       </c>
       <c r="O10" t="s">
@@ -3741,7 +3750,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -3778,10 +3787,10 @@
       <c r="L11" t="b">
         <v>0</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>1021</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>74876</v>
       </c>
       <c r="O11" t="s">
@@ -3791,7 +3800,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -3828,10 +3837,10 @@
       <c r="L12" t="b">
         <v>0</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>4653</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>53347</v>
       </c>
       <c r="O12" t="s">
@@ -3841,7 +3850,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -3878,10 +3887,10 @@
       <c r="L13" t="b">
         <v>0</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>642</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="n">
         <v>65227</v>
       </c>
       <c r="O13" t="s">
@@ -3891,7 +3900,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -3928,10 +3937,10 @@
       <c r="L14" t="b">
         <v>0</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>288</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="n">
         <v>30095</v>
       </c>
       <c r="O14" t="s">
@@ -3941,7 +3950,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -3978,10 +3987,10 @@
       <c r="L15" t="b">
         <v>0</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <v>119</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="n">
         <v>45749</v>
       </c>
       <c r="O15" t="s">
@@ -3991,7 +4000,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>143</v>
       </c>
@@ -4028,10 +4037,10 @@
       <c r="L16" t="b">
         <v>0</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>1872</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="n">
         <v>74200</v>
       </c>
       <c r="O16" t="s">
@@ -4041,7 +4050,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>152</v>
       </c>
@@ -4078,10 +4087,10 @@
       <c r="L17" t="b">
         <v>0</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="n">
         <v>232</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="n">
         <v>43004</v>
       </c>
       <c r="O17" t="s">
@@ -4091,7 +4100,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>161</v>
       </c>
@@ -4128,10 +4137,10 @@
       <c r="L18" t="b">
         <v>1</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="n">
         <v>768</v>
       </c>
-      <c r="N18">
+      <c r="N18" t="n">
         <v>24807</v>
       </c>
       <c r="O18" t="s">
@@ -4141,7 +4150,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>170</v>
       </c>
@@ -4178,10 +4187,10 @@
       <c r="L19" t="b">
         <v>0</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <v>462</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="n">
         <v>41340</v>
       </c>
       <c r="O19" t="s">
@@ -4191,7 +4200,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>179</v>
       </c>
@@ -4228,10 +4237,10 @@
       <c r="L20" t="b">
         <v>0</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="n">
         <v>599</v>
       </c>
-      <c r="N20">
+      <c r="N20" t="n">
         <v>1279</v>
       </c>
       <c r="O20" t="s">
@@ -4241,7 +4250,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>186</v>
       </c>
@@ -4278,10 +4287,10 @@
       <c r="L21" t="b">
         <v>0</v>
       </c>
-      <c r="M21">
+      <c r="M21" t="n">
         <v>5000</v>
       </c>
-      <c r="N21">
+      <c r="N21" t="n">
         <v>1328174</v>
       </c>
       <c r="O21" t="s">
@@ -4291,7 +4300,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>195</v>
       </c>
@@ -4328,10 +4337,10 @@
       <c r="L22" t="b">
         <v>0</v>
       </c>
-      <c r="M22">
+      <c r="M22" t="n">
         <v>279</v>
       </c>
-      <c r="N22">
+      <c r="N22" t="n">
         <v>50896</v>
       </c>
       <c r="O22" t="s">
@@ -4341,7 +4350,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>203</v>
       </c>
@@ -4378,10 +4387,10 @@
       <c r="L23" t="b">
         <v>0</v>
       </c>
-      <c r="M23">
+      <c r="M23" t="n">
         <v>352</v>
       </c>
-      <c r="N23">
+      <c r="N23" t="n">
         <v>36901</v>
       </c>
       <c r="O23" t="s">
@@ -4391,7 +4400,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>207</v>
       </c>
@@ -4428,10 +4437,10 @@
       <c r="L24" t="b">
         <v>0</v>
       </c>
-      <c r="M24">
+      <c r="M24" t="n">
         <v>346</v>
       </c>
-      <c r="N24">
+      <c r="N24" t="n">
         <v>31260</v>
       </c>
       <c r="O24" t="s">
@@ -4441,7 +4450,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>211</v>
       </c>
@@ -4478,10 +4487,10 @@
       <c r="L25" t="b">
         <v>0</v>
       </c>
-      <c r="M25">
+      <c r="M25" t="n">
         <v>2749</v>
       </c>
-      <c r="N25">
+      <c r="N25" t="n">
         <v>28258</v>
       </c>
       <c r="O25" t="s">
@@ -4491,7 +4500,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>218</v>
       </c>
@@ -4528,10 +4537,10 @@
       <c r="L26" t="b">
         <v>0</v>
       </c>
-      <c r="M26">
+      <c r="M26" t="n">
         <v>4833</v>
       </c>
-      <c r="N26">
+      <c r="N26" t="n">
         <v>51638</v>
       </c>
       <c r="O26" t="s">
@@ -4541,7 +4550,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>227</v>
       </c>
@@ -4578,10 +4587,10 @@
       <c r="L27" t="b">
         <v>0</v>
       </c>
-      <c r="M27">
+      <c r="M27" t="n">
         <v>1028</v>
       </c>
-      <c r="N27">
+      <c r="N27" t="n">
         <v>44536</v>
       </c>
       <c r="O27" t="s">
@@ -4591,7 +4600,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>236</v>
       </c>
@@ -4628,10 +4637,10 @@
       <c r="L28" t="b">
         <v>0</v>
       </c>
-      <c r="M28">
+      <c r="M28" t="n">
         <v>5581</v>
       </c>
-      <c r="N28">
+      <c r="N28" t="n">
         <v>24542</v>
       </c>
       <c r="O28" t="s">
@@ -4641,7 +4650,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>245</v>
       </c>
@@ -4678,10 +4687,10 @@
       <c r="L29" t="b">
         <v>0</v>
       </c>
-      <c r="M29">
+      <c r="M29" t="n">
         <v>1557</v>
       </c>
-      <c r="N29">
+      <c r="N29" t="n">
         <v>77496</v>
       </c>
       <c r="O29" t="s">
@@ -4691,7 +4700,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>254</v>
       </c>
@@ -4728,10 +4737,10 @@
       <c r="L30" t="b">
         <v>0</v>
       </c>
-      <c r="M30">
+      <c r="M30" t="n">
         <v>1559</v>
       </c>
-      <c r="N30">
+      <c r="N30" t="n">
         <v>80591</v>
       </c>
       <c r="O30" t="s">
@@ -4741,7 +4750,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>256</v>
       </c>
@@ -4778,10 +4787,10 @@
       <c r="L31" t="b">
         <v>0</v>
       </c>
-      <c r="M31">
+      <c r="M31" t="n">
         <v>3528</v>
       </c>
-      <c r="N31">
+      <c r="N31" t="n">
         <v>4613</v>
       </c>
       <c r="O31" t="s">
@@ -4791,7 +4800,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>263</v>
       </c>
@@ -4828,10 +4837,10 @@
       <c r="L32" t="b">
         <v>0</v>
       </c>
-      <c r="M32">
+      <c r="M32" t="n">
         <v>1325</v>
       </c>
-      <c r="N32">
+      <c r="N32" t="n">
         <v>11155</v>
       </c>
       <c r="O32" t="s">
@@ -4841,7 +4850,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
         <v>271</v>
       </c>
@@ -4878,10 +4887,10 @@
       <c r="L33" t="b">
         <v>0</v>
       </c>
-      <c r="M33">
+      <c r="M33" t="n">
         <v>246</v>
       </c>
-      <c r="N33">
+      <c r="N33" t="n">
         <v>41722</v>
       </c>
       <c r="O33" t="s">
@@ -4891,7 +4900,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" t="s">
         <v>277</v>
       </c>
@@ -4928,10 +4937,10 @@
       <c r="L34" t="b">
         <v>0</v>
       </c>
-      <c r="M34">
+      <c r="M34" t="n">
         <v>178</v>
       </c>
-      <c r="N34">
+      <c r="N34" t="n">
         <v>3754</v>
       </c>
       <c r="O34" t="s">
@@ -4941,7 +4950,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" t="s">
         <v>287</v>
       </c>
@@ -4978,10 +4987,10 @@
       <c r="L35" t="b">
         <v>0</v>
       </c>
-      <c r="M35">
+      <c r="M35" t="n">
         <v>71</v>
       </c>
-      <c r="N35">
+      <c r="N35" t="n">
         <v>2957</v>
       </c>
       <c r="O35" t="s">
@@ -4991,7 +5000,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" t="s">
         <v>289</v>
       </c>
@@ -5028,10 +5037,10 @@
       <c r="L36" t="b">
         <v>0</v>
       </c>
-      <c r="M36">
+      <c r="M36" t="n">
         <v>362</v>
       </c>
-      <c r="N36">
+      <c r="N36" t="n">
         <v>3823</v>
       </c>
       <c r="O36" t="s">
@@ -5041,7 +5050,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" t="s">
         <v>291</v>
       </c>
@@ -5078,10 +5087,10 @@
       <c r="L37" t="b">
         <v>0</v>
       </c>
-      <c r="M37">
+      <c r="M37" t="n">
         <v>2079</v>
       </c>
-      <c r="N37">
+      <c r="N37" t="n">
         <v>22535</v>
       </c>
       <c r="O37" t="s">
@@ -5091,7 +5100,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" t="s">
         <v>298</v>
       </c>
@@ -5128,10 +5137,10 @@
       <c r="L38" t="b">
         <v>0</v>
       </c>
-      <c r="M38">
+      <c r="M38" t="n">
         <v>273</v>
       </c>
-      <c r="N38">
+      <c r="N38" t="n">
         <v>3419673</v>
       </c>
       <c r="O38" t="s">
@@ -5141,7 +5150,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" t="s">
         <v>307</v>
       </c>
@@ -5178,10 +5187,10 @@
       <c r="L39" t="b">
         <v>0</v>
       </c>
-      <c r="M39">
+      <c r="M39" t="n">
         <v>178</v>
       </c>
-      <c r="N39">
+      <c r="N39" t="n">
         <v>5680</v>
       </c>
       <c r="O39" t="s">
@@ -5191,7 +5200,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" t="s">
         <v>316</v>
       </c>
@@ -5228,10 +5237,10 @@
       <c r="L40" t="b">
         <v>0</v>
       </c>
-      <c r="M40">
+      <c r="M40" t="n">
         <v>206</v>
       </c>
-      <c r="N40">
+      <c r="N40" t="n">
         <v>5337</v>
       </c>
       <c r="O40" t="s">
@@ -5241,7 +5250,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" t="s">
         <v>326</v>
       </c>
@@ -5278,10 +5287,10 @@
       <c r="L41" t="b">
         <v>0</v>
       </c>
-      <c r="M41">
+      <c r="M41" t="n">
         <v>367</v>
       </c>
-      <c r="N41">
+      <c r="N41" t="n">
         <v>24957</v>
       </c>
       <c r="O41" t="s">
@@ -5291,7 +5300,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42" t="s">
         <v>335</v>
       </c>
@@ -5328,10 +5337,10 @@
       <c r="L42" t="b">
         <v>0</v>
       </c>
-      <c r="M42">
+      <c r="M42" t="n">
         <v>481</v>
       </c>
-      <c r="N42">
+      <c r="N42" t="n">
         <v>5820</v>
       </c>
       <c r="O42" t="s">
@@ -5341,7 +5350,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43" t="s">
         <v>344</v>
       </c>
@@ -5378,10 +5387,10 @@
       <c r="L43" t="b">
         <v>0</v>
       </c>
-      <c r="M43">
+      <c r="M43" t="n">
         <v>1734</v>
       </c>
-      <c r="N43">
+      <c r="N43" t="n">
         <v>7714</v>
       </c>
       <c r="O43" t="s">
@@ -5391,7 +5400,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" t="s">
         <v>353</v>
       </c>
@@ -5428,10 +5437,10 @@
       <c r="L44" t="b">
         <v>0</v>
       </c>
-      <c r="M44">
+      <c r="M44" t="n">
         <v>48</v>
       </c>
-      <c r="N44">
+      <c r="N44" t="n">
         <v>14031</v>
       </c>
       <c r="O44" t="s">
@@ -5441,7 +5450,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45" t="s">
         <v>362</v>
       </c>
@@ -5478,10 +5487,10 @@
       <c r="L45" t="b">
         <v>1</v>
       </c>
-      <c r="M45">
+      <c r="M45" t="n">
         <v>1385</v>
       </c>
-      <c r="N45">
+      <c r="N45" t="n">
         <v>12297</v>
       </c>
       <c r="O45" t="s">
@@ -5491,7 +5500,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="A46" t="s">
         <v>371</v>
       </c>
@@ -5528,10 +5537,10 @@
       <c r="L46" t="b">
         <v>1</v>
       </c>
-      <c r="M46">
+      <c r="M46" t="n">
         <v>691</v>
       </c>
-      <c r="N46">
+      <c r="N46" t="n">
         <v>64640</v>
       </c>
       <c r="O46" t="s">
@@ -5541,7 +5550,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47" t="s">
         <v>380</v>
       </c>
@@ -5578,10 +5587,10 @@
       <c r="L47" t="b">
         <v>0</v>
       </c>
-      <c r="M47">
+      <c r="M47" t="n">
         <v>672</v>
       </c>
-      <c r="N47">
+      <c r="N47" t="n">
         <v>60728</v>
       </c>
       <c r="O47" t="s">
@@ -5591,7 +5600,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="A48" t="s">
         <v>390</v>
       </c>
@@ -5628,10 +5637,10 @@
       <c r="L48" t="b">
         <v>1</v>
       </c>
-      <c r="M48">
+      <c r="M48" t="n">
         <v>1370</v>
       </c>
-      <c r="N48">
+      <c r="N48" t="n">
         <v>116765</v>
       </c>
       <c r="O48" t="s">
@@ -5641,7 +5650,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="A49" t="s">
         <v>399</v>
       </c>
@@ -5678,10 +5687,10 @@
       <c r="L49" t="b">
         <v>0</v>
       </c>
-      <c r="M49">
+      <c r="M49" t="n">
         <v>16</v>
       </c>
-      <c r="N49">
+      <c r="N49" t="n">
         <v>17901</v>
       </c>
       <c r="O49" t="s">
@@ -5691,7 +5700,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="A50" t="s">
         <v>408</v>
       </c>
@@ -5728,10 +5737,10 @@
       <c r="L50" t="b">
         <v>0</v>
       </c>
-      <c r="M50">
+      <c r="M50" t="n">
         <v>691</v>
       </c>
-      <c r="N50">
+      <c r="N50" t="n">
         <v>58324</v>
       </c>
       <c r="O50" t="s">
@@ -5741,7 +5750,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="A51" t="s">
         <v>415</v>
       </c>
@@ -5778,10 +5787,10 @@
       <c r="L51" t="b">
         <v>1</v>
       </c>
-      <c r="M51">
+      <c r="M51" t="n">
         <v>523</v>
       </c>
-      <c r="N51">
+      <c r="N51" t="n">
         <v>80160</v>
       </c>
       <c r="O51" t="s">
@@ -5791,7 +5800,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="A52" t="s">
         <v>419</v>
       </c>
@@ -5828,10 +5837,10 @@
       <c r="L52" t="b">
         <v>0</v>
       </c>
-      <c r="M52">
+      <c r="M52" t="n">
         <v>198</v>
       </c>
-      <c r="N52">
+      <c r="N52" t="n">
         <v>226</v>
       </c>
       <c r="O52" t="s">
@@ -5841,7 +5850,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="A53" t="s">
         <v>427</v>
       </c>
@@ -5878,10 +5887,10 @@
       <c r="L53" t="b">
         <v>0</v>
       </c>
-      <c r="M53">
+      <c r="M53" t="n">
         <v>5963</v>
       </c>
-      <c r="N53">
+      <c r="N53" t="n">
         <v>54977</v>
       </c>
       <c r="O53" t="s">
@@ -5891,7 +5900,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="A54" t="s">
         <v>436</v>
       </c>
@@ -5928,10 +5937,10 @@
       <c r="L54" t="b">
         <v>0</v>
       </c>
-      <c r="M54">
+      <c r="M54" t="n">
         <v>437</v>
       </c>
-      <c r="N54">
+      <c r="N54" t="n">
         <v>40335</v>
       </c>
       <c r="O54" t="s">
@@ -5941,7 +5950,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="A55" t="s">
         <v>445</v>
       </c>
@@ -5978,10 +5987,10 @@
       <c r="L55" t="b">
         <v>1</v>
       </c>
-      <c r="M55">
+      <c r="M55" t="n">
         <v>1274</v>
       </c>
-      <c r="N55">
+      <c r="N55" t="n">
         <v>12312</v>
       </c>
       <c r="O55" t="s">
@@ -5991,7 +6000,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="A56" t="s">
         <v>454</v>
       </c>
@@ -6028,10 +6037,10 @@
       <c r="L56" t="b">
         <v>0</v>
       </c>
-      <c r="M56">
+      <c r="M56" t="n">
         <v>856</v>
       </c>
-      <c r="N56">
+      <c r="N56" t="n">
         <v>23388</v>
       </c>
       <c r="O56" t="s">
@@ -6041,7 +6050,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="A57" t="s">
         <v>461</v>
       </c>
@@ -6078,10 +6087,10 @@
       <c r="L57" t="b">
         <v>0</v>
       </c>
-      <c r="M57">
+      <c r="M57" t="n">
         <v>309</v>
       </c>
-      <c r="N57">
+      <c r="N57" t="n">
         <v>7864</v>
       </c>
       <c r="O57" t="s">
@@ -6091,7 +6100,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="A58" t="s">
         <v>470</v>
       </c>
@@ -6128,10 +6137,10 @@
       <c r="L58" t="b">
         <v>0</v>
       </c>
-      <c r="M58">
+      <c r="M58" t="n">
         <v>245</v>
       </c>
-      <c r="N58">
+      <c r="N58" t="n">
         <v>4206</v>
       </c>
       <c r="O58" t="s">
@@ -6141,7 +6150,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="A59" t="s">
         <v>479</v>
       </c>
@@ -6178,10 +6187,10 @@
       <c r="L59" t="b">
         <v>0</v>
       </c>
-      <c r="M59">
+      <c r="M59" t="n">
         <v>769</v>
       </c>
-      <c r="N59">
+      <c r="N59" t="n">
         <v>55617</v>
       </c>
       <c r="O59" t="s">
@@ -6191,7 +6200,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="A60" t="s">
         <v>489</v>
       </c>
@@ -6228,10 +6237,10 @@
       <c r="L60" t="b">
         <v>0</v>
       </c>
-      <c r="M60">
+      <c r="M60" t="n">
         <v>951</v>
       </c>
-      <c r="N60">
+      <c r="N60" t="n">
         <v>86504</v>
       </c>
       <c r="O60" t="s">
@@ -6241,7 +6250,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="A61" t="s">
         <v>498</v>
       </c>
@@ -6278,10 +6287,10 @@
       <c r="L61" t="b">
         <v>0</v>
       </c>
-      <c r="M61">
+      <c r="M61" t="n">
         <v>69</v>
       </c>
-      <c r="N61">
+      <c r="N61" t="n">
         <v>756</v>
       </c>
       <c r="O61" t="s">
@@ -6291,7 +6300,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="A62" t="s">
         <v>507</v>
       </c>
@@ -6328,10 +6337,10 @@
       <c r="L62" t="b">
         <v>1</v>
       </c>
-      <c r="M62">
+      <c r="M62" t="n">
         <v>720</v>
       </c>
-      <c r="N62">
+      <c r="N62" t="n">
         <v>64464</v>
       </c>
       <c r="O62" t="s">
@@ -6341,7 +6350,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="A63" t="s">
         <v>516</v>
       </c>
@@ -6378,10 +6387,10 @@
       <c r="L63" t="b">
         <v>1</v>
       </c>
-      <c r="M63">
+      <c r="M63" t="n">
         <v>647</v>
       </c>
-      <c r="N63">
+      <c r="N63" t="n">
         <v>64464</v>
       </c>
       <c r="O63" t="s">
@@ -6391,7 +6400,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="A64" t="s">
         <v>518</v>
       </c>
@@ -6428,10 +6437,10 @@
       <c r="L64" t="b">
         <v>1</v>
       </c>
-      <c r="M64">
+      <c r="M64" t="n">
         <v>342</v>
       </c>
-      <c r="N64">
+      <c r="N64" t="n">
         <v>64464</v>
       </c>
       <c r="O64" t="s">
@@ -6441,7 +6450,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="A65" t="s">
         <v>520</v>
       </c>
@@ -6478,10 +6487,10 @@
       <c r="L65" t="b">
         <v>0</v>
       </c>
-      <c r="M65">
+      <c r="M65" t="n">
         <v>2503</v>
       </c>
-      <c r="N65">
+      <c r="N65" t="n">
         <v>12966</v>
       </c>
       <c r="O65" t="s">
@@ -6491,7 +6500,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="A66" t="s">
         <v>529</v>
       </c>
@@ -6528,10 +6537,10 @@
       <c r="L66" t="b">
         <v>0</v>
       </c>
-      <c r="M66">
+      <c r="M66" t="n">
         <v>245</v>
       </c>
-      <c r="N66">
+      <c r="N66" t="n">
         <v>7216</v>
       </c>
       <c r="O66" t="s">
@@ -6541,7 +6550,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="A67" t="s">
         <v>538</v>
       </c>
@@ -6578,10 +6587,10 @@
       <c r="L67" t="b">
         <v>0</v>
       </c>
-      <c r="M67">
+      <c r="M67" t="n">
         <v>320</v>
       </c>
-      <c r="N67">
+      <c r="N67" t="n">
         <v>116128</v>
       </c>
       <c r="O67" t="s">
@@ -6591,7 +6600,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="A68" t="s">
         <v>547</v>
       </c>
@@ -6628,10 +6637,10 @@
       <c r="L68" t="b">
         <v>0</v>
       </c>
-      <c r="M68">
+      <c r="M68" t="n">
         <v>98</v>
       </c>
-      <c r="N68">
+      <c r="N68" t="n">
         <v>2321</v>
       </c>
       <c r="O68" t="s">
@@ -6641,7 +6650,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="A69" t="s">
         <v>556</v>
       </c>
@@ -6678,10 +6687,10 @@
       <c r="L69" t="b">
         <v>0</v>
       </c>
-      <c r="M69">
+      <c r="M69" t="n">
         <v>2969</v>
       </c>
-      <c r="N69">
+      <c r="N69" t="n">
         <v>17663</v>
       </c>
       <c r="O69" t="s">
@@ -6691,7 +6700,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="A70" t="s">
         <v>566</v>
       </c>
@@ -6728,10 +6737,10 @@
       <c r="L70" t="b">
         <v>0</v>
       </c>
-      <c r="M70">
+      <c r="M70" t="n">
         <v>100</v>
       </c>
-      <c r="N70">
+      <c r="N70" t="n">
         <v>61565</v>
       </c>
       <c r="O70" t="s">
@@ -6741,7 +6750,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="A71" t="s">
         <v>575</v>
       </c>
@@ -6778,10 +6787,10 @@
       <c r="L71" t="b">
         <v>1</v>
       </c>
-      <c r="M71">
+      <c r="M71" t="n">
         <v>3534</v>
       </c>
-      <c r="N71">
+      <c r="N71" t="n">
         <v>52843</v>
       </c>
       <c r="O71" t="s">
@@ -6791,7 +6800,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="A72" t="s">
         <v>584</v>
       </c>
@@ -6828,10 +6837,10 @@
       <c r="L72" t="b">
         <v>0</v>
       </c>
-      <c r="M72">
+      <c r="M72" t="n">
         <v>853</v>
       </c>
-      <c r="N72">
+      <c r="N72" t="n">
         <v>292270</v>
       </c>
       <c r="O72" t="s">
@@ -6841,7 +6850,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="A73" t="s">
         <v>592</v>
       </c>
@@ -6878,10 +6887,10 @@
       <c r="L73" t="b">
         <v>0</v>
       </c>
-      <c r="M73">
+      <c r="M73" t="n">
         <v>96</v>
       </c>
-      <c r="N73">
+      <c r="N73" t="n">
         <v>2131362</v>
       </c>
       <c r="O73" t="s">
@@ -6891,7 +6900,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="A74" t="s">
         <v>601</v>
       </c>
@@ -6928,10 +6937,10 @@
       <c r="L74" t="b">
         <v>0</v>
       </c>
-      <c r="M74">
+      <c r="M74" t="n">
         <v>5180</v>
       </c>
-      <c r="N74">
+      <c r="N74" t="n">
         <v>4312</v>
       </c>
       <c r="O74" t="s">
@@ -6941,7 +6950,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="A75" t="s">
         <v>608</v>
       </c>
@@ -6978,10 +6987,10 @@
       <c r="L75" t="b">
         <v>0</v>
       </c>
-      <c r="M75">
+      <c r="M75" t="n">
         <v>413</v>
       </c>
-      <c r="N75">
+      <c r="N75" t="n">
         <v>73802</v>
       </c>
       <c r="O75" t="s">
@@ -6991,7 +7000,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="A76" t="s">
         <v>616</v>
       </c>
@@ -7028,10 +7037,10 @@
       <c r="L76" t="b">
         <v>0</v>
       </c>
-      <c r="M76">
+      <c r="M76" t="n">
         <v>1005</v>
       </c>
-      <c r="N76">
+      <c r="N76" t="n">
         <v>56110</v>
       </c>
       <c r="O76" t="s">
@@ -7041,7 +7050,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="A77" t="s">
         <v>621</v>
       </c>
@@ -7078,10 +7087,10 @@
       <c r="L77" t="b">
         <v>0</v>
       </c>
-      <c r="M77">
+      <c r="M77" t="n">
         <v>1428</v>
       </c>
-      <c r="N77">
+      <c r="N77" t="n">
         <v>4549828</v>
       </c>
       <c r="O77" t="s">
@@ -7091,7 +7100,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="A78" t="s">
         <v>629</v>
       </c>
@@ -7128,10 +7137,10 @@
       <c r="L78" t="b">
         <v>0</v>
       </c>
-      <c r="M78">
+      <c r="M78" t="n">
         <v>5820</v>
       </c>
-      <c r="N78">
+      <c r="N78" t="n">
         <v>156269</v>
       </c>
       <c r="O78" t="s">
@@ -7141,7 +7150,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="A79" t="s">
         <v>636</v>
       </c>
@@ -7178,10 +7187,10 @@
       <c r="L79" t="b">
         <v>0</v>
       </c>
-      <c r="M79">
+      <c r="M79" t="n">
         <v>279</v>
       </c>
-      <c r="N79">
+      <c r="N79" t="n">
         <v>50878</v>
       </c>
       <c r="O79" t="s">
@@ -7191,7 +7200,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="A80" t="s">
         <v>638</v>
       </c>
@@ -7228,10 +7237,10 @@
       <c r="L80" t="b">
         <v>0</v>
       </c>
-      <c r="M80">
+      <c r="M80" t="n">
         <v>368</v>
       </c>
-      <c r="N80">
+      <c r="N80" t="n">
         <v>100000</v>
       </c>
       <c r="O80" t="s">
@@ -7241,7 +7250,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="A81" t="s">
         <v>640</v>
       </c>
@@ -7278,10 +7287,10 @@
       <c r="L81" t="b">
         <v>0</v>
       </c>
-      <c r="M81">
+      <c r="M81" t="n">
         <v>210</v>
       </c>
-      <c r="N81">
+      <c r="N81" t="n">
         <v>1619</v>
       </c>
       <c r="O81" t="s">
@@ -7291,7 +7300,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="A82" t="s">
         <v>642</v>
       </c>
@@ -7328,10 +7337,10 @@
       <c r="L82" t="b">
         <v>0</v>
       </c>
-      <c r="M82">
+      <c r="M82" t="n">
         <v>22</v>
       </c>
-      <c r="N82">
+      <c r="N82" t="n">
         <v>1139469</v>
       </c>
       <c r="O82" t="s">
@@ -7341,7 +7350,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="A83" t="s">
         <v>651</v>
       </c>
@@ -7378,10 +7387,10 @@
       <c r="L83" t="b">
         <v>0</v>
       </c>
-      <c r="M83">
+      <c r="M83" t="n">
         <v>1719</v>
       </c>
-      <c r="N83">
+      <c r="N83" t="n">
         <v>381669</v>
       </c>
       <c r="O83" t="s">
@@ -7391,7 +7400,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="A84" t="s">
         <v>660</v>
       </c>
@@ -7428,10 +7437,10 @@
       <c r="L84" t="b">
         <v>0</v>
       </c>
-      <c r="M84">
+      <c r="M84" t="n">
         <v>76</v>
       </c>
-      <c r="N84">
+      <c r="N84" t="n">
         <v>3777</v>
       </c>
       <c r="O84" t="s">
@@ -7441,7 +7450,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="A85" t="s">
         <v>669</v>
       </c>
@@ -7478,10 +7487,10 @@
       <c r="L85" t="b">
         <v>0</v>
       </c>
-      <c r="M85">
+      <c r="M85" t="n">
         <v>343</v>
       </c>
-      <c r="N85">
+      <c r="N85" t="n">
         <v>8336</v>
       </c>
       <c r="O85" t="s">
@@ -7491,7 +7500,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="A86" t="s">
         <v>678</v>
       </c>
@@ -7528,10 +7537,10 @@
       <c r="L86" t="b">
         <v>0</v>
       </c>
-      <c r="M86">
+      <c r="M86" t="n">
         <v>369</v>
       </c>
-      <c r="N86">
+      <c r="N86" t="n">
         <v>108024</v>
       </c>
       <c r="O86" t="s">
@@ -7541,7 +7550,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="A87" t="s">
         <v>685</v>
       </c>
@@ -7578,10 +7587,10 @@
       <c r="L87" t="b">
         <v>0</v>
       </c>
-      <c r="M87">
+      <c r="M87" t="n">
         <v>594</v>
       </c>
-      <c r="N87">
+      <c r="N87" t="n">
         <v>46177</v>
       </c>
       <c r="O87" t="s">
@@ -7591,7 +7600,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="A88" t="s">
         <v>694</v>
       </c>
@@ -7628,10 +7637,10 @@
       <c r="L88" t="b">
         <v>0</v>
       </c>
-      <c r="M88">
+      <c r="M88" t="n">
         <v>517</v>
       </c>
-      <c r="N88">
+      <c r="N88" t="n">
         <v>1023010</v>
       </c>
       <c r="O88" t="s">
@@ -7641,7 +7650,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="A89" t="s">
         <v>702</v>
       </c>
@@ -7678,10 +7687,10 @@
       <c r="L89" t="b">
         <v>0</v>
       </c>
-      <c r="M89">
+      <c r="M89" t="n">
         <v>96</v>
       </c>
-      <c r="N89">
+      <c r="N89" t="n">
         <v>39319456</v>
       </c>
       <c r="O89" t="s">
@@ -7691,7 +7700,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="A90" t="s">
         <v>711</v>
       </c>
@@ -7728,10 +7737,10 @@
       <c r="L90" t="b">
         <v>0</v>
       </c>
-      <c r="M90">
+      <c r="M90" t="n">
         <v>263</v>
       </c>
-      <c r="N90">
+      <c r="N90" t="n">
         <v>9593</v>
       </c>
       <c r="O90" t="s">
@@ -7741,30 +7750,30 @@
         <v>719</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="A91" t="s">
-        <v>933</v>
+        <v>720</v>
       </c>
       <c r="B91" t="s">
-        <v>925</v>
+        <v>721</v>
       </c>
       <c r="C91" t="s">
-        <v>926</v>
+        <v>722</v>
       </c>
       <c r="D91" t="s">
-        <v>927</v>
+        <v>723</v>
       </c>
       <c r="E91" t="s">
-        <v>928</v>
+        <v>724</v>
       </c>
       <c r="F91" t="s">
-        <v>929</v>
+        <v>725</v>
       </c>
       <c r="G91" t="s">
-        <v>930</v>
+        <v>726</v>
       </c>
       <c r="H91" t="s">
-        <v>931</v>
+        <v>727</v>
       </c>
       <c r="I91" t="b">
         <v>0</v>
@@ -7778,43 +7787,43 @@
       <c r="L91" t="b">
         <v>0</v>
       </c>
-      <c r="M91">
+      <c r="M91" t="n">
         <v>103</v>
       </c>
-      <c r="N91">
+      <c r="N91" t="n">
         <v>143</v>
       </c>
       <c r="O91" t="s">
         <v>64</v>
       </c>
       <c r="P91" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="A92" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="B92" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="C92" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="D92" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="E92" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="F92" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="G92" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="H92" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="I92" t="b">
         <v>0</v>
@@ -7828,34 +7837,34 @@
       <c r="L92" t="b">
         <v>0</v>
       </c>
-      <c r="M92">
+      <c r="M92" t="n">
         <v>10153</v>
       </c>
-      <c r="N92">
+      <c r="N92" t="n">
         <v>4522</v>
       </c>
       <c r="O92" t="s">
         <v>64</v>
       </c>
       <c r="P92" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="A93" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="B93" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="C93" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="D93" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="E93" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="F93" t="s">
         <v>432</v>
@@ -7864,7 +7873,7 @@
         <v>433</v>
       </c>
       <c r="H93" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="I93" t="b">
         <v>0</v>
@@ -7878,34 +7887,34 @@
       <c r="L93" t="b">
         <v>0</v>
       </c>
-      <c r="M93">
+      <c r="M93" t="n">
         <v>4737</v>
       </c>
-      <c r="N93">
+      <c r="N93" t="n">
         <v>35885</v>
       </c>
       <c r="O93" t="s">
         <v>64</v>
       </c>
       <c r="P93" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="A94" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="B94" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="C94" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="D94" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="E94" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="F94" t="s">
         <v>432</v>
@@ -7914,7 +7923,7 @@
         <v>433</v>
       </c>
       <c r="H94" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="I94" t="b">
         <v>0</v>
@@ -7928,34 +7937,34 @@
       <c r="L94" t="b">
         <v>0</v>
       </c>
-      <c r="M94">
+      <c r="M94" t="n">
         <v>4737</v>
       </c>
-      <c r="N94">
+      <c r="N94" t="n">
         <v>35885</v>
       </c>
       <c r="O94" t="s">
         <v>64</v>
       </c>
       <c r="P94" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="A95" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="B95" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="C95" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="D95" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="E95" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="F95" t="s">
         <v>432</v>
@@ -7964,7 +7973,7 @@
         <v>433</v>
       </c>
       <c r="H95" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="I95" t="b">
         <v>0</v>
@@ -7978,34 +7987,34 @@
       <c r="L95" t="b">
         <v>0</v>
       </c>
-      <c r="M95">
+      <c r="M95" t="n">
         <v>472</v>
       </c>
-      <c r="N95">
+      <c r="N95" t="n">
         <v>36437</v>
       </c>
       <c r="O95" t="s">
         <v>64</v>
       </c>
       <c r="P95" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>749</v>
+      </c>
+      <c r="B96" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="C96" t="s">
         <v>740</v>
       </c>
-      <c r="B96" t="s">
-        <v>730</v>
-      </c>
-      <c r="C96" t="s">
-        <v>731</v>
-      </c>
       <c r="D96" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="E96" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="F96" t="s">
         <v>432</v>
@@ -8014,7 +8023,7 @@
         <v>433</v>
       </c>
       <c r="H96" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="I96" t="b">
         <v>0</v>
@@ -8028,34 +8037,34 @@
       <c r="L96" t="b">
         <v>0</v>
       </c>
-      <c r="M96">
+      <c r="M96" t="n">
         <v>897</v>
       </c>
-      <c r="N96">
+      <c r="N96" t="n">
         <v>36417</v>
       </c>
       <c r="O96" t="s">
         <v>64</v>
       </c>
       <c r="P96" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>751</v>
+      </c>
+      <c r="B97" t="s">
+        <v>739</v>
+      </c>
+      <c r="C97" t="s">
+        <v>740</v>
+      </c>
+      <c r="D97" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="E97" t="s">
         <v>742</v>
-      </c>
-      <c r="B97" t="s">
-        <v>730</v>
-      </c>
-      <c r="C97" t="s">
-        <v>731</v>
-      </c>
-      <c r="D97" t="s">
-        <v>732</v>
-      </c>
-      <c r="E97" t="s">
-        <v>733</v>
       </c>
       <c r="F97" t="s">
         <v>432</v>
@@ -8064,7 +8073,7 @@
         <v>433</v>
       </c>
       <c r="H97" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="I97" t="b">
         <v>0</v>
@@ -8078,34 +8087,34 @@
       <c r="L97" t="b">
         <v>0</v>
       </c>
-      <c r="M97">
+      <c r="M97" t="n">
         <v>890</v>
       </c>
-      <c r="N97">
+      <c r="N97" t="n">
         <v>36432</v>
       </c>
       <c r="O97" t="s">
         <v>64</v>
       </c>
       <c r="P97" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="A98" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="B98" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="C98" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="D98" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="E98" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="F98" t="s">
         <v>432</v>
@@ -8114,7 +8123,7 @@
         <v>433</v>
       </c>
       <c r="H98" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="I98" t="b">
         <v>0</v>
@@ -8128,34 +8137,34 @@
       <c r="L98" t="b">
         <v>0</v>
       </c>
-      <c r="M98">
+      <c r="M98" t="n">
         <v>1126</v>
       </c>
-      <c r="N98">
+      <c r="N98" t="n">
         <v>36254</v>
       </c>
       <c r="O98" t="s">
         <v>64</v>
       </c>
       <c r="P98" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="99">
       <c r="A99" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="B99" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="C99" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="D99" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="E99" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="F99" t="s">
         <v>432</v>
@@ -8164,7 +8173,7 @@
         <v>433</v>
       </c>
       <c r="H99" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="I99" t="b">
         <v>0</v>
@@ -8178,34 +8187,34 @@
       <c r="L99" t="b">
         <v>0</v>
       </c>
-      <c r="M99">
+      <c r="M99" t="n">
         <v>1139</v>
       </c>
-      <c r="N99">
+      <c r="N99" t="n">
         <v>36263</v>
       </c>
       <c r="O99" t="s">
         <v>64</v>
       </c>
       <c r="P99" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="100">
       <c r="A100" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="B100" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="C100" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="D100" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="E100" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="F100" t="s">
         <v>432</v>
@@ -8214,7 +8223,7 @@
         <v>433</v>
       </c>
       <c r="H100" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="I100" t="b">
         <v>0</v>
@@ -8228,43 +8237,43 @@
       <c r="L100" t="b">
         <v>0</v>
       </c>
-      <c r="M100">
+      <c r="M100" t="n">
         <v>1168</v>
       </c>
-      <c r="N100">
+      <c r="N100" t="n">
         <v>36335</v>
       </c>
       <c r="O100" t="s">
         <v>64</v>
       </c>
       <c r="P100" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="101">
       <c r="A101" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="B101" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C101" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="D101" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="E101" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="F101" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="G101" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="H101" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="I101" t="b">
         <v>0</v>
@@ -8278,43 +8287,43 @@
       <c r="L101" t="b">
         <v>0</v>
       </c>
-      <c r="M101">
+      <c r="M101" t="n">
         <v>30</v>
       </c>
-      <c r="N101">
+      <c r="N101" t="n">
         <v>22648</v>
       </c>
       <c r="O101" t="s">
         <v>64</v>
       </c>
       <c r="P101" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="102">
       <c r="A102" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="B102" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="C102" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="D102" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="E102" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="F102" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="G102" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="H102" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="I102" t="b">
         <v>0</v>
@@ -8328,43 +8337,43 @@
       <c r="L102" t="b">
         <v>0</v>
       </c>
-      <c r="M102">
+      <c r="M102" t="n">
         <v>1113</v>
       </c>
-      <c r="N102">
+      <c r="N102" t="n">
         <v>44374</v>
       </c>
       <c r="O102" t="s">
         <v>64</v>
       </c>
       <c r="P102" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="103">
       <c r="A103" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="B103" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="C103" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="D103" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="E103" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="F103" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="G103" t="s">
         <v>209</v>
       </c>
       <c r="H103" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="I103" t="b">
         <v>0</v>
@@ -8378,43 +8387,43 @@
       <c r="L103" t="b">
         <v>0</v>
       </c>
-      <c r="M103">
+      <c r="M103" t="n">
         <v>481</v>
       </c>
-      <c r="N103">
+      <c r="N103" t="n">
         <v>7869806</v>
       </c>
       <c r="O103" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="P103" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="104">
       <c r="A104" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="B104" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="C104" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="D104" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="E104" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="F104" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="G104" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="H104" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="I104" t="b">
         <v>0</v>
@@ -8428,43 +8437,43 @@
       <c r="L104" t="b">
         <v>0</v>
       </c>
-      <c r="M104">
+      <c r="M104" t="n">
         <v>195</v>
       </c>
-      <c r="N104">
+      <c r="N104" t="n">
         <v>19574878</v>
       </c>
       <c r="O104" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="P104" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="105">
       <c r="A105" t="s">
+        <v>796</v>
+      </c>
+      <c r="B105" t="s">
         <v>787</v>
       </c>
-      <c r="B105" t="s">
-        <v>778</v>
-      </c>
       <c r="C105" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="D105" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="E105" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="F105" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="G105" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="H105" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="I105" t="b">
         <v>0</v>
@@ -8478,43 +8487,43 @@
       <c r="L105" t="b">
         <v>0</v>
       </c>
-      <c r="M105">
+      <c r="M105" t="n">
         <v>3171</v>
       </c>
-      <c r="N105">
+      <c r="N105" t="n">
         <v>3941492</v>
       </c>
       <c r="O105" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="P105" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="106">
       <c r="A106" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="B106" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="C106" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
       <c r="D106" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="E106" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="F106" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="G106" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="H106" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="I106" t="b">
         <v>0</v>
@@ -8528,34 +8537,34 @@
       <c r="L106" t="b">
         <v>0</v>
       </c>
-      <c r="M106">
+      <c r="M106" t="n">
         <v>827</v>
       </c>
-      <c r="N106">
+      <c r="N106" t="n">
         <v>161562</v>
       </c>
       <c r="O106" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="P106" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="107">
       <c r="A107" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="B107" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="C107" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="D107" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="E107" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="F107" t="s">
         <v>191</v>
@@ -8564,7 +8573,7 @@
         <v>192</v>
       </c>
       <c r="H107" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="I107" t="b">
         <v>0</v>
@@ -8578,34 +8587,34 @@
       <c r="L107" t="b">
         <v>0</v>
       </c>
-      <c r="M107">
+      <c r="M107" t="n">
         <v>916</v>
       </c>
-      <c r="N107">
+      <c r="N107" t="n">
         <v>61228639</v>
       </c>
       <c r="O107" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="P107" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="108">
       <c r="A108" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="B108" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="C108" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="D108" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="E108" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="F108" t="s">
         <v>191</v>
@@ -8614,7 +8623,7 @@
         <v>192</v>
       </c>
       <c r="H108" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="I108" t="b">
         <v>0</v>
@@ -8628,34 +8637,34 @@
       <c r="L108" t="b">
         <v>0</v>
       </c>
-      <c r="M108">
+      <c r="M108" t="n">
         <v>1210</v>
       </c>
-      <c r="N108">
+      <c r="N108" t="n">
         <v>83153144</v>
       </c>
       <c r="O108" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
       <c r="P108" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="109">
       <c r="A109" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="B109" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="C109" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="D109" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="E109" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="F109" t="s">
         <v>674</v>
@@ -8664,7 +8673,7 @@
         <v>205</v>
       </c>
       <c r="H109" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="I109" t="b">
         <v>0</v>
@@ -8678,34 +8687,34 @@
       <c r="L109" t="b">
         <v>0</v>
       </c>
-      <c r="M109">
+      <c r="M109" t="n">
         <v>1495</v>
       </c>
-      <c r="N109">
+      <c r="N109" t="n">
         <v>1654030</v>
       </c>
       <c r="O109" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="P109" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="110">
       <c r="A110" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="B110" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="C110" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
       <c r="D110" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="E110" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="F110" t="s">
         <v>175</v>
@@ -8714,7 +8723,7 @@
         <v>176</v>
       </c>
       <c r="H110" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
       <c r="I110" t="b">
         <v>0</v>
@@ -8728,34 +8737,34 @@
       <c r="L110" t="b">
         <v>0</v>
       </c>
-      <c r="M110">
+      <c r="M110" t="n">
         <v>10375</v>
       </c>
-      <c r="N110">
+      <c r="N110" t="n">
         <v>17181</v>
       </c>
       <c r="O110" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="P110" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="111">
       <c r="A111" t="s">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="B111" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="C111" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="D111" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="E111" t="s">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="F111" t="s">
         <v>656</v>
@@ -8764,7 +8773,7 @@
         <v>657</v>
       </c>
       <c r="H111" t="s">
-        <v>834</v>
+        <v>843</v>
       </c>
       <c r="I111" t="b">
         <v>0</v>
@@ -8778,34 +8787,34 @@
       <c r="L111" t="b">
         <v>0</v>
       </c>
-      <c r="M111">
+      <c r="M111" t="n">
         <v>540</v>
       </c>
-      <c r="N111">
+      <c r="N111" t="n">
         <v>700236</v>
       </c>
       <c r="O111" t="s">
         <v>64</v>
       </c>
       <c r="P111" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="112">
       <c r="A112" t="s">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="B112" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="C112" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="D112" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="E112" t="s">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="F112" t="s">
         <v>656</v>
@@ -8814,7 +8823,7 @@
         <v>657</v>
       </c>
       <c r="H112" t="s">
-        <v>834</v>
+        <v>843</v>
       </c>
       <c r="I112" t="b">
         <v>0</v>
@@ -8828,34 +8837,34 @@
       <c r="L112" t="b">
         <v>0</v>
       </c>
-      <c r="M112">
+      <c r="M112" t="n">
         <v>167</v>
       </c>
-      <c r="N112">
+      <c r="N112" t="n">
         <v>476005</v>
       </c>
       <c r="O112" t="s">
         <v>64</v>
       </c>
       <c r="P112" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="113">
       <c r="A113" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
       <c r="B113" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="C113" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="D113" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="E113" t="s">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="F113" t="s">
         <v>656</v>
@@ -8864,7 +8873,7 @@
         <v>657</v>
       </c>
       <c r="H113" t="s">
-        <v>834</v>
+        <v>843</v>
       </c>
       <c r="I113" t="b">
         <v>0</v>
@@ -8878,43 +8887,43 @@
       <c r="L113" t="b">
         <v>0</v>
       </c>
-      <c r="M113">
+      <c r="M113" t="n">
         <v>130</v>
       </c>
-      <c r="N113">
+      <c r="N113" t="n">
         <v>400107</v>
       </c>
       <c r="O113" t="s">
         <v>64</v>
       </c>
       <c r="P113" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="114">
       <c r="A114" t="s">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="B114" t="s">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="C114" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="D114" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="E114" t="s">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="F114" t="s">
-        <v>845</v>
+        <v>854</v>
       </c>
       <c r="G114" t="s">
         <v>62</v>
       </c>
       <c r="H114" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="I114" t="b">
         <v>0</v>
@@ -8928,43 +8937,43 @@
       <c r="L114" t="b">
         <v>0</v>
       </c>
-      <c r="M114">
+      <c r="M114" t="n">
         <v>451</v>
       </c>
-      <c r="N114">
+      <c r="N114" t="n">
         <v>777962</v>
       </c>
       <c r="O114" t="s">
         <v>64</v>
       </c>
       <c r="P114" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="115">
       <c r="A115" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="B115" t="s">
-        <v>849</v>
+        <v>858</v>
       </c>
       <c r="C115" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="D115" t="s">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="E115" t="s">
-        <v>852</v>
+        <v>861</v>
       </c>
       <c r="F115" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="G115" t="s">
-        <v>854</v>
+        <v>863</v>
       </c>
       <c r="H115" t="s">
-        <v>855</v>
+        <v>864</v>
       </c>
       <c r="I115" t="b">
         <v>0</v>
@@ -8978,43 +8987,43 @@
       <c r="L115" t="b">
         <v>0</v>
       </c>
-      <c r="M115">
+      <c r="M115" t="n">
         <v>404</v>
       </c>
-      <c r="N115">
+      <c r="N115" t="n">
         <v>14235</v>
       </c>
       <c r="O115" t="s">
         <v>64</v>
       </c>
       <c r="P115" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="116">
       <c r="A116" t="s">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="B116" t="s">
-        <v>858</v>
+        <v>867</v>
       </c>
       <c r="C116" t="s">
-        <v>859</v>
+        <v>868</v>
       </c>
       <c r="D116" t="s">
-        <v>860</v>
+        <v>869</v>
       </c>
       <c r="E116" t="s">
-        <v>861</v>
+        <v>870</v>
       </c>
       <c r="F116" t="s">
-        <v>862</v>
+        <v>871</v>
       </c>
       <c r="G116" t="s">
-        <v>863</v>
+        <v>872</v>
       </c>
       <c r="H116" t="s">
-        <v>864</v>
+        <v>873</v>
       </c>
       <c r="I116" t="b">
         <v>0</v>
@@ -9028,43 +9037,43 @@
       <c r="L116" t="b">
         <v>0</v>
       </c>
-      <c r="M116">
+      <c r="M116" t="n">
         <v>301</v>
       </c>
-      <c r="N116">
+      <c r="N116" t="n">
         <v>6707</v>
       </c>
       <c r="O116" t="s">
         <v>64</v>
       </c>
       <c r="P116" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="117">
       <c r="A117" t="s">
-        <v>866</v>
+        <v>875</v>
       </c>
       <c r="B117" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="C117" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="D117" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="E117" t="s">
-        <v>870</v>
+        <v>879</v>
       </c>
       <c r="F117" t="s">
-        <v>871</v>
+        <v>880</v>
       </c>
       <c r="G117" t="s">
-        <v>872</v>
+        <v>881</v>
       </c>
       <c r="H117" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="I117" t="b">
         <v>0</v>
@@ -9078,43 +9087,43 @@
       <c r="L117" t="b">
         <v>0</v>
       </c>
-      <c r="M117">
+      <c r="M117" t="n">
         <v>78</v>
       </c>
-      <c r="N117">
+      <c r="N117" t="n">
         <v>12638</v>
       </c>
       <c r="O117" t="s">
         <v>64</v>
       </c>
       <c r="P117" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="118">
       <c r="A118" t="s">
-        <v>875</v>
+        <v>884</v>
       </c>
       <c r="B118" t="s">
-        <v>876</v>
+        <v>885</v>
       </c>
       <c r="C118" t="s">
-        <v>877</v>
+        <v>886</v>
       </c>
       <c r="D118" t="s">
-        <v>878</v>
+        <v>887</v>
       </c>
       <c r="E118" t="s">
-        <v>879</v>
+        <v>888</v>
       </c>
       <c r="F118" t="s">
-        <v>880</v>
+        <v>889</v>
       </c>
       <c r="G118" t="s">
-        <v>881</v>
+        <v>890</v>
       </c>
       <c r="H118" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="I118" t="b">
         <v>0</v>
@@ -9128,34 +9137,34 @@
       <c r="L118" t="b">
         <v>0</v>
       </c>
-      <c r="M118">
+      <c r="M118" t="n">
         <v>344</v>
       </c>
-      <c r="N118">
+      <c r="N118" t="n">
         <v>61967</v>
       </c>
       <c r="O118" t="s">
         <v>64</v>
       </c>
       <c r="P118" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="119">
       <c r="A119" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="B119" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
       <c r="C119" t="s">
-        <v>886</v>
+        <v>895</v>
       </c>
       <c r="D119" t="s">
-        <v>887</v>
+        <v>896</v>
       </c>
       <c r="E119" t="s">
-        <v>888</v>
+        <v>897</v>
       </c>
       <c r="F119" t="s">
         <v>656</v>
@@ -9164,7 +9173,7 @@
         <v>657</v>
       </c>
       <c r="H119" t="s">
-        <v>889</v>
+        <v>898</v>
       </c>
       <c r="I119" t="b">
         <v>0</v>
@@ -9178,43 +9187,43 @@
       <c r="L119" t="b">
         <v>0</v>
       </c>
-      <c r="M119">
+      <c r="M119" t="n">
         <v>80</v>
       </c>
-      <c r="N119">
+      <c r="N119" t="n">
         <v>5596351</v>
       </c>
       <c r="O119" t="s">
         <v>64</v>
       </c>
       <c r="P119" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="120">
       <c r="A120" t="s">
-        <v>891</v>
+        <v>900</v>
       </c>
       <c r="B120" t="s">
-        <v>892</v>
+        <v>901</v>
       </c>
       <c r="C120" t="s">
-        <v>893</v>
+        <v>902</v>
       </c>
       <c r="D120" t="s">
-        <v>894</v>
+        <v>903</v>
       </c>
       <c r="E120" t="s">
-        <v>895</v>
+        <v>904</v>
       </c>
       <c r="F120" t="s">
-        <v>896</v>
+        <v>905</v>
       </c>
       <c r="G120" t="s">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="H120" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="I120" t="b">
         <v>0</v>
@@ -9228,43 +9237,43 @@
       <c r="L120" t="b">
         <v>0</v>
       </c>
-      <c r="M120">
+      <c r="M120" t="n">
         <v>180</v>
       </c>
-      <c r="N120">
+      <c r="N120" t="n">
         <v>2178204</v>
       </c>
       <c r="O120" t="s">
         <v>64</v>
       </c>
       <c r="P120" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="121">
       <c r="A121" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="B121" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="C121" t="s">
-        <v>902</v>
+        <v>911</v>
       </c>
       <c r="D121" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="E121" t="s">
-        <v>904</v>
+        <v>913</v>
       </c>
       <c r="F121" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
       <c r="G121" t="s">
-        <v>906</v>
+        <v>915</v>
       </c>
       <c r="H121" t="s">
-        <v>907</v>
+        <v>916</v>
       </c>
       <c r="I121" t="b">
         <v>0</v>
@@ -9278,43 +9287,43 @@
       <c r="L121" t="b">
         <v>0</v>
       </c>
-      <c r="M121">
+      <c r="M121" t="n">
         <v>353</v>
       </c>
-      <c r="N121">
+      <c r="N121" t="n">
         <v>1324</v>
       </c>
       <c r="O121" t="s">
         <v>64</v>
       </c>
       <c r="P121" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="122">
       <c r="A122" t="s">
-        <v>909</v>
+        <v>918</v>
       </c>
       <c r="B122" t="s">
-        <v>910</v>
+        <v>919</v>
       </c>
       <c r="C122" t="s">
-        <v>911</v>
+        <v>920</v>
       </c>
       <c r="D122" t="s">
-        <v>912</v>
+        <v>921</v>
       </c>
       <c r="E122" t="s">
-        <v>913</v>
+        <v>922</v>
       </c>
       <c r="F122" t="s">
-        <v>914</v>
+        <v>923</v>
       </c>
       <c r="G122" t="s">
-        <v>915</v>
+        <v>924</v>
       </c>
       <c r="H122" t="s">
-        <v>916</v>
+        <v>925</v>
       </c>
       <c r="I122" t="b">
         <v>0</v>
@@ -9328,34 +9337,34 @@
       <c r="L122" t="b">
         <v>0</v>
       </c>
-      <c r="M122">
+      <c r="M122" t="n">
         <v>400</v>
       </c>
-      <c r="N122">
+      <c r="N122" t="n">
         <v>1935747</v>
       </c>
       <c r="O122" t="s">
         <v>64</v>
       </c>
       <c r="P122" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="123">
       <c r="A123" t="s">
-        <v>918</v>
+        <v>927</v>
       </c>
       <c r="B123" t="s">
-        <v>919</v>
+        <v>928</v>
       </c>
       <c r="C123" t="s">
-        <v>920</v>
+        <v>929</v>
       </c>
       <c r="D123" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="E123" t="s">
-        <v>922</v>
+        <v>931</v>
       </c>
       <c r="F123" t="s">
         <v>543</v>
@@ -9364,7 +9373,7 @@
         <v>544</v>
       </c>
       <c r="H123" t="s">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="I123" t="b">
         <v>0</v>
@@ -9378,21 +9387,71 @@
       <c r="L123" t="b">
         <v>0</v>
       </c>
-      <c r="M123">
+      <c r="M123" t="n">
         <v>516</v>
       </c>
-      <c r="N123">
+      <c r="N123" t="n">
         <v>144299</v>
       </c>
       <c r="O123" t="s">
         <v>64</v>
       </c>
       <c r="P123" t="s">
-        <v>924</v>
+        <v>933</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>934</v>
+      </c>
+      <c r="B124" t="s">
+        <v>935</v>
+      </c>
+      <c r="C124" t="s">
+        <v>936</v>
+      </c>
+      <c r="D124" t="s">
+        <v>937</v>
+      </c>
+      <c r="E124" t="s">
+        <v>938</v>
+      </c>
+      <c r="F124" t="s">
+        <v>939</v>
+      </c>
+      <c r="G124" t="s">
+        <v>940</v>
+      </c>
+      <c r="H124" t="s">
+        <v>941</v>
+      </c>
+      <c r="I124" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" t="b">
+        <v>0</v>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="b">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1252</v>
+      </c>
+      <c r="N124" t="n">
+        <v>2335</v>
+      </c>
+      <c r="O124" t="s">
+        <v>64</v>
+      </c>
+      <c r="P124" t="s">
+        <v>942</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Meta_Data.xlsx
+++ b/Meta_Data.xlsx
@@ -3382,7 +3382,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -4632,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
@@ -5279,10 +5279,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -6529,10 +6529,10 @@
         <v>0</v>
       </c>
       <c r="J66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" t="b">
         <v>0</v>
@@ -6579,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -6632,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" t="b">
         <v>0</v>
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="b">
         <v>1</v>
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" t="b">
         <v>0</v>
@@ -7332,7 +7332,7 @@
         <v>0</v>
       </c>
       <c r="K82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" t="b">
         <v>0</v>
@@ -7829,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
@@ -8232,7 +8232,7 @@
         <v>1</v>
       </c>
       <c r="K100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100" t="b">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101" t="b">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>1</v>
       </c>
       <c r="K106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106" t="b">
         <v>0</v>
@@ -8679,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109" t="b">
         <v>0</v>
